--- a/Data/exp2-consolidated.xlsx
+++ b/Data/exp2-consolidated.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3143" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4007" uniqueCount="1245">
   <si>
     <t>Ticks</t>
   </si>
@@ -3112,6 +3112,645 @@
   </si>
   <si>
     <t>0.0558</t>
+  </si>
+  <si>
+    <t>635138256417378553</t>
+  </si>
+  <si>
+    <t>22034.2603</t>
+  </si>
+  <si>
+    <t>635138256587538286</t>
+  </si>
+  <si>
+    <t>14670.8392</t>
+  </si>
+  <si>
+    <t>635138256685303878</t>
+  </si>
+  <si>
+    <t>7768.4444</t>
+  </si>
+  <si>
+    <t>635138256832742311</t>
+  </si>
+  <si>
+    <t>11811.6756</t>
+  </si>
+  <si>
+    <t>635138256980580766</t>
+  </si>
+  <si>
+    <t>10979.628</t>
+  </si>
+  <si>
+    <t>635138257137779758</t>
+  </si>
+  <si>
+    <t>13451.7694</t>
+  </si>
+  <si>
+    <t>635138257262016864</t>
+  </si>
+  <si>
+    <t>10907.6239</t>
+  </si>
+  <si>
+    <t>635138257383693823</t>
+  </si>
+  <si>
+    <t>9971.5703</t>
+  </si>
+  <si>
+    <t>635138257474739031</t>
+  </si>
+  <si>
+    <t>8000.4576</t>
+  </si>
+  <si>
+    <t>635138257725093350</t>
+  </si>
+  <si>
+    <t>24314.3907</t>
+  </si>
+  <si>
+    <t>635138258039011305</t>
+  </si>
+  <si>
+    <t>26639.5237</t>
+  </si>
+  <si>
+    <t>635138258225171953</t>
+  </si>
+  <si>
+    <t>16427.9396</t>
+  </si>
+  <si>
+    <t>635138258381210878</t>
+  </si>
+  <si>
+    <t>12731.7282</t>
+  </si>
+  <si>
+    <t>635138258555860867</t>
+  </si>
+  <si>
+    <t>15144.8662</t>
+  </si>
+  <si>
+    <t>635138258741121464</t>
+  </si>
+  <si>
+    <t>16674.9538</t>
+  </si>
+  <si>
+    <t>635138258899520523</t>
+  </si>
+  <si>
+    <t>14026.8022</t>
+  </si>
+  <si>
+    <t>635138259039768545</t>
+  </si>
+  <si>
+    <t>12263.7014</t>
+  </si>
+  <si>
+    <t>635138259299803418</t>
+  </si>
+  <si>
+    <t>16184.9257</t>
+  </si>
+  <si>
+    <t>635138259450482037</t>
+  </si>
+  <si>
+    <t>6515.3727</t>
+  </si>
+  <si>
+    <t>635138259612801321</t>
+  </si>
+  <si>
+    <t>10275.5878</t>
+  </si>
+  <si>
+    <t>635138259987402747</t>
+  </si>
+  <si>
+    <t>8346.4774</t>
+  </si>
+  <si>
+    <t>635138260067277315</t>
+  </si>
+  <si>
+    <t>5396.3086</t>
+  </si>
+  <si>
+    <t>635138260150182057</t>
+  </si>
+  <si>
+    <t>4930.282</t>
+  </si>
+  <si>
+    <t>635138260224606314</t>
+  </si>
+  <si>
+    <t>5560.318</t>
+  </si>
+  <si>
+    <t>635138260278959423</t>
+  </si>
+  <si>
+    <t>3435.1965</t>
+  </si>
+  <si>
+    <t>635138260362574205</t>
+  </si>
+  <si>
+    <t>6249.3574</t>
+  </si>
+  <si>
+    <t>635138260497111900</t>
+  </si>
+  <si>
+    <t>11102.635</t>
+  </si>
+  <si>
+    <t>635138260657551077</t>
+  </si>
+  <si>
+    <t>13659.7813</t>
+  </si>
+  <si>
+    <t>635138260865712983</t>
+  </si>
+  <si>
+    <t>12935.7399</t>
+  </si>
+  <si>
+    <t>635138260982309652</t>
+  </si>
+  <si>
+    <t>7996.4574</t>
+  </si>
+  <si>
+    <t>635138261090225825</t>
+  </si>
+  <si>
+    <t>8875.5077</t>
+  </si>
+  <si>
+    <t>635138261232153942</t>
+  </si>
+  <si>
+    <t>11288.6456</t>
+  </si>
+  <si>
+    <t>635138261402623693</t>
+  </si>
+  <si>
+    <t>635138261669668967</t>
+  </si>
+  <si>
+    <t>22700.2984</t>
+  </si>
+  <si>
+    <t>635138262209819862</t>
+  </si>
+  <si>
+    <t>44695.5565</t>
+  </si>
+  <si>
+    <t>635138262478305218</t>
+  </si>
+  <si>
+    <t>18376.051</t>
+  </si>
+  <si>
+    <t>635138262712898636</t>
+  </si>
+  <si>
+    <t>10015.5728</t>
+  </si>
+  <si>
+    <t>635138262806934015</t>
+  </si>
+  <si>
+    <t>6259.358</t>
+  </si>
+  <si>
+    <t>635138262898379245</t>
+  </si>
+  <si>
+    <t>5607.3207</t>
+  </si>
+  <si>
+    <t>635138262999655038</t>
+  </si>
+  <si>
+    <t>7231.4136</t>
+  </si>
+  <si>
+    <t>635138263070979117</t>
+  </si>
+  <si>
+    <t>4843.277</t>
+  </si>
+  <si>
+    <t>635138263174945064</t>
+  </si>
+  <si>
+    <t>5552.3176</t>
+  </si>
+  <si>
+    <t>635138263251099420</t>
+  </si>
+  <si>
+    <t>5620.3215</t>
+  </si>
+  <si>
+    <t>635138263350415100</t>
+  </si>
+  <si>
+    <t>7718.4415</t>
+  </si>
+  <si>
+    <t>635138263438130117</t>
+  </si>
+  <si>
+    <t>6475.3704</t>
+  </si>
+  <si>
+    <t>635138264197913574</t>
+  </si>
+  <si>
+    <t>15561.8901</t>
+  </si>
+  <si>
+    <t>635138264401805236</t>
+  </si>
+  <si>
+    <t>6535.3738</t>
+  </si>
+  <si>
+    <t>635138264483209892</t>
+  </si>
+  <si>
+    <t>3576.2045</t>
+  </si>
+  <si>
+    <t>635138264536882962</t>
+  </si>
+  <si>
+    <t>3579.2047</t>
+  </si>
+  <si>
+    <t>635138264615437455</t>
+  </si>
+  <si>
+    <t>4390.2511</t>
+  </si>
+  <si>
+    <t>635138264709482834</t>
+  </si>
+  <si>
+    <t>5955.3406</t>
+  </si>
+  <si>
+    <t>635138264801968124</t>
+  </si>
+  <si>
+    <t>5164.2954</t>
+  </si>
+  <si>
+    <t>635138264871402096</t>
+  </si>
+  <si>
+    <t>4963.2839</t>
+  </si>
+  <si>
+    <t>635138264938405928</t>
+  </si>
+  <si>
+    <t>4396.2515</t>
+  </si>
+  <si>
+    <t>635138265356039815</t>
+  </si>
+  <si>
+    <t>39575.2636</t>
+  </si>
+  <si>
+    <t>635138265552161033</t>
+  </si>
+  <si>
+    <t>5152.2947</t>
+  </si>
+  <si>
+    <t>635138265652796789</t>
+  </si>
+  <si>
+    <t>635138265754402600</t>
+  </si>
+  <si>
+    <t>6872.393</t>
+  </si>
+  <si>
+    <t>635138265853758283</t>
+  </si>
+  <si>
+    <t>6420.3672</t>
+  </si>
+  <si>
+    <t>635138265937273060</t>
+  </si>
+  <si>
+    <t>6243.3571</t>
+  </si>
+  <si>
+    <t>635138266014067452</t>
+  </si>
+  <si>
+    <t>5503.3147</t>
+  </si>
+  <si>
+    <t>635138266136114433</t>
+  </si>
+  <si>
+    <t>8219.4701</t>
+  </si>
+  <si>
+    <t>635138266219519203</t>
+  </si>
+  <si>
+    <t>5505.3148</t>
+  </si>
+  <si>
+    <t>635138266510715859</t>
+  </si>
+  <si>
+    <t>5984.3423</t>
+  </si>
+  <si>
+    <t>635138266590870444</t>
+  </si>
+  <si>
+    <t>5431.3107</t>
+  </si>
+  <si>
+    <t>635138266657474253</t>
+  </si>
+  <si>
+    <t>4310.2465</t>
+  </si>
+  <si>
+    <t>635138266746749359</t>
+  </si>
+  <si>
+    <t>6445.3686</t>
+  </si>
+  <si>
+    <t>635138266804512663</t>
+  </si>
+  <si>
+    <t>4473.2558</t>
+  </si>
+  <si>
+    <t>635138266877706850</t>
+  </si>
+  <si>
+    <t>5715.3269</t>
+  </si>
+  <si>
+    <t>635138266943110590</t>
+  </si>
+  <si>
+    <t>4056.232</t>
+  </si>
+  <si>
+    <t>635138267019144939</t>
+  </si>
+  <si>
+    <t>6036.3452</t>
+  </si>
+  <si>
+    <t>635138267079628399</t>
+  </si>
+  <si>
+    <t>635138267364264679</t>
+  </si>
+  <si>
+    <t>635138268004221283</t>
+  </si>
+  <si>
+    <t>9747.5576</t>
+  </si>
+  <si>
+    <t>635138268089746174</t>
+  </si>
+  <si>
+    <t>5976.3418</t>
+  </si>
+  <si>
+    <t>635138268193262095</t>
+  </si>
+  <si>
+    <t>7771.4445</t>
+  </si>
+  <si>
+    <t>635138268285497371</t>
+  </si>
+  <si>
+    <t>6755.3864</t>
+  </si>
+  <si>
+    <t>635138268375942544</t>
+  </si>
+  <si>
+    <t>6104.3492</t>
+  </si>
+  <si>
+    <t>635138268469437891</t>
+  </si>
+  <si>
+    <t>7261.4153</t>
+  </si>
+  <si>
+    <t>635138268554982784</t>
+  </si>
+  <si>
+    <t>6396.3658</t>
+  </si>
+  <si>
+    <t>635138268629897069</t>
+  </si>
+  <si>
+    <t>5567.3184</t>
+  </si>
+  <si>
+    <t>635138268682260064</t>
+  </si>
+  <si>
+    <t>3644.2084</t>
+  </si>
+  <si>
+    <t>635138268763174692</t>
+  </si>
+  <si>
+    <t>3635.2079</t>
+  </si>
+  <si>
+    <t>635138268811857477</t>
+  </si>
+  <si>
+    <t>3594.2056</t>
+  </si>
+  <si>
+    <t>635138268887771819</t>
+  </si>
+  <si>
+    <t>3615.2068</t>
+  </si>
+  <si>
+    <t>635138268974416775</t>
+  </si>
+  <si>
+    <t>4380.2506</t>
+  </si>
+  <si>
+    <t>635138269053031271</t>
+  </si>
+  <si>
+    <t>5509.3151</t>
+  </si>
+  <si>
+    <t>635138269104974242</t>
+  </si>
+  <si>
+    <t>3164.181</t>
+  </si>
+  <si>
+    <t>635138269153257004</t>
+  </si>
+  <si>
+    <t>3620.2071</t>
+  </si>
+  <si>
+    <t>635138269215330554</t>
+  </si>
+  <si>
+    <t>3871.2214</t>
+  </si>
+  <si>
+    <t>635138269445733732</t>
+  </si>
+  <si>
+    <t>20736.186</t>
+  </si>
+  <si>
+    <t>635138269570770884</t>
+  </si>
+  <si>
+    <t>6822.3902</t>
+  </si>
+  <si>
+    <t>635138269652685569</t>
+  </si>
+  <si>
+    <t>6779.3877</t>
+  </si>
+  <si>
+    <t>635138269747651001</t>
+  </si>
+  <si>
+    <t>6916.3956</t>
+  </si>
+  <si>
+    <t>635138269839486254</t>
+  </si>
+  <si>
+    <t>7015.4013</t>
+  </si>
+  <si>
+    <t>635138269934461686</t>
+  </si>
+  <si>
+    <t>6511.3724</t>
+  </si>
+  <si>
+    <t>635138270088850517</t>
+  </si>
+  <si>
+    <t>13114.7502</t>
+  </si>
+  <si>
+    <t>635138270212527590</t>
+  </si>
+  <si>
+    <t>10031.5737</t>
+  </si>
+  <si>
+    <t>635138270308283067</t>
+  </si>
+  <si>
+    <t>8055.4607</t>
+  </si>
+  <si>
+    <t>635138270453481372</t>
+  </si>
+  <si>
+    <t>13055.7467</t>
+  </si>
+  <si>
+    <t>635138270595379488</t>
+  </si>
+  <si>
+    <t>9329.5336</t>
+  </si>
+  <si>
+    <t>635138270703765688</t>
+  </si>
+  <si>
+    <t>7880.4508</t>
+  </si>
+  <si>
+    <t>635138270782520192</t>
+  </si>
+  <si>
+    <t>6339.3626</t>
+  </si>
+  <si>
+    <t>635138270834203148</t>
+  </si>
+  <si>
+    <t>3022.1728</t>
+  </si>
+  <si>
+    <t>635138270869805185</t>
+  </si>
+  <si>
+    <t>2184.125</t>
+  </si>
+  <si>
+    <t>635138270919278014</t>
+  </si>
+  <si>
+    <t>2935.1679</t>
+  </si>
+  <si>
+    <t>635138270989212014</t>
+  </si>
+  <si>
+    <t>5241.2998</t>
+  </si>
+  <si>
+    <t>635138271034084581</t>
+  </si>
+  <si>
+    <t>2993.1712</t>
+  </si>
+  <si>
+    <t>P4</t>
   </si>
 </sst>
 </file>
@@ -3119,7 +3758,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -3153,8 +3792,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3458,10 +4097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L325"/>
+  <dimension ref="A1:L433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15820,6 +16459,4110 @@
         <v>0</v>
       </c>
       <c r="L325" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G326" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H326" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="I326">
+        <v>2.63E-2</v>
+      </c>
+      <c r="J326">
+        <v>0.42620000000000002</v>
+      </c>
+      <c r="K326">
+        <v>1.6922999999999999</v>
+      </c>
+      <c r="L326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G327" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H327" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I327">
+        <v>0.14130000000000001</v>
+      </c>
+      <c r="J327">
+        <v>0.7056</v>
+      </c>
+      <c r="K327">
+        <v>1.6079000000000001</v>
+      </c>
+      <c r="L327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G328" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H328" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I328">
+        <v>9.1600000000000001E-2</v>
+      </c>
+      <c r="J328">
+        <v>0.59789999999999999</v>
+      </c>
+      <c r="K328">
+        <v>1.9328000000000001</v>
+      </c>
+      <c r="L328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F329" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G329" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H329" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="I329">
+        <v>1.95E-2</v>
+      </c>
+      <c r="J329">
+        <v>0.73640000000000005</v>
+      </c>
+      <c r="K329">
+        <v>1.4302999999999999</v>
+      </c>
+      <c r="L329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F330" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G330" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H330" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="I330">
+        <v>0</v>
+      </c>
+      <c r="J330">
+        <v>1.0306</v>
+      </c>
+      <c r="K330">
+        <v>1.9359</v>
+      </c>
+      <c r="L330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F331" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G331" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H331" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="I331">
+        <v>0.1108</v>
+      </c>
+      <c r="J331">
+        <v>5.4615999999999998</v>
+      </c>
+      <c r="K331">
+        <v>1.6561999999999999</v>
+      </c>
+      <c r="L331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F332" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G332" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H332" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I332">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="J332">
+        <v>4.1077000000000004</v>
+      </c>
+      <c r="K332">
+        <v>1.4834000000000001</v>
+      </c>
+      <c r="L332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F333" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G333" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H333" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I333">
+        <v>0.1168</v>
+      </c>
+      <c r="J333">
+        <v>2.5211999999999999</v>
+      </c>
+      <c r="K333">
+        <v>1.8210999999999999</v>
+      </c>
+      <c r="L333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F334" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G334" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H334" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I334">
+        <v>0.11020000000000001</v>
+      </c>
+      <c r="J334">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="K334">
+        <v>2.7147000000000001</v>
+      </c>
+      <c r="L334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F335" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G335" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H335" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="I335">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="J335">
+        <v>1.0147999999999999</v>
+      </c>
+      <c r="K335">
+        <v>1.4971000000000001</v>
+      </c>
+      <c r="L335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G336" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H336" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I336">
+        <v>0.1444</v>
+      </c>
+      <c r="J336">
+        <v>0.15290000000000001</v>
+      </c>
+      <c r="K336">
+        <v>1.3391999999999999</v>
+      </c>
+      <c r="L336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G337" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H337" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I337">
+        <v>8.72E-2</v>
+      </c>
+      <c r="J337">
+        <v>0.64859999999999995</v>
+      </c>
+      <c r="K337">
+        <v>1.1444000000000001</v>
+      </c>
+      <c r="L337">
+        <v>1.2999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G338" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H338" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I338">
+        <v>0</v>
+      </c>
+      <c r="J338">
+        <v>1.0926</v>
+      </c>
+      <c r="K338">
+        <v>1.3721000000000001</v>
+      </c>
+      <c r="L338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G339" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H339" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="I339">
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="J339">
+        <v>0.60240000000000005</v>
+      </c>
+      <c r="K339">
+        <v>1.7454000000000001</v>
+      </c>
+      <c r="L339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G340" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H340" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I340">
+        <v>9.9599999999999994E-2</v>
+      </c>
+      <c r="J340">
+        <v>0.47549999999999998</v>
+      </c>
+      <c r="K340">
+        <v>1.2408999999999999</v>
+      </c>
+      <c r="L340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G341" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H341" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I341">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="J341">
+        <v>0.2253</v>
+      </c>
+      <c r="K341">
+        <v>1.4361999999999999</v>
+      </c>
+      <c r="L341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G342" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H342" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="I342">
+        <v>0.12379999999999999</v>
+      </c>
+      <c r="J342">
+        <v>0</v>
+      </c>
+      <c r="K342">
+        <v>1.5641</v>
+      </c>
+      <c r="L342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G343" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H343" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="I343">
+        <v>0.17</v>
+      </c>
+      <c r="J343">
+        <v>0.8135</v>
+      </c>
+      <c r="K343">
+        <v>1.7242999999999999</v>
+      </c>
+      <c r="L343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G344" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H344" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I344">
+        <v>8.3799999999999999E-2</v>
+      </c>
+      <c r="J344">
+        <v>0.186</v>
+      </c>
+      <c r="K344">
+        <v>0</v>
+      </c>
+      <c r="L344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G345" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H345" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I345">
+        <v>9.5200000000000007E-2</v>
+      </c>
+      <c r="J345">
+        <v>1.4280999999999999</v>
+      </c>
+      <c r="K345">
+        <v>0</v>
+      </c>
+      <c r="L345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G346" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H346" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I346">
+        <v>0.1716</v>
+      </c>
+      <c r="J346">
+        <v>2.0718000000000001</v>
+      </c>
+      <c r="K346">
+        <v>0</v>
+      </c>
+      <c r="L346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G347" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H347" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="I347">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="J347">
+        <v>3.1701000000000001</v>
+      </c>
+      <c r="K347">
+        <v>0</v>
+      </c>
+      <c r="L347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G348" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H348" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I348">
+        <v>0.11</v>
+      </c>
+      <c r="J348">
+        <v>0.31740000000000002</v>
+      </c>
+      <c r="K348">
+        <v>0</v>
+      </c>
+      <c r="L348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G349" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H349" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I349">
+        <v>0.21360000000000001</v>
+      </c>
+      <c r="J349">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="K349">
+        <v>0</v>
+      </c>
+      <c r="L349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G350" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H350" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I350">
+        <v>0.25609999999999999</v>
+      </c>
+      <c r="J350">
+        <v>2.6223999999999998</v>
+      </c>
+      <c r="K350">
+        <v>0</v>
+      </c>
+      <c r="L350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G351" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H351" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="I351">
+        <v>0.17169999999999999</v>
+      </c>
+      <c r="J351">
+        <v>1.0178</v>
+      </c>
+      <c r="K351">
+        <v>0</v>
+      </c>
+      <c r="L351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G352" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H352" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="I352">
+        <v>9.4799999999999995E-2</v>
+      </c>
+      <c r="J352">
+        <v>3.7768999999999999</v>
+      </c>
+      <c r="K352">
+        <v>0</v>
+      </c>
+      <c r="L352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G353" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H353" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="I353">
+        <v>0.1711</v>
+      </c>
+      <c r="J353">
+        <v>0.8881</v>
+      </c>
+      <c r="K353">
+        <v>1.0054000000000001</v>
+      </c>
+      <c r="L353">
+        <v>6.5600000000000006E-2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G354" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H354" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="I354">
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="J354">
+        <v>0.71140000000000003</v>
+      </c>
+      <c r="K354">
+        <v>1.284</v>
+      </c>
+      <c r="L354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F355" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G355" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H355" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I355">
+        <v>0.1832</v>
+      </c>
+      <c r="J355">
+        <v>0.47960000000000003</v>
+      </c>
+      <c r="K355">
+        <v>1.2807999999999999</v>
+      </c>
+      <c r="L355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F356" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G356" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H356" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="I356">
+        <v>0.37159999999999999</v>
+      </c>
+      <c r="J356">
+        <v>2.8003</v>
+      </c>
+      <c r="K356">
+        <v>1.4722</v>
+      </c>
+      <c r="L356">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F357" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G357" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H357" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="I357">
+        <v>8.1900000000000001E-2</v>
+      </c>
+      <c r="J357">
+        <v>1.3152999999999999</v>
+      </c>
+      <c r="K357">
+        <v>1.3479000000000001</v>
+      </c>
+      <c r="L357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F358" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G358" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H358" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="I358">
+        <v>0.48220000000000002</v>
+      </c>
+      <c r="J358">
+        <v>3.9510000000000001</v>
+      </c>
+      <c r="K358">
+        <v>1.6936</v>
+      </c>
+      <c r="L358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F359" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G359" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H359" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I359">
+        <v>0.35210000000000002</v>
+      </c>
+      <c r="J359">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="K359">
+        <v>1.3368</v>
+      </c>
+      <c r="L359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F360" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G360" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H360" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="I360">
+        <v>0.1212</v>
+      </c>
+      <c r="J360">
+        <v>2.4529000000000001</v>
+      </c>
+      <c r="K360">
+        <v>1.3162</v>
+      </c>
+      <c r="L360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G361" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H361" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I361">
+        <v>0.25890000000000002</v>
+      </c>
+      <c r="J361">
+        <v>1.5586</v>
+      </c>
+      <c r="K361">
+        <v>1.1878</v>
+      </c>
+      <c r="L361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F362" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G362" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H362" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="I362">
+        <v>0</v>
+      </c>
+      <c r="J362">
+        <v>1.206</v>
+      </c>
+      <c r="K362">
+        <v>0</v>
+      </c>
+      <c r="L362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G363" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H363" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I363">
+        <v>3.0499999999999999E-2</v>
+      </c>
+      <c r="J363">
+        <v>2.786</v>
+      </c>
+      <c r="K363">
+        <v>0</v>
+      </c>
+      <c r="L363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F364" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G364" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H364" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I364">
+        <v>0.14649999999999999</v>
+      </c>
+      <c r="J364">
+        <v>2.3319999999999999</v>
+      </c>
+      <c r="K364">
+        <v>0</v>
+      </c>
+      <c r="L364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F365" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G365" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H365" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="I365">
+        <v>0.1222</v>
+      </c>
+      <c r="J365">
+        <v>1.0911999999999999</v>
+      </c>
+      <c r="K365">
+        <v>0</v>
+      </c>
+      <c r="L365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F366" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G366" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H366" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="I366">
+        <v>6.7400000000000002E-2</v>
+      </c>
+      <c r="J366">
+        <v>0.48349999999999999</v>
+      </c>
+      <c r="K366">
+        <v>0</v>
+      </c>
+      <c r="L366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F367" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G367" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H367" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="I367">
+        <v>0.1052</v>
+      </c>
+      <c r="J367">
+        <v>2.9767000000000001</v>
+      </c>
+      <c r="K367">
+        <v>0</v>
+      </c>
+      <c r="L367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F368" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G368" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H368" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I368">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="J368">
+        <v>3.145</v>
+      </c>
+      <c r="K368">
+        <v>0</v>
+      </c>
+      <c r="L368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F369" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G369" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H369" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I369">
+        <v>9.6600000000000005E-2</v>
+      </c>
+      <c r="J369">
+        <v>0.73140000000000005</v>
+      </c>
+      <c r="K369">
+        <v>0</v>
+      </c>
+      <c r="L369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F370" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G370" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H370" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I370">
+        <v>0.15629999999999999</v>
+      </c>
+      <c r="J370">
+        <v>2.3504</v>
+      </c>
+      <c r="K370">
+        <v>0</v>
+      </c>
+      <c r="L370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F371" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G371" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H371" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="I371">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="J371">
+        <v>1.6800999999999999</v>
+      </c>
+      <c r="K371">
+        <v>0</v>
+      </c>
+      <c r="L371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F372" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G372" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H372" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I372">
+        <v>8.9800000000000005E-2</v>
+      </c>
+      <c r="J372">
+        <v>0.45540000000000003</v>
+      </c>
+      <c r="K372">
+        <v>0</v>
+      </c>
+      <c r="L372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F373" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G373" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H373" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I373">
+        <v>9.0700000000000003E-2</v>
+      </c>
+      <c r="J373">
+        <v>0.61880000000000002</v>
+      </c>
+      <c r="K373">
+        <v>0</v>
+      </c>
+      <c r="L373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F374" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G374" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H374" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="I374">
+        <v>9.2399999999999996E-2</v>
+      </c>
+      <c r="J374">
+        <v>1.1572</v>
+      </c>
+      <c r="K374">
+        <v>0</v>
+      </c>
+      <c r="L374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F375" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G375" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H375" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="I375">
+        <v>0.1103</v>
+      </c>
+      <c r="J375">
+        <v>1.0501</v>
+      </c>
+      <c r="K375">
+        <v>0</v>
+      </c>
+      <c r="L375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F376" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G376" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H376" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="I376">
+        <v>0.12939999999999999</v>
+      </c>
+      <c r="J376">
+        <v>4.5904999999999996</v>
+      </c>
+      <c r="K376">
+        <v>0</v>
+      </c>
+      <c r="L376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F377" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G377" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H377" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="I377">
+        <v>0.1036</v>
+      </c>
+      <c r="J377">
+        <v>3.0394000000000001</v>
+      </c>
+      <c r="K377">
+        <v>0</v>
+      </c>
+      <c r="L377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F378" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G378" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H378" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="I378">
+        <v>9.8599999999999993E-2</v>
+      </c>
+      <c r="J378">
+        <v>0.58879999999999999</v>
+      </c>
+      <c r="K378">
+        <v>0</v>
+      </c>
+      <c r="L378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F379" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G379" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H379" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="I379">
+        <v>6.4799999999999996E-2</v>
+      </c>
+      <c r="J379">
+        <v>2.1745999999999999</v>
+      </c>
+      <c r="K379">
+        <v>0</v>
+      </c>
+      <c r="L379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F380" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G380" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H380" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="I380">
+        <v>0.2616</v>
+      </c>
+      <c r="J380">
+        <v>0</v>
+      </c>
+      <c r="K380">
+        <v>0</v>
+      </c>
+      <c r="L380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F381" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G381" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H381" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="I381">
+        <v>0.122</v>
+      </c>
+      <c r="J381">
+        <v>2.3694999999999999</v>
+      </c>
+      <c r="K381">
+        <v>0</v>
+      </c>
+      <c r="L381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F382" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G382" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H382" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I382">
+        <v>0.1762</v>
+      </c>
+      <c r="J382">
+        <v>1.1088</v>
+      </c>
+      <c r="K382">
+        <v>0</v>
+      </c>
+      <c r="L382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F383" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G383" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H383" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="I383">
+        <v>7.0099999999999996E-2</v>
+      </c>
+      <c r="J383">
+        <v>1.4202999999999999</v>
+      </c>
+      <c r="K383">
+        <v>0</v>
+      </c>
+      <c r="L383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F384" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G384" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H384" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="I384">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="J384">
+        <v>1.9885999999999999</v>
+      </c>
+      <c r="K384">
+        <v>0</v>
+      </c>
+      <c r="L384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F385" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G385" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H385" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="I385">
+        <v>7.5499999999999998E-2</v>
+      </c>
+      <c r="J385">
+        <v>0.77739999999999998</v>
+      </c>
+      <c r="K385">
+        <v>0</v>
+      </c>
+      <c r="L385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F386" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G386" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H386" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="I386">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="J386">
+        <v>1.8475999999999999</v>
+      </c>
+      <c r="K386">
+        <v>0</v>
+      </c>
+      <c r="L386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F387" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G387" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H387" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="I387">
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="J387">
+        <v>1.3322000000000001</v>
+      </c>
+      <c r="K387">
+        <v>0</v>
+      </c>
+      <c r="L387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F388" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G388" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H388" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="I388">
+        <v>0.21790000000000001</v>
+      </c>
+      <c r="J388">
+        <v>4.3510999999999997</v>
+      </c>
+      <c r="K388">
+        <v>0</v>
+      </c>
+      <c r="L388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F389" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G389" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H389" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="I389">
+        <v>0.1109</v>
+      </c>
+      <c r="J389">
+        <v>0.82189999999999996</v>
+      </c>
+      <c r="K389">
+        <v>0</v>
+      </c>
+      <c r="L389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F390" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G390" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H390" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I390">
+        <v>8.0500000000000002E-2</v>
+      </c>
+      <c r="J390">
+        <v>1.7269000000000001</v>
+      </c>
+      <c r="K390">
+        <v>0</v>
+      </c>
+      <c r="L390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F391" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G391" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H391" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="I391">
+        <v>0.1132</v>
+      </c>
+      <c r="J391">
+        <v>1.2332000000000001</v>
+      </c>
+      <c r="K391">
+        <v>0</v>
+      </c>
+      <c r="L391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F392" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G392" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H392" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="I392">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="J392">
+        <v>0.94040000000000001</v>
+      </c>
+      <c r="K392">
+        <v>0</v>
+      </c>
+      <c r="L392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F393" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G393" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H393" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="I393">
+        <v>9.74E-2</v>
+      </c>
+      <c r="J393">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="K393">
+        <v>0</v>
+      </c>
+      <c r="L393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F394" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G394" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H394" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="I394">
+        <v>7.2300000000000003E-2</v>
+      </c>
+      <c r="J394">
+        <v>0.80010000000000003</v>
+      </c>
+      <c r="K394">
+        <v>0</v>
+      </c>
+      <c r="L394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F395" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G395" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H395" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="I395">
+        <v>5.6300000000000003E-2</v>
+      </c>
+      <c r="J395">
+        <v>2.2926000000000002</v>
+      </c>
+      <c r="K395">
+        <v>0</v>
+      </c>
+      <c r="L395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F396" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G396" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H396" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="I396">
+        <v>6.4799999999999996E-2</v>
+      </c>
+      <c r="J396">
+        <v>1.643</v>
+      </c>
+      <c r="K396">
+        <v>0</v>
+      </c>
+      <c r="L396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F397" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G397" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H397" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="I397">
+        <v>6.5199999999999994E-2</v>
+      </c>
+      <c r="J397">
+        <v>5.33E-2</v>
+      </c>
+      <c r="K397">
+        <v>0</v>
+      </c>
+      <c r="L397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F398" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G398" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H398" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I398">
+        <v>9.0800000000000006E-2</v>
+      </c>
+      <c r="J398">
+        <v>1.6312</v>
+      </c>
+      <c r="K398">
+        <v>1.3671</v>
+      </c>
+      <c r="L398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F399" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G399" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H399" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="I399">
+        <v>0.14480000000000001</v>
+      </c>
+      <c r="J399">
+        <v>2.1507000000000001</v>
+      </c>
+      <c r="K399">
+        <v>1.3156000000000001</v>
+      </c>
+      <c r="L399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F400" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G400" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H400" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="I400">
+        <v>0.14419999999999999</v>
+      </c>
+      <c r="J400">
+        <v>1.1678999999999999</v>
+      </c>
+      <c r="K400">
+        <v>1.2214</v>
+      </c>
+      <c r="L400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F401" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G401" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H401" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="I401">
+        <v>0.13550000000000001</v>
+      </c>
+      <c r="J401">
+        <v>2.3978000000000002</v>
+      </c>
+      <c r="K401">
+        <v>1.8312999999999999</v>
+      </c>
+      <c r="L401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F402" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G402" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H402" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="I402">
+        <v>0.16789999999999999</v>
+      </c>
+      <c r="J402">
+        <v>2.1779999999999999</v>
+      </c>
+      <c r="K402">
+        <v>1.4773000000000001</v>
+      </c>
+      <c r="L402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D403" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E403" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F403" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G403" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H403" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="I403">
+        <v>0.16850000000000001</v>
+      </c>
+      <c r="J403">
+        <v>0.23780000000000001</v>
+      </c>
+      <c r="K403">
+        <v>1.4160999999999999</v>
+      </c>
+      <c r="L403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F404" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G404" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H404" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="I404">
+        <v>0.14030000000000001</v>
+      </c>
+      <c r="J404">
+        <v>1.1237999999999999</v>
+      </c>
+      <c r="K404">
+        <v>1.4279999999999999</v>
+      </c>
+      <c r="L404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F405" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G405" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H405" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="I405">
+        <v>9.11E-2</v>
+      </c>
+      <c r="J405">
+        <v>0.53539999999999999</v>
+      </c>
+      <c r="K405">
+        <v>1.1948000000000001</v>
+      </c>
+      <c r="L405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F406" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G406" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H406" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I406">
+        <v>0.14380000000000001</v>
+      </c>
+      <c r="J406">
+        <v>3.9823</v>
+      </c>
+      <c r="K406">
+        <v>1.7808999999999999</v>
+      </c>
+      <c r="L406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F407" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G407" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H407" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="I407">
+        <v>0.12709999999999999</v>
+      </c>
+      <c r="J407">
+        <v>0.46139999999999998</v>
+      </c>
+      <c r="K407">
+        <v>0</v>
+      </c>
+      <c r="L407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F408" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G408" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H408" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="I408">
+        <v>9.01E-2</v>
+      </c>
+      <c r="J408">
+        <v>1.089</v>
+      </c>
+      <c r="K408">
+        <v>0</v>
+      </c>
+      <c r="L408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F409" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G409" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H409" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I409">
+        <v>0.1368</v>
+      </c>
+      <c r="J409">
+        <v>5.1200000000000002E-2</v>
+      </c>
+      <c r="K409">
+        <v>0</v>
+      </c>
+      <c r="L409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F410" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G410" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H410" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I410">
+        <v>0.115</v>
+      </c>
+      <c r="J410">
+        <v>0.1517</v>
+      </c>
+      <c r="K410">
+        <v>0</v>
+      </c>
+      <c r="L410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F411" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G411" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H411" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I411">
+        <v>0.15140000000000001</v>
+      </c>
+      <c r="J411">
+        <v>2.0722</v>
+      </c>
+      <c r="K411">
+        <v>0</v>
+      </c>
+      <c r="L411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D412" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F412" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G412" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H412" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="I412">
+        <v>0.1134</v>
+      </c>
+      <c r="J412">
+        <v>2.1501999999999999</v>
+      </c>
+      <c r="K412">
+        <v>0</v>
+      </c>
+      <c r="L412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F413" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G413" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H413" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="I413">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="J413">
+        <v>0.64559999999999995</v>
+      </c>
+      <c r="K413">
+        <v>0</v>
+      </c>
+      <c r="L413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F414" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G414" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H414" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I414">
+        <v>9.0499999999999997E-2</v>
+      </c>
+      <c r="J414">
+        <v>0.7087</v>
+      </c>
+      <c r="K414">
+        <v>0</v>
+      </c>
+      <c r="L414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F415" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G415" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H415" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="I415">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="J415">
+        <v>1.3285</v>
+      </c>
+      <c r="K415">
+        <v>0</v>
+      </c>
+      <c r="L415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F416" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G416" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H416" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="I416">
+        <v>9.5899999999999999E-2</v>
+      </c>
+      <c r="J416">
+        <v>6.7939999999999996</v>
+      </c>
+      <c r="K416">
+        <v>6.4991000000000003</v>
+      </c>
+      <c r="L416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E417" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F417" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G417" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H417" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="I417">
+        <v>0.20880000000000001</v>
+      </c>
+      <c r="J417">
+        <v>3.3809999999999998</v>
+      </c>
+      <c r="K417">
+        <v>1.9061999999999999</v>
+      </c>
+      <c r="L417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E418" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F418" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G418" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H418" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="I418">
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="J418">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="K418">
+        <v>1.7290000000000001</v>
+      </c>
+      <c r="L418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F419" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G419" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H419" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="I419">
+        <v>0.17910000000000001</v>
+      </c>
+      <c r="J419">
+        <v>2.5103</v>
+      </c>
+      <c r="K419">
+        <v>1.8487</v>
+      </c>
+      <c r="L419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F420" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G420" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H420" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="I420">
+        <v>0.18160000000000001</v>
+      </c>
+      <c r="J420">
+        <v>4.4736000000000002</v>
+      </c>
+      <c r="K420">
+        <v>1.8601000000000001</v>
+      </c>
+      <c r="L420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F421" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G421" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H421" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="I421">
+        <v>0.13439999999999999</v>
+      </c>
+      <c r="J421">
+        <v>4.3704999999999998</v>
+      </c>
+      <c r="K421">
+        <v>1.6017999999999999</v>
+      </c>
+      <c r="L421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F422" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G422" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H422" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="I422">
+        <v>3.56E-2</v>
+      </c>
+      <c r="J422">
+        <v>0.46189999999999998</v>
+      </c>
+      <c r="K422">
+        <v>1.8275999999999999</v>
+      </c>
+      <c r="L422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F423" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G423" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H423" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="I423">
+        <v>0.10580000000000001</v>
+      </c>
+      <c r="J423">
+        <v>2.4935</v>
+      </c>
+      <c r="K423">
+        <v>1.3627</v>
+      </c>
+      <c r="L423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F424" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G424" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H424" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="I424">
+        <v>7.0900000000000005E-2</v>
+      </c>
+      <c r="J424">
+        <v>0.3548</v>
+      </c>
+      <c r="K424">
+        <v>1.7261</v>
+      </c>
+      <c r="L424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F425" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G425" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H425" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I425">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="J425">
+        <v>2.8902999999999999</v>
+      </c>
+      <c r="K425">
+        <v>3.9297</v>
+      </c>
+      <c r="L425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F426" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G426" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H426" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="I426">
+        <v>0.1419</v>
+      </c>
+      <c r="J426">
+        <v>10.9442</v>
+      </c>
+      <c r="K426">
+        <v>3.7841999999999998</v>
+      </c>
+      <c r="L426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F427" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G427" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H427" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="I427">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="J427">
+        <v>4.1052</v>
+      </c>
+      <c r="K427">
+        <v>2.7521</v>
+      </c>
+      <c r="L427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F428" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G428" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H428" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="I428">
+        <v>7.8600000000000003E-2</v>
+      </c>
+      <c r="J428">
+        <v>3.7732999999999999</v>
+      </c>
+      <c r="K428">
+        <v>4.0366</v>
+      </c>
+      <c r="L428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F429" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G429" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H429" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="I429">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="J429">
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="K429">
+        <v>3.9352999999999998</v>
+      </c>
+      <c r="L429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E430" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F430" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G430" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H430" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="I430">
+        <v>0.12939999999999999</v>
+      </c>
+      <c r="J430">
+        <v>2.8614999999999999</v>
+      </c>
+      <c r="K430">
+        <v>3.9247999999999998</v>
+      </c>
+      <c r="L430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F431" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G431" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H431" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="I431">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="J431">
+        <v>0.89990000000000003</v>
+      </c>
+      <c r="K431">
+        <v>3.8816000000000002</v>
+      </c>
+      <c r="L431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F432" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G432" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H432" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="I432">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="J432">
+        <v>0.55989999999999995</v>
+      </c>
+      <c r="K432">
+        <v>3.8845999999999998</v>
+      </c>
+      <c r="L432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F433" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G433" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H433" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I433">
+        <v>6.3399999999999998E-2</v>
+      </c>
+      <c r="J433">
+        <v>3.1076000000000001</v>
+      </c>
+      <c r="K433">
+        <v>3.9386999999999999</v>
+      </c>
+      <c r="L433">
         <v>0</v>
       </c>
     </row>

--- a/Data/exp2-consolidated.xlsx
+++ b/Data/exp2-consolidated.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4007" uniqueCount="1245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4979" uniqueCount="1355">
   <si>
     <t>Ticks</t>
   </si>
@@ -3751,6 +3751,336 @@
   </si>
   <si>
     <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>635138938963655738</t>
+  </si>
+  <si>
+    <t>635138939117254523</t>
+  </si>
+  <si>
+    <t>635138939249812105</t>
+  </si>
+  <si>
+    <t>635138939380089557</t>
+  </si>
+  <si>
+    <t>635138939526087907</t>
+  </si>
+  <si>
+    <t>635138939672526283</t>
+  </si>
+  <si>
+    <t>635138939794043233</t>
+  </si>
+  <si>
+    <t>635138940006805403</t>
+  </si>
+  <si>
+    <t>635138940196096230</t>
+  </si>
+  <si>
+    <t>635138940497683479</t>
+  </si>
+  <si>
+    <t>635138940783919851</t>
+  </si>
+  <si>
+    <t>635138940981951178</t>
+  </si>
+  <si>
+    <t>635138941444437631</t>
+  </si>
+  <si>
+    <t>635138941655389696</t>
+  </si>
+  <si>
+    <t>635138941908084150</t>
+  </si>
+  <si>
+    <t>635138942094024785</t>
+  </si>
+  <si>
+    <t>635138942295066284</t>
+  </si>
+  <si>
+    <t>635138942500508034</t>
+  </si>
+  <si>
+    <t>635138942802265294</t>
+  </si>
+  <si>
+    <t>635138942988185928</t>
+  </si>
+  <si>
+    <t>635138943292623341</t>
+  </si>
+  <si>
+    <t>635138943451222412</t>
+  </si>
+  <si>
+    <t>635138943644613473</t>
+  </si>
+  <si>
+    <t>635138943811092996</t>
+  </si>
+  <si>
+    <t>635138943993063404</t>
+  </si>
+  <si>
+    <t>635138944360294408</t>
+  </si>
+  <si>
+    <t>635138944698013725</t>
+  </si>
+  <si>
+    <t>635138945256765683</t>
+  </si>
+  <si>
+    <t>635138945383762947</t>
+  </si>
+  <si>
+    <t>635138945599885309</t>
+  </si>
+  <si>
+    <t>635138945736483122</t>
+  </si>
+  <si>
+    <t>635138945818877834</t>
+  </si>
+  <si>
+    <t>635138945945565080</t>
+  </si>
+  <si>
+    <t>635138946072042314</t>
+  </si>
+  <si>
+    <t>635138946195599382</t>
+  </si>
+  <si>
+    <t>635138946323476696</t>
+  </si>
+  <si>
+    <t>635138946537518938</t>
+  </si>
+  <si>
+    <t>635138947193956484</t>
+  </si>
+  <si>
+    <t>635138947345155132</t>
+  </si>
+  <si>
+    <t>635138947477752716</t>
+  </si>
+  <si>
+    <t>635138947602469850</t>
+  </si>
+  <si>
+    <t>635138947726356936</t>
+  </si>
+  <si>
+    <t>635138947848893945</t>
+  </si>
+  <si>
+    <t>635138947990942069</t>
+  </si>
+  <si>
+    <t>635138948142350729</t>
+  </si>
+  <si>
+    <t>635138948526662711</t>
+  </si>
+  <si>
+    <t>635138948675581228</t>
+  </si>
+  <si>
+    <t>635138948779857193</t>
+  </si>
+  <si>
+    <t>635138948875382656</t>
+  </si>
+  <si>
+    <t>635138948937906232</t>
+  </si>
+  <si>
+    <t>635138948993499412</t>
+  </si>
+  <si>
+    <t>635138949050782689</t>
+  </si>
+  <si>
+    <t>635138949168659431</t>
+  </si>
+  <si>
+    <t>635138949317457942</t>
+  </si>
+  <si>
+    <t>635138949711010452</t>
+  </si>
+  <si>
+    <t>635138949848858336</t>
+  </si>
+  <si>
+    <t>635138949982575984</t>
+  </si>
+  <si>
+    <t>635138950187127684</t>
+  </si>
+  <si>
+    <t>635138950372208270</t>
+  </si>
+  <si>
+    <t>635138950518726650</t>
+  </si>
+  <si>
+    <t>635138950667205143</t>
+  </si>
+  <si>
+    <t>635138950834924736</t>
+  </si>
+  <si>
+    <t>635138950966082238</t>
+  </si>
+  <si>
+    <t>635138951214246432</t>
+  </si>
+  <si>
+    <t>635138951303161517</t>
+  </si>
+  <si>
+    <t>635138951377765784</t>
+  </si>
+  <si>
+    <t>635138951497322623</t>
+  </si>
+  <si>
+    <t>635138951532844654</t>
+  </si>
+  <si>
+    <t>635138951644761056</t>
+  </si>
+  <si>
+    <t>635138951763077823</t>
+  </si>
+  <si>
+    <t>635138951881594602</t>
+  </si>
+  <si>
+    <t>635138951964029317</t>
+  </si>
+  <si>
+    <t>635138952213233570</t>
+  </si>
+  <si>
+    <t>635138952550472859</t>
+  </si>
+  <si>
+    <t>635138952729233084</t>
+  </si>
+  <si>
+    <t>635138952849349954</t>
+  </si>
+  <si>
+    <t>635138952963026456</t>
+  </si>
+  <si>
+    <t>635138953074672842</t>
+  </si>
+  <si>
+    <t>635138953258613363</t>
+  </si>
+  <si>
+    <t>635138953384700575</t>
+  </si>
+  <si>
+    <t>635138953530318903</t>
+  </si>
+  <si>
+    <t>635138953897269892</t>
+  </si>
+  <si>
+    <t>635138954034867762</t>
+  </si>
+  <si>
+    <t>635138954163345110</t>
+  </si>
+  <si>
+    <t>635138954220378373</t>
+  </si>
+  <si>
+    <t>635138954414299464</t>
+  </si>
+  <si>
+    <t>635138954541336730</t>
+  </si>
+  <si>
+    <t>635138954686345024</t>
+  </si>
+  <si>
+    <t>635138954800341545</t>
+  </si>
+  <si>
+    <t>635138954969341211</t>
+  </si>
+  <si>
+    <t>635138955180093265</t>
+  </si>
+  <si>
+    <t>635138955355173279</t>
+  </si>
+  <si>
+    <t>635138955588616631</t>
+  </si>
+  <si>
+    <t>635138955730774762</t>
+  </si>
+  <si>
+    <t>635138955903694653</t>
+  </si>
+  <si>
+    <t>635138956108286355</t>
+  </si>
+  <si>
+    <t>635138956238323792</t>
+  </si>
+  <si>
+    <t>635138956347370030</t>
+  </si>
+  <si>
+    <t>635138956513849552</t>
+  </si>
+  <si>
+    <t>635138956691009685</t>
+  </si>
+  <si>
+    <t>635138956834247877</t>
+  </si>
+  <si>
+    <t>635138956983886436</t>
+  </si>
+  <si>
+    <t>635138957105433388</t>
+  </si>
+  <si>
+    <t>635138957327766105</t>
+  </si>
+  <si>
+    <t>635138957509186482</t>
+  </si>
+  <si>
+    <t>635138957655034824</t>
+  </si>
+  <si>
+    <t>635138957829314792</t>
+  </si>
+  <si>
+    <t>635138958003794772</t>
+  </si>
+  <si>
+    <t>P6</t>
   </si>
 </sst>
 </file>
@@ -3789,13 +4119,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4097,16 +4428,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L433"/>
+  <dimension ref="A1:L649"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="2"/>
     <col min="10" max="12" width="9.140625" style="3"/>
@@ -20563,6 +20894,8214 @@
         <v>3.9386999999999999</v>
       </c>
       <c r="L433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D434" t="s">
+        <v>54</v>
+      </c>
+      <c r="E434" t="s">
+        <v>14</v>
+      </c>
+      <c r="F434">
+        <v>0</v>
+      </c>
+      <c r="G434">
+        <v>0</v>
+      </c>
+      <c r="H434">
+        <v>27955.598999999998</v>
+      </c>
+      <c r="I434">
+        <v>0.24540000000000001</v>
+      </c>
+      <c r="J434">
+        <v>0.5776</v>
+      </c>
+      <c r="K434">
+        <v>1.7769999999999999</v>
+      </c>
+      <c r="L434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D435" t="s">
+        <v>54</v>
+      </c>
+      <c r="E435" t="s">
+        <v>14</v>
+      </c>
+      <c r="F435">
+        <v>0</v>
+      </c>
+      <c r="G435">
+        <v>1</v>
+      </c>
+      <c r="H435">
+        <v>11580.6623</v>
+      </c>
+      <c r="I435">
+        <v>3.95E-2</v>
+      </c>
+      <c r="J435">
+        <v>1.4676</v>
+      </c>
+      <c r="K435">
+        <v>1.2093</v>
+      </c>
+      <c r="L435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D436" t="s">
+        <v>54</v>
+      </c>
+      <c r="E436" t="s">
+        <v>14</v>
+      </c>
+      <c r="F436">
+        <v>0</v>
+      </c>
+      <c r="G436">
+        <v>2</v>
+      </c>
+      <c r="H436">
+        <v>10395.5946</v>
+      </c>
+      <c r="I436">
+        <v>7.3899999999999993E-2</v>
+      </c>
+      <c r="J436">
+        <v>1.319</v>
+      </c>
+      <c r="K436">
+        <v>1.7319</v>
+      </c>
+      <c r="L436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D437" t="s">
+        <v>54</v>
+      </c>
+      <c r="E437" t="s">
+        <v>14</v>
+      </c>
+      <c r="F437">
+        <v>1</v>
+      </c>
+      <c r="G437">
+        <v>0</v>
+      </c>
+      <c r="H437">
+        <v>10987.628500000001</v>
+      </c>
+      <c r="I437">
+        <v>0.22539999999999999</v>
+      </c>
+      <c r="J437">
+        <v>0.98529999999999995</v>
+      </c>
+      <c r="K437">
+        <v>1.5891</v>
+      </c>
+      <c r="L437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D438" t="s">
+        <v>54</v>
+      </c>
+      <c r="E438" t="s">
+        <v>14</v>
+      </c>
+      <c r="F438">
+        <v>1</v>
+      </c>
+      <c r="G438">
+        <v>1</v>
+      </c>
+      <c r="H438">
+        <v>12651.723599999999</v>
+      </c>
+      <c r="I438">
+        <v>5.67E-2</v>
+      </c>
+      <c r="J438">
+        <v>0.67159999999999997</v>
+      </c>
+      <c r="K438">
+        <v>1.4178999999999999</v>
+      </c>
+      <c r="L438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D439" t="s">
+        <v>54</v>
+      </c>
+      <c r="E439" t="s">
+        <v>14</v>
+      </c>
+      <c r="F439">
+        <v>1</v>
+      </c>
+      <c r="G439">
+        <v>2</v>
+      </c>
+      <c r="H439">
+        <v>12351.7065</v>
+      </c>
+      <c r="I439">
+        <v>0.28789999999999999</v>
+      </c>
+      <c r="J439">
+        <v>7.3400000000000007E-2</v>
+      </c>
+      <c r="K439">
+        <v>1.5427999999999999</v>
+      </c>
+      <c r="L439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D440" t="s">
+        <v>54</v>
+      </c>
+      <c r="E440" t="s">
+        <v>14</v>
+      </c>
+      <c r="F440">
+        <v>2</v>
+      </c>
+      <c r="G440">
+        <v>0</v>
+      </c>
+      <c r="H440">
+        <v>10043.5744</v>
+      </c>
+      <c r="I440">
+        <v>0.24679999999999999</v>
+      </c>
+      <c r="J440">
+        <v>1.7242999999999999</v>
+      </c>
+      <c r="K440">
+        <v>1.4508000000000001</v>
+      </c>
+      <c r="L440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D441" t="s">
+        <v>54</v>
+      </c>
+      <c r="E441" t="s">
+        <v>14</v>
+      </c>
+      <c r="F441">
+        <v>2</v>
+      </c>
+      <c r="G441">
+        <v>1</v>
+      </c>
+      <c r="H441">
+        <v>19156.095700000002</v>
+      </c>
+      <c r="I441">
+        <v>0.25829999999999997</v>
+      </c>
+      <c r="J441">
+        <v>1.1012999999999999</v>
+      </c>
+      <c r="K441">
+        <v>1.6816</v>
+      </c>
+      <c r="L441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D442" t="s">
+        <v>54</v>
+      </c>
+      <c r="E442" t="s">
+        <v>14</v>
+      </c>
+      <c r="F442">
+        <v>2</v>
+      </c>
+      <c r="G442">
+        <v>2</v>
+      </c>
+      <c r="H442">
+        <v>16624.9509</v>
+      </c>
+      <c r="I442">
+        <v>0.21179999999999999</v>
+      </c>
+      <c r="J442">
+        <v>0.88870000000000005</v>
+      </c>
+      <c r="K442">
+        <v>1.4038999999999999</v>
+      </c>
+      <c r="L442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D443" t="s">
+        <v>54</v>
+      </c>
+      <c r="E443" t="s">
+        <v>35</v>
+      </c>
+      <c r="F443">
+        <v>0</v>
+      </c>
+      <c r="G443">
+        <v>0</v>
+      </c>
+      <c r="H443">
+        <v>26911.539199999999</v>
+      </c>
+      <c r="I443">
+        <v>0.21829999999999999</v>
+      </c>
+      <c r="J443">
+        <v>0.59730000000000005</v>
+      </c>
+      <c r="K443">
+        <v>1.4093</v>
+      </c>
+      <c r="L443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D444" t="s">
+        <v>54</v>
+      </c>
+      <c r="E444" t="s">
+        <v>35</v>
+      </c>
+      <c r="F444">
+        <v>0</v>
+      </c>
+      <c r="G444">
+        <v>1</v>
+      </c>
+      <c r="H444">
+        <v>25788.474999999999</v>
+      </c>
+      <c r="I444">
+        <v>0.31419999999999998</v>
+      </c>
+      <c r="J444">
+        <v>0.27139999999999997</v>
+      </c>
+      <c r="K444">
+        <v>1.3877999999999999</v>
+      </c>
+      <c r="L444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D445" t="s">
+        <v>54</v>
+      </c>
+      <c r="E445" t="s">
+        <v>35</v>
+      </c>
+      <c r="F445">
+        <v>0</v>
+      </c>
+      <c r="G445">
+        <v>2</v>
+      </c>
+      <c r="H445">
+        <v>17222.985100000002</v>
+      </c>
+      <c r="I445">
+        <v>8.5500000000000007E-2</v>
+      </c>
+      <c r="J445">
+        <v>0.82250000000000001</v>
+      </c>
+      <c r="K445">
+        <v>1.24</v>
+      </c>
+      <c r="L445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D446" t="s">
+        <v>54</v>
+      </c>
+      <c r="E446" t="s">
+        <v>35</v>
+      </c>
+      <c r="F446">
+        <v>1</v>
+      </c>
+      <c r="G446">
+        <v>0</v>
+      </c>
+      <c r="H446">
+        <v>41008.345600000001</v>
+      </c>
+      <c r="I446">
+        <v>0.1318</v>
+      </c>
+      <c r="J446">
+        <v>1.67E-2</v>
+      </c>
+      <c r="K446">
+        <v>1.2388999999999999</v>
+      </c>
+      <c r="L446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D447" t="s">
+        <v>54</v>
+      </c>
+      <c r="E447" t="s">
+        <v>35</v>
+      </c>
+      <c r="F447">
+        <v>1</v>
+      </c>
+      <c r="G447">
+        <v>1</v>
+      </c>
+      <c r="H447">
+        <v>17603.006799999999</v>
+      </c>
+      <c r="I447">
+        <v>9.4799999999999995E-2</v>
+      </c>
+      <c r="J447">
+        <v>1.7085999999999999</v>
+      </c>
+      <c r="K447">
+        <v>1.2778</v>
+      </c>
+      <c r="L447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D448" t="s">
+        <v>54</v>
+      </c>
+      <c r="E448" t="s">
+        <v>35</v>
+      </c>
+      <c r="F448">
+        <v>1</v>
+      </c>
+      <c r="G448">
+        <v>2</v>
+      </c>
+      <c r="H448">
+        <v>21129.208600000002</v>
+      </c>
+      <c r="I448">
+        <v>0.43990000000000001</v>
+      </c>
+      <c r="J448">
+        <v>0.1328</v>
+      </c>
+      <c r="K448">
+        <v>1.5911</v>
+      </c>
+      <c r="L448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D449" t="s">
+        <v>54</v>
+      </c>
+      <c r="E449" t="s">
+        <v>35</v>
+      </c>
+      <c r="F449">
+        <v>2</v>
+      </c>
+      <c r="G449">
+        <v>0</v>
+      </c>
+      <c r="H449">
+        <v>15802.903899999999</v>
+      </c>
+      <c r="I449">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="J449">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="K449">
+        <v>1.3781000000000001</v>
+      </c>
+      <c r="L449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D450" t="s">
+        <v>54</v>
+      </c>
+      <c r="E450" t="s">
+        <v>35</v>
+      </c>
+      <c r="F450">
+        <v>2</v>
+      </c>
+      <c r="G450">
+        <v>1</v>
+      </c>
+      <c r="H450">
+        <v>17608.007099999999</v>
+      </c>
+      <c r="I450">
+        <v>5.5899999999999998E-2</v>
+      </c>
+      <c r="J450">
+        <v>1.5643</v>
+      </c>
+      <c r="K450">
+        <v>1.2979000000000001</v>
+      </c>
+      <c r="L450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D451" t="s">
+        <v>54</v>
+      </c>
+      <c r="E451" t="s">
+        <v>35</v>
+      </c>
+      <c r="F451">
+        <v>2</v>
+      </c>
+      <c r="G451">
+        <v>2</v>
+      </c>
+      <c r="H451">
+        <v>17496.000700000001</v>
+      </c>
+      <c r="I451">
+        <v>0.32669999999999999</v>
+      </c>
+      <c r="J451">
+        <v>3.9977</v>
+      </c>
+      <c r="K451">
+        <v>1.3904000000000001</v>
+      </c>
+      <c r="L451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D452" t="s">
+        <v>54</v>
+      </c>
+      <c r="E452" t="s">
+        <v>55</v>
+      </c>
+      <c r="F452">
+        <v>0</v>
+      </c>
+      <c r="G452">
+        <v>0</v>
+      </c>
+      <c r="H452">
+        <v>22647.295399999999</v>
+      </c>
+      <c r="I452">
+        <v>0</v>
+      </c>
+      <c r="J452">
+        <v>0.89459999999999995</v>
+      </c>
+      <c r="K452">
+        <v>1.4932000000000001</v>
+      </c>
+      <c r="L452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D453" t="s">
+        <v>54</v>
+      </c>
+      <c r="E453" t="s">
+        <v>55</v>
+      </c>
+      <c r="F453">
+        <v>0</v>
+      </c>
+      <c r="G453">
+        <v>1</v>
+      </c>
+      <c r="H453">
+        <v>15547.889300000001</v>
+      </c>
+      <c r="I453">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="J453">
+        <v>1.8556999999999999</v>
+      </c>
+      <c r="K453">
+        <v>1.3975</v>
+      </c>
+      <c r="L453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D454" t="s">
+        <v>54</v>
+      </c>
+      <c r="E454" t="s">
+        <v>55</v>
+      </c>
+      <c r="F454">
+        <v>0</v>
+      </c>
+      <c r="G454">
+        <v>2</v>
+      </c>
+      <c r="H454">
+        <v>27670.582699999999</v>
+      </c>
+      <c r="I454">
+        <v>0.13489999999999999</v>
+      </c>
+      <c r="J454">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="K454">
+        <v>1.8597999999999999</v>
+      </c>
+      <c r="L454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D455" t="s">
+        <v>54</v>
+      </c>
+      <c r="E455" t="s">
+        <v>55</v>
+      </c>
+      <c r="F455">
+        <v>1</v>
+      </c>
+      <c r="G455">
+        <v>0</v>
+      </c>
+      <c r="H455">
+        <v>13239.757299999999</v>
+      </c>
+      <c r="I455">
+        <v>8.72E-2</v>
+      </c>
+      <c r="J455">
+        <v>0</v>
+      </c>
+      <c r="K455">
+        <v>1.8436999999999999</v>
+      </c>
+      <c r="L455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D456" t="s">
+        <v>54</v>
+      </c>
+      <c r="E456" t="s">
+        <v>55</v>
+      </c>
+      <c r="F456">
+        <v>1</v>
+      </c>
+      <c r="G456">
+        <v>1</v>
+      </c>
+      <c r="H456">
+        <v>16270.9306</v>
+      </c>
+      <c r="I456">
+        <v>0.1178</v>
+      </c>
+      <c r="J456">
+        <v>3.3031000000000001</v>
+      </c>
+      <c r="K456">
+        <v>1.4003000000000001</v>
+      </c>
+      <c r="L456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D457" t="s">
+        <v>54</v>
+      </c>
+      <c r="E457" t="s">
+        <v>55</v>
+      </c>
+      <c r="F457">
+        <v>1</v>
+      </c>
+      <c r="G457">
+        <v>2</v>
+      </c>
+      <c r="H457">
+        <v>13855.792600000001</v>
+      </c>
+      <c r="I457">
+        <v>0</v>
+      </c>
+      <c r="J457">
+        <v>0.90380000000000005</v>
+      </c>
+      <c r="K457">
+        <v>1.7103999999999999</v>
+      </c>
+      <c r="L457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D458" t="s">
+        <v>54</v>
+      </c>
+      <c r="E458" t="s">
+        <v>55</v>
+      </c>
+      <c r="F458">
+        <v>2</v>
+      </c>
+      <c r="G458">
+        <v>0</v>
+      </c>
+      <c r="H458">
+        <v>15448.8837</v>
+      </c>
+      <c r="I458">
+        <v>9.4600000000000004E-2</v>
+      </c>
+      <c r="J458">
+        <v>1.5925</v>
+      </c>
+      <c r="K458">
+        <v>1.5607</v>
+      </c>
+      <c r="L458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D459" t="s">
+        <v>54</v>
+      </c>
+      <c r="E459" t="s">
+        <v>55</v>
+      </c>
+      <c r="F459">
+        <v>2</v>
+      </c>
+      <c r="G459">
+        <v>1</v>
+      </c>
+      <c r="H459">
+        <v>33535.918100000003</v>
+      </c>
+      <c r="I459">
+        <v>0.13270000000000001</v>
+      </c>
+      <c r="J459">
+        <v>1.1595</v>
+      </c>
+      <c r="K459">
+        <v>1.7193000000000001</v>
+      </c>
+      <c r="L459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D460" t="s">
+        <v>54</v>
+      </c>
+      <c r="E460" t="s">
+        <v>55</v>
+      </c>
+      <c r="F460">
+        <v>2</v>
+      </c>
+      <c r="G460">
+        <v>2</v>
+      </c>
+      <c r="H460">
+        <v>30803.761900000001</v>
+      </c>
+      <c r="I460">
+        <v>0.16059999999999999</v>
+      </c>
+      <c r="J460">
+        <v>0.83850000000000002</v>
+      </c>
+      <c r="K460">
+        <v>1.5823</v>
+      </c>
+      <c r="L460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D461" t="s">
+        <v>13</v>
+      </c>
+      <c r="E461" t="s">
+        <v>55</v>
+      </c>
+      <c r="F461">
+        <v>0</v>
+      </c>
+      <c r="G461">
+        <v>0</v>
+      </c>
+      <c r="H461">
+        <v>53351.051500000001</v>
+      </c>
+      <c r="I461">
+        <v>0.1799</v>
+      </c>
+      <c r="J461">
+        <v>3.3814000000000002</v>
+      </c>
+      <c r="K461">
+        <v>0</v>
+      </c>
+      <c r="L461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D462" t="s">
+        <v>13</v>
+      </c>
+      <c r="E462" t="s">
+        <v>55</v>
+      </c>
+      <c r="F462">
+        <v>0</v>
+      </c>
+      <c r="G462">
+        <v>1</v>
+      </c>
+      <c r="H462">
+        <v>8063.4611999999997</v>
+      </c>
+      <c r="I462">
+        <v>0.1026</v>
+      </c>
+      <c r="J462">
+        <v>1.7366999999999999</v>
+      </c>
+      <c r="K462">
+        <v>0</v>
+      </c>
+      <c r="L462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D463" t="s">
+        <v>13</v>
+      </c>
+      <c r="E463" t="s">
+        <v>55</v>
+      </c>
+      <c r="F463">
+        <v>0</v>
+      </c>
+      <c r="G463">
+        <v>2</v>
+      </c>
+      <c r="H463">
+        <v>18816.076300000001</v>
+      </c>
+      <c r="I463">
+        <v>7.0199999999999999E-2</v>
+      </c>
+      <c r="J463">
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="K463">
+        <v>0</v>
+      </c>
+      <c r="L463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D464" t="s">
+        <v>13</v>
+      </c>
+      <c r="E464" t="s">
+        <v>55</v>
+      </c>
+      <c r="F464">
+        <v>1</v>
+      </c>
+      <c r="G464">
+        <v>0</v>
+      </c>
+      <c r="H464">
+        <v>10347.591899999999</v>
+      </c>
+      <c r="I464">
+        <v>0.1376</v>
+      </c>
+      <c r="J464">
+        <v>0.17449999999999999</v>
+      </c>
+      <c r="K464">
+        <v>0</v>
+      </c>
+      <c r="L464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D465" t="s">
+        <v>13</v>
+      </c>
+      <c r="E465" t="s">
+        <v>55</v>
+      </c>
+      <c r="F465">
+        <v>1</v>
+      </c>
+      <c r="G465">
+        <v>1</v>
+      </c>
+      <c r="H465">
+        <v>5123.2929999999997</v>
+      </c>
+      <c r="I465">
+        <v>8.6199999999999999E-2</v>
+      </c>
+      <c r="J465">
+        <v>1.3774</v>
+      </c>
+      <c r="K465">
+        <v>0</v>
+      </c>
+      <c r="L465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D466" t="s">
+        <v>13</v>
+      </c>
+      <c r="E466" t="s">
+        <v>55</v>
+      </c>
+      <c r="F466">
+        <v>1</v>
+      </c>
+      <c r="G466">
+        <v>2</v>
+      </c>
+      <c r="H466">
+        <v>9692.5542999999998</v>
+      </c>
+      <c r="I466">
+        <v>9.8299999999999998E-2</v>
+      </c>
+      <c r="J466">
+        <v>0.3619</v>
+      </c>
+      <c r="K466">
+        <v>0</v>
+      </c>
+      <c r="L466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D467" t="s">
+        <v>13</v>
+      </c>
+      <c r="E467" t="s">
+        <v>55</v>
+      </c>
+      <c r="F467">
+        <v>2</v>
+      </c>
+      <c r="G467">
+        <v>0</v>
+      </c>
+      <c r="H467">
+        <v>9307.5323000000008</v>
+      </c>
+      <c r="I467">
+        <v>9.4399999999999998E-2</v>
+      </c>
+      <c r="J467">
+        <v>1.3204</v>
+      </c>
+      <c r="K467">
+        <v>0</v>
+      </c>
+      <c r="L467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D468" t="s">
+        <v>13</v>
+      </c>
+      <c r="E468" t="s">
+        <v>55</v>
+      </c>
+      <c r="F468">
+        <v>2</v>
+      </c>
+      <c r="G468">
+        <v>1</v>
+      </c>
+      <c r="H468">
+        <v>9251.5292000000009</v>
+      </c>
+      <c r="I468">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="J468">
+        <v>2.2839</v>
+      </c>
+      <c r="K468">
+        <v>0</v>
+      </c>
+      <c r="L468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D469" t="s">
+        <v>13</v>
+      </c>
+      <c r="E469" t="s">
+        <v>55</v>
+      </c>
+      <c r="F469">
+        <v>2</v>
+      </c>
+      <c r="G469">
+        <v>2</v>
+      </c>
+      <c r="H469">
+        <v>10107.5782</v>
+      </c>
+      <c r="I469">
+        <v>6.0900000000000003E-2</v>
+      </c>
+      <c r="J469">
+        <v>0.60740000000000005</v>
+      </c>
+      <c r="K469">
+        <v>0</v>
+      </c>
+      <c r="L469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D470" t="s">
+        <v>13</v>
+      </c>
+      <c r="E470" t="s">
+        <v>35</v>
+      </c>
+      <c r="F470">
+        <v>0</v>
+      </c>
+      <c r="G470">
+        <v>0</v>
+      </c>
+      <c r="H470">
+        <v>10807.6181</v>
+      </c>
+      <c r="I470">
+        <v>4.1353</v>
+      </c>
+      <c r="J470">
+        <v>45.909399999999998</v>
+      </c>
+      <c r="K470">
+        <v>0</v>
+      </c>
+      <c r="L470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D471" t="s">
+        <v>13</v>
+      </c>
+      <c r="E471" t="s">
+        <v>35</v>
+      </c>
+      <c r="F471">
+        <v>0</v>
+      </c>
+      <c r="G471">
+        <v>1</v>
+      </c>
+      <c r="H471">
+        <v>58547.348700000002</v>
+      </c>
+      <c r="I471">
+        <v>0.1046</v>
+      </c>
+      <c r="J471">
+        <v>0.74650000000000005</v>
+      </c>
+      <c r="K471">
+        <v>0</v>
+      </c>
+      <c r="L471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D472" t="s">
+        <v>13</v>
+      </c>
+      <c r="E472" t="s">
+        <v>35</v>
+      </c>
+      <c r="F472">
+        <v>0</v>
+      </c>
+      <c r="G472">
+        <v>2</v>
+      </c>
+      <c r="H472">
+        <v>10291.588599999999</v>
+      </c>
+      <c r="I472">
+        <v>0.31419999999999998</v>
+      </c>
+      <c r="J472">
+        <v>1.4423999999999999</v>
+      </c>
+      <c r="K472">
+        <v>0</v>
+      </c>
+      <c r="L472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D473" t="s">
+        <v>13</v>
+      </c>
+      <c r="E473" t="s">
+        <v>35</v>
+      </c>
+      <c r="F473">
+        <v>1</v>
+      </c>
+      <c r="G473">
+        <v>0</v>
+      </c>
+      <c r="H473">
+        <v>10379.5936</v>
+      </c>
+      <c r="I473">
+        <v>0.1205</v>
+      </c>
+      <c r="J473">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="K473">
+        <v>0</v>
+      </c>
+      <c r="L473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D474" t="s">
+        <v>13</v>
+      </c>
+      <c r="E474" t="s">
+        <v>35</v>
+      </c>
+      <c r="F474">
+        <v>1</v>
+      </c>
+      <c r="G474">
+        <v>1</v>
+      </c>
+      <c r="H474">
+        <v>8511.4868000000006</v>
+      </c>
+      <c r="I474">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="J474">
+        <v>0.55630000000000002</v>
+      </c>
+      <c r="K474">
+        <v>0</v>
+      </c>
+      <c r="L474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D475" t="s">
+        <v>13</v>
+      </c>
+      <c r="E475" t="s">
+        <v>35</v>
+      </c>
+      <c r="F475">
+        <v>1</v>
+      </c>
+      <c r="G475">
+        <v>2</v>
+      </c>
+      <c r="H475">
+        <v>9524.5447999999997</v>
+      </c>
+      <c r="I475">
+        <v>0.26729999999999998</v>
+      </c>
+      <c r="J475">
+        <v>0.98440000000000005</v>
+      </c>
+      <c r="K475">
+        <v>0</v>
+      </c>
+      <c r="L475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D476" t="s">
+        <v>13</v>
+      </c>
+      <c r="E476" t="s">
+        <v>35</v>
+      </c>
+      <c r="F476">
+        <v>2</v>
+      </c>
+      <c r="G476">
+        <v>0</v>
+      </c>
+      <c r="H476">
+        <v>9546.5460999999996</v>
+      </c>
+      <c r="I476">
+        <v>0.1298</v>
+      </c>
+      <c r="J476">
+        <v>0.1206</v>
+      </c>
+      <c r="K476">
+        <v>0</v>
+      </c>
+      <c r="L476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D477" t="s">
+        <v>13</v>
+      </c>
+      <c r="E477" t="s">
+        <v>35</v>
+      </c>
+      <c r="F477">
+        <v>2</v>
+      </c>
+      <c r="G477">
+        <v>1</v>
+      </c>
+      <c r="H477">
+        <v>11097.634700000001</v>
+      </c>
+      <c r="I477">
+        <v>0.24909999999999999</v>
+      </c>
+      <c r="J477">
+        <v>0.5927</v>
+      </c>
+      <c r="K477">
+        <v>0</v>
+      </c>
+      <c r="L477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D478" t="s">
+        <v>13</v>
+      </c>
+      <c r="E478" t="s">
+        <v>35</v>
+      </c>
+      <c r="F478">
+        <v>2</v>
+      </c>
+      <c r="G478">
+        <v>2</v>
+      </c>
+      <c r="H478">
+        <v>12127.693600000001</v>
+      </c>
+      <c r="I478">
+        <v>0.15970000000000001</v>
+      </c>
+      <c r="J478">
+        <v>2.7263000000000002</v>
+      </c>
+      <c r="K478">
+        <v>0</v>
+      </c>
+      <c r="L478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D479" t="s">
+        <v>13</v>
+      </c>
+      <c r="E479" t="s">
+        <v>14</v>
+      </c>
+      <c r="F479">
+        <v>0</v>
+      </c>
+      <c r="G479">
+        <v>0</v>
+      </c>
+      <c r="H479">
+        <v>31465.799800000001</v>
+      </c>
+      <c r="I479">
+        <v>0.13059999999999999</v>
+      </c>
+      <c r="J479">
+        <v>0.67720000000000002</v>
+      </c>
+      <c r="K479">
+        <v>0</v>
+      </c>
+      <c r="L479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D480" t="s">
+        <v>13</v>
+      </c>
+      <c r="E480" t="s">
+        <v>14</v>
+      </c>
+      <c r="F480">
+        <v>0</v>
+      </c>
+      <c r="G480">
+        <v>1</v>
+      </c>
+      <c r="H480">
+        <v>9875.5648000000001</v>
+      </c>
+      <c r="I480">
+        <v>6.1009000000000002</v>
+      </c>
+      <c r="J480">
+        <v>27.176400000000001</v>
+      </c>
+      <c r="K480">
+        <v>0</v>
+      </c>
+      <c r="L480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D481" t="s">
+        <v>13</v>
+      </c>
+      <c r="E481" t="s">
+        <v>14</v>
+      </c>
+      <c r="F481">
+        <v>0</v>
+      </c>
+      <c r="G481">
+        <v>2</v>
+      </c>
+      <c r="H481">
+        <v>6887.3940000000002</v>
+      </c>
+      <c r="I481">
+        <v>4.4541000000000004</v>
+      </c>
+      <c r="J481">
+        <v>28.072500000000002</v>
+      </c>
+      <c r="K481">
+        <v>0</v>
+      </c>
+      <c r="L481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D482" t="s">
+        <v>13</v>
+      </c>
+      <c r="E482" t="s">
+        <v>14</v>
+      </c>
+      <c r="F482">
+        <v>1</v>
+      </c>
+      <c r="G482">
+        <v>0</v>
+      </c>
+      <c r="H482">
+        <v>4408.2520999999997</v>
+      </c>
+      <c r="I482">
+        <v>5.7897999999999996</v>
+      </c>
+      <c r="J482">
+        <v>26.222000000000001</v>
+      </c>
+      <c r="K482">
+        <v>0</v>
+      </c>
+      <c r="L482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D483" t="s">
+        <v>13</v>
+      </c>
+      <c r="E483" t="s">
+        <v>14</v>
+      </c>
+      <c r="F483">
+        <v>1</v>
+      </c>
+      <c r="G483">
+        <v>1</v>
+      </c>
+      <c r="H483">
+        <v>2172.1242000000002</v>
+      </c>
+      <c r="I483">
+        <v>8.7904</v>
+      </c>
+      <c r="J483">
+        <v>35.642600000000002</v>
+      </c>
+      <c r="K483">
+        <v>0</v>
+      </c>
+      <c r="L483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D484" t="s">
+        <v>13</v>
+      </c>
+      <c r="E484" t="s">
+        <v>14</v>
+      </c>
+      <c r="F484">
+        <v>1</v>
+      </c>
+      <c r="G484">
+        <v>2</v>
+      </c>
+      <c r="H484">
+        <v>2960.1693</v>
+      </c>
+      <c r="I484">
+        <v>7.7582000000000004</v>
+      </c>
+      <c r="J484">
+        <v>32.171199999999999</v>
+      </c>
+      <c r="K484">
+        <v>0</v>
+      </c>
+      <c r="L484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D485" t="s">
+        <v>13</v>
+      </c>
+      <c r="E485" t="s">
+        <v>14</v>
+      </c>
+      <c r="F485">
+        <v>2</v>
+      </c>
+      <c r="G485">
+        <v>0</v>
+      </c>
+      <c r="H485">
+        <v>3315.1896999999999</v>
+      </c>
+      <c r="I485">
+        <v>7.1197999999999997</v>
+      </c>
+      <c r="J485">
+        <v>38.991</v>
+      </c>
+      <c r="K485">
+        <v>0</v>
+      </c>
+      <c r="L485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D486" t="s">
+        <v>13</v>
+      </c>
+      <c r="E486" t="s">
+        <v>14</v>
+      </c>
+      <c r="F486">
+        <v>2</v>
+      </c>
+      <c r="G486">
+        <v>1</v>
+      </c>
+      <c r="H486">
+        <v>4352.2489999999998</v>
+      </c>
+      <c r="I486">
+        <v>6.3429000000000002</v>
+      </c>
+      <c r="J486">
+        <v>28.958400000000001</v>
+      </c>
+      <c r="K486">
+        <v>0</v>
+      </c>
+      <c r="L486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D487" t="s">
+        <v>13</v>
+      </c>
+      <c r="E487" t="s">
+        <v>14</v>
+      </c>
+      <c r="F487">
+        <v>2</v>
+      </c>
+      <c r="G487">
+        <v>2</v>
+      </c>
+      <c r="H487">
+        <v>8975.5133999999998</v>
+      </c>
+      <c r="I487">
+        <v>5.8992000000000004</v>
+      </c>
+      <c r="J487">
+        <v>28.244299999999999</v>
+      </c>
+      <c r="K487">
+        <v>0</v>
+      </c>
+      <c r="L487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D488" t="s">
+        <v>13</v>
+      </c>
+      <c r="E488" t="s">
+        <v>14</v>
+      </c>
+      <c r="F488">
+        <v>0</v>
+      </c>
+      <c r="G488">
+        <v>0</v>
+      </c>
+      <c r="H488">
+        <v>34314.962800000001</v>
+      </c>
+      <c r="I488">
+        <v>0.21970000000000001</v>
+      </c>
+      <c r="J488">
+        <v>0.32369999999999999</v>
+      </c>
+      <c r="K488">
+        <v>0</v>
+      </c>
+      <c r="L488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D489" t="s">
+        <v>13</v>
+      </c>
+      <c r="E489" t="s">
+        <v>14</v>
+      </c>
+      <c r="F489">
+        <v>0</v>
+      </c>
+      <c r="G489">
+        <v>1</v>
+      </c>
+      <c r="H489">
+        <v>12447.712</v>
+      </c>
+      <c r="I489">
+        <v>0.20050000000000001</v>
+      </c>
+      <c r="J489">
+        <v>2.7927</v>
+      </c>
+      <c r="K489">
+        <v>0</v>
+      </c>
+      <c r="L489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D490" t="s">
+        <v>13</v>
+      </c>
+      <c r="E490" t="s">
+        <v>14</v>
+      </c>
+      <c r="F490">
+        <v>0</v>
+      </c>
+      <c r="G490">
+        <v>2</v>
+      </c>
+      <c r="H490">
+        <v>11335.648300000001</v>
+      </c>
+      <c r="I490">
+        <v>0.15629999999999999</v>
+      </c>
+      <c r="J490">
+        <v>0</v>
+      </c>
+      <c r="K490">
+        <v>0</v>
+      </c>
+      <c r="L490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D491" t="s">
+        <v>13</v>
+      </c>
+      <c r="E491" t="s">
+        <v>14</v>
+      </c>
+      <c r="F491">
+        <v>1</v>
+      </c>
+      <c r="G491">
+        <v>0</v>
+      </c>
+      <c r="H491">
+        <v>18267.0448</v>
+      </c>
+      <c r="I491">
+        <v>6.0100000000000001E-2</v>
+      </c>
+      <c r="J491">
+        <v>1.9527000000000001</v>
+      </c>
+      <c r="K491">
+        <v>0</v>
+      </c>
+      <c r="L491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D492" t="s">
+        <v>13</v>
+      </c>
+      <c r="E492" t="s">
+        <v>14</v>
+      </c>
+      <c r="F492">
+        <v>1</v>
+      </c>
+      <c r="G492">
+        <v>1</v>
+      </c>
+      <c r="H492">
+        <v>15815.9046</v>
+      </c>
+      <c r="I492">
+        <v>7.4499999999999997E-2</v>
+      </c>
+      <c r="J492">
+        <v>0.83430000000000004</v>
+      </c>
+      <c r="K492">
+        <v>0</v>
+      </c>
+      <c r="L492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D493" t="s">
+        <v>13</v>
+      </c>
+      <c r="E493" t="s">
+        <v>14</v>
+      </c>
+      <c r="F493">
+        <v>1</v>
+      </c>
+      <c r="G493">
+        <v>2</v>
+      </c>
+      <c r="H493">
+        <v>13035.7456</v>
+      </c>
+      <c r="I493">
+        <v>7.7899999999999997E-2</v>
+      </c>
+      <c r="J493">
+        <v>0.84670000000000001</v>
+      </c>
+      <c r="K493">
+        <v>0</v>
+      </c>
+      <c r="L493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D494" t="s">
+        <v>13</v>
+      </c>
+      <c r="E494" t="s">
+        <v>14</v>
+      </c>
+      <c r="F494">
+        <v>2</v>
+      </c>
+      <c r="G494">
+        <v>0</v>
+      </c>
+      <c r="H494">
+        <v>12971.742</v>
+      </c>
+      <c r="I494">
+        <v>0.13</v>
+      </c>
+      <c r="J494">
+        <v>1.1751</v>
+      </c>
+      <c r="K494">
+        <v>0</v>
+      </c>
+      <c r="L494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D495" t="s">
+        <v>13</v>
+      </c>
+      <c r="E495" t="s">
+        <v>14</v>
+      </c>
+      <c r="F495">
+        <v>2</v>
+      </c>
+      <c r="G495">
+        <v>1</v>
+      </c>
+      <c r="H495">
+        <v>14578.8339</v>
+      </c>
+      <c r="I495">
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="J495">
+        <v>4.8156999999999996</v>
+      </c>
+      <c r="K495">
+        <v>0</v>
+      </c>
+      <c r="L495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D496" t="s">
+        <v>13</v>
+      </c>
+      <c r="E496" t="s">
+        <v>14</v>
+      </c>
+      <c r="F496">
+        <v>2</v>
+      </c>
+      <c r="G496">
+        <v>2</v>
+      </c>
+      <c r="H496">
+        <v>11663.6672</v>
+      </c>
+      <c r="I496">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="J496">
+        <v>9.6118000000000006</v>
+      </c>
+      <c r="K496">
+        <v>0</v>
+      </c>
+      <c r="L496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D497" t="s">
+        <v>13</v>
+      </c>
+      <c r="E497" t="s">
+        <v>35</v>
+      </c>
+      <c r="F497">
+        <v>0</v>
+      </c>
+      <c r="G497">
+        <v>0</v>
+      </c>
+      <c r="H497">
+        <v>23432.3403</v>
+      </c>
+      <c r="I497">
+        <v>9.5311000000000003</v>
+      </c>
+      <c r="J497">
+        <v>28.1492</v>
+      </c>
+      <c r="K497">
+        <v>0</v>
+      </c>
+      <c r="L497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D498" t="s">
+        <v>13</v>
+      </c>
+      <c r="E498" t="s">
+        <v>35</v>
+      </c>
+      <c r="F498">
+        <v>0</v>
+      </c>
+      <c r="G498">
+        <v>1</v>
+      </c>
+      <c r="H498">
+        <v>6243.3571000000002</v>
+      </c>
+      <c r="I498">
+        <v>10.8238</v>
+      </c>
+      <c r="J498">
+        <v>49.664200000000001</v>
+      </c>
+      <c r="K498">
+        <v>0</v>
+      </c>
+      <c r="L498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D499" t="s">
+        <v>13</v>
+      </c>
+      <c r="E499" t="s">
+        <v>35</v>
+      </c>
+      <c r="F499">
+        <v>0</v>
+      </c>
+      <c r="G499">
+        <v>2</v>
+      </c>
+      <c r="H499">
+        <v>4665.2668000000003</v>
+      </c>
+      <c r="I499">
+        <v>18.4163</v>
+      </c>
+      <c r="J499">
+        <v>49.6355</v>
+      </c>
+      <c r="K499">
+        <v>0</v>
+      </c>
+      <c r="L499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D500" t="s">
+        <v>13</v>
+      </c>
+      <c r="E500" t="s">
+        <v>35</v>
+      </c>
+      <c r="F500">
+        <v>1</v>
+      </c>
+      <c r="G500">
+        <v>0</v>
+      </c>
+      <c r="H500">
+        <v>6891.3941999999997</v>
+      </c>
+      <c r="I500">
+        <v>7.3015999999999996</v>
+      </c>
+      <c r="J500">
+        <v>44.868299999999998</v>
+      </c>
+      <c r="K500">
+        <v>0</v>
+      </c>
+      <c r="L500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D501" t="s">
+        <v>13</v>
+      </c>
+      <c r="E501" t="s">
+        <v>35</v>
+      </c>
+      <c r="F501">
+        <v>1</v>
+      </c>
+      <c r="G501">
+        <v>1</v>
+      </c>
+      <c r="H501">
+        <v>1884.1077</v>
+      </c>
+      <c r="I501">
+        <v>5.8856000000000002</v>
+      </c>
+      <c r="J501">
+        <v>45.673999999999999</v>
+      </c>
+      <c r="K501">
+        <v>0</v>
+      </c>
+      <c r="L501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D502" t="s">
+        <v>13</v>
+      </c>
+      <c r="E502" t="s">
+        <v>35</v>
+      </c>
+      <c r="F502">
+        <v>1</v>
+      </c>
+      <c r="G502">
+        <v>2</v>
+      </c>
+      <c r="H502">
+        <v>7667.4386000000004</v>
+      </c>
+      <c r="I502">
+        <v>7.1181999999999999</v>
+      </c>
+      <c r="J502">
+        <v>53.6252</v>
+      </c>
+      <c r="K502">
+        <v>0</v>
+      </c>
+      <c r="L502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D503" t="s">
+        <v>13</v>
+      </c>
+      <c r="E503" t="s">
+        <v>35</v>
+      </c>
+      <c r="F503">
+        <v>2</v>
+      </c>
+      <c r="G503">
+        <v>0</v>
+      </c>
+      <c r="H503">
+        <v>7363.4211999999998</v>
+      </c>
+      <c r="I503">
+        <v>10.4194</v>
+      </c>
+      <c r="J503">
+        <v>49.356999999999999</v>
+      </c>
+      <c r="K503">
+        <v>0</v>
+      </c>
+      <c r="L503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D504" t="s">
+        <v>13</v>
+      </c>
+      <c r="E504" t="s">
+        <v>35</v>
+      </c>
+      <c r="F504">
+        <v>2</v>
+      </c>
+      <c r="G504">
+        <v>1</v>
+      </c>
+      <c r="H504">
+        <v>8827.5048999999999</v>
+      </c>
+      <c r="I504">
+        <v>7.8251999999999997</v>
+      </c>
+      <c r="J504">
+        <v>47.197600000000001</v>
+      </c>
+      <c r="K504">
+        <v>0</v>
+      </c>
+      <c r="L504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D505" t="s">
+        <v>13</v>
+      </c>
+      <c r="E505" t="s">
+        <v>35</v>
+      </c>
+      <c r="F505">
+        <v>2</v>
+      </c>
+      <c r="G505">
+        <v>2</v>
+      </c>
+      <c r="H505">
+        <v>4747.2714999999998</v>
+      </c>
+      <c r="I505">
+        <v>8.9830000000000005</v>
+      </c>
+      <c r="J505">
+        <v>50.245699999999999</v>
+      </c>
+      <c r="K505">
+        <v>0</v>
+      </c>
+      <c r="L505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D506" t="s">
+        <v>13</v>
+      </c>
+      <c r="E506" t="s">
+        <v>55</v>
+      </c>
+      <c r="F506">
+        <v>0</v>
+      </c>
+      <c r="G506">
+        <v>0</v>
+      </c>
+      <c r="H506">
+        <v>13110.7498</v>
+      </c>
+      <c r="I506">
+        <v>2.8523999999999998</v>
+      </c>
+      <c r="J506">
+        <v>40.469000000000001</v>
+      </c>
+      <c r="K506">
+        <v>0</v>
+      </c>
+      <c r="L506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D507" t="s">
+        <v>13</v>
+      </c>
+      <c r="E507" t="s">
+        <v>55</v>
+      </c>
+      <c r="F507">
+        <v>0</v>
+      </c>
+      <c r="G507">
+        <v>1</v>
+      </c>
+      <c r="H507">
+        <v>29675.6973</v>
+      </c>
+      <c r="I507">
+        <v>0.71319999999999995</v>
+      </c>
+      <c r="J507">
+        <v>0.97189999999999999</v>
+      </c>
+      <c r="K507">
+        <v>0</v>
+      </c>
+      <c r="L507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D508" t="s">
+        <v>13</v>
+      </c>
+      <c r="E508" t="s">
+        <v>55</v>
+      </c>
+      <c r="F508">
+        <v>0</v>
+      </c>
+      <c r="G508">
+        <v>2</v>
+      </c>
+      <c r="H508">
+        <v>10571.6047</v>
+      </c>
+      <c r="I508">
+        <v>0.29380000000000001</v>
+      </c>
+      <c r="J508">
+        <v>0.71619999999999995</v>
+      </c>
+      <c r="K508">
+        <v>0</v>
+      </c>
+      <c r="L508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D509" t="s">
+        <v>13</v>
+      </c>
+      <c r="E509" t="s">
+        <v>55</v>
+      </c>
+      <c r="F509">
+        <v>1</v>
+      </c>
+      <c r="G509">
+        <v>0</v>
+      </c>
+      <c r="H509">
+        <v>9687.5540999999994</v>
+      </c>
+      <c r="I509">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="J509">
+        <v>0.8488</v>
+      </c>
+      <c r="K509">
+        <v>0</v>
+      </c>
+      <c r="L509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D510" t="s">
+        <v>13</v>
+      </c>
+      <c r="E510" t="s">
+        <v>55</v>
+      </c>
+      <c r="F510">
+        <v>1</v>
+      </c>
+      <c r="G510">
+        <v>1</v>
+      </c>
+      <c r="H510">
+        <v>8235.4709999999995</v>
+      </c>
+      <c r="I510">
+        <v>2.8299999999999999E-2</v>
+      </c>
+      <c r="J510">
+        <v>1.2018</v>
+      </c>
+      <c r="K510">
+        <v>0</v>
+      </c>
+      <c r="L510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D511" t="s">
+        <v>13</v>
+      </c>
+      <c r="E511" t="s">
+        <v>55</v>
+      </c>
+      <c r="F511">
+        <v>1</v>
+      </c>
+      <c r="G511">
+        <v>2</v>
+      </c>
+      <c r="H511">
+        <v>8475.4848000000002</v>
+      </c>
+      <c r="I511">
+        <v>7.2700000000000001E-2</v>
+      </c>
+      <c r="J511">
+        <v>3.9005000000000001</v>
+      </c>
+      <c r="K511">
+        <v>0</v>
+      </c>
+      <c r="L511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D512" t="s">
+        <v>13</v>
+      </c>
+      <c r="E512" t="s">
+        <v>55</v>
+      </c>
+      <c r="F512">
+        <v>2</v>
+      </c>
+      <c r="G512">
+        <v>0</v>
+      </c>
+      <c r="H512">
+        <v>16341.9347</v>
+      </c>
+      <c r="I512">
+        <v>0.15840000000000001</v>
+      </c>
+      <c r="J512">
+        <v>2.4628000000000001</v>
+      </c>
+      <c r="K512">
+        <v>0</v>
+      </c>
+      <c r="L512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D513" t="s">
+        <v>13</v>
+      </c>
+      <c r="E513" t="s">
+        <v>55</v>
+      </c>
+      <c r="F513">
+        <v>2</v>
+      </c>
+      <c r="G513">
+        <v>1</v>
+      </c>
+      <c r="H513">
+        <v>10162.5813</v>
+      </c>
+      <c r="I513">
+        <v>0.24390000000000001</v>
+      </c>
+      <c r="J513">
+        <v>2.5830000000000002</v>
+      </c>
+      <c r="K513">
+        <v>0</v>
+      </c>
+      <c r="L513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D514" t="s">
+        <v>13</v>
+      </c>
+      <c r="E514" t="s">
+        <v>55</v>
+      </c>
+      <c r="F514">
+        <v>2</v>
+      </c>
+      <c r="G514">
+        <v>2</v>
+      </c>
+      <c r="H514">
+        <v>11496.657499999999</v>
+      </c>
+      <c r="I514">
+        <v>0.33189999999999997</v>
+      </c>
+      <c r="J514">
+        <v>1.1233</v>
+      </c>
+      <c r="K514">
+        <v>0</v>
+      </c>
+      <c r="L514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D515" t="s">
+        <v>54</v>
+      </c>
+      <c r="E515" t="s">
+        <v>55</v>
+      </c>
+      <c r="F515">
+        <v>0</v>
+      </c>
+      <c r="G515">
+        <v>0</v>
+      </c>
+      <c r="H515">
+        <v>34579.977899999998</v>
+      </c>
+      <c r="I515">
+        <v>3.5799999999999998E-2</v>
+      </c>
+      <c r="J515">
+        <v>0.76949999999999996</v>
+      </c>
+      <c r="K515">
+        <v>2.0440999999999998</v>
+      </c>
+      <c r="L515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D516" t="s">
+        <v>54</v>
+      </c>
+      <c r="E516" t="s">
+        <v>55</v>
+      </c>
+      <c r="F516">
+        <v>0</v>
+      </c>
+      <c r="G516">
+        <v>1</v>
+      </c>
+      <c r="H516">
+        <v>11488.6571</v>
+      </c>
+      <c r="I516">
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="J516">
+        <v>0.14019999999999999</v>
+      </c>
+      <c r="K516">
+        <v>1.298</v>
+      </c>
+      <c r="L516">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D517" t="s">
+        <v>54</v>
+      </c>
+      <c r="E517" t="s">
+        <v>55</v>
+      </c>
+      <c r="F517">
+        <v>0</v>
+      </c>
+      <c r="G517">
+        <v>2</v>
+      </c>
+      <c r="H517">
+        <v>10587.6055</v>
+      </c>
+      <c r="I517">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J517">
+        <v>0.75149999999999995</v>
+      </c>
+      <c r="K517">
+        <v>1.2943</v>
+      </c>
+      <c r="L517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D518" t="s">
+        <v>54</v>
+      </c>
+      <c r="E518" t="s">
+        <v>55</v>
+      </c>
+      <c r="F518">
+        <v>1</v>
+      </c>
+      <c r="G518">
+        <v>0</v>
+      </c>
+      <c r="H518">
+        <v>4175.2388000000001</v>
+      </c>
+      <c r="I518">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="J518">
+        <v>8.3099999999999993E-2</v>
+      </c>
+      <c r="K518">
+        <v>4.0930999999999997</v>
+      </c>
+      <c r="L518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D519" t="s">
+        <v>54</v>
+      </c>
+      <c r="E519" t="s">
+        <v>55</v>
+      </c>
+      <c r="F519">
+        <v>1</v>
+      </c>
+      <c r="G519">
+        <v>1</v>
+      </c>
+      <c r="H519">
+        <v>17166.981899999999</v>
+      </c>
+      <c r="I519">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="J519">
+        <v>4.2290000000000001</v>
+      </c>
+      <c r="K519">
+        <v>1.4302999999999999</v>
+      </c>
+      <c r="L519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D520" t="s">
+        <v>54</v>
+      </c>
+      <c r="E520" t="s">
+        <v>55</v>
+      </c>
+      <c r="F520">
+        <v>1</v>
+      </c>
+      <c r="G520">
+        <v>2</v>
+      </c>
+      <c r="H520">
+        <v>10811.618399999999</v>
+      </c>
+      <c r="I520">
+        <v>6.4699999999999994E-2</v>
+      </c>
+      <c r="J520">
+        <v>2.8119000000000001</v>
+      </c>
+      <c r="K520">
+        <v>1.3956999999999999</v>
+      </c>
+      <c r="L520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D521" t="s">
+        <v>54</v>
+      </c>
+      <c r="E521" t="s">
+        <v>55</v>
+      </c>
+      <c r="F521">
+        <v>2</v>
+      </c>
+      <c r="G521">
+        <v>0</v>
+      </c>
+      <c r="H521">
+        <v>12416.7102</v>
+      </c>
+      <c r="I521">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="J521">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="K521">
+        <v>1.2730999999999999</v>
+      </c>
+      <c r="L521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D522" t="s">
+        <v>54</v>
+      </c>
+      <c r="E522" t="s">
+        <v>55</v>
+      </c>
+      <c r="F522">
+        <v>2</v>
+      </c>
+      <c r="G522">
+        <v>1</v>
+      </c>
+      <c r="H522">
+        <v>9111.5211999999992</v>
+      </c>
+      <c r="I522">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="J522">
+        <v>0.38719999999999999</v>
+      </c>
+      <c r="K522">
+        <v>1.3371</v>
+      </c>
+      <c r="L522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D523" t="s">
+        <v>54</v>
+      </c>
+      <c r="E523" t="s">
+        <v>55</v>
+      </c>
+      <c r="F523">
+        <v>2</v>
+      </c>
+      <c r="G523">
+        <v>2</v>
+      </c>
+      <c r="H523">
+        <v>14947.855</v>
+      </c>
+      <c r="I523">
+        <v>8.8900000000000007E-2</v>
+      </c>
+      <c r="J523">
+        <v>0.23089999999999999</v>
+      </c>
+      <c r="K523">
+        <v>1.2844</v>
+      </c>
+      <c r="L523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D524" t="s">
+        <v>54</v>
+      </c>
+      <c r="E524" t="s">
+        <v>35</v>
+      </c>
+      <c r="F524">
+        <v>0</v>
+      </c>
+      <c r="G524">
+        <v>0</v>
+      </c>
+      <c r="H524">
+        <v>10639.6085</v>
+      </c>
+      <c r="I524">
+        <v>2.5100000000000001E-2</v>
+      </c>
+      <c r="J524">
+        <v>0.84409999999999996</v>
+      </c>
+      <c r="K524">
+        <v>1.2315</v>
+      </c>
+      <c r="L524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D525" t="s">
+        <v>54</v>
+      </c>
+      <c r="E525" t="s">
+        <v>35</v>
+      </c>
+      <c r="F525">
+        <v>0</v>
+      </c>
+      <c r="G525">
+        <v>1</v>
+      </c>
+      <c r="H525">
+        <v>11387.6513</v>
+      </c>
+      <c r="I525">
+        <v>0.129</v>
+      </c>
+      <c r="J525">
+        <v>0.36209999999999998</v>
+      </c>
+      <c r="K525">
+        <v>1.2296</v>
+      </c>
+      <c r="L525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D526" t="s">
+        <v>54</v>
+      </c>
+      <c r="E526" t="s">
+        <v>35</v>
+      </c>
+      <c r="F526">
+        <v>0</v>
+      </c>
+      <c r="G526">
+        <v>2</v>
+      </c>
+      <c r="H526">
+        <v>17668.0105</v>
+      </c>
+      <c r="I526">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="J526">
+        <v>0.75580000000000003</v>
+      </c>
+      <c r="K526">
+        <v>1.2141999999999999</v>
+      </c>
+      <c r="L526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D527" t="s">
+        <v>54</v>
+      </c>
+      <c r="E527" t="s">
+        <v>35</v>
+      </c>
+      <c r="F527">
+        <v>1</v>
+      </c>
+      <c r="G527">
+        <v>0</v>
+      </c>
+      <c r="H527">
+        <v>10975.627699999999</v>
+      </c>
+      <c r="I527">
+        <v>7.3400000000000007E-2</v>
+      </c>
+      <c r="J527">
+        <v>1.052</v>
+      </c>
+      <c r="K527">
+        <v>1.2598</v>
+      </c>
+      <c r="L527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D528" t="s">
+        <v>54</v>
+      </c>
+      <c r="E528" t="s">
+        <v>35</v>
+      </c>
+      <c r="F528">
+        <v>1</v>
+      </c>
+      <c r="G528">
+        <v>1</v>
+      </c>
+      <c r="H528">
+        <v>14951.8552</v>
+      </c>
+      <c r="I528">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="J528">
+        <v>0.115</v>
+      </c>
+      <c r="K528">
+        <v>1.1712</v>
+      </c>
+      <c r="L528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D529" t="s">
+        <v>54</v>
+      </c>
+      <c r="E529" t="s">
+        <v>35</v>
+      </c>
+      <c r="F529">
+        <v>1</v>
+      </c>
+      <c r="G529">
+        <v>2</v>
+      </c>
+      <c r="H529">
+        <v>17042.9748</v>
+      </c>
+      <c r="I529">
+        <v>7.51E-2</v>
+      </c>
+      <c r="J529">
+        <v>1.2746999999999999</v>
+      </c>
+      <c r="K529">
+        <v>1.2275</v>
+      </c>
+      <c r="L529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D530" t="s">
+        <v>54</v>
+      </c>
+      <c r="E530" t="s">
+        <v>35</v>
+      </c>
+      <c r="F530">
+        <v>2</v>
+      </c>
+      <c r="G530">
+        <v>0</v>
+      </c>
+      <c r="H530">
+        <v>10170.581700000001</v>
+      </c>
+      <c r="I530">
+        <v>0.14410000000000001</v>
+      </c>
+      <c r="J530">
+        <v>1.8977999999999999</v>
+      </c>
+      <c r="K530">
+        <v>1.2324999999999999</v>
+      </c>
+      <c r="L530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D531" t="s">
+        <v>54</v>
+      </c>
+      <c r="E531" t="s">
+        <v>35</v>
+      </c>
+      <c r="F531">
+        <v>2</v>
+      </c>
+      <c r="G531">
+        <v>1</v>
+      </c>
+      <c r="H531">
+        <v>9032.5167000000001</v>
+      </c>
+      <c r="I531">
+        <v>3.56E-2</v>
+      </c>
+      <c r="J531">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="K531">
+        <v>1.2259</v>
+      </c>
+      <c r="L531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D532" t="s">
+        <v>54</v>
+      </c>
+      <c r="E532" t="s">
+        <v>35</v>
+      </c>
+      <c r="F532">
+        <v>2</v>
+      </c>
+      <c r="G532">
+        <v>2</v>
+      </c>
+      <c r="H532">
+        <v>12443.711799999999</v>
+      </c>
+      <c r="I532">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="J532">
+        <v>0.74760000000000004</v>
+      </c>
+      <c r="K532">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="L532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D533" t="s">
+        <v>54</v>
+      </c>
+      <c r="E533" t="s">
+        <v>14</v>
+      </c>
+      <c r="F533">
+        <v>0</v>
+      </c>
+      <c r="G533">
+        <v>0</v>
+      </c>
+      <c r="H533">
+        <v>15691.8976</v>
+      </c>
+      <c r="I533">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="J533">
+        <v>0.34710000000000002</v>
+      </c>
+      <c r="K533">
+        <v>1.4729000000000001</v>
+      </c>
+      <c r="L533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D534" t="s">
+        <v>54</v>
+      </c>
+      <c r="E534" t="s">
+        <v>14</v>
+      </c>
+      <c r="F534">
+        <v>0</v>
+      </c>
+      <c r="G534">
+        <v>1</v>
+      </c>
+      <c r="H534">
+        <v>12771.7305</v>
+      </c>
+      <c r="I534">
+        <v>0.11310000000000001</v>
+      </c>
+      <c r="J534">
+        <v>2.76E-2</v>
+      </c>
+      <c r="K534">
+        <v>1.3726</v>
+      </c>
+      <c r="L534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D535" t="s">
+        <v>54</v>
+      </c>
+      <c r="E535" t="s">
+        <v>14</v>
+      </c>
+      <c r="F535">
+        <v>0</v>
+      </c>
+      <c r="G535">
+        <v>2</v>
+      </c>
+      <c r="H535">
+        <v>13711.7842</v>
+      </c>
+      <c r="I535">
+        <v>0.1027</v>
+      </c>
+      <c r="J535">
+        <v>0.1255</v>
+      </c>
+      <c r="K535">
+        <v>1.395</v>
+      </c>
+      <c r="L535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D536" t="s">
+        <v>54</v>
+      </c>
+      <c r="E536" t="s">
+        <v>14</v>
+      </c>
+      <c r="F536">
+        <v>1</v>
+      </c>
+      <c r="G536">
+        <v>0</v>
+      </c>
+      <c r="H536">
+        <v>10234.5854</v>
+      </c>
+      <c r="I536">
+        <v>7.22E-2</v>
+      </c>
+      <c r="J536">
+        <v>3.0308000000000002</v>
+      </c>
+      <c r="K536">
+        <v>1.2968999999999999</v>
+      </c>
+      <c r="L536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D537" t="s">
+        <v>54</v>
+      </c>
+      <c r="E537" t="s">
+        <v>14</v>
+      </c>
+      <c r="F537">
+        <v>1</v>
+      </c>
+      <c r="G537">
+        <v>1</v>
+      </c>
+      <c r="H537">
+        <v>20900.195400000001</v>
+      </c>
+      <c r="I537">
+        <v>5.0599999999999999E-2</v>
+      </c>
+      <c r="J537">
+        <v>0.36720000000000003</v>
+      </c>
+      <c r="K537">
+        <v>1.2761</v>
+      </c>
+      <c r="L537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D538" t="s">
+        <v>54</v>
+      </c>
+      <c r="E538" t="s">
+        <v>14</v>
+      </c>
+      <c r="F538">
+        <v>1</v>
+      </c>
+      <c r="G538">
+        <v>2</v>
+      </c>
+      <c r="H538">
+        <v>14582.8341</v>
+      </c>
+      <c r="I538">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="J538">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="K538">
+        <v>1.3048</v>
+      </c>
+      <c r="L538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D539" t="s">
+        <v>54</v>
+      </c>
+      <c r="E539" t="s">
+        <v>14</v>
+      </c>
+      <c r="F539">
+        <v>2</v>
+      </c>
+      <c r="G539">
+        <v>0</v>
+      </c>
+      <c r="H539">
+        <v>12699.7264</v>
+      </c>
+      <c r="I539">
+        <v>7.7299999999999994E-2</v>
+      </c>
+      <c r="J539">
+        <v>0.51359999999999995</v>
+      </c>
+      <c r="K539">
+        <v>1.3626</v>
+      </c>
+      <c r="L539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A540" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D540" t="s">
+        <v>54</v>
+      </c>
+      <c r="E540" t="s">
+        <v>14</v>
+      </c>
+      <c r="F540">
+        <v>2</v>
+      </c>
+      <c r="G540">
+        <v>1</v>
+      </c>
+      <c r="H540">
+        <v>15723.8994</v>
+      </c>
+      <c r="I540">
+        <v>7.6200000000000004E-2</v>
+      </c>
+      <c r="J540">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="K540">
+        <v>1.2959000000000001</v>
+      </c>
+      <c r="L540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D541" t="s">
+        <v>54</v>
+      </c>
+      <c r="E541" t="s">
+        <v>14</v>
+      </c>
+      <c r="F541">
+        <v>2</v>
+      </c>
+      <c r="G541">
+        <v>2</v>
+      </c>
+      <c r="H541">
+        <v>13743.786099999999</v>
+      </c>
+      <c r="I541">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="J541">
+        <v>0.64359999999999995</v>
+      </c>
+      <c r="K541">
+        <v>1.2934000000000001</v>
+      </c>
+      <c r="L541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A542" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B542" s="1">
+        <v>6.35139027013072E+17</v>
+      </c>
+      <c r="C542" t="s">
+        <v>13</v>
+      </c>
+      <c r="D542" t="s">
+        <v>54</v>
+      </c>
+      <c r="E542" t="s">
+        <v>35</v>
+      </c>
+      <c r="F542">
+        <v>0</v>
+      </c>
+      <c r="G542">
+        <v>0</v>
+      </c>
+      <c r="H542">
+        <v>28179.611799999999</v>
+      </c>
+      <c r="I542">
+        <v>0.2949</v>
+      </c>
+      <c r="J542">
+        <v>0.61839999999999995</v>
+      </c>
+      <c r="K542">
+        <v>1.5193000000000001</v>
+      </c>
+      <c r="L542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A543" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B543" s="1">
+        <v>6.3513902722455398E+17</v>
+      </c>
+      <c r="C543" t="s">
+        <v>13</v>
+      </c>
+      <c r="D543" t="s">
+        <v>54</v>
+      </c>
+      <c r="E543" t="s">
+        <v>35</v>
+      </c>
+      <c r="F543">
+        <v>0</v>
+      </c>
+      <c r="G543">
+        <v>1</v>
+      </c>
+      <c r="H543">
+        <v>20226.156800000001</v>
+      </c>
+      <c r="I543">
+        <v>0.18440000000000001</v>
+      </c>
+      <c r="J543">
+        <v>0.28139999999999998</v>
+      </c>
+      <c r="K543">
+        <v>1.274</v>
+      </c>
+      <c r="L543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B544" s="1">
+        <v>6.3513902741655501E+17</v>
+      </c>
+      <c r="C544" t="s">
+        <v>13</v>
+      </c>
+      <c r="D544" t="s">
+        <v>54</v>
+      </c>
+      <c r="E544" t="s">
+        <v>35</v>
+      </c>
+      <c r="F544">
+        <v>0</v>
+      </c>
+      <c r="G544">
+        <v>2</v>
+      </c>
+      <c r="H544">
+        <v>16023.916499999999</v>
+      </c>
+      <c r="I544">
+        <v>0.1623</v>
+      </c>
+      <c r="J544">
+        <v>0.4274</v>
+      </c>
+      <c r="K544">
+        <v>1.26</v>
+      </c>
+      <c r="L544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B545" s="1">
+        <v>6.3513902765073894E+17</v>
+      </c>
+      <c r="C545" t="s">
+        <v>13</v>
+      </c>
+      <c r="D545" t="s">
+        <v>54</v>
+      </c>
+      <c r="E545" t="s">
+        <v>35</v>
+      </c>
+      <c r="F545">
+        <v>1</v>
+      </c>
+      <c r="G545">
+        <v>0</v>
+      </c>
+      <c r="H545">
+        <v>19918.139299999999</v>
+      </c>
+      <c r="I545">
+        <v>0.3044</v>
+      </c>
+      <c r="J545">
+        <v>0.3911</v>
+      </c>
+      <c r="K545">
+        <v>1.5156000000000001</v>
+      </c>
+      <c r="L545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B546" s="1">
+        <v>6.3513902780791795E+17</v>
+      </c>
+      <c r="C546" t="s">
+        <v>13</v>
+      </c>
+      <c r="D546" t="s">
+        <v>54</v>
+      </c>
+      <c r="E546" t="s">
+        <v>35</v>
+      </c>
+      <c r="F546">
+        <v>1</v>
+      </c>
+      <c r="G546">
+        <v>1</v>
+      </c>
+      <c r="H546">
+        <v>14716.8418</v>
+      </c>
+      <c r="I546">
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="J546">
+        <v>0.28370000000000001</v>
+      </c>
+      <c r="K546">
+        <v>1.2075</v>
+      </c>
+      <c r="L546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B547" s="1">
+        <v>6.3513902795909606E+17</v>
+      </c>
+      <c r="C547" t="s">
+        <v>13</v>
+      </c>
+      <c r="D547" t="s">
+        <v>54</v>
+      </c>
+      <c r="E547" t="s">
+        <v>35</v>
+      </c>
+      <c r="F547">
+        <v>1</v>
+      </c>
+      <c r="G547">
+        <v>2</v>
+      </c>
+      <c r="H547">
+        <v>14390.8231</v>
+      </c>
+      <c r="I547">
+        <v>0.14349999999999999</v>
+      </c>
+      <c r="J547">
+        <v>1.2199</v>
+      </c>
+      <c r="K547">
+        <v>1.3569</v>
+      </c>
+      <c r="L547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A548" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B548" s="1">
+        <v>6.3513902814230694E+17</v>
+      </c>
+      <c r="C548" t="s">
+        <v>13</v>
+      </c>
+      <c r="D548" t="s">
+        <v>54</v>
+      </c>
+      <c r="E548" t="s">
+        <v>35</v>
+      </c>
+      <c r="F548">
+        <v>2</v>
+      </c>
+      <c r="G548">
+        <v>0</v>
+      </c>
+      <c r="H548">
+        <v>16911.9673</v>
+      </c>
+      <c r="I548">
+        <v>0.1116</v>
+      </c>
+      <c r="J548">
+        <v>0.74590000000000001</v>
+      </c>
+      <c r="K548">
+        <v>1.3231999999999999</v>
+      </c>
+      <c r="L548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B549" s="1">
+        <v>6.3513902827990502E+17</v>
+      </c>
+      <c r="C549" t="s">
+        <v>13</v>
+      </c>
+      <c r="D549" t="s">
+        <v>54</v>
+      </c>
+      <c r="E549" t="s">
+        <v>35</v>
+      </c>
+      <c r="F549">
+        <v>2</v>
+      </c>
+      <c r="G549">
+        <v>1</v>
+      </c>
+      <c r="H549">
+        <v>13171.7534</v>
+      </c>
+      <c r="I549">
+        <v>0.1452</v>
+      </c>
+      <c r="J549">
+        <v>0.62590000000000001</v>
+      </c>
+      <c r="K549">
+        <v>1.2451000000000001</v>
+      </c>
+      <c r="L549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B550" s="1">
+        <v>6.3513902845706496E+17</v>
+      </c>
+      <c r="C550" t="s">
+        <v>13</v>
+      </c>
+      <c r="D550" t="s">
+        <v>54</v>
+      </c>
+      <c r="E550" t="s">
+        <v>35</v>
+      </c>
+      <c r="F550">
+        <v>2</v>
+      </c>
+      <c r="G550">
+        <v>2</v>
+      </c>
+      <c r="H550">
+        <v>16719.956300000002</v>
+      </c>
+      <c r="I550">
+        <v>9.4799999999999995E-2</v>
+      </c>
+      <c r="J550">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="K550">
+        <v>1.2013</v>
+      </c>
+      <c r="L550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B551" s="1">
+        <v>6.35139029003776E+17</v>
+      </c>
+      <c r="C551" t="s">
+        <v>74</v>
+      </c>
+      <c r="D551" t="s">
+        <v>13</v>
+      </c>
+      <c r="E551" t="s">
+        <v>55</v>
+      </c>
+      <c r="F551">
+        <v>0</v>
+      </c>
+      <c r="G551">
+        <v>0</v>
+      </c>
+      <c r="H551">
+        <v>40955.342499999999</v>
+      </c>
+      <c r="I551">
+        <v>3.6366999999999998</v>
+      </c>
+      <c r="J551">
+        <v>36.092300000000002</v>
+      </c>
+      <c r="K551">
+        <v>0</v>
+      </c>
+      <c r="L551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B552" s="1">
+        <v>6.3513902915801498E+17</v>
+      </c>
+      <c r="C552" t="s">
+        <v>74</v>
+      </c>
+      <c r="D552" t="s">
+        <v>13</v>
+      </c>
+      <c r="E552" t="s">
+        <v>55</v>
+      </c>
+      <c r="F552">
+        <v>0</v>
+      </c>
+      <c r="G552">
+        <v>1</v>
+      </c>
+      <c r="H552">
+        <v>10783.6168</v>
+      </c>
+      <c r="I552">
+        <v>2.6074999999999999</v>
+      </c>
+      <c r="J552">
+        <v>41.019599999999997</v>
+      </c>
+      <c r="K552">
+        <v>0</v>
+      </c>
+      <c r="L552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B553" s="1">
+        <v>6.3513902930569306E+17</v>
+      </c>
+      <c r="C553" t="s">
+        <v>74</v>
+      </c>
+      <c r="D553" t="s">
+        <v>13</v>
+      </c>
+      <c r="E553" t="s">
+        <v>55</v>
+      </c>
+      <c r="F553">
+        <v>0</v>
+      </c>
+      <c r="G553">
+        <v>2</v>
+      </c>
+      <c r="H553">
+        <v>4067.2327</v>
+      </c>
+      <c r="I553">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="J553">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="K553">
+        <v>0</v>
+      </c>
+      <c r="L553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B554" s="1">
+        <v>6.3513902939017805E+17</v>
+      </c>
+      <c r="C554" t="s">
+        <v>74</v>
+      </c>
+      <c r="D554" t="s">
+        <v>13</v>
+      </c>
+      <c r="E554" t="s">
+        <v>55</v>
+      </c>
+      <c r="F554">
+        <v>1</v>
+      </c>
+      <c r="G554">
+        <v>0</v>
+      </c>
+      <c r="H554">
+        <v>7295.4173000000001</v>
+      </c>
+      <c r="I554">
+        <v>2.7385999999999999</v>
+      </c>
+      <c r="J554">
+        <v>37.775700000000001</v>
+      </c>
+      <c r="K554">
+        <v>0</v>
+      </c>
+      <c r="L554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B555" s="1">
+        <v>6.3513902945805197E+17</v>
+      </c>
+      <c r="C555" t="s">
+        <v>74</v>
+      </c>
+      <c r="D555" t="s">
+        <v>13</v>
+      </c>
+      <c r="E555" t="s">
+        <v>55</v>
+      </c>
+      <c r="F555">
+        <v>1</v>
+      </c>
+      <c r="G555">
+        <v>1</v>
+      </c>
+      <c r="H555">
+        <v>5883.3365000000003</v>
+      </c>
+      <c r="I555">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="J555">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="K555">
+        <v>0</v>
+      </c>
+      <c r="L555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B556" s="1">
+        <v>6.3513902956641805E+17</v>
+      </c>
+      <c r="C556" t="s">
+        <v>74</v>
+      </c>
+      <c r="D556" t="s">
+        <v>13</v>
+      </c>
+      <c r="E556" t="s">
+        <v>55</v>
+      </c>
+      <c r="F556">
+        <v>1</v>
+      </c>
+      <c r="G556">
+        <v>2</v>
+      </c>
+      <c r="H556">
+        <v>7600.4346999999998</v>
+      </c>
+      <c r="I556">
+        <v>2.8271999999999999</v>
+      </c>
+      <c r="J556">
+        <v>32.421100000000003</v>
+      </c>
+      <c r="K556">
+        <v>0</v>
+      </c>
+      <c r="L556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B557" s="1">
+        <v>6.3513902965149299E+17</v>
+      </c>
+      <c r="C557" t="s">
+        <v>74</v>
+      </c>
+      <c r="D557" t="s">
+        <v>13</v>
+      </c>
+      <c r="E557" t="s">
+        <v>55</v>
+      </c>
+      <c r="F557">
+        <v>2</v>
+      </c>
+      <c r="G557">
+        <v>0</v>
+      </c>
+      <c r="H557">
+        <v>4967.2840999999999</v>
+      </c>
+      <c r="I557">
+        <v>9.8400000000000001E-2</v>
+      </c>
+      <c r="J557">
+        <v>1.1966000000000001</v>
+      </c>
+      <c r="K557">
+        <v>0</v>
+      </c>
+      <c r="L557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B558" s="1">
+        <v>6.3513902973429798E+17</v>
+      </c>
+      <c r="C558" t="s">
+        <v>74</v>
+      </c>
+      <c r="D558" t="s">
+        <v>13</v>
+      </c>
+      <c r="E558" t="s">
+        <v>55</v>
+      </c>
+      <c r="F558">
+        <v>2</v>
+      </c>
+      <c r="G558">
+        <v>1</v>
+      </c>
+      <c r="H558">
+        <v>5760.3293999999996</v>
+      </c>
+      <c r="I558">
+        <v>3.2080000000000002</v>
+      </c>
+      <c r="J558">
+        <v>33.183900000000001</v>
+      </c>
+      <c r="K558">
+        <v>0</v>
+      </c>
+      <c r="L558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B559" s="1">
+        <v>6.3513902983977395E+17</v>
+      </c>
+      <c r="C559" t="s">
+        <v>74</v>
+      </c>
+      <c r="D559" t="s">
+        <v>13</v>
+      </c>
+      <c r="E559" t="s">
+        <v>55</v>
+      </c>
+      <c r="F559">
+        <v>2</v>
+      </c>
+      <c r="G559">
+        <v>2</v>
+      </c>
+      <c r="H559">
+        <v>4220.2413999999999</v>
+      </c>
+      <c r="I559">
+        <v>3.4325000000000001</v>
+      </c>
+      <c r="J559">
+        <v>29.909700000000001</v>
+      </c>
+      <c r="K559">
+        <v>0</v>
+      </c>
+      <c r="L559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B560" s="1">
+        <v>6.3513903021213504E+17</v>
+      </c>
+      <c r="C560" t="s">
+        <v>13</v>
+      </c>
+      <c r="D560" t="s">
+        <v>54</v>
+      </c>
+      <c r="E560" t="s">
+        <v>14</v>
+      </c>
+      <c r="F560">
+        <v>0</v>
+      </c>
+      <c r="G560">
+        <v>0</v>
+      </c>
+      <c r="H560">
+        <v>10535.6026</v>
+      </c>
+      <c r="I560">
+        <v>0.1053</v>
+      </c>
+      <c r="J560">
+        <v>0.28139999999999998</v>
+      </c>
+      <c r="K560">
+        <v>1.1878</v>
+      </c>
+      <c r="L560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B561" s="1">
+        <v>6.3513903042544704E+17</v>
+      </c>
+      <c r="C561" t="s">
+        <v>13</v>
+      </c>
+      <c r="D561" t="s">
+        <v>54</v>
+      </c>
+      <c r="E561" t="s">
+        <v>14</v>
+      </c>
+      <c r="F561">
+        <v>0</v>
+      </c>
+      <c r="G561">
+        <v>1</v>
+      </c>
+      <c r="H561">
+        <v>16422.939399999999</v>
+      </c>
+      <c r="I561">
+        <v>0.1132</v>
+      </c>
+      <c r="J561">
+        <v>1.4399</v>
+      </c>
+      <c r="K561">
+        <v>1.3252999999999999</v>
+      </c>
+      <c r="L561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B562" s="1">
+        <v>6.35139030788048E+17</v>
+      </c>
+      <c r="C562" t="s">
+        <v>13</v>
+      </c>
+      <c r="D562" t="s">
+        <v>54</v>
+      </c>
+      <c r="E562" t="s">
+        <v>14</v>
+      </c>
+      <c r="F562">
+        <v>0</v>
+      </c>
+      <c r="G562">
+        <v>2</v>
+      </c>
+      <c r="H562">
+        <v>32171.840100000001</v>
+      </c>
+      <c r="I562">
+        <v>0.1061</v>
+      </c>
+      <c r="J562">
+        <v>8.6300000000000002E-2</v>
+      </c>
+      <c r="K562">
+        <v>1.1937</v>
+      </c>
+      <c r="L562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B563" s="1">
+        <v>6.3513903099824E+17</v>
+      </c>
+      <c r="C563" t="s">
+        <v>13</v>
+      </c>
+      <c r="D563" t="s">
+        <v>54</v>
+      </c>
+      <c r="E563" t="s">
+        <v>14</v>
+      </c>
+      <c r="F563">
+        <v>1</v>
+      </c>
+      <c r="G563">
+        <v>0</v>
+      </c>
+      <c r="H563">
+        <v>13282.7598</v>
+      </c>
+      <c r="I563">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="J563">
+        <v>1.1496999999999999</v>
+      </c>
+      <c r="K563">
+        <v>1.1548</v>
+      </c>
+      <c r="L563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B564" s="1">
+        <v>6.3513903112296704E+17</v>
+      </c>
+      <c r="C564" t="s">
+        <v>13</v>
+      </c>
+      <c r="D564" t="s">
+        <v>54</v>
+      </c>
+      <c r="E564" t="s">
+        <v>14</v>
+      </c>
+      <c r="F564">
+        <v>1</v>
+      </c>
+      <c r="G564">
+        <v>1</v>
+      </c>
+      <c r="H564">
+        <v>9618.5501999999997</v>
+      </c>
+      <c r="I564">
+        <v>0.1166</v>
+      </c>
+      <c r="J564">
+        <v>0</v>
+      </c>
+      <c r="K564">
+        <v>1.2296</v>
+      </c>
+      <c r="L564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B565" s="1">
+        <v>6.3513903122444301E+17</v>
+      </c>
+      <c r="C565" t="s">
+        <v>13</v>
+      </c>
+      <c r="D565" t="s">
+        <v>54</v>
+      </c>
+      <c r="E565" t="s">
+        <v>14</v>
+      </c>
+      <c r="F565">
+        <v>1</v>
+      </c>
+      <c r="G565">
+        <v>2</v>
+      </c>
+      <c r="H565">
+        <v>7743.4429</v>
+      </c>
+      <c r="I565">
+        <v>0.1086</v>
+      </c>
+      <c r="J565">
+        <v>0.55359999999999998</v>
+      </c>
+      <c r="K565">
+        <v>1.2995000000000001</v>
+      </c>
+      <c r="L565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A566" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B566" s="1">
+        <v>6.3513903133656E+17</v>
+      </c>
+      <c r="C566" t="s">
+        <v>13</v>
+      </c>
+      <c r="D566" t="s">
+        <v>54</v>
+      </c>
+      <c r="E566" t="s">
+        <v>14</v>
+      </c>
+      <c r="F566">
+        <v>2</v>
+      </c>
+      <c r="G566">
+        <v>0</v>
+      </c>
+      <c r="H566">
+        <v>6787.3882000000003</v>
+      </c>
+      <c r="I566">
+        <v>0.1096</v>
+      </c>
+      <c r="J566">
+        <v>0</v>
+      </c>
+      <c r="K566">
+        <v>1.494</v>
+      </c>
+      <c r="L566">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A567" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B567" s="1">
+        <v>6.3513903147071706E+17</v>
+      </c>
+      <c r="C567" t="s">
+        <v>13</v>
+      </c>
+      <c r="D567" t="s">
+        <v>54</v>
+      </c>
+      <c r="E567" t="s">
+        <v>14</v>
+      </c>
+      <c r="F567">
+        <v>2</v>
+      </c>
+      <c r="G567">
+        <v>1</v>
+      </c>
+      <c r="H567">
+        <v>10031.5738</v>
+      </c>
+      <c r="I567">
+        <v>7.7299999999999994E-2</v>
+      </c>
+      <c r="J567">
+        <v>0.30640000000000001</v>
+      </c>
+      <c r="K567">
+        <v>1.2472000000000001</v>
+      </c>
+      <c r="L567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A568" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B568" s="1">
+        <v>6.3513903159332403E+17</v>
+      </c>
+      <c r="C568" t="s">
+        <v>13</v>
+      </c>
+      <c r="D568" t="s">
+        <v>54</v>
+      </c>
+      <c r="E568" t="s">
+        <v>14</v>
+      </c>
+      <c r="F568">
+        <v>2</v>
+      </c>
+      <c r="G568">
+        <v>2</v>
+      </c>
+      <c r="H568">
+        <v>10024.573399999999</v>
+      </c>
+      <c r="I568">
+        <v>0</v>
+      </c>
+      <c r="J568">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="K568">
+        <v>1.3289</v>
+      </c>
+      <c r="L568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A569" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B569" s="1">
+        <v>6.3513903194835494E+17</v>
+      </c>
+      <c r="C569" t="s">
+        <v>74</v>
+      </c>
+      <c r="D569" t="s">
+        <v>13</v>
+      </c>
+      <c r="E569" t="s">
+        <v>14</v>
+      </c>
+      <c r="F569">
+        <v>0</v>
+      </c>
+      <c r="G569">
+        <v>0</v>
+      </c>
+      <c r="H569">
+        <v>32218.842799999999</v>
+      </c>
+      <c r="I569">
+        <v>2.58E-2</v>
+      </c>
+      <c r="J569">
+        <v>1.7029000000000001</v>
+      </c>
+      <c r="K569">
+        <v>0</v>
+      </c>
+      <c r="L569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A570" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B570" s="1">
+        <v>6.3513903202007898E+17</v>
+      </c>
+      <c r="C570" t="s">
+        <v>74</v>
+      </c>
+      <c r="D570" t="s">
+        <v>13</v>
+      </c>
+      <c r="E570" t="s">
+        <v>14</v>
+      </c>
+      <c r="F570">
+        <v>0</v>
+      </c>
+      <c r="G570">
+        <v>1</v>
+      </c>
+      <c r="H570">
+        <v>5659.3236999999999</v>
+      </c>
+      <c r="I570">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="J570">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="K570">
+        <v>0</v>
+      </c>
+      <c r="L570">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A571" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B571" s="1">
+        <v>6.3513903209024294E+17</v>
+      </c>
+      <c r="C571" t="s">
+        <v>74</v>
+      </c>
+      <c r="D571" t="s">
+        <v>13</v>
+      </c>
+      <c r="E571" t="s">
+        <v>14</v>
+      </c>
+      <c r="F571">
+        <v>0</v>
+      </c>
+      <c r="G571">
+        <v>2</v>
+      </c>
+      <c r="H571">
+        <v>4224.2416000000003</v>
+      </c>
+      <c r="I571">
+        <v>9.35E-2</v>
+      </c>
+      <c r="J571">
+        <v>0.50409999999999999</v>
+      </c>
+      <c r="K571">
+        <v>0</v>
+      </c>
+      <c r="L571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A572" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B572" s="1">
+        <v>6.3513903215175603E+17</v>
+      </c>
+      <c r="C572" t="s">
+        <v>74</v>
+      </c>
+      <c r="D572" t="s">
+        <v>13</v>
+      </c>
+      <c r="E572" t="s">
+        <v>14</v>
+      </c>
+      <c r="F572">
+        <v>1</v>
+      </c>
+      <c r="G572">
+        <v>0</v>
+      </c>
+      <c r="H572">
+        <v>4015.2296999999999</v>
+      </c>
+      <c r="I572">
+        <v>9.0399999999999994E-2</v>
+      </c>
+      <c r="J572">
+        <v>0.45</v>
+      </c>
+      <c r="K572">
+        <v>0</v>
+      </c>
+      <c r="L572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A573" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B573" s="1">
+        <v>6.35139032258112E+17</v>
+      </c>
+      <c r="C573" t="s">
+        <v>74</v>
+      </c>
+      <c r="D573" t="s">
+        <v>13</v>
+      </c>
+      <c r="E573" t="s">
+        <v>14</v>
+      </c>
+      <c r="F573">
+        <v>1</v>
+      </c>
+      <c r="G573">
+        <v>1</v>
+      </c>
+      <c r="H573">
+        <v>7498.4288999999999</v>
+      </c>
+      <c r="I573">
+        <v>9.3100000000000002E-2</v>
+      </c>
+      <c r="J573">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="K573">
+        <v>0</v>
+      </c>
+      <c r="L573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A574" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B574" s="1">
+        <v>6.3513903234678694E+17</v>
+      </c>
+      <c r="C574" t="s">
+        <v>74</v>
+      </c>
+      <c r="D574" t="s">
+        <v>13</v>
+      </c>
+      <c r="E574" t="s">
+        <v>14</v>
+      </c>
+      <c r="F574">
+        <v>1</v>
+      </c>
+      <c r="G574">
+        <v>2</v>
+      </c>
+      <c r="H574">
+        <v>5611.3208999999997</v>
+      </c>
+      <c r="I574">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="J574">
+        <v>1.7353000000000001</v>
+      </c>
+      <c r="K574">
+        <v>0</v>
+      </c>
+      <c r="L574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A575" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B575" s="1">
+        <v>6.35139032420992E+17</v>
+      </c>
+      <c r="C575" t="s">
+        <v>74</v>
+      </c>
+      <c r="D575" t="s">
+        <v>13</v>
+      </c>
+      <c r="E575" t="s">
+        <v>14</v>
+      </c>
+      <c r="F575">
+        <v>2</v>
+      </c>
+      <c r="G575">
+        <v>0</v>
+      </c>
+      <c r="H575">
+        <v>4951.2831999999999</v>
+      </c>
+      <c r="I575">
+        <v>7.46E-2</v>
+      </c>
+      <c r="J575">
+        <v>0.75149999999999995</v>
+      </c>
+      <c r="K575">
+        <v>0</v>
+      </c>
+      <c r="L575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A576" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B576" s="1">
+        <v>6.3513903249387597E+17</v>
+      </c>
+      <c r="C576" t="s">
+        <v>74</v>
+      </c>
+      <c r="D576" t="s">
+        <v>13</v>
+      </c>
+      <c r="E576" t="s">
+        <v>14</v>
+      </c>
+      <c r="F576">
+        <v>2</v>
+      </c>
+      <c r="G576">
+        <v>1</v>
+      </c>
+      <c r="H576">
+        <v>4695.2685000000001</v>
+      </c>
+      <c r="I576">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="J576">
+        <v>0.79169999999999996</v>
+      </c>
+      <c r="K576">
+        <v>0</v>
+      </c>
+      <c r="L576">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B577" s="1">
+        <v>6.3513903254783898E+17</v>
+      </c>
+      <c r="C577" t="s">
+        <v>74</v>
+      </c>
+      <c r="D577" t="s">
+        <v>13</v>
+      </c>
+      <c r="E577" t="s">
+        <v>14</v>
+      </c>
+      <c r="F577">
+        <v>2</v>
+      </c>
+      <c r="G577">
+        <v>2</v>
+      </c>
+      <c r="H577">
+        <v>3588.2053000000001</v>
+      </c>
+      <c r="I577">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="J577">
+        <v>1.1741999999999999</v>
+      </c>
+      <c r="K577">
+        <v>0</v>
+      </c>
+      <c r="L577">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A578" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B578" s="1">
+        <v>6.3513903290382899E+17</v>
+      </c>
+      <c r="C578" t="s">
+        <v>13</v>
+      </c>
+      <c r="D578" t="s">
+        <v>54</v>
+      </c>
+      <c r="E578" t="s">
+        <v>55</v>
+      </c>
+      <c r="F578">
+        <v>0</v>
+      </c>
+      <c r="G578">
+        <v>0</v>
+      </c>
+      <c r="H578">
+        <v>20897.195199999998</v>
+      </c>
+      <c r="I578">
+        <v>9.3899999999999997E-2</v>
+      </c>
+      <c r="J578">
+        <v>1.7723</v>
+      </c>
+      <c r="K578">
+        <v>1.4544999999999999</v>
+      </c>
+      <c r="L578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A579" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B579" s="1">
+        <v>6.3513903308732006E+17</v>
+      </c>
+      <c r="C579" t="s">
+        <v>13</v>
+      </c>
+      <c r="D579" t="s">
+        <v>54</v>
+      </c>
+      <c r="E579" t="s">
+        <v>55</v>
+      </c>
+      <c r="F579">
+        <v>0</v>
+      </c>
+      <c r="G579">
+        <v>1</v>
+      </c>
+      <c r="H579">
+        <v>14668.839</v>
+      </c>
+      <c r="I579">
+        <v>5.96E-2</v>
+      </c>
+      <c r="J579">
+        <v>1.6736</v>
+      </c>
+      <c r="K579">
+        <v>1.3154999999999999</v>
+      </c>
+      <c r="L579">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A580" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B580" s="1">
+        <v>6.3513903324990899E+17</v>
+      </c>
+      <c r="C580" t="s">
+        <v>13</v>
+      </c>
+      <c r="D580" t="s">
+        <v>54</v>
+      </c>
+      <c r="E580" t="s">
+        <v>55</v>
+      </c>
+      <c r="F580">
+        <v>0</v>
+      </c>
+      <c r="G580">
+        <v>2</v>
+      </c>
+      <c r="H580">
+        <v>13823.7907</v>
+      </c>
+      <c r="I580">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="J580">
+        <v>1.1016999999999999</v>
+      </c>
+      <c r="K580">
+        <v>1.3379000000000001</v>
+      </c>
+      <c r="L580">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A581" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B581" s="1">
+        <v>6.3513903337998605E+17</v>
+      </c>
+      <c r="C581" t="s">
+        <v>13</v>
+      </c>
+      <c r="D581" t="s">
+        <v>54</v>
+      </c>
+      <c r="E581" t="s">
+        <v>55</v>
+      </c>
+      <c r="F581">
+        <v>1</v>
+      </c>
+      <c r="G581">
+        <v>0</v>
+      </c>
+      <c r="H581">
+        <v>10127.579299999999</v>
+      </c>
+      <c r="I581">
+        <v>2.5899999999999999E-2</v>
+      </c>
+      <c r="J581">
+        <v>0.48970000000000002</v>
+      </c>
+      <c r="K581">
+        <v>1.554</v>
+      </c>
+      <c r="L581">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A582" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B582" s="1">
+        <v>6.35139033520384E+17</v>
+      </c>
+      <c r="C582" t="s">
+        <v>13</v>
+      </c>
+      <c r="D582" t="s">
+        <v>54</v>
+      </c>
+      <c r="E582" t="s">
+        <v>55</v>
+      </c>
+      <c r="F582">
+        <v>1</v>
+      </c>
+      <c r="G582">
+        <v>1</v>
+      </c>
+      <c r="H582">
+        <v>11889.68</v>
+      </c>
+      <c r="I582">
+        <v>7.0900000000000005E-2</v>
+      </c>
+      <c r="J582">
+        <v>0.95350000000000001</v>
+      </c>
+      <c r="K582">
+        <v>1.3848</v>
+      </c>
+      <c r="L582">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A583" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B583" s="1">
+        <v>6.3513903366106202E+17</v>
+      </c>
+      <c r="C583" t="s">
+        <v>13</v>
+      </c>
+      <c r="D583" t="s">
+        <v>54</v>
+      </c>
+      <c r="E583" t="s">
+        <v>55</v>
+      </c>
+      <c r="F583">
+        <v>1</v>
+      </c>
+      <c r="G583">
+        <v>2</v>
+      </c>
+      <c r="H583">
+        <v>12282.702499999999</v>
+      </c>
+      <c r="I583">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="J583">
+        <v>0.36030000000000001</v>
+      </c>
+      <c r="K583">
+        <v>1.5132000000000001</v>
+      </c>
+      <c r="L583">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A584" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B584" s="1">
+        <v>6.3513903385450394E+17</v>
+      </c>
+      <c r="C584" t="s">
+        <v>13</v>
+      </c>
+      <c r="D584" t="s">
+        <v>54</v>
+      </c>
+      <c r="E584" t="s">
+        <v>55</v>
+      </c>
+      <c r="F584">
+        <v>2</v>
+      </c>
+      <c r="G584">
+        <v>0</v>
+      </c>
+      <c r="H584">
+        <v>18079.034100000001</v>
+      </c>
+      <c r="I584">
+        <v>9.98E-2</v>
+      </c>
+      <c r="J584">
+        <v>7.3499999999999996E-2</v>
+      </c>
+      <c r="K584">
+        <v>1.5820000000000001</v>
+      </c>
+      <c r="L584">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A585" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B585" s="1">
+        <v>6.3513903396377997E+17</v>
+      </c>
+      <c r="C585" t="s">
+        <v>13</v>
+      </c>
+      <c r="D585" t="s">
+        <v>54</v>
+      </c>
+      <c r="E585" t="s">
+        <v>55</v>
+      </c>
+      <c r="F585">
+        <v>2</v>
+      </c>
+      <c r="G585">
+        <v>1</v>
+      </c>
+      <c r="H585">
+        <v>9719.5558999999994</v>
+      </c>
+      <c r="I585">
+        <v>0.1202</v>
+      </c>
+      <c r="J585">
+        <v>0</v>
+      </c>
+      <c r="K585">
+        <v>1.4433</v>
+      </c>
+      <c r="L585">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A586" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B586" s="1">
+        <v>6.3513903407271603E+17</v>
+      </c>
+      <c r="C586" t="s">
+        <v>13</v>
+      </c>
+      <c r="D586" t="s">
+        <v>54</v>
+      </c>
+      <c r="E586" t="s">
+        <v>55</v>
+      </c>
+      <c r="F586">
+        <v>2</v>
+      </c>
+      <c r="G586">
+        <v>2</v>
+      </c>
+      <c r="H586">
+        <v>9604.5493999999999</v>
+      </c>
+      <c r="I586">
+        <v>9.9299999999999999E-2</v>
+      </c>
+      <c r="J586">
+        <v>0.49519999999999997</v>
+      </c>
+      <c r="K586">
+        <v>1.375</v>
+      </c>
+      <c r="L586">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A587" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B587" s="1">
+        <v>6.3513903449001997E+17</v>
+      </c>
+      <c r="C587" t="s">
+        <v>74</v>
+      </c>
+      <c r="D587" t="s">
+        <v>13</v>
+      </c>
+      <c r="E587" t="s">
+        <v>35</v>
+      </c>
+      <c r="F587">
+        <v>0</v>
+      </c>
+      <c r="G587">
+        <v>0</v>
+      </c>
+      <c r="H587">
+        <v>25679.468799999999</v>
+      </c>
+      <c r="I587">
+        <v>0.10929999999999999</v>
+      </c>
+      <c r="J587">
+        <v>0.1338</v>
+      </c>
+      <c r="K587">
+        <v>0</v>
+      </c>
+      <c r="L587">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A588" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B588" s="1">
+        <v>6.3513903458215501E+17</v>
+      </c>
+      <c r="C588" t="s">
+        <v>74</v>
+      </c>
+      <c r="D588" t="s">
+        <v>13</v>
+      </c>
+      <c r="E588" t="s">
+        <v>35</v>
+      </c>
+      <c r="F588">
+        <v>0</v>
+      </c>
+      <c r="G588">
+        <v>1</v>
+      </c>
+      <c r="H588">
+        <v>5233.2992999999997</v>
+      </c>
+      <c r="I588">
+        <v>5.1200000000000002E-2</v>
+      </c>
+      <c r="J588">
+        <v>0.63490000000000002</v>
+      </c>
+      <c r="K588">
+        <v>0</v>
+      </c>
+      <c r="L588">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A589" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B589" s="1">
+        <v>6.3513903463235802E+17</v>
+      </c>
+      <c r="C589" t="s">
+        <v>74</v>
+      </c>
+      <c r="D589" t="s">
+        <v>13</v>
+      </c>
+      <c r="E589" t="s">
+        <v>35</v>
+      </c>
+      <c r="F589">
+        <v>0</v>
+      </c>
+      <c r="G589">
+        <v>2</v>
+      </c>
+      <c r="H589">
+        <v>3309.1891999999998</v>
+      </c>
+      <c r="I589">
+        <v>0.1082</v>
+      </c>
+      <c r="J589">
+        <v>1.7237</v>
+      </c>
+      <c r="K589">
+        <v>0</v>
+      </c>
+      <c r="L589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A590" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B590" s="1">
+        <v>6.3513903467814106E+17</v>
+      </c>
+      <c r="C590" t="s">
+        <v>74</v>
+      </c>
+      <c r="D590" t="s">
+        <v>13</v>
+      </c>
+      <c r="E590" t="s">
+        <v>35</v>
+      </c>
+      <c r="F590">
+        <v>1</v>
+      </c>
+      <c r="G590">
+        <v>0</v>
+      </c>
+      <c r="H590">
+        <v>3032.1734000000001</v>
+      </c>
+      <c r="I590">
+        <v>9.11E-2</v>
+      </c>
+      <c r="J590">
+        <v>9.2799999999999994E-2</v>
+      </c>
+      <c r="K590">
+        <v>0</v>
+      </c>
+      <c r="L590">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A591" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B591" s="1">
+        <v>6.3513903472477299E+17</v>
+      </c>
+      <c r="C591" t="s">
+        <v>74</v>
+      </c>
+      <c r="D591" t="s">
+        <v>13</v>
+      </c>
+      <c r="E591" t="s">
+        <v>35</v>
+      </c>
+      <c r="F591">
+        <v>1</v>
+      </c>
+      <c r="G591">
+        <v>1</v>
+      </c>
+      <c r="H591">
+        <v>3035.1736000000001</v>
+      </c>
+      <c r="I591">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="J591">
+        <v>0.1182</v>
+      </c>
+      <c r="K591">
+        <v>0</v>
+      </c>
+      <c r="L591">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A592" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B592" s="1">
+        <v>6.35139034777296E+17</v>
+      </c>
+      <c r="C592" t="s">
+        <v>74</v>
+      </c>
+      <c r="D592" t="s">
+        <v>13</v>
+      </c>
+      <c r="E592" t="s">
+        <v>35</v>
+      </c>
+      <c r="F592">
+        <v>1</v>
+      </c>
+      <c r="G592">
+        <v>2</v>
+      </c>
+      <c r="H592">
+        <v>3375.1930000000002</v>
+      </c>
+      <c r="I592">
+        <v>7.4300000000000005E-2</v>
+      </c>
+      <c r="J592">
+        <v>1.4634</v>
+      </c>
+      <c r="K592">
+        <v>0</v>
+      </c>
+      <c r="L592">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A593" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B593" s="1">
+        <v>6.3513903482129894E+17</v>
+      </c>
+      <c r="C593" t="s">
+        <v>74</v>
+      </c>
+      <c r="D593" t="s">
+        <v>13</v>
+      </c>
+      <c r="E593" t="s">
+        <v>35</v>
+      </c>
+      <c r="F593">
+        <v>2</v>
+      </c>
+      <c r="G593">
+        <v>0</v>
+      </c>
+      <c r="H593">
+        <v>2928.1675</v>
+      </c>
+      <c r="I593">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="J593">
+        <v>0.95109999999999995</v>
+      </c>
+      <c r="K593">
+        <v>0</v>
+      </c>
+      <c r="L593">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A594" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B594" s="1">
+        <v>6.3513903486970202E+17</v>
+      </c>
+      <c r="C594" t="s">
+        <v>74</v>
+      </c>
+      <c r="D594" t="s">
+        <v>13</v>
+      </c>
+      <c r="E594" t="s">
+        <v>35</v>
+      </c>
+      <c r="F594">
+        <v>2</v>
+      </c>
+      <c r="G594">
+        <v>1</v>
+      </c>
+      <c r="H594">
+        <v>2916.1668</v>
+      </c>
+      <c r="I594">
+        <v>3.61E-2</v>
+      </c>
+      <c r="J594">
+        <v>2.5177999999999998</v>
+      </c>
+      <c r="K594">
+        <v>0</v>
+      </c>
+      <c r="L594">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A595" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B595" s="1">
+        <v>6.3513903492765504E+17</v>
+      </c>
+      <c r="C595" t="s">
+        <v>74</v>
+      </c>
+      <c r="D595" t="s">
+        <v>13</v>
+      </c>
+      <c r="E595" t="s">
+        <v>35</v>
+      </c>
+      <c r="F595">
+        <v>2</v>
+      </c>
+      <c r="G595">
+        <v>2</v>
+      </c>
+      <c r="H595">
+        <v>4131.2362999999996</v>
+      </c>
+      <c r="I595">
+        <v>9.0399999999999994E-2</v>
+      </c>
+      <c r="J595">
+        <v>0.432</v>
+      </c>
+      <c r="K595">
+        <v>0</v>
+      </c>
+      <c r="L595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A596" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B596" s="1">
+        <v>6.3513903515573798E+17</v>
+      </c>
+      <c r="C596" t="s">
+        <v>13</v>
+      </c>
+      <c r="D596" t="s">
+        <v>13</v>
+      </c>
+      <c r="E596" t="s">
+        <v>35</v>
+      </c>
+      <c r="F596">
+        <v>0</v>
+      </c>
+      <c r="G596">
+        <v>0</v>
+      </c>
+      <c r="H596">
+        <v>9692.5544000000009</v>
+      </c>
+      <c r="I596">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="J596">
+        <v>0.1628</v>
+      </c>
+      <c r="K596">
+        <v>0</v>
+      </c>
+      <c r="L596">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A597" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B597" s="1">
+        <v>6.3513903525797402E+17</v>
+      </c>
+      <c r="C597" t="s">
+        <v>13</v>
+      </c>
+      <c r="D597" t="s">
+        <v>13</v>
+      </c>
+      <c r="E597" t="s">
+        <v>35</v>
+      </c>
+      <c r="F597">
+        <v>0</v>
+      </c>
+      <c r="G597">
+        <v>1</v>
+      </c>
+      <c r="H597">
+        <v>8051.4606000000003</v>
+      </c>
+      <c r="I597">
+        <v>0</v>
+      </c>
+      <c r="J597">
+        <v>2.3136999999999999</v>
+      </c>
+      <c r="K597">
+        <v>0</v>
+      </c>
+      <c r="L597">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A598" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B598" s="1">
+        <v>6.3513903531933696E+17</v>
+      </c>
+      <c r="C598" t="s">
+        <v>13</v>
+      </c>
+      <c r="D598" t="s">
+        <v>13</v>
+      </c>
+      <c r="E598" t="s">
+        <v>35</v>
+      </c>
+      <c r="F598">
+        <v>0</v>
+      </c>
+      <c r="G598">
+        <v>2</v>
+      </c>
+      <c r="H598">
+        <v>4288.2452000000003</v>
+      </c>
+      <c r="I598">
+        <v>4.02E-2</v>
+      </c>
+      <c r="J598">
+        <v>0.69869999999999999</v>
+      </c>
+      <c r="K598">
+        <v>0</v>
+      </c>
+      <c r="L598">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A599" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B599" s="1">
+        <v>6.3513903538217101E+17</v>
+      </c>
+      <c r="C599" t="s">
+        <v>13</v>
+      </c>
+      <c r="D599" t="s">
+        <v>13</v>
+      </c>
+      <c r="E599" t="s">
+        <v>35</v>
+      </c>
+      <c r="F599">
+        <v>1</v>
+      </c>
+      <c r="G599">
+        <v>0</v>
+      </c>
+      <c r="H599">
+        <v>4647.2658000000001</v>
+      </c>
+      <c r="I599">
+        <v>9.4299999999999995E-2</v>
+      </c>
+      <c r="J599">
+        <v>1.6227</v>
+      </c>
+      <c r="K599">
+        <v>0</v>
+      </c>
+      <c r="L599">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A600" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B600" s="1">
+        <v>6.3513903544849498E+17</v>
+      </c>
+      <c r="C600" t="s">
+        <v>13</v>
+      </c>
+      <c r="D600" t="s">
+        <v>13</v>
+      </c>
+      <c r="E600" t="s">
+        <v>35</v>
+      </c>
+      <c r="F600">
+        <v>1</v>
+      </c>
+      <c r="G600">
+        <v>1</v>
+      </c>
+      <c r="H600">
+        <v>5116.2927</v>
+      </c>
+      <c r="I600">
+        <v>8.8900000000000007E-2</v>
+      </c>
+      <c r="J600">
+        <v>2.3578999999999999</v>
+      </c>
+      <c r="K600">
+        <v>0</v>
+      </c>
+      <c r="L600">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A601" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B601" s="1">
+        <v>6.3513903551772902E+17</v>
+      </c>
+      <c r="C601" t="s">
+        <v>13</v>
+      </c>
+      <c r="D601" t="s">
+        <v>13</v>
+      </c>
+      <c r="E601" t="s">
+        <v>35</v>
+      </c>
+      <c r="F601">
+        <v>1</v>
+      </c>
+      <c r="G601">
+        <v>2</v>
+      </c>
+      <c r="H601">
+        <v>5511.3153000000002</v>
+      </c>
+      <c r="I601">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="J601">
+        <v>0.50409999999999999</v>
+      </c>
+      <c r="K601">
+        <v>0</v>
+      </c>
+      <c r="L601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A602" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B602" s="1">
+        <v>6.3513903559461299E+17</v>
+      </c>
+      <c r="C602" t="s">
+        <v>13</v>
+      </c>
+      <c r="D602" t="s">
+        <v>13</v>
+      </c>
+      <c r="E602" t="s">
+        <v>35</v>
+      </c>
+      <c r="F602">
+        <v>2</v>
+      </c>
+      <c r="G602">
+        <v>0</v>
+      </c>
+      <c r="H602">
+        <v>5811.3324000000002</v>
+      </c>
+      <c r="I602">
+        <v>0.159</v>
+      </c>
+      <c r="J602">
+        <v>0</v>
+      </c>
+      <c r="K602">
+        <v>0</v>
+      </c>
+      <c r="L602">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A603" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B603" s="1">
+        <v>6.3513903565929702E+17</v>
+      </c>
+      <c r="C603" t="s">
+        <v>13</v>
+      </c>
+      <c r="D603" t="s">
+        <v>13</v>
+      </c>
+      <c r="E603" t="s">
+        <v>35</v>
+      </c>
+      <c r="F603">
+        <v>2</v>
+      </c>
+      <c r="G603">
+        <v>1</v>
+      </c>
+      <c r="H603">
+        <v>5024.2874000000002</v>
+      </c>
+      <c r="I603">
+        <v>0.1036</v>
+      </c>
+      <c r="J603">
+        <v>0.57679999999999998</v>
+      </c>
+      <c r="K603">
+        <v>0</v>
+      </c>
+      <c r="L603">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A604" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B604" s="1">
+        <v>6.3513903575434202E+17</v>
+      </c>
+      <c r="C604" t="s">
+        <v>13</v>
+      </c>
+      <c r="D604" t="s">
+        <v>13</v>
+      </c>
+      <c r="E604" t="s">
+        <v>35</v>
+      </c>
+      <c r="F604">
+        <v>2</v>
+      </c>
+      <c r="G604">
+        <v>2</v>
+      </c>
+      <c r="H604">
+        <v>6160.3522999999996</v>
+      </c>
+      <c r="I604">
+        <v>0.107</v>
+      </c>
+      <c r="J604">
+        <v>3.1701000000000001</v>
+      </c>
+      <c r="K604">
+        <v>0</v>
+      </c>
+      <c r="L604">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A605" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B605" s="1">
+        <v>6.3513903612736397E+17</v>
+      </c>
+      <c r="C605" t="s">
+        <v>74</v>
+      </c>
+      <c r="D605" t="s">
+        <v>54</v>
+      </c>
+      <c r="E605" t="s">
+        <v>55</v>
+      </c>
+      <c r="F605">
+        <v>0</v>
+      </c>
+      <c r="G605">
+        <v>0</v>
+      </c>
+      <c r="H605">
+        <v>21935.2546</v>
+      </c>
+      <c r="I605">
+        <v>5.79E-2</v>
+      </c>
+      <c r="J605">
+        <v>0.36770000000000003</v>
+      </c>
+      <c r="K605">
+        <v>1.9467000000000001</v>
+      </c>
+      <c r="L605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A606" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B606" s="1">
+        <v>6.3513903623736998E+17</v>
+      </c>
+      <c r="C606" t="s">
+        <v>74</v>
+      </c>
+      <c r="D606" t="s">
+        <v>54</v>
+      </c>
+      <c r="E606" t="s">
+        <v>55</v>
+      </c>
+      <c r="F606">
+        <v>0</v>
+      </c>
+      <c r="G606">
+        <v>1</v>
+      </c>
+      <c r="H606">
+        <v>9983.5709999999999</v>
+      </c>
+      <c r="I606">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="J606">
+        <v>2.8626999999999998</v>
+      </c>
+      <c r="K606">
+        <v>1.4534</v>
+      </c>
+      <c r="L606">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A607" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B607" s="1">
+        <v>6.3513903634230605E+17</v>
+      </c>
+      <c r="C607" t="s">
+        <v>74</v>
+      </c>
+      <c r="D607" t="s">
+        <v>54</v>
+      </c>
+      <c r="E607" t="s">
+        <v>55</v>
+      </c>
+      <c r="F607">
+        <v>0</v>
+      </c>
+      <c r="G607">
+        <v>2</v>
+      </c>
+      <c r="H607">
+        <v>7077.4048000000003</v>
+      </c>
+      <c r="I607">
+        <v>0.1221</v>
+      </c>
+      <c r="J607">
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="K607">
+        <v>1.3502000000000001</v>
+      </c>
+      <c r="L607">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A608" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B608" s="1">
+        <v>6.3513903643733094E+17</v>
+      </c>
+      <c r="C608" t="s">
+        <v>74</v>
+      </c>
+      <c r="D608" t="s">
+        <v>54</v>
+      </c>
+      <c r="E608" t="s">
+        <v>55</v>
+      </c>
+      <c r="F608">
+        <v>1</v>
+      </c>
+      <c r="G608">
+        <v>0</v>
+      </c>
+      <c r="H608">
+        <v>7316.4184999999998</v>
+      </c>
+      <c r="I608">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="J608">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="K608">
+        <v>1.2846</v>
+      </c>
+      <c r="L608">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A609" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B609" s="1">
+        <v>6.3513903651976602E+17</v>
+      </c>
+      <c r="C609" t="s">
+        <v>74</v>
+      </c>
+      <c r="D609" t="s">
+        <v>54</v>
+      </c>
+      <c r="E609" t="s">
+        <v>55</v>
+      </c>
+      <c r="F609">
+        <v>1</v>
+      </c>
+      <c r="G609">
+        <v>1</v>
+      </c>
+      <c r="H609">
+        <v>6115.3498</v>
+      </c>
+      <c r="I609">
+        <v>6.4699999999999994E-2</v>
+      </c>
+      <c r="J609">
+        <v>0.72009999999999996</v>
+      </c>
+      <c r="K609">
+        <v>1.5938000000000001</v>
+      </c>
+      <c r="L609">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A610" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B610" s="1">
+        <v>6.3513903665328397E+17</v>
+      </c>
+      <c r="C610" t="s">
+        <v>74</v>
+      </c>
+      <c r="D610" t="s">
+        <v>54</v>
+      </c>
+      <c r="E610" t="s">
+        <v>55</v>
+      </c>
+      <c r="F610">
+        <v>1</v>
+      </c>
+      <c r="G610">
+        <v>2</v>
+      </c>
+      <c r="H610">
+        <v>11435.6541</v>
+      </c>
+      <c r="I610">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="J610">
+        <v>4.2542</v>
+      </c>
+      <c r="K610">
+        <v>1.5246</v>
+      </c>
+      <c r="L610">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A611" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B611" s="1">
+        <v>6.3513903676467994E+17</v>
+      </c>
+      <c r="C611" t="s">
+        <v>74</v>
+      </c>
+      <c r="D611" t="s">
+        <v>54</v>
+      </c>
+      <c r="E611" t="s">
+        <v>55</v>
+      </c>
+      <c r="F611">
+        <v>2</v>
+      </c>
+      <c r="G611">
+        <v>0</v>
+      </c>
+      <c r="H611">
+        <v>8779.5020999999997</v>
+      </c>
+      <c r="I611">
+        <v>0.1565</v>
+      </c>
+      <c r="J611">
+        <v>0.2863</v>
+      </c>
+      <c r="K611">
+        <v>1.6309</v>
+      </c>
+      <c r="L611">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A612" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B612" s="1">
+        <v>6.3513903694544E+17</v>
+      </c>
+      <c r="C612" t="s">
+        <v>74</v>
+      </c>
+      <c r="D612" t="s">
+        <v>54</v>
+      </c>
+      <c r="E612" t="s">
+        <v>55</v>
+      </c>
+      <c r="F612">
+        <v>2</v>
+      </c>
+      <c r="G612">
+        <v>1</v>
+      </c>
+      <c r="H612">
+        <v>15083.8627</v>
+      </c>
+      <c r="I612">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="J612">
+        <v>0.93489999999999995</v>
+      </c>
+      <c r="K612">
+        <v>1.3267</v>
+      </c>
+      <c r="L612">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A613" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B613" s="1">
+        <v>6.3513903707068698E+17</v>
+      </c>
+      <c r="C613" t="s">
+        <v>74</v>
+      </c>
+      <c r="D613" t="s">
+        <v>54</v>
+      </c>
+      <c r="E613" t="s">
+        <v>55</v>
+      </c>
+      <c r="F613">
+        <v>2</v>
+      </c>
+      <c r="G613">
+        <v>2</v>
+      </c>
+      <c r="H613">
+        <v>10924.624900000001</v>
+      </c>
+      <c r="I613">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="J613">
+        <v>1.1498999999999999</v>
+      </c>
+      <c r="K613">
+        <v>1.4952000000000001</v>
+      </c>
+      <c r="L613">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A614" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B614" s="1">
+        <v>6.3513903751252301E+17</v>
+      </c>
+      <c r="C614" t="s">
+        <v>13</v>
+      </c>
+      <c r="D614" t="s">
+        <v>13</v>
+      </c>
+      <c r="E614" t="s">
+        <v>14</v>
+      </c>
+      <c r="F614">
+        <v>0</v>
+      </c>
+      <c r="G614">
+        <v>0</v>
+      </c>
+      <c r="H614">
+        <v>7012.4009999999998</v>
+      </c>
+      <c r="I614">
+        <v>9.5100000000000004E-2</v>
+      </c>
+      <c r="J614">
+        <v>1.9092</v>
+      </c>
+      <c r="K614">
+        <v>0</v>
+      </c>
+      <c r="L614">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A615" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B615" s="1">
+        <v>6.3513903758667699E+17</v>
+      </c>
+      <c r="C615" t="s">
+        <v>13</v>
+      </c>
+      <c r="D615" t="s">
+        <v>13</v>
+      </c>
+      <c r="E615" t="s">
+        <v>14</v>
+      </c>
+      <c r="F615">
+        <v>0</v>
+      </c>
+      <c r="G615">
+        <v>1</v>
+      </c>
+      <c r="H615">
+        <v>5413.3095999999996</v>
+      </c>
+      <c r="I615">
+        <v>4.41E-2</v>
+      </c>
+      <c r="J615">
+        <v>0.86370000000000002</v>
+      </c>
+      <c r="K615">
+        <v>0</v>
+      </c>
+      <c r="L615">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A616" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B616" s="1">
+        <v>6.3513903766444096E+17</v>
+      </c>
+      <c r="C616" t="s">
+        <v>13</v>
+      </c>
+      <c r="D616" t="s">
+        <v>13</v>
+      </c>
+      <c r="E616" t="s">
+        <v>14</v>
+      </c>
+      <c r="F616">
+        <v>0</v>
+      </c>
+      <c r="G616">
+        <v>2</v>
+      </c>
+      <c r="H616">
+        <v>6084.348</v>
+      </c>
+      <c r="I616">
+        <v>9.3399999999999997E-2</v>
+      </c>
+      <c r="J616">
+        <v>2.1113</v>
+      </c>
+      <c r="K616">
+        <v>0</v>
+      </c>
+      <c r="L616">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A617" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B617" s="1">
+        <v>6.3513903775943706E+17</v>
+      </c>
+      <c r="C617" t="s">
+        <v>13</v>
+      </c>
+      <c r="D617" t="s">
+        <v>13</v>
+      </c>
+      <c r="E617" t="s">
+        <v>14</v>
+      </c>
+      <c r="F617">
+        <v>1</v>
+      </c>
+      <c r="G617">
+        <v>0</v>
+      </c>
+      <c r="H617">
+        <v>7435.4252999999999</v>
+      </c>
+      <c r="I617">
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="J617">
+        <v>1.7014</v>
+      </c>
+      <c r="K617">
+        <v>0</v>
+      </c>
+      <c r="L617">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A618" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B618" s="1">
+        <v>6.3513903782727104E+17</v>
+      </c>
+      <c r="C618" t="s">
+        <v>13</v>
+      </c>
+      <c r="D618" t="s">
+        <v>13</v>
+      </c>
+      <c r="E618" t="s">
+        <v>14</v>
+      </c>
+      <c r="F618">
+        <v>1</v>
+      </c>
+      <c r="G618">
+        <v>1</v>
+      </c>
+      <c r="H618">
+        <v>5267.3013000000001</v>
+      </c>
+      <c r="I618">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="J618">
+        <v>0.35149999999999998</v>
+      </c>
+      <c r="K618">
+        <v>0</v>
+      </c>
+      <c r="L618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A619" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B619" s="1">
+        <v>6.3513903791767603E+17</v>
+      </c>
+      <c r="C619" t="s">
+        <v>13</v>
+      </c>
+      <c r="D619" t="s">
+        <v>13</v>
+      </c>
+      <c r="E619" t="s">
+        <v>14</v>
+      </c>
+      <c r="F619">
+        <v>1</v>
+      </c>
+      <c r="G619">
+        <v>2</v>
+      </c>
+      <c r="H619">
+        <v>7463.4269000000004</v>
+      </c>
+      <c r="I619">
+        <v>0.105</v>
+      </c>
+      <c r="J619">
+        <v>1.7715000000000001</v>
+      </c>
+      <c r="K619">
+        <v>0</v>
+      </c>
+      <c r="L619">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A620" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B620" s="1">
+        <v>6.351390379872E+17</v>
+      </c>
+      <c r="C620" t="s">
+        <v>13</v>
+      </c>
+      <c r="D620" t="s">
+        <v>13</v>
+      </c>
+      <c r="E620" t="s">
+        <v>14</v>
+      </c>
+      <c r="F620">
+        <v>2</v>
+      </c>
+      <c r="G620">
+        <v>0</v>
+      </c>
+      <c r="H620">
+        <v>5422.3100999999997</v>
+      </c>
+      <c r="I620">
+        <v>9.4700000000000006E-2</v>
+      </c>
+      <c r="J620">
+        <v>1.0878000000000001</v>
+      </c>
+      <c r="K620">
+        <v>0</v>
+      </c>
+      <c r="L620">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A621" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B621" s="1">
+        <v>6.3513903806211405E+17</v>
+      </c>
+      <c r="C621" t="s">
+        <v>13</v>
+      </c>
+      <c r="D621" t="s">
+        <v>13</v>
+      </c>
+      <c r="E621" t="s">
+        <v>14</v>
+      </c>
+      <c r="F621">
+        <v>2</v>
+      </c>
+      <c r="G621">
+        <v>1</v>
+      </c>
+      <c r="H621">
+        <v>5715.3269</v>
+      </c>
+      <c r="I621">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="J621">
+        <v>2.0350000000000001</v>
+      </c>
+      <c r="K621">
+        <v>0</v>
+      </c>
+      <c r="L621">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A622" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B622" s="1">
+        <v>6.3513903815496E+17</v>
+      </c>
+      <c r="C622" t="s">
+        <v>13</v>
+      </c>
+      <c r="D622" t="s">
+        <v>13</v>
+      </c>
+      <c r="E622" t="s">
+        <v>14</v>
+      </c>
+      <c r="F622">
+        <v>2</v>
+      </c>
+      <c r="G622">
+        <v>2</v>
+      </c>
+      <c r="H622">
+        <v>7824.4476000000004</v>
+      </c>
+      <c r="I622">
+        <v>0.1057</v>
+      </c>
+      <c r="J622">
+        <v>1.3721000000000001</v>
+      </c>
+      <c r="K622">
+        <v>0</v>
+      </c>
+      <c r="L622">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A623" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B623" s="1">
+        <v>6.3513903845002598E+17</v>
+      </c>
+      <c r="C623" t="s">
+        <v>74</v>
+      </c>
+      <c r="D623" t="s">
+        <v>54</v>
+      </c>
+      <c r="E623" t="s">
+        <v>14</v>
+      </c>
+      <c r="F623">
+        <v>0</v>
+      </c>
+      <c r="G623">
+        <v>0</v>
+      </c>
+      <c r="H623">
+        <v>27529.574700000001</v>
+      </c>
+      <c r="I623">
+        <v>6.4600000000000005E-2</v>
+      </c>
+      <c r="J623">
+        <v>2.7999000000000001</v>
+      </c>
+      <c r="K623">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="L623">
+        <v>4.2799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="624" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A624" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B624" s="1">
+        <v>6.3513903855303194E+17</v>
+      </c>
+      <c r="C624" t="s">
+        <v>74</v>
+      </c>
+      <c r="D624" t="s">
+        <v>54</v>
+      </c>
+      <c r="E624" t="s">
+        <v>14</v>
+      </c>
+      <c r="F624">
+        <v>0</v>
+      </c>
+      <c r="G624">
+        <v>1</v>
+      </c>
+      <c r="H624">
+        <v>8099.4633000000003</v>
+      </c>
+      <c r="I624">
+        <v>0.15160000000000001</v>
+      </c>
+      <c r="J624">
+        <v>0.48010000000000003</v>
+      </c>
+      <c r="K624">
+        <v>0.9546</v>
+      </c>
+      <c r="L624">
+        <v>7.6499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="625" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A625" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B625" s="1">
+        <v>6.3513903862358605E+17</v>
+      </c>
+      <c r="C625" t="s">
+        <v>74</v>
+      </c>
+      <c r="D625" t="s">
+        <v>54</v>
+      </c>
+      <c r="E625" t="s">
+        <v>14</v>
+      </c>
+      <c r="F625">
+        <v>0</v>
+      </c>
+      <c r="G625">
+        <v>2</v>
+      </c>
+      <c r="H625">
+        <v>3919.2242000000001</v>
+      </c>
+      <c r="I625">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="J625">
+        <v>0.1255</v>
+      </c>
+      <c r="K625">
+        <v>0.99560000000000004</v>
+      </c>
+      <c r="L625">
+        <v>3.2800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="626" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A626" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B626" s="1">
+        <v>6.3513903870863104E+17</v>
+      </c>
+      <c r="C626" t="s">
+        <v>74</v>
+      </c>
+      <c r="D626" t="s">
+        <v>54</v>
+      </c>
+      <c r="E626" t="s">
+        <v>14</v>
+      </c>
+      <c r="F626">
+        <v>1</v>
+      </c>
+      <c r="G626">
+        <v>0</v>
+      </c>
+      <c r="H626">
+        <v>5667.3242</v>
+      </c>
+      <c r="I626">
+        <v>7.3400000000000007E-2</v>
+      </c>
+      <c r="J626">
+        <v>0.25509999999999999</v>
+      </c>
+      <c r="K626">
+        <v>0.96779999999999999</v>
+      </c>
+      <c r="L626">
+        <v>6.9099999999999995E-2</v>
+      </c>
+    </row>
+    <row r="627" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A627" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B627" s="1">
+        <v>6.3513903876911501E+17</v>
+      </c>
+      <c r="C627" t="s">
+        <v>74</v>
+      </c>
+      <c r="D627" t="s">
+        <v>54</v>
+      </c>
+      <c r="E627" t="s">
+        <v>14</v>
+      </c>
+      <c r="F627">
+        <v>1</v>
+      </c>
+      <c r="G627">
+        <v>1</v>
+      </c>
+      <c r="H627">
+        <v>3732.2134000000001</v>
+      </c>
+      <c r="I627">
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="J627">
+        <v>0.1426</v>
+      </c>
+      <c r="K627">
+        <v>0.98409999999999997</v>
+      </c>
+      <c r="L627">
+        <v>5.5300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="628" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A628" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B628" s="1">
+        <v>6.3513903883790899E+17</v>
+      </c>
+      <c r="C628" t="s">
+        <v>74</v>
+      </c>
+      <c r="D628" t="s">
+        <v>54</v>
+      </c>
+      <c r="E628" t="s">
+        <v>14</v>
+      </c>
+      <c r="F628">
+        <v>1</v>
+      </c>
+      <c r="G628">
+        <v>2</v>
+      </c>
+      <c r="H628">
+        <v>4851.2775000000001</v>
+      </c>
+      <c r="I628">
+        <v>9.9299999999999999E-2</v>
+      </c>
+      <c r="J628">
+        <v>0.68910000000000005</v>
+      </c>
+      <c r="K628">
+        <v>0.9879</v>
+      </c>
+      <c r="L628">
+        <v>4.53E-2</v>
+      </c>
+    </row>
+    <row r="629" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A629" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B629" s="1">
+        <v>6.35139038895072E+17</v>
+      </c>
+      <c r="C629" t="s">
+        <v>74</v>
+      </c>
+      <c r="D629" t="s">
+        <v>54</v>
+      </c>
+      <c r="E629" t="s">
+        <v>14</v>
+      </c>
+      <c r="F629">
+        <v>2</v>
+      </c>
+      <c r="G629">
+        <v>0</v>
+      </c>
+      <c r="H629">
+        <v>4096.2343000000001</v>
+      </c>
+      <c r="I629">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="J629">
+        <v>0.40529999999999999</v>
+      </c>
+      <c r="K629">
+        <v>0.98450000000000004</v>
+      </c>
+      <c r="L629">
+        <v>5.9400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="630" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A630" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B630" s="1">
+        <v>6.3513903895422502E+17</v>
+      </c>
+      <c r="C630" t="s">
+        <v>74</v>
+      </c>
+      <c r="D630" t="s">
+        <v>54</v>
+      </c>
+      <c r="E630" t="s">
+        <v>14</v>
+      </c>
+      <c r="F630">
+        <v>2</v>
+      </c>
+      <c r="G630">
+        <v>1</v>
+      </c>
+      <c r="H630">
+        <v>3991.2283000000002</v>
+      </c>
+      <c r="I630">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="J630">
+        <v>0.10970000000000001</v>
+      </c>
+      <c r="K630">
+        <v>0.97450000000000003</v>
+      </c>
+      <c r="L630">
+        <v>4.6199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="631" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A631" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B631" s="1">
+        <v>6.3513903901454899E+17</v>
+      </c>
+      <c r="C631" t="s">
+        <v>74</v>
+      </c>
+      <c r="D631" t="s">
+        <v>54</v>
+      </c>
+      <c r="E631" t="s">
+        <v>14</v>
+      </c>
+      <c r="F631">
+        <v>2</v>
+      </c>
+      <c r="G631">
+        <v>2</v>
+      </c>
+      <c r="H631">
+        <v>4480.2561999999998</v>
+      </c>
+      <c r="I631">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="J631">
+        <v>0.49070000000000003</v>
+      </c>
+      <c r="K631">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="L631">
+        <v>3.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="632" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A632" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B632" s="1">
+        <v>6.3513903921010995E+17</v>
+      </c>
+      <c r="C632" t="s">
+        <v>13</v>
+      </c>
+      <c r="D632" t="s">
+        <v>13</v>
+      </c>
+      <c r="E632" t="s">
+        <v>55</v>
+      </c>
+      <c r="F632">
+        <v>0</v>
+      </c>
+      <c r="G632">
+        <v>0</v>
+      </c>
+      <c r="H632">
+        <v>6387.3653999999997</v>
+      </c>
+      <c r="I632">
+        <v>6.2300000000000001E-2</v>
+      </c>
+      <c r="J632">
+        <v>0.60950000000000004</v>
+      </c>
+      <c r="K632">
+        <v>0</v>
+      </c>
+      <c r="L632">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A633" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B633" s="1">
+        <v>6.3513903928962406E+17</v>
+      </c>
+      <c r="C633" t="s">
+        <v>13</v>
+      </c>
+      <c r="D633" t="s">
+        <v>13</v>
+      </c>
+      <c r="E633" t="s">
+        <v>55</v>
+      </c>
+      <c r="F633">
+        <v>0</v>
+      </c>
+      <c r="G633">
+        <v>1</v>
+      </c>
+      <c r="H633">
+        <v>6599.3774999999996</v>
+      </c>
+      <c r="I633">
+        <v>0.1234</v>
+      </c>
+      <c r="J633">
+        <v>1.8475999999999999</v>
+      </c>
+      <c r="K633">
+        <v>0</v>
+      </c>
+      <c r="L633">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A634" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B634" s="1">
+        <v>6.3513903935206797E+17</v>
+      </c>
+      <c r="C634" t="s">
+        <v>13</v>
+      </c>
+      <c r="D634" t="s">
+        <v>13</v>
+      </c>
+      <c r="E634" t="s">
+        <v>55</v>
+      </c>
+      <c r="F634">
+        <v>0</v>
+      </c>
+      <c r="G634">
+        <v>2</v>
+      </c>
+      <c r="H634">
+        <v>4576.2617</v>
+      </c>
+      <c r="I634">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="J634">
+        <v>1.8280000000000001</v>
+      </c>
+      <c r="K634">
+        <v>0</v>
+      </c>
+      <c r="L634">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A635" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B635" s="1">
+        <v>6.3513903941862195E+17</v>
+      </c>
+      <c r="C635" t="s">
+        <v>13</v>
+      </c>
+      <c r="D635" t="s">
+        <v>13</v>
+      </c>
+      <c r="E635" t="s">
+        <v>55</v>
+      </c>
+      <c r="F635">
+        <v>1</v>
+      </c>
+      <c r="G635">
+        <v>0</v>
+      </c>
+      <c r="H635">
+        <v>5367.3069999999998</v>
+      </c>
+      <c r="I635">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="J635">
+        <v>2.2724000000000002</v>
+      </c>
+      <c r="K635">
+        <v>0</v>
+      </c>
+      <c r="L635">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A636" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B636" s="1">
+        <v>6.35139039500336E+17</v>
+      </c>
+      <c r="C636" t="s">
+        <v>13</v>
+      </c>
+      <c r="D636" t="s">
+        <v>13</v>
+      </c>
+      <c r="E636" t="s">
+        <v>55</v>
+      </c>
+      <c r="F636">
+        <v>1</v>
+      </c>
+      <c r="G636">
+        <v>1</v>
+      </c>
+      <c r="H636">
+        <v>6974.3989000000001</v>
+      </c>
+      <c r="I636">
+        <v>9.01E-2</v>
+      </c>
+      <c r="J636">
+        <v>1.3576999999999999</v>
+      </c>
+      <c r="K636">
+        <v>0</v>
+      </c>
+      <c r="L636">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A637" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B637" s="1">
+        <v>6.3513903954914906E+17</v>
+      </c>
+      <c r="C637" t="s">
+        <v>13</v>
+      </c>
+      <c r="D637" t="s">
+        <v>13</v>
+      </c>
+      <c r="E637" t="s">
+        <v>55</v>
+      </c>
+      <c r="F637">
+        <v>1</v>
+      </c>
+      <c r="G637">
+        <v>2</v>
+      </c>
+      <c r="H637">
+        <v>3739.2139000000002</v>
+      </c>
+      <c r="I637">
+        <v>0.11559999999999999</v>
+      </c>
+      <c r="J637">
+        <v>0</v>
+      </c>
+      <c r="K637">
+        <v>0</v>
+      </c>
+      <c r="L637">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A638" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B638" s="1">
+        <v>6.3513903962162304E+17</v>
+      </c>
+      <c r="C638" t="s">
+        <v>13</v>
+      </c>
+      <c r="D638" t="s">
+        <v>13</v>
+      </c>
+      <c r="E638" t="s">
+        <v>55</v>
+      </c>
+      <c r="F638">
+        <v>2</v>
+      </c>
+      <c r="G638">
+        <v>0</v>
+      </c>
+      <c r="H638">
+        <v>6075.3474999999999</v>
+      </c>
+      <c r="I638">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="J638">
+        <v>0.55089999999999995</v>
+      </c>
+      <c r="K638">
+        <v>0</v>
+      </c>
+      <c r="L638">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A639" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B639" s="1">
+        <v>6.3513903970501798E+17</v>
+      </c>
+      <c r="C639" t="s">
+        <v>13</v>
+      </c>
+      <c r="D639" t="s">
+        <v>13</v>
+      </c>
+      <c r="E639" t="s">
+        <v>55</v>
+      </c>
+      <c r="F639">
+        <v>2</v>
+      </c>
+      <c r="G639">
+        <v>1</v>
+      </c>
+      <c r="H639">
+        <v>6858.3923000000004</v>
+      </c>
+      <c r="I639">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="J639">
+        <v>2.0026000000000002</v>
+      </c>
+      <c r="K639">
+        <v>0</v>
+      </c>
+      <c r="L639">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A640" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B640" s="1">
+        <v>6.3513903978586304E+17</v>
+      </c>
+      <c r="C640" t="s">
+        <v>13</v>
+      </c>
+      <c r="D640" t="s">
+        <v>13</v>
+      </c>
+      <c r="E640" t="s">
+        <v>55</v>
+      </c>
+      <c r="F640">
+        <v>2</v>
+      </c>
+      <c r="G640">
+        <v>2</v>
+      </c>
+      <c r="H640">
+        <v>6443.3684999999996</v>
+      </c>
+      <c r="I640">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="J640">
+        <v>0</v>
+      </c>
+      <c r="K640">
+        <v>0</v>
+      </c>
+      <c r="L640">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A641" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B641" s="1">
+        <v>6.3513904007625894E+17</v>
+      </c>
+      <c r="C641" t="s">
+        <v>74</v>
+      </c>
+      <c r="D641" t="s">
+        <v>54</v>
+      </c>
+      <c r="E641" t="s">
+        <v>35</v>
+      </c>
+      <c r="F641">
+        <v>0</v>
+      </c>
+      <c r="G641">
+        <v>0</v>
+      </c>
+      <c r="H641">
+        <v>11701.6693</v>
+      </c>
+      <c r="I641">
+        <v>0.19850000000000001</v>
+      </c>
+      <c r="J641">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="K641">
+        <v>1.1484000000000001</v>
+      </c>
+      <c r="L641">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A642" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B642" s="1">
+        <v>6.3513904011850202E+17</v>
+      </c>
+      <c r="C642" t="s">
+        <v>74</v>
+      </c>
+      <c r="D642" t="s">
+        <v>54</v>
+      </c>
+      <c r="E642" t="s">
+        <v>35</v>
+      </c>
+      <c r="F642">
+        <v>0</v>
+      </c>
+      <c r="G642">
+        <v>1</v>
+      </c>
+      <c r="H642">
+        <v>2392.1368000000002</v>
+      </c>
+      <c r="I642">
+        <v>0.1711</v>
+      </c>
+      <c r="J642">
+        <v>1.5362</v>
+      </c>
+      <c r="K642">
+        <v>1.2567999999999999</v>
+      </c>
+      <c r="L642">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A643" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B643" s="1">
+        <v>6.3513904016574502E+17</v>
+      </c>
+      <c r="C643" t="s">
+        <v>74</v>
+      </c>
+      <c r="D643" t="s">
+        <v>54</v>
+      </c>
+      <c r="E643" t="s">
+        <v>35</v>
+      </c>
+      <c r="F643">
+        <v>0</v>
+      </c>
+      <c r="G643">
+        <v>2</v>
+      </c>
+      <c r="H643">
+        <v>4015.2296999999999</v>
+      </c>
+      <c r="I643">
+        <v>0.1482</v>
+      </c>
+      <c r="J643">
+        <v>0.45519999999999999</v>
+      </c>
+      <c r="K643">
+        <v>1.3005</v>
+      </c>
+      <c r="L643">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A644" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B644" s="1">
+        <v>6.35139040193936E+17</v>
+      </c>
+      <c r="C644" t="s">
+        <v>74</v>
+      </c>
+      <c r="D644" t="s">
+        <v>54</v>
+      </c>
+      <c r="E644" t="s">
+        <v>35</v>
+      </c>
+      <c r="F644">
+        <v>1</v>
+      </c>
+      <c r="G644">
+        <v>0</v>
+      </c>
+      <c r="H644">
+        <v>2347.1342</v>
+      </c>
+      <c r="I644">
+        <v>0.14630000000000001</v>
+      </c>
+      <c r="J644">
+        <v>0.72040000000000004</v>
+      </c>
+      <c r="K644">
+        <v>1.2704</v>
+      </c>
+      <c r="L644">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A645" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B645" s="1">
+        <v>6.3513904022161805E+17</v>
+      </c>
+      <c r="C645" t="s">
+        <v>74</v>
+      </c>
+      <c r="D645" t="s">
+        <v>54</v>
+      </c>
+      <c r="E645" t="s">
+        <v>35</v>
+      </c>
+      <c r="F645">
+        <v>1</v>
+      </c>
+      <c r="G645">
+        <v>1</v>
+      </c>
+      <c r="H645">
+        <v>1791.1025</v>
+      </c>
+      <c r="I645">
+        <v>0.18390000000000001</v>
+      </c>
+      <c r="J645">
+        <v>0.41539999999999999</v>
+      </c>
+      <c r="K645">
+        <v>0.41830000000000001</v>
+      </c>
+      <c r="L645">
+        <v>0.58169999999999999</v>
+      </c>
+    </row>
+    <row r="646" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A646" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B646" s="1">
+        <v>6.3513904025966003E+17</v>
+      </c>
+      <c r="C646" t="s">
+        <v>74</v>
+      </c>
+      <c r="D646" t="s">
+        <v>54</v>
+      </c>
+      <c r="E646" t="s">
+        <v>35</v>
+      </c>
+      <c r="F646">
+        <v>1</v>
+      </c>
+      <c r="G646">
+        <v>2</v>
+      </c>
+      <c r="H646" s="4">
+        <v>63513900000000</v>
+      </c>
+      <c r="I646">
+        <v>0.1638</v>
+      </c>
+      <c r="J646">
+        <v>1.0136000000000001</v>
+      </c>
+      <c r="K646">
+        <v>1.3088</v>
+      </c>
+      <c r="L646">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A647" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B647" s="1">
+        <v>6.3513904034646502E+17</v>
+      </c>
+      <c r="C647" t="s">
+        <v>74</v>
+      </c>
+      <c r="D647" t="s">
+        <v>54</v>
+      </c>
+      <c r="E647" t="s">
+        <v>35</v>
+      </c>
+      <c r="F647">
+        <v>2</v>
+      </c>
+      <c r="G647">
+        <v>0</v>
+      </c>
+      <c r="H647">
+        <v>8176.4677000000001</v>
+      </c>
+      <c r="I647">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="J647">
+        <v>1.0823</v>
+      </c>
+      <c r="K647">
+        <v>1.2597</v>
+      </c>
+      <c r="L647">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A648" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B648" s="1">
+        <v>6.3513904042782003E+17</v>
+      </c>
+      <c r="C648" t="s">
+        <v>74</v>
+      </c>
+      <c r="D648" t="s">
+        <v>54</v>
+      </c>
+      <c r="E648" t="s">
+        <v>35</v>
+      </c>
+      <c r="F648">
+        <v>2</v>
+      </c>
+      <c r="G648">
+        <v>1</v>
+      </c>
+      <c r="H648">
+        <v>7423.4246000000003</v>
+      </c>
+      <c r="I648">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="J648">
+        <v>0.25869999999999999</v>
+      </c>
+      <c r="K648">
+        <v>1.349</v>
+      </c>
+      <c r="L648">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A649" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B649" s="1">
+        <v>6.3513904046634202E+17</v>
+      </c>
+      <c r="C649" t="s">
+        <v>74</v>
+      </c>
+      <c r="D649" t="s">
+        <v>54</v>
+      </c>
+      <c r="E649" t="s">
+        <v>35</v>
+      </c>
+      <c r="F649">
+        <v>2</v>
+      </c>
+      <c r="G649">
+        <v>2</v>
+      </c>
+      <c r="H649">
+        <v>2352.1345000000001</v>
+      </c>
+      <c r="I649">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="J649">
+        <v>1.3489</v>
+      </c>
+      <c r="K649">
+        <v>1.1724000000000001</v>
+      </c>
+      <c r="L649">
         <v>0</v>
       </c>
     </row>

--- a/Data/exp2-consolidated.xlsx
+++ b/Data/exp2-consolidated.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4979" uniqueCount="1355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5519" uniqueCount="1464">
   <si>
     <t>Ticks</t>
   </si>
@@ -4081,6 +4081,333 @@
   </si>
   <si>
     <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>635139090949878946</t>
+  </si>
+  <si>
+    <t>635139091109668085</t>
+  </si>
+  <si>
+    <t>635139091218904333</t>
+  </si>
+  <si>
+    <t>635139091294018630</t>
+  </si>
+  <si>
+    <t>635139091377823423</t>
+  </si>
+  <si>
+    <t>635139091415465576</t>
+  </si>
+  <si>
+    <t>635139091485779598</t>
+  </si>
+  <si>
+    <t>635139091530022128</t>
+  </si>
+  <si>
+    <t>635139091586265345</t>
+  </si>
+  <si>
+    <t>635139091682780866</t>
+  </si>
+  <si>
+    <t>635139091706382215</t>
+  </si>
+  <si>
+    <t>635139091757775155</t>
+  </si>
+  <si>
+    <t>635139091806697953</t>
+  </si>
+  <si>
+    <t>635139091923214618</t>
+  </si>
+  <si>
+    <t>635139091987098271</t>
+  </si>
+  <si>
+    <t>635139092011299656</t>
+  </si>
+  <si>
+    <t>635139092028470638</t>
+  </si>
+  <si>
+    <t>635139092075333318</t>
+  </si>
+  <si>
+    <t>635139092837056886</t>
+  </si>
+  <si>
+    <t>635139093076570586</t>
+  </si>
+  <si>
+    <t>635139093247690373</t>
+  </si>
+  <si>
+    <t>635139093472043205</t>
+  </si>
+  <si>
+    <t>635139093605240824</t>
+  </si>
+  <si>
+    <t>635139093844884531</t>
+  </si>
+  <si>
+    <t>635139093978322163</t>
+  </si>
+  <si>
+    <t>635139094084678246</t>
+  </si>
+  <si>
+    <t>635139094196764657</t>
+  </si>
+  <si>
+    <t>635139094455519457</t>
+  </si>
+  <si>
+    <t>635139094523163326</t>
+  </si>
+  <si>
+    <t>635139094610078297</t>
+  </si>
+  <si>
+    <t>635139094622078984</t>
+  </si>
+  <si>
+    <t>635139094690042871</t>
+  </si>
+  <si>
+    <t>635139094738635650</t>
+  </si>
+  <si>
+    <t>635139094790318607</t>
+  </si>
+  <si>
+    <t>635139094843921672</t>
+  </si>
+  <si>
+    <t>635139094902355015</t>
+  </si>
+  <si>
+    <t>635139095425674947</t>
+  </si>
+  <si>
+    <t>635139095616635869</t>
+  </si>
+  <si>
+    <t>635139095724872060</t>
+  </si>
+  <si>
+    <t>635139095968065970</t>
+  </si>
+  <si>
+    <t>635139096083432568</t>
+  </si>
+  <si>
+    <t>635139096265342973</t>
+  </si>
+  <si>
+    <t>635139096320066103</t>
+  </si>
+  <si>
+    <t>635139096434982676</t>
+  </si>
+  <si>
+    <t>635139096649784962</t>
+  </si>
+  <si>
+    <t>635139097453460930</t>
+  </si>
+  <si>
+    <t>635139097581578257</t>
+  </si>
+  <si>
+    <t>635139097636221383</t>
+  </si>
+  <si>
+    <t>635139097745337624</t>
+  </si>
+  <si>
+    <t>635139097769098983</t>
+  </si>
+  <si>
+    <t>635139097821932005</t>
+  </si>
+  <si>
+    <t>635139097941178825</t>
+  </si>
+  <si>
+    <t>635139098038894414</t>
+  </si>
+  <si>
+    <t>635139098127969509</t>
+  </si>
+  <si>
+    <t>635139098588175832</t>
+  </si>
+  <si>
+    <t>635139098786407170</t>
+  </si>
+  <si>
+    <t>635139098957596961</t>
+  </si>
+  <si>
+    <t>635139099095804866</t>
+  </si>
+  <si>
+    <t>635139099287245816</t>
+  </si>
+  <si>
+    <t>635139099416523210</t>
+  </si>
+  <si>
+    <t>635139099563781633</t>
+  </si>
+  <si>
+    <t>635139099655126858</t>
+  </si>
+  <si>
+    <t>635139099764123092</t>
+  </si>
+  <si>
+    <t>635139100101622396</t>
+  </si>
+  <si>
+    <t>635139100216038940</t>
+  </si>
+  <si>
+    <t>635139100298603662</t>
+  </si>
+  <si>
+    <t>635139100378158213</t>
+  </si>
+  <si>
+    <t>635139100475473779</t>
+  </si>
+  <si>
+    <t>635139100577399609</t>
+  </si>
+  <si>
+    <t>635139100674315152</t>
+  </si>
+  <si>
+    <t>635139100777511054</t>
+  </si>
+  <si>
+    <t>635139100887327335</t>
+  </si>
+  <si>
+    <t>635139101287510225</t>
+  </si>
+  <si>
+    <t>635139101383545718</t>
+  </si>
+  <si>
+    <t>635139101461670186</t>
+  </si>
+  <si>
+    <t>635139101537944549</t>
+  </si>
+  <si>
+    <t>635139101599188052</t>
+  </si>
+  <si>
+    <t>635139101649710941</t>
+  </si>
+  <si>
+    <t>635139101729465503</t>
+  </si>
+  <si>
+    <t>635139101783348585</t>
+  </si>
+  <si>
+    <t>635139101828231152</t>
+  </si>
+  <si>
+    <t>635139102588944662</t>
+  </si>
+  <si>
+    <t>635139102704741286</t>
+  </si>
+  <si>
+    <t>635139102767664885</t>
+  </si>
+  <si>
+    <t>635139102873940963</t>
+  </si>
+  <si>
+    <t>635139103002258303</t>
+  </si>
+  <si>
+    <t>635139103141416262</t>
+  </si>
+  <si>
+    <t>635139103346818010</t>
+  </si>
+  <si>
+    <t>635139103491126264</t>
+  </si>
+  <si>
+    <t>635139103570850824</t>
+  </si>
+  <si>
+    <t>635139104353805607</t>
+  </si>
+  <si>
+    <t>635139104397928130</t>
+  </si>
+  <si>
+    <t>635139104455411418</t>
+  </si>
+  <si>
+    <t>635139104532525829</t>
+  </si>
+  <si>
+    <t>635139104694685104</t>
+  </si>
+  <si>
+    <t>635139104818602192</t>
+  </si>
+  <si>
+    <t>635139104902286978</t>
+  </si>
+  <si>
+    <t>635139104931808667</t>
+  </si>
+  <si>
+    <t>635139104984331671</t>
+  </si>
+  <si>
+    <t>635139105189363398</t>
+  </si>
+  <si>
+    <t>635139105268167905</t>
+  </si>
+  <si>
+    <t>635139105300759769</t>
+  </si>
+  <si>
+    <t>635139105514762010</t>
+  </si>
+  <si>
+    <t>635139105642519317</t>
+  </si>
+  <si>
+    <t>635139105671000946</t>
+  </si>
+  <si>
+    <t>635139105769516581</t>
+  </si>
+  <si>
+    <t>635139105829520013</t>
+  </si>
+  <si>
+    <t>635139106003199947</t>
   </si>
 </sst>
 </file>
@@ -4428,10 +4755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L649"/>
+  <dimension ref="A1:L757"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A721" workbookViewId="0">
+      <selection activeCell="D746" sqref="D746"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29102,6 +29429,4110 @@
         <v>1.1724000000000001</v>
       </c>
       <c r="L649">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A650" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B650" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C650" t="s">
+        <v>74</v>
+      </c>
+      <c r="D650" t="s">
+        <v>13</v>
+      </c>
+      <c r="E650" t="s">
+        <v>55</v>
+      </c>
+      <c r="F650">
+        <v>0</v>
+      </c>
+      <c r="G650">
+        <v>0</v>
+      </c>
+      <c r="H650">
+        <v>32011.830999999998</v>
+      </c>
+      <c r="I650">
+        <v>0.1104</v>
+      </c>
+      <c r="J650">
+        <v>1.8797999999999999</v>
+      </c>
+      <c r="K650">
+        <v>0</v>
+      </c>
+      <c r="L650">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A651" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B651" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C651" t="s">
+        <v>74</v>
+      </c>
+      <c r="D651" t="s">
+        <v>13</v>
+      </c>
+      <c r="E651" t="s">
+        <v>55</v>
+      </c>
+      <c r="F651">
+        <v>0</v>
+      </c>
+      <c r="G651">
+        <v>1</v>
+      </c>
+      <c r="H651">
+        <v>12971.741900000001</v>
+      </c>
+      <c r="I651">
+        <v>9.8900000000000002E-2</v>
+      </c>
+      <c r="J651">
+        <v>2.0792999999999999</v>
+      </c>
+      <c r="K651">
+        <v>0</v>
+      </c>
+      <c r="L651">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A652" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B652" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C652" t="s">
+        <v>74</v>
+      </c>
+      <c r="D652" t="s">
+        <v>13</v>
+      </c>
+      <c r="E652" t="s">
+        <v>55</v>
+      </c>
+      <c r="F652">
+        <v>0</v>
+      </c>
+      <c r="G652">
+        <v>2</v>
+      </c>
+      <c r="H652">
+        <v>6551.3747000000003</v>
+      </c>
+      <c r="I652">
+        <v>7.5200000000000003E-2</v>
+      </c>
+      <c r="J652">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="K652">
+        <v>0</v>
+      </c>
+      <c r="L652">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A653" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C653" t="s">
+        <v>74</v>
+      </c>
+      <c r="D653" t="s">
+        <v>13</v>
+      </c>
+      <c r="E653" t="s">
+        <v>55</v>
+      </c>
+      <c r="F653">
+        <v>1</v>
+      </c>
+      <c r="G653">
+        <v>0</v>
+      </c>
+      <c r="H653">
+        <v>6639.3797999999997</v>
+      </c>
+      <c r="I653">
+        <v>8.8099999999999998E-2</v>
+      </c>
+      <c r="J653">
+        <v>0.1862</v>
+      </c>
+      <c r="K653">
+        <v>0</v>
+      </c>
+      <c r="L653">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A654" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B654" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C654" t="s">
+        <v>74</v>
+      </c>
+      <c r="D654" t="s">
+        <v>13</v>
+      </c>
+      <c r="E654" t="s">
+        <v>55</v>
+      </c>
+      <c r="F654">
+        <v>1</v>
+      </c>
+      <c r="G654">
+        <v>1</v>
+      </c>
+      <c r="H654">
+        <v>7443.4256999999998</v>
+      </c>
+      <c r="I654">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="J654">
+        <v>1.1545000000000001</v>
+      </c>
+      <c r="K654">
+        <v>0</v>
+      </c>
+      <c r="L654">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A655" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C655" t="s">
+        <v>74</v>
+      </c>
+      <c r="D655" t="s">
+        <v>13</v>
+      </c>
+      <c r="E655" t="s">
+        <v>55</v>
+      </c>
+      <c r="F655">
+        <v>1</v>
+      </c>
+      <c r="G655">
+        <v>2</v>
+      </c>
+      <c r="H655">
+        <v>2864.1637999999998</v>
+      </c>
+      <c r="I655">
+        <v>6.2899999999999998E-2</v>
+      </c>
+      <c r="J655">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="K655">
+        <v>0</v>
+      </c>
+      <c r="L655">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A656" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C656" t="s">
+        <v>74</v>
+      </c>
+      <c r="D656" t="s">
+        <v>13</v>
+      </c>
+      <c r="E656" t="s">
+        <v>55</v>
+      </c>
+      <c r="F656">
+        <v>2</v>
+      </c>
+      <c r="G656">
+        <v>0</v>
+      </c>
+      <c r="H656">
+        <v>6127.3504999999996</v>
+      </c>
+      <c r="I656">
+        <v>7.1300000000000002E-2</v>
+      </c>
+      <c r="J656">
+        <v>1.1532</v>
+      </c>
+      <c r="K656">
+        <v>0</v>
+      </c>
+      <c r="L656">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A657" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C657" t="s">
+        <v>74</v>
+      </c>
+      <c r="D657" t="s">
+        <v>13</v>
+      </c>
+      <c r="E657" t="s">
+        <v>55</v>
+      </c>
+      <c r="F657">
+        <v>2</v>
+      </c>
+      <c r="G657">
+        <v>1</v>
+      </c>
+      <c r="H657">
+        <v>3667.2096999999999</v>
+      </c>
+      <c r="I657">
+        <v>3.9E-2</v>
+      </c>
+      <c r="J657">
+        <v>0.64270000000000005</v>
+      </c>
+      <c r="K657">
+        <v>0</v>
+      </c>
+      <c r="L657">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A658" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C658" t="s">
+        <v>74</v>
+      </c>
+      <c r="D658" t="s">
+        <v>13</v>
+      </c>
+      <c r="E658" t="s">
+        <v>55</v>
+      </c>
+      <c r="F658">
+        <v>2</v>
+      </c>
+      <c r="G658">
+        <v>2</v>
+      </c>
+      <c r="H658">
+        <v>4928.2819</v>
+      </c>
+      <c r="I658">
+        <v>3.8600000000000002E-2</v>
+      </c>
+      <c r="J658">
+        <v>0.56030000000000002</v>
+      </c>
+      <c r="K658">
+        <v>0</v>
+      </c>
+      <c r="L658">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A659" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B659" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C659" t="s">
+        <v>74</v>
+      </c>
+      <c r="D659" t="s">
+        <v>13</v>
+      </c>
+      <c r="E659" t="s">
+        <v>14</v>
+      </c>
+      <c r="F659">
+        <v>0</v>
+      </c>
+      <c r="G659">
+        <v>0</v>
+      </c>
+      <c r="H659">
+        <v>8979.5136000000002</v>
+      </c>
+      <c r="I659">
+        <v>0.10390000000000001</v>
+      </c>
+      <c r="J659">
+        <v>1.9744999999999999</v>
+      </c>
+      <c r="K659">
+        <v>0</v>
+      </c>
+      <c r="L659">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A660" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C660" t="s">
+        <v>74</v>
+      </c>
+      <c r="D660" t="s">
+        <v>13</v>
+      </c>
+      <c r="E660" t="s">
+        <v>14</v>
+      </c>
+      <c r="F660">
+        <v>0</v>
+      </c>
+      <c r="G660">
+        <v>1</v>
+      </c>
+      <c r="H660">
+        <v>1508.0862</v>
+      </c>
+      <c r="I660">
+        <v>0.1249</v>
+      </c>
+      <c r="J660">
+        <v>2.7058</v>
+      </c>
+      <c r="K660">
+        <v>0</v>
+      </c>
+      <c r="L660">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A661" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B661" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C661" t="s">
+        <v>74</v>
+      </c>
+      <c r="D661" t="s">
+        <v>13</v>
+      </c>
+      <c r="E661" t="s">
+        <v>14</v>
+      </c>
+      <c r="F661">
+        <v>0</v>
+      </c>
+      <c r="G661">
+        <v>2</v>
+      </c>
+      <c r="H661">
+        <v>4159.2379000000001</v>
+      </c>
+      <c r="I661">
+        <v>0.19769999999999999</v>
+      </c>
+      <c r="J661">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="K661">
+        <v>0</v>
+      </c>
+      <c r="L661">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A662" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B662" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C662" t="s">
+        <v>74</v>
+      </c>
+      <c r="D662" t="s">
+        <v>13</v>
+      </c>
+      <c r="E662" t="s">
+        <v>14</v>
+      </c>
+      <c r="F662">
+        <v>1</v>
+      </c>
+      <c r="G662">
+        <v>0</v>
+      </c>
+      <c r="H662">
+        <v>4355.2491</v>
+      </c>
+      <c r="I662">
+        <v>0.16070000000000001</v>
+      </c>
+      <c r="J662">
+        <v>1.4857</v>
+      </c>
+      <c r="K662">
+        <v>0</v>
+      </c>
+      <c r="L662">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A663" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B663" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C663" t="s">
+        <v>74</v>
+      </c>
+      <c r="D663" t="s">
+        <v>13</v>
+      </c>
+      <c r="E663" t="s">
+        <v>14</v>
+      </c>
+      <c r="F663">
+        <v>1</v>
+      </c>
+      <c r="G663">
+        <v>1</v>
+      </c>
+      <c r="H663">
+        <v>11131.636699999999</v>
+      </c>
+      <c r="I663">
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="J663">
+        <v>1.8347</v>
+      </c>
+      <c r="K663">
+        <v>0</v>
+      </c>
+      <c r="L663">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A664" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B664" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C664" t="s">
+        <v>74</v>
+      </c>
+      <c r="D664" t="s">
+        <v>13</v>
+      </c>
+      <c r="E664" t="s">
+        <v>14</v>
+      </c>
+      <c r="F664">
+        <v>1</v>
+      </c>
+      <c r="G664">
+        <v>2</v>
+      </c>
+      <c r="H664">
+        <v>5671.3243000000002</v>
+      </c>
+      <c r="I664">
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="J664">
+        <v>0.74480000000000002</v>
+      </c>
+      <c r="K664">
+        <v>0</v>
+      </c>
+      <c r="L664">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A665" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B665" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C665" t="s">
+        <v>74</v>
+      </c>
+      <c r="D665" t="s">
+        <v>13</v>
+      </c>
+      <c r="E665" t="s">
+        <v>14</v>
+      </c>
+      <c r="F665">
+        <v>2</v>
+      </c>
+      <c r="G665">
+        <v>0</v>
+      </c>
+      <c r="H665">
+        <v>1892.1081999999999</v>
+      </c>
+      <c r="I665">
+        <v>0.1031</v>
+      </c>
+      <c r="J665">
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="K665">
+        <v>0</v>
+      </c>
+      <c r="L665">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A666" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B666" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C666" t="s">
+        <v>74</v>
+      </c>
+      <c r="D666" t="s">
+        <v>13</v>
+      </c>
+      <c r="E666" t="s">
+        <v>14</v>
+      </c>
+      <c r="F666">
+        <v>2</v>
+      </c>
+      <c r="G666">
+        <v>1</v>
+      </c>
+      <c r="H666">
+        <v>1257.0718999999999</v>
+      </c>
+      <c r="I666">
+        <v>0.1087</v>
+      </c>
+      <c r="J666">
+        <v>2.0825</v>
+      </c>
+      <c r="K666">
+        <v>0</v>
+      </c>
+      <c r="L666">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A667" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B667" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C667" t="s">
+        <v>74</v>
+      </c>
+      <c r="D667" t="s">
+        <v>13</v>
+      </c>
+      <c r="E667" t="s">
+        <v>14</v>
+      </c>
+      <c r="F667">
+        <v>2</v>
+      </c>
+      <c r="G667">
+        <v>2</v>
+      </c>
+      <c r="H667">
+        <v>4171.2385999999997</v>
+      </c>
+      <c r="I667">
+        <v>0.1232</v>
+      </c>
+      <c r="J667">
+        <v>0.63349999999999995</v>
+      </c>
+      <c r="K667">
+        <v>0</v>
+      </c>
+      <c r="L667">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A668" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B668" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C668" t="s">
+        <v>13</v>
+      </c>
+      <c r="D668" t="s">
+        <v>54</v>
+      </c>
+      <c r="E668" t="s">
+        <v>35</v>
+      </c>
+      <c r="F668">
+        <v>0</v>
+      </c>
+      <c r="G668">
+        <v>0</v>
+      </c>
+      <c r="H668">
+        <v>75731.331600000005</v>
+      </c>
+      <c r="I668">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="J668">
+        <v>1.8581000000000001</v>
+      </c>
+      <c r="K668">
+        <v>1.9198999999999999</v>
+      </c>
+      <c r="L668">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A669" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B669" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C669" t="s">
+        <v>13</v>
+      </c>
+      <c r="D669" t="s">
+        <v>54</v>
+      </c>
+      <c r="E669" t="s">
+        <v>35</v>
+      </c>
+      <c r="F669">
+        <v>0</v>
+      </c>
+      <c r="G669">
+        <v>1</v>
+      </c>
+      <c r="H669">
+        <v>18368.050599999999</v>
+      </c>
+      <c r="I669">
+        <v>0.1628</v>
+      </c>
+      <c r="J669">
+        <v>0.65759999999999996</v>
+      </c>
+      <c r="K669">
+        <v>1.2924</v>
+      </c>
+      <c r="L669">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A670" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B670" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C670" t="s">
+        <v>13</v>
+      </c>
+      <c r="D670" t="s">
+        <v>54</v>
+      </c>
+      <c r="E670" t="s">
+        <v>35</v>
+      </c>
+      <c r="F670">
+        <v>0</v>
+      </c>
+      <c r="G670">
+        <v>2</v>
+      </c>
+      <c r="H670">
+        <v>13555.775299999999</v>
+      </c>
+      <c r="I670">
+        <v>0.23960000000000001</v>
+      </c>
+      <c r="J670">
+        <v>0.33429999999999999</v>
+      </c>
+      <c r="K670">
+        <v>1.4089</v>
+      </c>
+      <c r="L670">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A671" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B671" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C671" t="s">
+        <v>13</v>
+      </c>
+      <c r="D671" t="s">
+        <v>54</v>
+      </c>
+      <c r="E671" t="s">
+        <v>35</v>
+      </c>
+      <c r="F671">
+        <v>1</v>
+      </c>
+      <c r="G671">
+        <v>0</v>
+      </c>
+      <c r="H671">
+        <v>19875.136699999999</v>
+      </c>
+      <c r="I671">
+        <v>0.12180000000000001</v>
+      </c>
+      <c r="J671">
+        <v>2.4437000000000002</v>
+      </c>
+      <c r="K671">
+        <v>1.3069999999999999</v>
+      </c>
+      <c r="L671">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A672" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B672" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C672" t="s">
+        <v>13</v>
+      </c>
+      <c r="D672" t="s">
+        <v>54</v>
+      </c>
+      <c r="E672" t="s">
+        <v>35</v>
+      </c>
+      <c r="F672">
+        <v>1</v>
+      </c>
+      <c r="G672">
+        <v>1</v>
+      </c>
+      <c r="H672">
+        <v>11690.6687</v>
+      </c>
+      <c r="I672">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="J672">
+        <v>0.15670000000000001</v>
+      </c>
+      <c r="K672">
+        <v>1.48</v>
+      </c>
+      <c r="L672">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A673" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B673" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C673" t="s">
+        <v>13</v>
+      </c>
+      <c r="D673" t="s">
+        <v>54</v>
+      </c>
+      <c r="E673" t="s">
+        <v>35</v>
+      </c>
+      <c r="F673">
+        <v>1</v>
+      </c>
+      <c r="G673">
+        <v>2</v>
+      </c>
+      <c r="H673">
+        <v>15307.875599999999</v>
+      </c>
+      <c r="I673">
+        <v>0.15429999999999999</v>
+      </c>
+      <c r="J673">
+        <v>0.47549999999999998</v>
+      </c>
+      <c r="K673">
+        <v>1.4065000000000001</v>
+      </c>
+      <c r="L673">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A674" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B674" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C674" t="s">
+        <v>13</v>
+      </c>
+      <c r="D674" t="s">
+        <v>54</v>
+      </c>
+      <c r="E674" t="s">
+        <v>35</v>
+      </c>
+      <c r="F674">
+        <v>2</v>
+      </c>
+      <c r="G674">
+        <v>0</v>
+      </c>
+      <c r="H674">
+        <v>9079.5192999999999</v>
+      </c>
+      <c r="I674">
+        <v>0.19189999999999999</v>
+      </c>
+      <c r="J674">
+        <v>3.9198</v>
+      </c>
+      <c r="K674">
+        <v>1.3448</v>
+      </c>
+      <c r="L674">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A675" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B675" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C675" t="s">
+        <v>13</v>
+      </c>
+      <c r="D675" t="s">
+        <v>54</v>
+      </c>
+      <c r="E675" t="s">
+        <v>35</v>
+      </c>
+      <c r="F675">
+        <v>2</v>
+      </c>
+      <c r="G675">
+        <v>1</v>
+      </c>
+      <c r="H675">
+        <v>7423.4246000000003</v>
+      </c>
+      <c r="I675">
+        <v>0.2021</v>
+      </c>
+      <c r="J675">
+        <v>1.7686999999999999</v>
+      </c>
+      <c r="K675">
+        <v>1.3962000000000001</v>
+      </c>
+      <c r="L675">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A676" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B676" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C676" t="s">
+        <v>13</v>
+      </c>
+      <c r="D676" t="s">
+        <v>54</v>
+      </c>
+      <c r="E676" t="s">
+        <v>35</v>
+      </c>
+      <c r="F676">
+        <v>2</v>
+      </c>
+      <c r="G676">
+        <v>2</v>
+      </c>
+      <c r="H676">
+        <v>9659.5524999999998</v>
+      </c>
+      <c r="I676">
+        <v>0.44269999999999998</v>
+      </c>
+      <c r="J676">
+        <v>1.7888999999999999</v>
+      </c>
+      <c r="K676">
+        <v>1.6323000000000001</v>
+      </c>
+      <c r="L676">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A677" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B677" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C677" t="s">
+        <v>74</v>
+      </c>
+      <c r="D677" t="s">
+        <v>13</v>
+      </c>
+      <c r="E677" t="s">
+        <v>35</v>
+      </c>
+      <c r="F677">
+        <v>0</v>
+      </c>
+      <c r="G677">
+        <v>0</v>
+      </c>
+      <c r="H677">
+        <v>13795.7891</v>
+      </c>
+      <c r="I677">
+        <v>8.5105000000000004</v>
+      </c>
+      <c r="J677">
+        <v>38.3675</v>
+      </c>
+      <c r="K677">
+        <v>0</v>
+      </c>
+      <c r="L677">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A678" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B678" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C678" t="s">
+        <v>74</v>
+      </c>
+      <c r="D678" t="s">
+        <v>13</v>
+      </c>
+      <c r="E678" t="s">
+        <v>35</v>
+      </c>
+      <c r="F678">
+        <v>0</v>
+      </c>
+      <c r="G678">
+        <v>1</v>
+      </c>
+      <c r="H678">
+        <v>5605.3206</v>
+      </c>
+      <c r="I678">
+        <v>8.8229000000000006</v>
+      </c>
+      <c r="J678">
+        <v>24.304500000000001</v>
+      </c>
+      <c r="K678">
+        <v>0</v>
+      </c>
+      <c r="L678">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A679" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C679" t="s">
+        <v>74</v>
+      </c>
+      <c r="D679" t="s">
+        <v>13</v>
+      </c>
+      <c r="E679" t="s">
+        <v>35</v>
+      </c>
+      <c r="F679">
+        <v>0</v>
+      </c>
+      <c r="G679">
+        <v>2</v>
+      </c>
+      <c r="H679">
+        <v>7907.4521999999997</v>
+      </c>
+      <c r="I679">
+        <v>5.5376000000000003</v>
+      </c>
+      <c r="J679">
+        <v>24.2182</v>
+      </c>
+      <c r="K679">
+        <v>0</v>
+      </c>
+      <c r="L679">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A680" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B680" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C680" t="s">
+        <v>74</v>
+      </c>
+      <c r="D680" t="s">
+        <v>13</v>
+      </c>
+      <c r="E680" t="s">
+        <v>35</v>
+      </c>
+      <c r="F680">
+        <v>1</v>
+      </c>
+      <c r="G680">
+        <v>0</v>
+      </c>
+      <c r="H680">
+        <v>63513909462207.898</v>
+      </c>
+      <c r="I680">
+        <v>7.0242000000000004</v>
+      </c>
+      <c r="J680">
+        <v>29.036100000000001</v>
+      </c>
+      <c r="K680">
+        <v>0</v>
+      </c>
+      <c r="L680">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A681" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B681" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C681" t="s">
+        <v>74</v>
+      </c>
+      <c r="D681" t="s">
+        <v>13</v>
+      </c>
+      <c r="E681" t="s">
+        <v>35</v>
+      </c>
+      <c r="F681">
+        <v>1</v>
+      </c>
+      <c r="G681">
+        <v>1</v>
+      </c>
+      <c r="H681">
+        <v>6388.3653999999997</v>
+      </c>
+      <c r="I681">
+        <v>7.4683000000000002</v>
+      </c>
+      <c r="J681">
+        <v>27.838100000000001</v>
+      </c>
+      <c r="K681">
+        <v>0</v>
+      </c>
+      <c r="L681">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A682" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B682" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C682" t="s">
+        <v>74</v>
+      </c>
+      <c r="D682" t="s">
+        <v>13</v>
+      </c>
+      <c r="E682" t="s">
+        <v>35</v>
+      </c>
+      <c r="F682">
+        <v>1</v>
+      </c>
+      <c r="G682">
+        <v>2</v>
+      </c>
+      <c r="H682">
+        <v>4339.2480999999998</v>
+      </c>
+      <c r="I682">
+        <v>7.5670000000000002</v>
+      </c>
+      <c r="J682">
+        <v>29.229900000000001</v>
+      </c>
+      <c r="K682">
+        <v>0</v>
+      </c>
+      <c r="L682">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A683" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B683" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C683" t="s">
+        <v>74</v>
+      </c>
+      <c r="D683" t="s">
+        <v>13</v>
+      </c>
+      <c r="E683" t="s">
+        <v>35</v>
+      </c>
+      <c r="F683">
+        <v>2</v>
+      </c>
+      <c r="G683">
+        <v>0</v>
+      </c>
+      <c r="H683">
+        <v>4623.2645000000002</v>
+      </c>
+      <c r="I683">
+        <v>7.9131999999999998</v>
+      </c>
+      <c r="J683">
+        <v>30.8157</v>
+      </c>
+      <c r="K683">
+        <v>0</v>
+      </c>
+      <c r="L683">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A684" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C684" t="s">
+        <v>74</v>
+      </c>
+      <c r="D684" t="s">
+        <v>13</v>
+      </c>
+      <c r="E684" t="s">
+        <v>35</v>
+      </c>
+      <c r="F684">
+        <v>2</v>
+      </c>
+      <c r="G684">
+        <v>1</v>
+      </c>
+      <c r="H684">
+        <v>4456.2547999999997</v>
+      </c>
+      <c r="I684">
+        <v>7.7548000000000004</v>
+      </c>
+      <c r="J684">
+        <v>24.3994</v>
+      </c>
+      <c r="K684">
+        <v>0</v>
+      </c>
+      <c r="L684">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A685" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B685" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C685" t="s">
+        <v>74</v>
+      </c>
+      <c r="D685" t="s">
+        <v>13</v>
+      </c>
+      <c r="E685" t="s">
+        <v>35</v>
+      </c>
+      <c r="F685">
+        <v>2</v>
+      </c>
+      <c r="G685">
+        <v>2</v>
+      </c>
+      <c r="H685">
+        <v>5403.3091000000004</v>
+      </c>
+      <c r="I685">
+        <v>8.3070000000000004</v>
+      </c>
+      <c r="J685">
+        <v>31.31</v>
+      </c>
+      <c r="K685">
+        <v>0</v>
+      </c>
+      <c r="L685">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A686" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B686" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C686" t="s">
+        <v>13</v>
+      </c>
+      <c r="D686" t="s">
+        <v>54</v>
+      </c>
+      <c r="E686" t="s">
+        <v>14</v>
+      </c>
+      <c r="F686">
+        <v>0</v>
+      </c>
+      <c r="G686">
+        <v>0</v>
+      </c>
+      <c r="H686">
+        <v>51863.966500000002</v>
+      </c>
+      <c r="I686">
+        <v>0.58520000000000005</v>
+      </c>
+      <c r="J686">
+        <v>2.1442000000000001</v>
+      </c>
+      <c r="K686">
+        <v>1.7316</v>
+      </c>
+      <c r="L686">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A687" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B687" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C687" t="s">
+        <v>13</v>
+      </c>
+      <c r="D687" t="s">
+        <v>54</v>
+      </c>
+      <c r="E687" t="s">
+        <v>14</v>
+      </c>
+      <c r="F687">
+        <v>0</v>
+      </c>
+      <c r="G687">
+        <v>1</v>
+      </c>
+      <c r="H687">
+        <v>15647.895</v>
+      </c>
+      <c r="I687">
+        <v>0.16070000000000001</v>
+      </c>
+      <c r="J687">
+        <v>1.0984</v>
+      </c>
+      <c r="K687">
+        <v>1.1977</v>
+      </c>
+      <c r="L687">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="688" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A688" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B688" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C688" t="s">
+        <v>13</v>
+      </c>
+      <c r="D688" t="s">
+        <v>54</v>
+      </c>
+      <c r="E688" t="s">
+        <v>14</v>
+      </c>
+      <c r="F688">
+        <v>0</v>
+      </c>
+      <c r="G688">
+        <v>2</v>
+      </c>
+      <c r="H688">
+        <v>9071.5188999999991</v>
+      </c>
+      <c r="I688">
+        <v>0.1661</v>
+      </c>
+      <c r="J688">
+        <v>0.56779999999999997</v>
+      </c>
+      <c r="K688">
+        <v>1.2039</v>
+      </c>
+      <c r="L688">
+        <v>2.7000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="689" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A689" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B689" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C689" t="s">
+        <v>13</v>
+      </c>
+      <c r="D689" t="s">
+        <v>54</v>
+      </c>
+      <c r="E689" t="s">
+        <v>14</v>
+      </c>
+      <c r="F689">
+        <v>1</v>
+      </c>
+      <c r="G689">
+        <v>0</v>
+      </c>
+      <c r="H689">
+        <v>22775.3027</v>
+      </c>
+      <c r="I689">
+        <v>0.113</v>
+      </c>
+      <c r="J689">
+        <v>0.46360000000000001</v>
+      </c>
+      <c r="K689">
+        <v>1.4198999999999999</v>
+      </c>
+      <c r="L689">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A690" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B690" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C690" t="s">
+        <v>13</v>
+      </c>
+      <c r="D690" t="s">
+        <v>54</v>
+      </c>
+      <c r="E690" t="s">
+        <v>14</v>
+      </c>
+      <c r="F690">
+        <v>1</v>
+      </c>
+      <c r="G690">
+        <v>1</v>
+      </c>
+      <c r="H690">
+        <v>10532.6024</v>
+      </c>
+      <c r="I690">
+        <v>0.2051</v>
+      </c>
+      <c r="J690">
+        <v>2.7120000000000002</v>
+      </c>
+      <c r="K690">
+        <v>1.4198</v>
+      </c>
+      <c r="L690">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A691" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B691" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C691" t="s">
+        <v>13</v>
+      </c>
+      <c r="D691" t="s">
+        <v>54</v>
+      </c>
+      <c r="E691" t="s">
+        <v>14</v>
+      </c>
+      <c r="F691">
+        <v>1</v>
+      </c>
+      <c r="G691">
+        <v>2</v>
+      </c>
+      <c r="H691">
+        <v>16970.970700000002</v>
+      </c>
+      <c r="I691">
+        <v>0.15620000000000001</v>
+      </c>
+      <c r="J691">
+        <v>0.77249999999999996</v>
+      </c>
+      <c r="K691">
+        <v>1.3819999999999999</v>
+      </c>
+      <c r="L691">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A692" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B692" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C692" t="s">
+        <v>13</v>
+      </c>
+      <c r="D692" t="s">
+        <v>54</v>
+      </c>
+      <c r="E692" t="s">
+        <v>14</v>
+      </c>
+      <c r="F692">
+        <v>2</v>
+      </c>
+      <c r="G692">
+        <v>0</v>
+      </c>
+      <c r="H692">
+        <v>4263.2438000000002</v>
+      </c>
+      <c r="I692">
+        <v>9.0200000000000002E-2</v>
+      </c>
+      <c r="J692">
+        <v>2.3372999999999999</v>
+      </c>
+      <c r="K692">
+        <v>1.2083999999999999</v>
+      </c>
+      <c r="L692">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="693" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A693" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B693" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C693" t="s">
+        <v>13</v>
+      </c>
+      <c r="D693" t="s">
+        <v>54</v>
+      </c>
+      <c r="E693" t="s">
+        <v>14</v>
+      </c>
+      <c r="F693">
+        <v>2</v>
+      </c>
+      <c r="G693">
+        <v>1</v>
+      </c>
+      <c r="H693">
+        <v>9615.5499999999993</v>
+      </c>
+      <c r="I693">
+        <v>0.2535</v>
+      </c>
+      <c r="J693">
+        <v>3.6124000000000001</v>
+      </c>
+      <c r="K693">
+        <v>1.7231000000000001</v>
+      </c>
+      <c r="L693">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A694" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B694" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C694" t="s">
+        <v>13</v>
+      </c>
+      <c r="D694" t="s">
+        <v>54</v>
+      </c>
+      <c r="E694" t="s">
+        <v>14</v>
+      </c>
+      <c r="F694">
+        <v>2</v>
+      </c>
+      <c r="G694">
+        <v>2</v>
+      </c>
+      <c r="H694">
+        <v>16635.951499999999</v>
+      </c>
+      <c r="I694">
+        <v>0.1207</v>
+      </c>
+      <c r="J694">
+        <v>1.0341</v>
+      </c>
+      <c r="K694">
+        <v>1.3361000000000001</v>
+      </c>
+      <c r="L694">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A695" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B695" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C695" t="s">
+        <v>74</v>
+      </c>
+      <c r="D695" t="s">
+        <v>54</v>
+      </c>
+      <c r="E695" t="s">
+        <v>55</v>
+      </c>
+      <c r="F695">
+        <v>0</v>
+      </c>
+      <c r="G695">
+        <v>0</v>
+      </c>
+      <c r="H695">
+        <v>75974.345499999996</v>
+      </c>
+      <c r="I695">
+        <v>0.12659999999999999</v>
+      </c>
+      <c r="J695">
+        <v>1.0035000000000001</v>
+      </c>
+      <c r="K695">
+        <v>4.0720000000000001</v>
+      </c>
+      <c r="L695">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A696" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B696" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C696" t="s">
+        <v>74</v>
+      </c>
+      <c r="D696" t="s">
+        <v>54</v>
+      </c>
+      <c r="E696" t="s">
+        <v>55</v>
+      </c>
+      <c r="F696">
+        <v>0</v>
+      </c>
+      <c r="G696">
+        <v>1</v>
+      </c>
+      <c r="H696">
+        <v>11819.675999999999</v>
+      </c>
+      <c r="I696">
+        <v>0.2089</v>
+      </c>
+      <c r="J696">
+        <v>1.6094999999999999</v>
+      </c>
+      <c r="K696">
+        <v>3.9990000000000001</v>
+      </c>
+      <c r="L696">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A697" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B697" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C697" t="s">
+        <v>74</v>
+      </c>
+      <c r="D697" t="s">
+        <v>54</v>
+      </c>
+      <c r="E697" t="s">
+        <v>55</v>
+      </c>
+      <c r="F697">
+        <v>0</v>
+      </c>
+      <c r="G697">
+        <v>2</v>
+      </c>
+      <c r="H697">
+        <v>3865.2211000000002</v>
+      </c>
+      <c r="I697">
+        <v>0.15890000000000001</v>
+      </c>
+      <c r="J697">
+        <v>1.1222000000000001</v>
+      </c>
+      <c r="K697">
+        <v>4.0895000000000001</v>
+      </c>
+      <c r="L697">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A698" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B698" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C698" t="s">
+        <v>74</v>
+      </c>
+      <c r="D698" t="s">
+        <v>54</v>
+      </c>
+      <c r="E698" t="s">
+        <v>55</v>
+      </c>
+      <c r="F698">
+        <v>1</v>
+      </c>
+      <c r="G698">
+        <v>0</v>
+      </c>
+      <c r="H698">
+        <v>10375.593500000001</v>
+      </c>
+      <c r="I698">
+        <v>0.15809999999999999</v>
+      </c>
+      <c r="J698">
+        <v>1.2172000000000001</v>
+      </c>
+      <c r="K698">
+        <v>3.9468000000000001</v>
+      </c>
+      <c r="L698">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A699" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B699" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C699" t="s">
+        <v>74</v>
+      </c>
+      <c r="D699" t="s">
+        <v>54</v>
+      </c>
+      <c r="E699" t="s">
+        <v>55</v>
+      </c>
+      <c r="F699">
+        <v>1</v>
+      </c>
+      <c r="G699">
+        <v>1</v>
+      </c>
+      <c r="H699">
+        <v>1832.1048000000001</v>
+      </c>
+      <c r="I699">
+        <v>0.13880000000000001</v>
+      </c>
+      <c r="J699">
+        <v>0.84250000000000003</v>
+      </c>
+      <c r="K699">
+        <v>4.0242000000000004</v>
+      </c>
+      <c r="L699">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A700" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B700" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C700" t="s">
+        <v>74</v>
+      </c>
+      <c r="D700" t="s">
+        <v>54</v>
+      </c>
+      <c r="E700" t="s">
+        <v>55</v>
+      </c>
+      <c r="F700">
+        <v>1</v>
+      </c>
+      <c r="G700">
+        <v>2</v>
+      </c>
+      <c r="H700">
+        <v>4391.2511999999997</v>
+      </c>
+      <c r="I700">
+        <v>0.16350000000000001</v>
+      </c>
+      <c r="J700">
+        <v>0.66639999999999999</v>
+      </c>
+      <c r="K700">
+        <v>4.0934999999999997</v>
+      </c>
+      <c r="L700">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A701" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B701" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C701" t="s">
+        <v>74</v>
+      </c>
+      <c r="D701" t="s">
+        <v>54</v>
+      </c>
+      <c r="E701" t="s">
+        <v>55</v>
+      </c>
+      <c r="F701">
+        <v>2</v>
+      </c>
+      <c r="G701">
+        <v>0</v>
+      </c>
+      <c r="H701">
+        <v>11459.6554</v>
+      </c>
+      <c r="I701">
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="J701">
+        <v>0.25509999999999999</v>
+      </c>
+      <c r="K701">
+        <v>1.4308000000000001</v>
+      </c>
+      <c r="L701">
+        <v>1.2999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="702" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A702" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B702" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C702" t="s">
+        <v>74</v>
+      </c>
+      <c r="D702" t="s">
+        <v>54</v>
+      </c>
+      <c r="E702" t="s">
+        <v>55</v>
+      </c>
+      <c r="F702">
+        <v>2</v>
+      </c>
+      <c r="G702">
+        <v>1</v>
+      </c>
+      <c r="H702">
+        <v>9047.5174000000006</v>
+      </c>
+      <c r="I702">
+        <v>0.16239999999999999</v>
+      </c>
+      <c r="J702">
+        <v>0.4239</v>
+      </c>
+      <c r="K702">
+        <v>1.6959</v>
+      </c>
+      <c r="L702">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A703" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B703" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C703" t="s">
+        <v>74</v>
+      </c>
+      <c r="D703" t="s">
+        <v>54</v>
+      </c>
+      <c r="E703" t="s">
+        <v>55</v>
+      </c>
+      <c r="F703">
+        <v>2</v>
+      </c>
+      <c r="G703">
+        <v>2</v>
+      </c>
+      <c r="H703">
+        <v>7911.4525000000003</v>
+      </c>
+      <c r="I703">
+        <v>9.5299999999999996E-2</v>
+      </c>
+      <c r="J703">
+        <v>1.6665000000000001</v>
+      </c>
+      <c r="K703">
+        <v>1.7639</v>
+      </c>
+      <c r="L703">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A704" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B704" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C704" t="s">
+        <v>13</v>
+      </c>
+      <c r="D704" t="s">
+        <v>54</v>
+      </c>
+      <c r="E704" t="s">
+        <v>55</v>
+      </c>
+      <c r="F704">
+        <v>0</v>
+      </c>
+      <c r="G704">
+        <v>0</v>
+      </c>
+      <c r="H704">
+        <v>18584.062999999998</v>
+      </c>
+      <c r="I704">
+        <v>0.50919999999999999</v>
+      </c>
+      <c r="J704">
+        <v>0.57869999999999999</v>
+      </c>
+      <c r="K704">
+        <v>2.9859</v>
+      </c>
+      <c r="L704">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A705" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B705" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C705" t="s">
+        <v>13</v>
+      </c>
+      <c r="D705" t="s">
+        <v>54</v>
+      </c>
+      <c r="E705" t="s">
+        <v>55</v>
+      </c>
+      <c r="F705">
+        <v>0</v>
+      </c>
+      <c r="G705">
+        <v>1</v>
+      </c>
+      <c r="H705">
+        <v>14355.821099999999</v>
+      </c>
+      <c r="I705">
+        <v>0</v>
+      </c>
+      <c r="J705">
+        <v>4.4683000000000002</v>
+      </c>
+      <c r="K705">
+        <v>1.9395</v>
+      </c>
+      <c r="L705">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A706" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B706" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C706" t="s">
+        <v>13</v>
+      </c>
+      <c r="D706" t="s">
+        <v>54</v>
+      </c>
+      <c r="E706" t="s">
+        <v>55</v>
+      </c>
+      <c r="F706">
+        <v>0</v>
+      </c>
+      <c r="G706">
+        <v>2</v>
+      </c>
+      <c r="H706">
+        <v>13234.757</v>
+      </c>
+      <c r="I706">
+        <v>0.2006</v>
+      </c>
+      <c r="J706">
+        <v>4.5701000000000001</v>
+      </c>
+      <c r="K706">
+        <v>1.7591000000000001</v>
+      </c>
+      <c r="L706">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A707" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B707" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C707" t="s">
+        <v>13</v>
+      </c>
+      <c r="D707" t="s">
+        <v>54</v>
+      </c>
+      <c r="E707" t="s">
+        <v>55</v>
+      </c>
+      <c r="F707">
+        <v>1</v>
+      </c>
+      <c r="G707">
+        <v>0</v>
+      </c>
+      <c r="H707">
+        <v>12315.704400000001</v>
+      </c>
+      <c r="I707">
+        <v>0.16539999999999999</v>
+      </c>
+      <c r="J707">
+        <v>1.2842</v>
+      </c>
+      <c r="K707">
+        <v>2.0537000000000001</v>
+      </c>
+      <c r="L707">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="708" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A708" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B708" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C708" t="s">
+        <v>13</v>
+      </c>
+      <c r="D708" t="s">
+        <v>54</v>
+      </c>
+      <c r="E708" t="s">
+        <v>55</v>
+      </c>
+      <c r="F708">
+        <v>1</v>
+      </c>
+      <c r="G708">
+        <v>1</v>
+      </c>
+      <c r="H708">
+        <v>17876.022400000002</v>
+      </c>
+      <c r="I708">
+        <v>0.24540000000000001</v>
+      </c>
+      <c r="J708">
+        <v>1.5556000000000001</v>
+      </c>
+      <c r="K708">
+        <v>2.0672000000000001</v>
+      </c>
+      <c r="L708">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A709" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B709" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C709" t="s">
+        <v>13</v>
+      </c>
+      <c r="D709" t="s">
+        <v>54</v>
+      </c>
+      <c r="E709" t="s">
+        <v>55</v>
+      </c>
+      <c r="F709">
+        <v>1</v>
+      </c>
+      <c r="G709">
+        <v>2</v>
+      </c>
+      <c r="H709">
+        <v>11758.672500000001</v>
+      </c>
+      <c r="I709">
+        <v>0.1933</v>
+      </c>
+      <c r="J709">
+        <v>9.5008999999999997</v>
+      </c>
+      <c r="K709">
+        <v>2.6711</v>
+      </c>
+      <c r="L709">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A710" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B710" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C710" t="s">
+        <v>13</v>
+      </c>
+      <c r="D710" t="s">
+        <v>54</v>
+      </c>
+      <c r="E710" t="s">
+        <v>55</v>
+      </c>
+      <c r="F710">
+        <v>2</v>
+      </c>
+      <c r="G710">
+        <v>0</v>
+      </c>
+      <c r="H710">
+        <v>11101.635</v>
+      </c>
+      <c r="I710">
+        <v>8.5800000000000001E-2</v>
+      </c>
+      <c r="J710">
+        <v>9.8028999999999993</v>
+      </c>
+      <c r="K710">
+        <v>2.484</v>
+      </c>
+      <c r="L710">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A711" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B711" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C711" t="s">
+        <v>13</v>
+      </c>
+      <c r="D711" t="s">
+        <v>54</v>
+      </c>
+      <c r="E711" t="s">
+        <v>55</v>
+      </c>
+      <c r="F711">
+        <v>2</v>
+      </c>
+      <c r="G711">
+        <v>1</v>
+      </c>
+      <c r="H711">
+        <v>6708.3837000000003</v>
+      </c>
+      <c r="I711">
+        <v>0.1585</v>
+      </c>
+      <c r="J711">
+        <v>1.1465000000000001</v>
+      </c>
+      <c r="K711">
+        <v>2.5661999999999998</v>
+      </c>
+      <c r="L711">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A712" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B712" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C712" t="s">
+        <v>13</v>
+      </c>
+      <c r="D712" t="s">
+        <v>54</v>
+      </c>
+      <c r="E712" t="s">
+        <v>55</v>
+      </c>
+      <c r="F712">
+        <v>2</v>
+      </c>
+      <c r="G712">
+        <v>2</v>
+      </c>
+      <c r="H712">
+        <v>9615.5499999999993</v>
+      </c>
+      <c r="I712">
+        <v>0.26590000000000003</v>
+      </c>
+      <c r="J712">
+        <v>2.4689000000000001</v>
+      </c>
+      <c r="K712">
+        <v>2.8477000000000001</v>
+      </c>
+      <c r="L712">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A713" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B713" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C713" t="s">
+        <v>74</v>
+      </c>
+      <c r="D713" t="s">
+        <v>54</v>
+      </c>
+      <c r="E713" t="s">
+        <v>14</v>
+      </c>
+      <c r="F713">
+        <v>0</v>
+      </c>
+      <c r="G713">
+        <v>0</v>
+      </c>
+      <c r="H713">
+        <v>32233.843700000001</v>
+      </c>
+      <c r="I713">
+        <v>4.9466000000000001</v>
+      </c>
+      <c r="J713">
+        <v>47.776600000000002</v>
+      </c>
+      <c r="K713">
+        <v>7.3833000000000002</v>
+      </c>
+      <c r="L713">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A714" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B714" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C714" t="s">
+        <v>74</v>
+      </c>
+      <c r="D714" t="s">
+        <v>54</v>
+      </c>
+      <c r="E714" t="s">
+        <v>14</v>
+      </c>
+      <c r="F714">
+        <v>0</v>
+      </c>
+      <c r="G714">
+        <v>1</v>
+      </c>
+      <c r="H714">
+        <v>3520.2013000000002</v>
+      </c>
+      <c r="I714">
+        <v>4.0868000000000002</v>
+      </c>
+      <c r="J714">
+        <v>42.576900000000002</v>
+      </c>
+      <c r="K714">
+        <v>8.5475999999999992</v>
+      </c>
+      <c r="L714">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A715" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B715" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C715" t="s">
+        <v>74</v>
+      </c>
+      <c r="D715" t="s">
+        <v>54</v>
+      </c>
+      <c r="E715" t="s">
+        <v>14</v>
+      </c>
+      <c r="F715">
+        <v>0</v>
+      </c>
+      <c r="G715">
+        <v>2</v>
+      </c>
+      <c r="H715">
+        <v>3800.2172999999998</v>
+      </c>
+      <c r="I715">
+        <v>5.3319000000000001</v>
+      </c>
+      <c r="J715">
+        <v>41.3277</v>
+      </c>
+      <c r="K715">
+        <v>9.2207000000000008</v>
+      </c>
+      <c r="L715">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A716" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B716" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C716" t="s">
+        <v>74</v>
+      </c>
+      <c r="D716" t="s">
+        <v>54</v>
+      </c>
+      <c r="E716" t="s">
+        <v>14</v>
+      </c>
+      <c r="F716">
+        <v>1</v>
+      </c>
+      <c r="G716">
+        <v>0</v>
+      </c>
+      <c r="H716">
+        <v>6631.3792999999996</v>
+      </c>
+      <c r="I716">
+        <v>5.6326999999999998</v>
+      </c>
+      <c r="J716">
+        <v>46.5291</v>
+      </c>
+      <c r="K716">
+        <v>8.5594000000000001</v>
+      </c>
+      <c r="L716">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A717" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B717" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C717" t="s">
+        <v>74</v>
+      </c>
+      <c r="D717" t="s">
+        <v>54</v>
+      </c>
+      <c r="E717" t="s">
+        <v>14</v>
+      </c>
+      <c r="F717">
+        <v>1</v>
+      </c>
+      <c r="G717">
+        <v>1</v>
+      </c>
+      <c r="H717">
+        <v>4811.2752</v>
+      </c>
+      <c r="I717">
+        <v>5.4058999999999999</v>
+      </c>
+      <c r="J717">
+        <v>41.564</v>
+      </c>
+      <c r="K717">
+        <v>8.4194999999999993</v>
+      </c>
+      <c r="L717">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A718" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B718" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C718" t="s">
+        <v>74</v>
+      </c>
+      <c r="D718" t="s">
+        <v>54</v>
+      </c>
+      <c r="E718" t="s">
+        <v>14</v>
+      </c>
+      <c r="F718">
+        <v>1</v>
+      </c>
+      <c r="G718">
+        <v>2</v>
+      </c>
+      <c r="H718">
+        <v>9663.5527999999995</v>
+      </c>
+      <c r="I718">
+        <v>5.5209000000000001</v>
+      </c>
+      <c r="J718">
+        <v>46.1233</v>
+      </c>
+      <c r="K718">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="L718">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A719" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B719" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C719" t="s">
+        <v>74</v>
+      </c>
+      <c r="D719" t="s">
+        <v>54</v>
+      </c>
+      <c r="E719" t="s">
+        <v>14</v>
+      </c>
+      <c r="F719">
+        <v>2</v>
+      </c>
+      <c r="G719">
+        <v>0</v>
+      </c>
+      <c r="H719">
+        <v>3576.2046</v>
+      </c>
+      <c r="I719">
+        <v>6.4203999999999999</v>
+      </c>
+      <c r="J719">
+        <v>47.049700000000001</v>
+      </c>
+      <c r="K719">
+        <v>8.1646000000000001</v>
+      </c>
+      <c r="L719">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A720" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B720" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C720" t="s">
+        <v>74</v>
+      </c>
+      <c r="D720" t="s">
+        <v>54</v>
+      </c>
+      <c r="E720" t="s">
+        <v>14</v>
+      </c>
+      <c r="F720">
+        <v>2</v>
+      </c>
+      <c r="G720">
+        <v>1</v>
+      </c>
+      <c r="H720">
+        <v>3459.1977999999999</v>
+      </c>
+      <c r="I720">
+        <v>6.3131000000000004</v>
+      </c>
+      <c r="J720">
+        <v>42.373600000000003</v>
+      </c>
+      <c r="K720">
+        <v>9.6694999999999993</v>
+      </c>
+      <c r="L720">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A721" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B721" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C721" t="s">
+        <v>74</v>
+      </c>
+      <c r="D721" t="s">
+        <v>54</v>
+      </c>
+      <c r="E721" t="s">
+        <v>14</v>
+      </c>
+      <c r="F721">
+        <v>2</v>
+      </c>
+      <c r="G721">
+        <v>2</v>
+      </c>
+      <c r="H721">
+        <v>6145.3513999999996</v>
+      </c>
+      <c r="I721">
+        <v>6.0303000000000004</v>
+      </c>
+      <c r="J721">
+        <v>32.558799999999998</v>
+      </c>
+      <c r="K721">
+        <v>10.436299999999999</v>
+      </c>
+      <c r="L721">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A722" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B722" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C722" t="s">
+        <v>13</v>
+      </c>
+      <c r="D722" t="s">
+        <v>13</v>
+      </c>
+      <c r="E722" t="s">
+        <v>35</v>
+      </c>
+      <c r="F722">
+        <v>0</v>
+      </c>
+      <c r="G722">
+        <v>0</v>
+      </c>
+      <c r="H722">
+        <v>9703.5550000000003</v>
+      </c>
+      <c r="I722">
+        <v>0.33660000000000001</v>
+      </c>
+      <c r="J722">
+        <v>0.2099</v>
+      </c>
+      <c r="K722">
+        <v>0</v>
+      </c>
+      <c r="L722">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A723" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B723" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C723" t="s">
+        <v>13</v>
+      </c>
+      <c r="D723" t="s">
+        <v>13</v>
+      </c>
+      <c r="E723" t="s">
+        <v>35</v>
+      </c>
+      <c r="F723">
+        <v>0</v>
+      </c>
+      <c r="G723">
+        <v>1</v>
+      </c>
+      <c r="H723">
+        <v>3890.2226000000001</v>
+      </c>
+      <c r="I723">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="J723">
+        <v>3.6522000000000001</v>
+      </c>
+      <c r="K723">
+        <v>0</v>
+      </c>
+      <c r="L723">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A724" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B724" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C724" t="s">
+        <v>13</v>
+      </c>
+      <c r="D724" t="s">
+        <v>13</v>
+      </c>
+      <c r="E724" t="s">
+        <v>35</v>
+      </c>
+      <c r="F724">
+        <v>0</v>
+      </c>
+      <c r="G724">
+        <v>2</v>
+      </c>
+      <c r="H724">
+        <v>2448.14</v>
+      </c>
+      <c r="I724">
+        <v>0.47920000000000001</v>
+      </c>
+      <c r="J724">
+        <v>3.8506</v>
+      </c>
+      <c r="K724">
+        <v>0</v>
+      </c>
+      <c r="L724">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A725" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B725" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C725" t="s">
+        <v>13</v>
+      </c>
+      <c r="D725" t="s">
+        <v>13</v>
+      </c>
+      <c r="E725" t="s">
+        <v>35</v>
+      </c>
+      <c r="F725">
+        <v>1</v>
+      </c>
+      <c r="G725">
+        <v>0</v>
+      </c>
+      <c r="H725">
+        <v>3284.1878999999999</v>
+      </c>
+      <c r="I725">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="J725">
+        <v>1.0053000000000001</v>
+      </c>
+      <c r="K725">
+        <v>0</v>
+      </c>
+      <c r="L725">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A726" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B726" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C726" t="s">
+        <v>13</v>
+      </c>
+      <c r="D726" t="s">
+        <v>13</v>
+      </c>
+      <c r="E726" t="s">
+        <v>35</v>
+      </c>
+      <c r="F726">
+        <v>1</v>
+      </c>
+      <c r="G726">
+        <v>1</v>
+      </c>
+      <c r="H726">
+        <v>2443.1397999999999</v>
+      </c>
+      <c r="I726">
+        <v>0.2301</v>
+      </c>
+      <c r="J726">
+        <v>1.3574999999999999</v>
+      </c>
+      <c r="K726">
+        <v>0</v>
+      </c>
+      <c r="L726">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A727" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B727" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C727" t="s">
+        <v>13</v>
+      </c>
+      <c r="D727" t="s">
+        <v>13</v>
+      </c>
+      <c r="E727" t="s">
+        <v>35</v>
+      </c>
+      <c r="F727">
+        <v>1</v>
+      </c>
+      <c r="G727">
+        <v>2</v>
+      </c>
+      <c r="H727">
+        <v>1936.1107</v>
+      </c>
+      <c r="I727">
+        <v>0.14990000000000001</v>
+      </c>
+      <c r="J727">
+        <v>1.1812</v>
+      </c>
+      <c r="K727">
+        <v>0</v>
+      </c>
+      <c r="L727">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="728" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A728" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B728" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C728" t="s">
+        <v>13</v>
+      </c>
+      <c r="D728" t="s">
+        <v>13</v>
+      </c>
+      <c r="E728" t="s">
+        <v>35</v>
+      </c>
+      <c r="F728">
+        <v>2</v>
+      </c>
+      <c r="G728">
+        <v>0</v>
+      </c>
+      <c r="H728">
+        <v>4039.2310000000002</v>
+      </c>
+      <c r="I728">
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="J728">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="K728">
+        <v>0</v>
+      </c>
+      <c r="L728">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A729" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B729" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C729" t="s">
+        <v>13</v>
+      </c>
+      <c r="D729" t="s">
+        <v>13</v>
+      </c>
+      <c r="E729" t="s">
+        <v>35</v>
+      </c>
+      <c r="F729">
+        <v>2</v>
+      </c>
+      <c r="G729">
+        <v>1</v>
+      </c>
+      <c r="H729">
+        <v>1916.1096</v>
+      </c>
+      <c r="I729">
+        <v>0.24690000000000001</v>
+      </c>
+      <c r="J729">
+        <v>4.4715999999999996</v>
+      </c>
+      <c r="K729">
+        <v>0</v>
+      </c>
+      <c r="L729">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A730" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B730" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C730" t="s">
+        <v>13</v>
+      </c>
+      <c r="D730" t="s">
+        <v>13</v>
+      </c>
+      <c r="E730" t="s">
+        <v>35</v>
+      </c>
+      <c r="F730">
+        <v>2</v>
+      </c>
+      <c r="G730">
+        <v>2</v>
+      </c>
+      <c r="H730">
+        <v>2876.1644999999999</v>
+      </c>
+      <c r="I730">
+        <v>0.14449999999999999</v>
+      </c>
+      <c r="J730">
+        <v>3.3944999999999999</v>
+      </c>
+      <c r="K730">
+        <v>0</v>
+      </c>
+      <c r="L730">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A731" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B731" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C731" t="s">
+        <v>74</v>
+      </c>
+      <c r="D731" t="s">
+        <v>54</v>
+      </c>
+      <c r="E731" t="s">
+        <v>35</v>
+      </c>
+      <c r="F731">
+        <v>0</v>
+      </c>
+      <c r="G731">
+        <v>0</v>
+      </c>
+      <c r="H731">
+        <v>74127.239799999996</v>
+      </c>
+      <c r="I731">
+        <v>0.3624</v>
+      </c>
+      <c r="J731">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="K731">
+        <v>1.3767</v>
+      </c>
+      <c r="L731">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="732" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A732" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B732" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C732" t="s">
+        <v>74</v>
+      </c>
+      <c r="D732" t="s">
+        <v>54</v>
+      </c>
+      <c r="E732" t="s">
+        <v>35</v>
+      </c>
+      <c r="F732">
+        <v>0</v>
+      </c>
+      <c r="G732">
+        <v>1</v>
+      </c>
+      <c r="H732">
+        <v>7395.4229999999998</v>
+      </c>
+      <c r="I732">
+        <v>0.2016</v>
+      </c>
+      <c r="J732">
+        <v>0.30880000000000002</v>
+      </c>
+      <c r="K732">
+        <v>1.1727000000000001</v>
+      </c>
+      <c r="L732">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A733" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B733" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C733" t="s">
+        <v>74</v>
+      </c>
+      <c r="D733" t="s">
+        <v>54</v>
+      </c>
+      <c r="E733" t="s">
+        <v>35</v>
+      </c>
+      <c r="F733">
+        <v>0</v>
+      </c>
+      <c r="G733">
+        <v>2</v>
+      </c>
+      <c r="H733">
+        <v>4988.2853999999998</v>
+      </c>
+      <c r="I733">
+        <v>0.1391</v>
+      </c>
+      <c r="J733">
+        <v>0.51829999999999998</v>
+      </c>
+      <c r="K733">
+        <v>1.5671999999999999</v>
+      </c>
+      <c r="L733">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A734" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B734" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C734" t="s">
+        <v>74</v>
+      </c>
+      <c r="D734" t="s">
+        <v>54</v>
+      </c>
+      <c r="E734" t="s">
+        <v>35</v>
+      </c>
+      <c r="F734">
+        <v>1</v>
+      </c>
+      <c r="G734">
+        <v>0</v>
+      </c>
+      <c r="H734">
+        <v>9455.5408000000007</v>
+      </c>
+      <c r="I734">
+        <v>0.19750000000000001</v>
+      </c>
+      <c r="J734">
+        <v>1.1801999999999999</v>
+      </c>
+      <c r="K734">
+        <v>1.8089</v>
+      </c>
+      <c r="L734">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A735" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B735" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C735" t="s">
+        <v>74</v>
+      </c>
+      <c r="D735" t="s">
+        <v>54</v>
+      </c>
+      <c r="E735" t="s">
+        <v>35</v>
+      </c>
+      <c r="F735">
+        <v>1</v>
+      </c>
+      <c r="G735">
+        <v>1</v>
+      </c>
+      <c r="H735">
+        <v>8207.4694999999992</v>
+      </c>
+      <c r="I735">
+        <v>0.17929999999999999</v>
+      </c>
+      <c r="J735">
+        <v>0.78</v>
+      </c>
+      <c r="K735">
+        <v>1.5387</v>
+      </c>
+      <c r="L735">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A736" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B736" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C736" t="s">
+        <v>74</v>
+      </c>
+      <c r="D736" t="s">
+        <v>54</v>
+      </c>
+      <c r="E736" t="s">
+        <v>35</v>
+      </c>
+      <c r="F736">
+        <v>1</v>
+      </c>
+      <c r="G736">
+        <v>2</v>
+      </c>
+      <c r="H736">
+        <v>3295.1885000000002</v>
+      </c>
+      <c r="I736">
+        <v>9.8599999999999993E-2</v>
+      </c>
+      <c r="J736">
+        <v>0.5091</v>
+      </c>
+      <c r="K736">
+        <v>1.3298000000000001</v>
+      </c>
+      <c r="L736">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A737" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B737" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C737" t="s">
+        <v>74</v>
+      </c>
+      <c r="D737" t="s">
+        <v>54</v>
+      </c>
+      <c r="E737" t="s">
+        <v>35</v>
+      </c>
+      <c r="F737">
+        <v>2</v>
+      </c>
+      <c r="G737">
+        <v>0</v>
+      </c>
+      <c r="H737">
+        <v>10607.6067</v>
+      </c>
+      <c r="I737">
+        <v>0.15160000000000001</v>
+      </c>
+      <c r="J737">
+        <v>2.6044999999999998</v>
+      </c>
+      <c r="K737">
+        <v>1.2789999999999999</v>
+      </c>
+      <c r="L737">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A738" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B738" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C738" t="s">
+        <v>74</v>
+      </c>
+      <c r="D738" t="s">
+        <v>54</v>
+      </c>
+      <c r="E738" t="s">
+        <v>35</v>
+      </c>
+      <c r="F738">
+        <v>2</v>
+      </c>
+      <c r="G738">
+        <v>1</v>
+      </c>
+      <c r="H738">
+        <v>10242.585800000001</v>
+      </c>
+      <c r="I738">
+        <v>0.14990000000000001</v>
+      </c>
+      <c r="J738">
+        <v>0.1807</v>
+      </c>
+      <c r="K738">
+        <v>1.6901999999999999</v>
+      </c>
+      <c r="L738">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A739" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B739" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C739" t="s">
+        <v>74</v>
+      </c>
+      <c r="D739" t="s">
+        <v>54</v>
+      </c>
+      <c r="E739" t="s">
+        <v>35</v>
+      </c>
+      <c r="F739">
+        <v>2</v>
+      </c>
+      <c r="G739">
+        <v>2</v>
+      </c>
+      <c r="H739">
+        <v>5079.2905000000001</v>
+      </c>
+      <c r="I739">
+        <v>0.21360000000000001</v>
+      </c>
+      <c r="J739">
+        <v>9.3700000000000006E-2</v>
+      </c>
+      <c r="K739">
+        <v>1.2403999999999999</v>
+      </c>
+      <c r="L739">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A740" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B740" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C740" t="s">
+        <v>13</v>
+      </c>
+      <c r="D740" t="s">
+        <v>13</v>
+      </c>
+      <c r="E740" t="s">
+        <v>14</v>
+      </c>
+      <c r="F740">
+        <v>0</v>
+      </c>
+      <c r="G740">
+        <v>0</v>
+      </c>
+      <c r="H740">
+        <v>6543.3743000000004</v>
+      </c>
+      <c r="I740">
+        <v>0.25230000000000002</v>
+      </c>
+      <c r="J740">
+        <v>0.46210000000000001</v>
+      </c>
+      <c r="K740">
+        <v>0</v>
+      </c>
+      <c r="L740">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A741" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B741" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C741" t="s">
+        <v>13</v>
+      </c>
+      <c r="D741" t="s">
+        <v>13</v>
+      </c>
+      <c r="E741" t="s">
+        <v>14</v>
+      </c>
+      <c r="F741">
+        <v>0</v>
+      </c>
+      <c r="G741">
+        <v>1</v>
+      </c>
+      <c r="H741">
+        <v>2771.1585</v>
+      </c>
+      <c r="I741">
+        <v>0.1079</v>
+      </c>
+      <c r="J741">
+        <v>0.76729999999999998</v>
+      </c>
+      <c r="K741">
+        <v>0</v>
+      </c>
+      <c r="L741">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A742" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B742" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C742" t="s">
+        <v>13</v>
+      </c>
+      <c r="D742" t="s">
+        <v>13</v>
+      </c>
+      <c r="E742" t="s">
+        <v>14</v>
+      </c>
+      <c r="F742">
+        <v>0</v>
+      </c>
+      <c r="G742">
+        <v>2</v>
+      </c>
+      <c r="H742">
+        <v>4731.2705999999998</v>
+      </c>
+      <c r="I742">
+        <v>0.71830000000000005</v>
+      </c>
+      <c r="J742">
+        <v>3.3513000000000002</v>
+      </c>
+      <c r="K742">
+        <v>0</v>
+      </c>
+      <c r="L742">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A743" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B743" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C743" t="s">
+        <v>13</v>
+      </c>
+      <c r="D743" t="s">
+        <v>13</v>
+      </c>
+      <c r="E743" t="s">
+        <v>14</v>
+      </c>
+      <c r="F743">
+        <v>1</v>
+      </c>
+      <c r="G743">
+        <v>0</v>
+      </c>
+      <c r="H743">
+        <v>3613.2067000000002</v>
+      </c>
+      <c r="I743">
+        <v>0.12889999999999999</v>
+      </c>
+      <c r="J743">
+        <v>1.6134999999999999</v>
+      </c>
+      <c r="K743">
+        <v>0</v>
+      </c>
+      <c r="L743">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A744" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B744" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C744" t="s">
+        <v>13</v>
+      </c>
+      <c r="D744" t="s">
+        <v>13</v>
+      </c>
+      <c r="E744" t="s">
+        <v>14</v>
+      </c>
+      <c r="F744">
+        <v>1</v>
+      </c>
+      <c r="G744">
+        <v>1</v>
+      </c>
+      <c r="H744">
+        <v>7319.4187000000002</v>
+      </c>
+      <c r="I744">
+        <v>8.8400000000000006E-2</v>
+      </c>
+      <c r="J744">
+        <v>8.2462999999999997</v>
+      </c>
+      <c r="K744">
+        <v>0</v>
+      </c>
+      <c r="L744">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A745" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B745" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C745" t="s">
+        <v>13</v>
+      </c>
+      <c r="D745" t="s">
+        <v>13</v>
+      </c>
+      <c r="E745" t="s">
+        <v>14</v>
+      </c>
+      <c r="F745">
+        <v>1</v>
+      </c>
+      <c r="G745">
+        <v>2</v>
+      </c>
+      <c r="H745">
+        <v>3739.2139000000002</v>
+      </c>
+      <c r="I745">
+        <v>0.1527</v>
+      </c>
+      <c r="J745">
+        <v>4.3276000000000003</v>
+      </c>
+      <c r="K745">
+        <v>0</v>
+      </c>
+      <c r="L745">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A746" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B746" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C746" t="s">
+        <v>13</v>
+      </c>
+      <c r="D746" t="s">
+        <v>13</v>
+      </c>
+      <c r="E746" t="s">
+        <v>14</v>
+      </c>
+      <c r="F746">
+        <v>2</v>
+      </c>
+      <c r="G746">
+        <v>0</v>
+      </c>
+      <c r="H746">
+        <v>5315.3040000000001</v>
+      </c>
+      <c r="I746">
+        <v>0.13189999999999999</v>
+      </c>
+      <c r="J746">
+        <v>2.3372999999999999</v>
+      </c>
+      <c r="K746">
+        <v>0</v>
+      </c>
+      <c r="L746">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A747" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B747" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C747" t="s">
+        <v>13</v>
+      </c>
+      <c r="D747" t="s">
+        <v>13</v>
+      </c>
+      <c r="E747" t="s">
+        <v>14</v>
+      </c>
+      <c r="F747">
+        <v>2</v>
+      </c>
+      <c r="G747">
+        <v>1</v>
+      </c>
+      <c r="H747">
+        <v>2056.1176</v>
+      </c>
+      <c r="I747">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="J747">
+        <v>1.1457999999999999</v>
+      </c>
+      <c r="K747">
+        <v>0</v>
+      </c>
+      <c r="L747">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A748" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B748" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C748" t="s">
+        <v>13</v>
+      </c>
+      <c r="D748" t="s">
+        <v>13</v>
+      </c>
+      <c r="E748" t="s">
+        <v>14</v>
+      </c>
+      <c r="F748">
+        <v>2</v>
+      </c>
+      <c r="G748">
+        <v>2</v>
+      </c>
+      <c r="H748">
+        <v>4524.2587999999996</v>
+      </c>
+      <c r="I748">
+        <v>9.7900000000000001E-2</v>
+      </c>
+      <c r="J748">
+        <v>0.5968</v>
+      </c>
+      <c r="K748">
+        <v>0</v>
+      </c>
+      <c r="L748">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A749" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B749" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C749" t="s">
+        <v>13</v>
+      </c>
+      <c r="D749" t="s">
+        <v>13</v>
+      </c>
+      <c r="E749" t="s">
+        <v>55</v>
+      </c>
+      <c r="F749">
+        <v>0</v>
+      </c>
+      <c r="G749">
+        <v>0</v>
+      </c>
+      <c r="H749">
+        <v>17928.025399999999</v>
+      </c>
+      <c r="I749">
+        <v>9.8100000000000007E-2</v>
+      </c>
+      <c r="J749">
+        <v>1.014</v>
+      </c>
+      <c r="K749">
+        <v>0</v>
+      </c>
+      <c r="L749">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A750" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B750" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C750" t="s">
+        <v>13</v>
+      </c>
+      <c r="D750" t="s">
+        <v>13</v>
+      </c>
+      <c r="E750" t="s">
+        <v>55</v>
+      </c>
+      <c r="F750">
+        <v>0</v>
+      </c>
+      <c r="G750">
+        <v>1</v>
+      </c>
+      <c r="H750">
+        <v>3847.22</v>
+      </c>
+      <c r="I750">
+        <v>0.1343</v>
+      </c>
+      <c r="J750">
+        <v>4.6859000000000002</v>
+      </c>
+      <c r="K750">
+        <v>0</v>
+      </c>
+      <c r="L750">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A751" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B751" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C751" t="s">
+        <v>13</v>
+      </c>
+      <c r="D751" t="s">
+        <v>13</v>
+      </c>
+      <c r="E751" t="s">
+        <v>55</v>
+      </c>
+      <c r="F751">
+        <v>0</v>
+      </c>
+      <c r="G751">
+        <v>2</v>
+      </c>
+      <c r="H751">
+        <v>1839.1052</v>
+      </c>
+      <c r="I751">
+        <v>6.1699999999999998E-2</v>
+      </c>
+      <c r="J751">
+        <v>6.4175000000000004</v>
+      </c>
+      <c r="K751">
+        <v>0</v>
+      </c>
+      <c r="L751">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A752" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B752" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C752" t="s">
+        <v>13</v>
+      </c>
+      <c r="D752" t="s">
+        <v>13</v>
+      </c>
+      <c r="E752" t="s">
+        <v>55</v>
+      </c>
+      <c r="F752">
+        <v>1</v>
+      </c>
+      <c r="G752">
+        <v>0</v>
+      </c>
+      <c r="H752">
+        <v>17198.983800000002</v>
+      </c>
+      <c r="I752">
+        <v>0.1598</v>
+      </c>
+      <c r="J752">
+        <v>2.2240000000000002</v>
+      </c>
+      <c r="K752">
+        <v>0</v>
+      </c>
+      <c r="L752">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A753" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B753" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C753" t="s">
+        <v>13</v>
+      </c>
+      <c r="D753" t="s">
+        <v>13</v>
+      </c>
+      <c r="E753" t="s">
+        <v>55</v>
+      </c>
+      <c r="F753">
+        <v>1</v>
+      </c>
+      <c r="G753">
+        <v>1</v>
+      </c>
+      <c r="H753">
+        <v>2655.1518999999998</v>
+      </c>
+      <c r="I753">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="J753">
+        <v>15.5809</v>
+      </c>
+      <c r="K753">
+        <v>0</v>
+      </c>
+      <c r="L753">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A754" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B754" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C754" t="s">
+        <v>13</v>
+      </c>
+      <c r="D754" t="s">
+        <v>13</v>
+      </c>
+      <c r="E754" t="s">
+        <v>55</v>
+      </c>
+      <c r="F754">
+        <v>1</v>
+      </c>
+      <c r="G754">
+        <v>2</v>
+      </c>
+      <c r="H754">
+        <v>1147.0655999999999</v>
+      </c>
+      <c r="I754">
+        <v>0.16109999999999999</v>
+      </c>
+      <c r="J754">
+        <v>18.610199999999999</v>
+      </c>
+      <c r="K754">
+        <v>0</v>
+      </c>
+      <c r="L754">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A755" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B755" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C755" t="s">
+        <v>13</v>
+      </c>
+      <c r="D755" t="s">
+        <v>13</v>
+      </c>
+      <c r="E755" t="s">
+        <v>55</v>
+      </c>
+      <c r="F755">
+        <v>2</v>
+      </c>
+      <c r="G755">
+        <v>0</v>
+      </c>
+      <c r="H755">
+        <v>8939.5113000000001</v>
+      </c>
+      <c r="I755">
+        <v>0.24990000000000001</v>
+      </c>
+      <c r="J755">
+        <v>14.0618</v>
+      </c>
+      <c r="K755">
+        <v>0</v>
+      </c>
+      <c r="L755">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A756" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B756" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C756" t="s">
+        <v>13</v>
+      </c>
+      <c r="D756" t="s">
+        <v>13</v>
+      </c>
+      <c r="E756" t="s">
+        <v>55</v>
+      </c>
+      <c r="F756">
+        <v>2</v>
+      </c>
+      <c r="G756">
+        <v>1</v>
+      </c>
+      <c r="H756">
+        <v>2711.1550999999999</v>
+      </c>
+      <c r="I756">
+        <v>0.27350000000000002</v>
+      </c>
+      <c r="J756">
+        <v>1.325</v>
+      </c>
+      <c r="K756">
+        <v>0</v>
+      </c>
+      <c r="L756">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A757" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B757" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C757" t="s">
+        <v>13</v>
+      </c>
+      <c r="D757" t="s">
+        <v>13</v>
+      </c>
+      <c r="E757" t="s">
+        <v>55</v>
+      </c>
+      <c r="F757">
+        <v>2</v>
+      </c>
+      <c r="G757">
+        <v>2</v>
+      </c>
+      <c r="H757">
+        <v>8475.4848000000002</v>
+      </c>
+      <c r="I757">
+        <v>0.18410000000000001</v>
+      </c>
+      <c r="J757">
+        <v>19.405999999999999</v>
+      </c>
+      <c r="K757">
+        <v>0</v>
+      </c>
+      <c r="L757">
         <v>0</v>
       </c>
     </row>

--- a/Data/exp2-consolidated.xlsx
+++ b/Data/exp2-consolidated.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5519" uniqueCount="1464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6059" uniqueCount="1573">
   <si>
     <t>Ticks</t>
   </si>
@@ -4408,6 +4408,333 @@
   </si>
   <si>
     <t>635139106003199947</t>
+  </si>
+  <si>
+    <t>635139750508296817</t>
+  </si>
+  <si>
+    <t>635139750571810450</t>
+  </si>
+  <si>
+    <t>635139750676216421</t>
+  </si>
+  <si>
+    <t>635139750738870005</t>
+  </si>
+  <si>
+    <t>635139750807973957</t>
+  </si>
+  <si>
+    <t>635139750869657486</t>
+  </si>
+  <si>
+    <t>635139750947451935</t>
+  </si>
+  <si>
+    <t>635139751126452173</t>
+  </si>
+  <si>
+    <t>635139751382726831</t>
+  </si>
+  <si>
+    <t>635139751528285157</t>
+  </si>
+  <si>
+    <t>635139751593808905</t>
+  </si>
+  <si>
+    <t>635139751615330136</t>
+  </si>
+  <si>
+    <t>635139751677853712</t>
+  </si>
+  <si>
+    <t>635139751697844855</t>
+  </si>
+  <si>
+    <t>635139751750047841</t>
+  </si>
+  <si>
+    <t>635139751832602563</t>
+  </si>
+  <si>
+    <t>635139751900046420</t>
+  </si>
+  <si>
+    <t>635139751924977846</t>
+  </si>
+  <si>
+    <t>635139752042884590</t>
+  </si>
+  <si>
+    <t>635139752067045972</t>
+  </si>
+  <si>
+    <t>635139752134159811</t>
+  </si>
+  <si>
+    <t>635139752209684131</t>
+  </si>
+  <si>
+    <t>635139752274017810</t>
+  </si>
+  <si>
+    <t>635139752334401264</t>
+  </si>
+  <si>
+    <t>635139752350482184</t>
+  </si>
+  <si>
+    <t>635139752423006332</t>
+  </si>
+  <si>
+    <t>635139752478839525</t>
+  </si>
+  <si>
+    <t>635139752543883246</t>
+  </si>
+  <si>
+    <t>635139752607476883</t>
+  </si>
+  <si>
+    <t>635139752622107720</t>
+  </si>
+  <si>
+    <t>635139752685401340</t>
+  </si>
+  <si>
+    <t>635139752698322079</t>
+  </si>
+  <si>
+    <t>635139752768876115</t>
+  </si>
+  <si>
+    <t>635139752785717078</t>
+  </si>
+  <si>
+    <t>635139752841720281</t>
+  </si>
+  <si>
+    <t>635139752900443640</t>
+  </si>
+  <si>
+    <t>635139753645276242</t>
+  </si>
+  <si>
+    <t>635139753839717363</t>
+  </si>
+  <si>
+    <t>635139754044349067</t>
+  </si>
+  <si>
+    <t>635139754181946938</t>
+  </si>
+  <si>
+    <t>635139754371827798</t>
+  </si>
+  <si>
+    <t>635139754592910443</t>
+  </si>
+  <si>
+    <t>635139754714957424</t>
+  </si>
+  <si>
+    <t>635139754851865255</t>
+  </si>
+  <si>
+    <t>635139755032865607</t>
+  </si>
+  <si>
+    <t>635139755532424181</t>
+  </si>
+  <si>
+    <t>635139755640580367</t>
+  </si>
+  <si>
+    <t>635139755751696722</t>
+  </si>
+  <si>
+    <t>635139755815140351</t>
+  </si>
+  <si>
+    <t>635139755867263332</t>
+  </si>
+  <si>
+    <t>635139755974739480</t>
+  </si>
+  <si>
+    <t>635139756063134535</t>
+  </si>
+  <si>
+    <t>635139756137898812</t>
+  </si>
+  <si>
+    <t>635139756247175062</t>
+  </si>
+  <si>
+    <t>635139756655458414</t>
+  </si>
+  <si>
+    <t>635139756739253207</t>
+  </si>
+  <si>
+    <t>635139756937974573</t>
+  </si>
+  <si>
+    <t>635139757100653878</t>
+  </si>
+  <si>
+    <t>635139757242621998</t>
+  </si>
+  <si>
+    <t>635139757454524118</t>
+  </si>
+  <si>
+    <t>635139757588811799</t>
+  </si>
+  <si>
+    <t>635139757684647281</t>
+  </si>
+  <si>
+    <t>635139757860167320</t>
+  </si>
+  <si>
+    <t>635139758178395521</t>
+  </si>
+  <si>
+    <t>635139758287641770</t>
+  </si>
+  <si>
+    <t>635139758365556226</t>
+  </si>
+  <si>
+    <t>635139758441960596</t>
+  </si>
+  <si>
+    <t>635139758482802933</t>
+  </si>
+  <si>
+    <t>635139758564957632</t>
+  </si>
+  <si>
+    <t>635139758667673507</t>
+  </si>
+  <si>
+    <t>635139758742717799</t>
+  </si>
+  <si>
+    <t>635139758820752262</t>
+  </si>
+  <si>
+    <t>635139759377834125</t>
+  </si>
+  <si>
+    <t>635139759497310959</t>
+  </si>
+  <si>
+    <t>635139759564474801</t>
+  </si>
+  <si>
+    <t>635139759674271081</t>
+  </si>
+  <si>
+    <t>635139759835750317</t>
+  </si>
+  <si>
+    <t>635139760000549743</t>
+  </si>
+  <si>
+    <t>635139760093345050</t>
+  </si>
+  <si>
+    <t>635139760267264998</t>
+  </si>
+  <si>
+    <t>635139760391342095</t>
+  </si>
+  <si>
+    <t>635139760448505364</t>
+  </si>
+  <si>
+    <t>635139760484787440</t>
+  </si>
+  <si>
+    <t>635139760571982427</t>
+  </si>
+  <si>
+    <t>635139760680338624</t>
+  </si>
+  <si>
+    <t>635139760720260908</t>
+  </si>
+  <si>
+    <t>635139760815666365</t>
+  </si>
+  <si>
+    <t>635139760853948554</t>
+  </si>
+  <si>
+    <t>635139760961984734</t>
+  </si>
+  <si>
+    <t>635139760996556711</t>
+  </si>
+  <si>
+    <t>635139761185017490</t>
+  </si>
+  <si>
+    <t>635139761233660273</t>
+  </si>
+  <si>
+    <t>635139761264542039</t>
+  </si>
+  <si>
+    <t>635139761294333743</t>
+  </si>
+  <si>
+    <t>635139761372598219</t>
+  </si>
+  <si>
+    <t>635139761472253919</t>
+  </si>
+  <si>
+    <t>635139761501215576</t>
+  </si>
+  <si>
+    <t>635139761585620404</t>
+  </si>
+  <si>
+    <t>635139761609761784</t>
+  </si>
+  <si>
+    <t>635139761762050495</t>
+  </si>
+  <si>
+    <t>635139761873276857</t>
+  </si>
+  <si>
+    <t>635139761977612824</t>
+  </si>
+  <si>
+    <t>635139762033576025</t>
+  </si>
+  <si>
+    <t>635139762052777123</t>
+  </si>
+  <si>
+    <t>635139762119610946</t>
+  </si>
+  <si>
+    <t>635139762168533744</t>
+  </si>
+  <si>
+    <t>635139762189494943</t>
+  </si>
+  <si>
+    <t>635139762246968230</t>
+  </si>
+  <si>
+    <t>P8</t>
   </si>
 </sst>
 </file>
@@ -4755,10 +5082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L757"/>
+  <dimension ref="A1:L865"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A721" workbookViewId="0">
-      <selection activeCell="D746" sqref="D746"/>
+    <sheetView tabSelected="1" topLeftCell="A835" workbookViewId="0">
+      <selection activeCell="B867" sqref="B867"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33533,6 +33860,4110 @@
         <v>0</v>
       </c>
       <c r="L757">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A758" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B758" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C758" t="s">
+        <v>74</v>
+      </c>
+      <c r="D758" t="s">
+        <v>13</v>
+      </c>
+      <c r="E758" t="s">
+        <v>14</v>
+      </c>
+      <c r="F758">
+        <v>0</v>
+      </c>
+      <c r="G758">
+        <v>0</v>
+      </c>
+      <c r="H758">
+        <v>10602.606400000001</v>
+      </c>
+      <c r="I758">
+        <v>7.5244999999999997</v>
+      </c>
+      <c r="J758">
+        <v>34.991999999999997</v>
+      </c>
+      <c r="K758">
+        <v>0</v>
+      </c>
+      <c r="L758">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A759" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B759" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C759" t="s">
+        <v>74</v>
+      </c>
+      <c r="D759" t="s">
+        <v>13</v>
+      </c>
+      <c r="E759" t="s">
+        <v>14</v>
+      </c>
+      <c r="F759">
+        <v>0</v>
+      </c>
+      <c r="G759">
+        <v>1</v>
+      </c>
+      <c r="H759">
+        <v>1559.0891999999999</v>
+      </c>
+      <c r="I759">
+        <v>5.0854999999999997</v>
+      </c>
+      <c r="J759">
+        <v>37.515000000000001</v>
+      </c>
+      <c r="K759">
+        <v>0</v>
+      </c>
+      <c r="L759">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="760" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A760" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B760" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C760" t="s">
+        <v>74</v>
+      </c>
+      <c r="D760" t="s">
+        <v>13</v>
+      </c>
+      <c r="E760" t="s">
+        <v>14</v>
+      </c>
+      <c r="F760">
+        <v>0</v>
+      </c>
+      <c r="G760">
+        <v>2</v>
+      </c>
+      <c r="H760">
+        <v>9195.5259000000005</v>
+      </c>
+      <c r="I760">
+        <v>0.11020000000000001</v>
+      </c>
+      <c r="J760">
+        <v>1.2189000000000001</v>
+      </c>
+      <c r="K760">
+        <v>0</v>
+      </c>
+      <c r="L760">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A761" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B761" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C761" t="s">
+        <v>74</v>
+      </c>
+      <c r="D761" t="s">
+        <v>13</v>
+      </c>
+      <c r="E761" t="s">
+        <v>14</v>
+      </c>
+      <c r="F761">
+        <v>1</v>
+      </c>
+      <c r="G761">
+        <v>0</v>
+      </c>
+      <c r="H761">
+        <v>5333.3050999999996</v>
+      </c>
+      <c r="I761">
+        <v>7.1369999999999996</v>
+      </c>
+      <c r="J761">
+        <v>31.8855</v>
+      </c>
+      <c r="K761">
+        <v>0</v>
+      </c>
+      <c r="L761">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A762" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B762" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C762" t="s">
+        <v>74</v>
+      </c>
+      <c r="D762" t="s">
+        <v>13</v>
+      </c>
+      <c r="E762" t="s">
+        <v>14</v>
+      </c>
+      <c r="F762">
+        <v>1</v>
+      </c>
+      <c r="G762">
+        <v>1</v>
+      </c>
+      <c r="H762">
+        <v>6007.3436000000002</v>
+      </c>
+      <c r="I762">
+        <v>7.1482999999999999</v>
+      </c>
+      <c r="J762">
+        <v>35.731400000000001</v>
+      </c>
+      <c r="K762">
+        <v>0</v>
+      </c>
+      <c r="L762">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A763" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B763" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C763" t="s">
+        <v>74</v>
+      </c>
+      <c r="D763" t="s">
+        <v>13</v>
+      </c>
+      <c r="E763" t="s">
+        <v>14</v>
+      </c>
+      <c r="F763">
+        <v>1</v>
+      </c>
+      <c r="G763">
+        <v>2</v>
+      </c>
+      <c r="H763">
+        <v>5435.3109000000004</v>
+      </c>
+      <c r="I763">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="J763">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="K763">
+        <v>0</v>
+      </c>
+      <c r="L763">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A764" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B764" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C764" t="s">
+        <v>74</v>
+      </c>
+      <c r="D764" t="s">
+        <v>13</v>
+      </c>
+      <c r="E764" t="s">
+        <v>14</v>
+      </c>
+      <c r="F764">
+        <v>2</v>
+      </c>
+      <c r="G764">
+        <v>0</v>
+      </c>
+      <c r="H764">
+        <v>6319.3613999999998</v>
+      </c>
+      <c r="I764">
+        <v>6.0575999999999999</v>
+      </c>
+      <c r="J764">
+        <v>33.730699999999999</v>
+      </c>
+      <c r="K764">
+        <v>0</v>
+      </c>
+      <c r="L764">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A765" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B765" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C765" t="s">
+        <v>74</v>
+      </c>
+      <c r="D765" t="s">
+        <v>13</v>
+      </c>
+      <c r="E765" t="s">
+        <v>14</v>
+      </c>
+      <c r="F765">
+        <v>2</v>
+      </c>
+      <c r="G765">
+        <v>1</v>
+      </c>
+      <c r="H765">
+        <v>17115.978899999998</v>
+      </c>
+      <c r="I765">
+        <v>0.15640000000000001</v>
+      </c>
+      <c r="J765">
+        <v>2.2774999999999999</v>
+      </c>
+      <c r="K765">
+        <v>0</v>
+      </c>
+      <c r="L765">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A766" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B766" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C766" t="s">
+        <v>74</v>
+      </c>
+      <c r="D766" t="s">
+        <v>13</v>
+      </c>
+      <c r="E766" t="s">
+        <v>14</v>
+      </c>
+      <c r="F766">
+        <v>2</v>
+      </c>
+      <c r="G766">
+        <v>2</v>
+      </c>
+      <c r="H766">
+        <v>24107.378799999999</v>
+      </c>
+      <c r="I766">
+        <v>0.1024</v>
+      </c>
+      <c r="J766">
+        <v>1.3070999999999999</v>
+      </c>
+      <c r="K766">
+        <v>0</v>
+      </c>
+      <c r="L766">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A767" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B767" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C767" t="s">
+        <v>74</v>
+      </c>
+      <c r="D767" t="s">
+        <v>13</v>
+      </c>
+      <c r="E767" t="s">
+        <v>35</v>
+      </c>
+      <c r="F767">
+        <v>0</v>
+      </c>
+      <c r="G767">
+        <v>0</v>
+      </c>
+      <c r="H767">
+        <v>13646.7806</v>
+      </c>
+      <c r="I767">
+        <v>10.5154</v>
+      </c>
+      <c r="J767">
+        <v>30.888500000000001</v>
+      </c>
+      <c r="K767">
+        <v>0</v>
+      </c>
+      <c r="L767">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A768" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B768" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C768" t="s">
+        <v>74</v>
+      </c>
+      <c r="D768" t="s">
+        <v>13</v>
+      </c>
+      <c r="E768" t="s">
+        <v>35</v>
+      </c>
+      <c r="F768">
+        <v>0</v>
+      </c>
+      <c r="G768">
+        <v>1</v>
+      </c>
+      <c r="H768">
+        <v>5252.3005000000003</v>
+      </c>
+      <c r="I768">
+        <v>0.30270000000000002</v>
+      </c>
+      <c r="J768">
+        <v>0.91849999999999998</v>
+      </c>
+      <c r="K768">
+        <v>0</v>
+      </c>
+      <c r="L768">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A769" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B769" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C769" t="s">
+        <v>74</v>
+      </c>
+      <c r="D769" t="s">
+        <v>13</v>
+      </c>
+      <c r="E769" t="s">
+        <v>35</v>
+      </c>
+      <c r="F769">
+        <v>0</v>
+      </c>
+      <c r="G769">
+        <v>2</v>
+      </c>
+      <c r="H769">
+        <v>1244.0712000000001</v>
+      </c>
+      <c r="I769">
+        <v>0.433</v>
+      </c>
+      <c r="J769">
+        <v>0.5917</v>
+      </c>
+      <c r="K769">
+        <v>0</v>
+      </c>
+      <c r="L769">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A770" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B770" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C770" t="s">
+        <v>74</v>
+      </c>
+      <c r="D770" t="s">
+        <v>13</v>
+      </c>
+      <c r="E770" t="s">
+        <v>35</v>
+      </c>
+      <c r="F770">
+        <v>1</v>
+      </c>
+      <c r="G770">
+        <v>0</v>
+      </c>
+      <c r="H770">
+        <v>5420.3100999999997</v>
+      </c>
+      <c r="I770">
+        <v>0.185</v>
+      </c>
+      <c r="J770">
+        <v>0.96230000000000004</v>
+      </c>
+      <c r="K770">
+        <v>0</v>
+      </c>
+      <c r="L770">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A771" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B771" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C771" t="s">
+        <v>74</v>
+      </c>
+      <c r="D771" t="s">
+        <v>13</v>
+      </c>
+      <c r="E771" t="s">
+        <v>35</v>
+      </c>
+      <c r="F771">
+        <v>1</v>
+      </c>
+      <c r="G771">
+        <v>1</v>
+      </c>
+      <c r="H771">
+        <v>1282.0733</v>
+      </c>
+      <c r="I771">
+        <v>0.28910000000000002</v>
+      </c>
+      <c r="J771">
+        <v>0.6734</v>
+      </c>
+      <c r="K771">
+        <v>0</v>
+      </c>
+      <c r="L771">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A772" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B772" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C772" t="s">
+        <v>74</v>
+      </c>
+      <c r="D772" t="s">
+        <v>13</v>
+      </c>
+      <c r="E772" t="s">
+        <v>35</v>
+      </c>
+      <c r="F772">
+        <v>1</v>
+      </c>
+      <c r="G772">
+        <v>2</v>
+      </c>
+      <c r="H772">
+        <v>3340.1911</v>
+      </c>
+      <c r="I772">
+        <v>0.13120000000000001</v>
+      </c>
+      <c r="J772">
+        <v>0.35870000000000002</v>
+      </c>
+      <c r="K772">
+        <v>0</v>
+      </c>
+      <c r="L772">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A773" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B773" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C773" t="s">
+        <v>74</v>
+      </c>
+      <c r="D773" t="s">
+        <v>13</v>
+      </c>
+      <c r="E773" t="s">
+        <v>35</v>
+      </c>
+      <c r="F773">
+        <v>2</v>
+      </c>
+      <c r="G773">
+        <v>0</v>
+      </c>
+      <c r="H773">
+        <v>6015.3441000000003</v>
+      </c>
+      <c r="I773">
+        <v>0.34329999999999999</v>
+      </c>
+      <c r="J773">
+        <v>0.40229999999999999</v>
+      </c>
+      <c r="K773">
+        <v>0</v>
+      </c>
+      <c r="L773">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A774" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B774" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C774" t="s">
+        <v>74</v>
+      </c>
+      <c r="D774" t="s">
+        <v>13</v>
+      </c>
+      <c r="E774" t="s">
+        <v>35</v>
+      </c>
+      <c r="F774">
+        <v>2</v>
+      </c>
+      <c r="G774">
+        <v>1</v>
+      </c>
+      <c r="H774">
+        <v>5644.3227999999999</v>
+      </c>
+      <c r="I774">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="J774">
+        <v>3.5448</v>
+      </c>
+      <c r="K774">
+        <v>0</v>
+      </c>
+      <c r="L774">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A775" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B775" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C775" t="s">
+        <v>74</v>
+      </c>
+      <c r="D775" t="s">
+        <v>13</v>
+      </c>
+      <c r="E775" t="s">
+        <v>35</v>
+      </c>
+      <c r="F775">
+        <v>2</v>
+      </c>
+      <c r="G775">
+        <v>2</v>
+      </c>
+      <c r="H775">
+        <v>1794.1025999999999</v>
+      </c>
+      <c r="I775">
+        <v>0.27679999999999999</v>
+      </c>
+      <c r="J775">
+        <v>2.5712000000000002</v>
+      </c>
+      <c r="K775">
+        <v>0</v>
+      </c>
+      <c r="L775">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A776" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B776" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C776" t="s">
+        <v>74</v>
+      </c>
+      <c r="D776" t="s">
+        <v>13</v>
+      </c>
+      <c r="E776" t="s">
+        <v>55</v>
+      </c>
+      <c r="F776">
+        <v>0</v>
+      </c>
+      <c r="G776">
+        <v>0</v>
+      </c>
+      <c r="H776">
+        <v>11117.635899999999</v>
+      </c>
+      <c r="I776">
+        <v>0.1138</v>
+      </c>
+      <c r="J776">
+        <v>0.31419999999999998</v>
+      </c>
+      <c r="K776">
+        <v>0</v>
+      </c>
+      <c r="L776">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A777" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B777" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C777" t="s">
+        <v>74</v>
+      </c>
+      <c r="D777" t="s">
+        <v>13</v>
+      </c>
+      <c r="E777" t="s">
+        <v>55</v>
+      </c>
+      <c r="F777">
+        <v>0</v>
+      </c>
+      <c r="G777">
+        <v>1</v>
+      </c>
+      <c r="H777">
+        <v>1248.0714</v>
+      </c>
+      <c r="I777">
+        <v>0.1167</v>
+      </c>
+      <c r="J777">
+        <v>1.8426</v>
+      </c>
+      <c r="K777">
+        <v>0</v>
+      </c>
+      <c r="L777">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A778" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B778" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C778" t="s">
+        <v>74</v>
+      </c>
+      <c r="D778" t="s">
+        <v>13</v>
+      </c>
+      <c r="E778" t="s">
+        <v>55</v>
+      </c>
+      <c r="F778">
+        <v>0</v>
+      </c>
+      <c r="G778">
+        <v>2</v>
+      </c>
+      <c r="H778">
+        <v>5851.3347000000003</v>
+      </c>
+      <c r="I778">
+        <v>8.4699999999999998E-2</v>
+      </c>
+      <c r="J778">
+        <v>0.96150000000000002</v>
+      </c>
+      <c r="K778">
+        <v>0</v>
+      </c>
+      <c r="L778">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A779" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B779" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C779" t="s">
+        <v>74</v>
+      </c>
+      <c r="D779" t="s">
+        <v>13</v>
+      </c>
+      <c r="E779" t="s">
+        <v>55</v>
+      </c>
+      <c r="F779">
+        <v>1</v>
+      </c>
+      <c r="G779">
+        <v>0</v>
+      </c>
+      <c r="H779">
+        <v>6675.3818000000001</v>
+      </c>
+      <c r="I779">
+        <v>9.5100000000000004E-2</v>
+      </c>
+      <c r="J779">
+        <v>1.4672000000000001</v>
+      </c>
+      <c r="K779">
+        <v>0</v>
+      </c>
+      <c r="L779">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A780" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B780" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C780" t="s">
+        <v>74</v>
+      </c>
+      <c r="D780" t="s">
+        <v>13</v>
+      </c>
+      <c r="E780" t="s">
+        <v>55</v>
+      </c>
+      <c r="F780">
+        <v>1</v>
+      </c>
+      <c r="G780">
+        <v>1</v>
+      </c>
+      <c r="H780">
+        <v>5621.3215</v>
+      </c>
+      <c r="I780">
+        <v>0.1031</v>
+      </c>
+      <c r="J780">
+        <v>3.0766</v>
+      </c>
+      <c r="K780">
+        <v>0</v>
+      </c>
+      <c r="L780">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A781" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B781" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C781" t="s">
+        <v>74</v>
+      </c>
+      <c r="D781" t="s">
+        <v>13</v>
+      </c>
+      <c r="E781" t="s">
+        <v>55</v>
+      </c>
+      <c r="F781">
+        <v>1</v>
+      </c>
+      <c r="G781">
+        <v>2</v>
+      </c>
+      <c r="H781">
+        <v>5371.3072000000002</v>
+      </c>
+      <c r="I781">
+        <v>0.16370000000000001</v>
+      </c>
+      <c r="J781">
+        <v>0.8901</v>
+      </c>
+      <c r="K781">
+        <v>0</v>
+      </c>
+      <c r="L781">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A782" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B782" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C782" t="s">
+        <v>74</v>
+      </c>
+      <c r="D782" t="s">
+        <v>13</v>
+      </c>
+      <c r="E782" t="s">
+        <v>55</v>
+      </c>
+      <c r="F782">
+        <v>2</v>
+      </c>
+      <c r="G782">
+        <v>0</v>
+      </c>
+      <c r="H782">
+        <v>739.04229999999995</v>
+      </c>
+      <c r="I782">
+        <v>7.4300000000000005E-2</v>
+      </c>
+      <c r="J782">
+        <v>0</v>
+      </c>
+      <c r="K782">
+        <v>0</v>
+      </c>
+      <c r="L782">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A783" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B783" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C783" t="s">
+        <v>74</v>
+      </c>
+      <c r="D783" t="s">
+        <v>13</v>
+      </c>
+      <c r="E783" t="s">
+        <v>55</v>
+      </c>
+      <c r="F783">
+        <v>2</v>
+      </c>
+      <c r="G783">
+        <v>1</v>
+      </c>
+      <c r="H783">
+        <v>6484.3708999999999</v>
+      </c>
+      <c r="I783">
+        <v>0.1071</v>
+      </c>
+      <c r="J783">
+        <v>3.7734999999999999</v>
+      </c>
+      <c r="K783">
+        <v>0</v>
+      </c>
+      <c r="L783">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A784" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B784" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C784" t="s">
+        <v>74</v>
+      </c>
+      <c r="D784" t="s">
+        <v>13</v>
+      </c>
+      <c r="E784" t="s">
+        <v>55</v>
+      </c>
+      <c r="F784">
+        <v>2</v>
+      </c>
+      <c r="G784">
+        <v>2</v>
+      </c>
+      <c r="H784">
+        <v>4787.2737999999999</v>
+      </c>
+      <c r="I784">
+        <v>0.13039999999999999</v>
+      </c>
+      <c r="J784">
+        <v>2.1642999999999999</v>
+      </c>
+      <c r="K784">
+        <v>0</v>
+      </c>
+      <c r="L784">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A785" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B785" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C785" t="s">
+        <v>74</v>
+      </c>
+      <c r="D785" t="s">
+        <v>54</v>
+      </c>
+      <c r="E785" t="s">
+        <v>55</v>
+      </c>
+      <c r="F785">
+        <v>0</v>
+      </c>
+      <c r="G785">
+        <v>0</v>
+      </c>
+      <c r="H785">
+        <v>5699.326</v>
+      </c>
+      <c r="I785">
+        <v>9.7799999999999998E-2</v>
+      </c>
+      <c r="J785">
+        <v>1.8709</v>
+      </c>
+      <c r="K785">
+        <v>3.9075000000000002</v>
+      </c>
+      <c r="L785">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A786" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B786" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C786" t="s">
+        <v>74</v>
+      </c>
+      <c r="D786" t="s">
+        <v>54</v>
+      </c>
+      <c r="E786" t="s">
+        <v>55</v>
+      </c>
+      <c r="F786">
+        <v>0</v>
+      </c>
+      <c r="G786">
+        <v>1</v>
+      </c>
+      <c r="H786">
+        <v>5583.3193000000001</v>
+      </c>
+      <c r="I786">
+        <v>0.1138</v>
+      </c>
+      <c r="J786">
+        <v>0.93410000000000004</v>
+      </c>
+      <c r="K786">
+        <v>3.4866999999999999</v>
+      </c>
+      <c r="L786">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A787" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B787" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C787" t="s">
+        <v>74</v>
+      </c>
+      <c r="D787" t="s">
+        <v>54</v>
+      </c>
+      <c r="E787" t="s">
+        <v>55</v>
+      </c>
+      <c r="F787">
+        <v>0</v>
+      </c>
+      <c r="G787">
+        <v>2</v>
+      </c>
+      <c r="H787">
+        <v>694.03970000000004</v>
+      </c>
+      <c r="I787">
+        <v>0.1069</v>
+      </c>
+      <c r="J787">
+        <v>1.4795</v>
+      </c>
+      <c r="K787">
+        <v>3.9609000000000001</v>
+      </c>
+      <c r="L787">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A788" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B788" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C788" t="s">
+        <v>74</v>
+      </c>
+      <c r="D788" t="s">
+        <v>54</v>
+      </c>
+      <c r="E788" t="s">
+        <v>55</v>
+      </c>
+      <c r="F788">
+        <v>1</v>
+      </c>
+      <c r="G788">
+        <v>0</v>
+      </c>
+      <c r="H788">
+        <v>5615.3212000000003</v>
+      </c>
+      <c r="I788">
+        <v>0.1217</v>
+      </c>
+      <c r="J788">
+        <v>0.54720000000000002</v>
+      </c>
+      <c r="K788">
+        <v>3.863</v>
+      </c>
+      <c r="L788">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A789" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B789" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C789" t="s">
+        <v>74</v>
+      </c>
+      <c r="D789" t="s">
+        <v>54</v>
+      </c>
+      <c r="E789" t="s">
+        <v>55</v>
+      </c>
+      <c r="F789">
+        <v>1</v>
+      </c>
+      <c r="G789">
+        <v>1</v>
+      </c>
+      <c r="H789">
+        <v>556.03179999999998</v>
+      </c>
+      <c r="I789">
+        <v>8.5900000000000004E-2</v>
+      </c>
+      <c r="J789">
+        <v>1.9068000000000001</v>
+      </c>
+      <c r="K789">
+        <v>3.9613999999999998</v>
+      </c>
+      <c r="L789">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A790" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B790" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C790" t="s">
+        <v>74</v>
+      </c>
+      <c r="D790" t="s">
+        <v>54</v>
+      </c>
+      <c r="E790" t="s">
+        <v>55</v>
+      </c>
+      <c r="F790">
+        <v>1</v>
+      </c>
+      <c r="G790">
+        <v>2</v>
+      </c>
+      <c r="H790">
+        <v>6379.3648999999996</v>
+      </c>
+      <c r="I790">
+        <v>0.1067</v>
+      </c>
+      <c r="J790">
+        <v>1.7677</v>
+      </c>
+      <c r="K790">
+        <v>3.9331999999999998</v>
+      </c>
+      <c r="L790">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A791" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B791" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C791" t="s">
+        <v>74</v>
+      </c>
+      <c r="D791" t="s">
+        <v>54</v>
+      </c>
+      <c r="E791" t="s">
+        <v>55</v>
+      </c>
+      <c r="F791">
+        <v>2</v>
+      </c>
+      <c r="G791">
+        <v>0</v>
+      </c>
+      <c r="H791">
+        <v>887.05070000000001</v>
+      </c>
+      <c r="I791">
+        <v>0.1212</v>
+      </c>
+      <c r="J791">
+        <v>0.81079999999999997</v>
+      </c>
+      <c r="K791">
+        <v>4.0761000000000003</v>
+      </c>
+      <c r="L791">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A792" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B792" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C792" t="s">
+        <v>74</v>
+      </c>
+      <c r="D792" t="s">
+        <v>54</v>
+      </c>
+      <c r="E792" t="s">
+        <v>55</v>
+      </c>
+      <c r="F792">
+        <v>2</v>
+      </c>
+      <c r="G792">
+        <v>1</v>
+      </c>
+      <c r="H792">
+        <v>4831.2763000000004</v>
+      </c>
+      <c r="I792">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="J792">
+        <v>0.1646</v>
+      </c>
+      <c r="K792">
+        <v>3.8311999999999999</v>
+      </c>
+      <c r="L792">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A793" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B793" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C793" t="s">
+        <v>74</v>
+      </c>
+      <c r="D793" t="s">
+        <v>54</v>
+      </c>
+      <c r="E793" t="s">
+        <v>55</v>
+      </c>
+      <c r="F793">
+        <v>2</v>
+      </c>
+      <c r="G793">
+        <v>2</v>
+      </c>
+      <c r="H793">
+        <v>5076.2903999999999</v>
+      </c>
+      <c r="I793">
+        <v>8.5800000000000001E-2</v>
+      </c>
+      <c r="J793">
+        <v>0.41830000000000001</v>
+      </c>
+      <c r="K793">
+        <v>3.9483000000000001</v>
+      </c>
+      <c r="L793">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="794" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A794" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B794" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C794" t="s">
+        <v>13</v>
+      </c>
+      <c r="D794" t="s">
+        <v>54</v>
+      </c>
+      <c r="E794" t="s">
+        <v>35</v>
+      </c>
+      <c r="F794">
+        <v>0</v>
+      </c>
+      <c r="G794">
+        <v>0</v>
+      </c>
+      <c r="H794">
+        <v>73692.214999999997</v>
+      </c>
+      <c r="I794">
+        <v>0.1832</v>
+      </c>
+      <c r="J794">
+        <v>2.383</v>
+      </c>
+      <c r="K794">
+        <v>1.5795999999999999</v>
+      </c>
+      <c r="L794">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A795" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B795" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C795" t="s">
+        <v>13</v>
+      </c>
+      <c r="D795" t="s">
+        <v>54</v>
+      </c>
+      <c r="E795" t="s">
+        <v>35</v>
+      </c>
+      <c r="F795">
+        <v>0</v>
+      </c>
+      <c r="G795">
+        <v>1</v>
+      </c>
+      <c r="H795">
+        <v>17067.976200000001</v>
+      </c>
+      <c r="I795">
+        <v>0.25390000000000001</v>
+      </c>
+      <c r="J795">
+        <v>1.7085999999999999</v>
+      </c>
+      <c r="K795">
+        <v>1.6960999999999999</v>
+      </c>
+      <c r="L795">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A796" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B796" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C796" t="s">
+        <v>13</v>
+      </c>
+      <c r="D796" t="s">
+        <v>54</v>
+      </c>
+      <c r="E796" t="s">
+        <v>35</v>
+      </c>
+      <c r="F796">
+        <v>0</v>
+      </c>
+      <c r="G796">
+        <v>2</v>
+      </c>
+      <c r="H796">
+        <v>18047.032200000001</v>
+      </c>
+      <c r="I796">
+        <v>0.25869999999999999</v>
+      </c>
+      <c r="J796">
+        <v>2.1918000000000002</v>
+      </c>
+      <c r="K796">
+        <v>1.4381999999999999</v>
+      </c>
+      <c r="L796">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A797" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B797" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C797" t="s">
+        <v>13</v>
+      </c>
+      <c r="D797" t="s">
+        <v>54</v>
+      </c>
+      <c r="E797" t="s">
+        <v>35</v>
+      </c>
+      <c r="F797">
+        <v>1</v>
+      </c>
+      <c r="G797">
+        <v>0</v>
+      </c>
+      <c r="H797">
+        <v>11859.678400000001</v>
+      </c>
+      <c r="I797">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="J797">
+        <v>2.8008000000000002</v>
+      </c>
+      <c r="K797">
+        <v>1.4148000000000001</v>
+      </c>
+      <c r="L797">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A798" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B798" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C798" t="s">
+        <v>13</v>
+      </c>
+      <c r="D798" t="s">
+        <v>54</v>
+      </c>
+      <c r="E798" t="s">
+        <v>35</v>
+      </c>
+      <c r="F798">
+        <v>1</v>
+      </c>
+      <c r="G798">
+        <v>1</v>
+      </c>
+      <c r="H798">
+        <v>17804.0183</v>
+      </c>
+      <c r="I798">
+        <v>0.20930000000000001</v>
+      </c>
+      <c r="J798">
+        <v>0.64690000000000003</v>
+      </c>
+      <c r="K798">
+        <v>1.6062000000000001</v>
+      </c>
+      <c r="L798">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A799" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B799" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C799" t="s">
+        <v>13</v>
+      </c>
+      <c r="D799" t="s">
+        <v>54</v>
+      </c>
+      <c r="E799" t="s">
+        <v>35</v>
+      </c>
+      <c r="F799">
+        <v>1</v>
+      </c>
+      <c r="G799">
+        <v>2</v>
+      </c>
+      <c r="H799">
+        <v>21187.211800000001</v>
+      </c>
+      <c r="I799">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="J799">
+        <v>2.9695</v>
+      </c>
+      <c r="K799">
+        <v>1.4342999999999999</v>
+      </c>
+      <c r="L799">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="800" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A800" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B800" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C800" t="s">
+        <v>13</v>
+      </c>
+      <c r="D800" t="s">
+        <v>54</v>
+      </c>
+      <c r="E800" t="s">
+        <v>35</v>
+      </c>
+      <c r="F800">
+        <v>2</v>
+      </c>
+      <c r="G800">
+        <v>0</v>
+      </c>
+      <c r="H800">
+        <v>10272.5875</v>
+      </c>
+      <c r="I800">
+        <v>0.36009999999999998</v>
+      </c>
+      <c r="J800">
+        <v>0.40639999999999998</v>
+      </c>
+      <c r="K800">
+        <v>1.7219</v>
+      </c>
+      <c r="L800">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A801" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B801" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C801" t="s">
+        <v>13</v>
+      </c>
+      <c r="D801" t="s">
+        <v>54</v>
+      </c>
+      <c r="E801" t="s">
+        <v>35</v>
+      </c>
+      <c r="F801">
+        <v>2</v>
+      </c>
+      <c r="G801">
+        <v>1</v>
+      </c>
+      <c r="H801">
+        <v>12506.715399999999</v>
+      </c>
+      <c r="I801">
+        <v>0.24030000000000001</v>
+      </c>
+      <c r="J801">
+        <v>0.88370000000000004</v>
+      </c>
+      <c r="K801">
+        <v>1.4084000000000001</v>
+      </c>
+      <c r="L801">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="802" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A802" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B802" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C802" t="s">
+        <v>13</v>
+      </c>
+      <c r="D802" t="s">
+        <v>54</v>
+      </c>
+      <c r="E802" t="s">
+        <v>35</v>
+      </c>
+      <c r="F802">
+        <v>2</v>
+      </c>
+      <c r="G802">
+        <v>2</v>
+      </c>
+      <c r="H802">
+        <v>16795.960599999999</v>
+      </c>
+      <c r="I802">
+        <v>6.2300000000000001E-2</v>
+      </c>
+      <c r="J802">
+        <v>4.3380000000000001</v>
+      </c>
+      <c r="K802">
+        <v>1.5105999999999999</v>
+      </c>
+      <c r="L802">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A803" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B803" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C803" t="s">
+        <v>74</v>
+      </c>
+      <c r="D803" t="s">
+        <v>54</v>
+      </c>
+      <c r="E803" t="s">
+        <v>14</v>
+      </c>
+      <c r="F803">
+        <v>0</v>
+      </c>
+      <c r="G803">
+        <v>0</v>
+      </c>
+      <c r="H803">
+        <v>37240.130100000002</v>
+      </c>
+      <c r="I803">
+        <v>0.16020000000000001</v>
+      </c>
+      <c r="J803">
+        <v>2.0642999999999998</v>
+      </c>
+      <c r="K803">
+        <v>1.2758</v>
+      </c>
+      <c r="L803">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="804" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A804" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B804" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C804" t="s">
+        <v>74</v>
+      </c>
+      <c r="D804" t="s">
+        <v>54</v>
+      </c>
+      <c r="E804" t="s">
+        <v>14</v>
+      </c>
+      <c r="F804">
+        <v>0</v>
+      </c>
+      <c r="G804">
+        <v>1</v>
+      </c>
+      <c r="H804">
+        <v>9431.5395000000008</v>
+      </c>
+      <c r="I804">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="J804">
+        <v>0.42380000000000001</v>
+      </c>
+      <c r="K804">
+        <v>1.214</v>
+      </c>
+      <c r="L804">
+        <v>4.5400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="805" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A805" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B805" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C805" t="s">
+        <v>74</v>
+      </c>
+      <c r="D805" t="s">
+        <v>54</v>
+      </c>
+      <c r="E805" t="s">
+        <v>14</v>
+      </c>
+      <c r="F805">
+        <v>0</v>
+      </c>
+      <c r="G805">
+        <v>2</v>
+      </c>
+      <c r="H805">
+        <v>9603.5493000000006</v>
+      </c>
+      <c r="I805">
+        <v>0.12570000000000001</v>
+      </c>
+      <c r="J805">
+        <v>4.87E-2</v>
+      </c>
+      <c r="K805">
+        <v>1.2457</v>
+      </c>
+      <c r="L805">
+        <v>5.04E-2</v>
+      </c>
+    </row>
+    <row r="806" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A806" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B806" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C806" t="s">
+        <v>74</v>
+      </c>
+      <c r="D806" t="s">
+        <v>54</v>
+      </c>
+      <c r="E806" t="s">
+        <v>14</v>
+      </c>
+      <c r="F806">
+        <v>1</v>
+      </c>
+      <c r="G806">
+        <v>0</v>
+      </c>
+      <c r="H806">
+        <v>5212.2981</v>
+      </c>
+      <c r="I806">
+        <v>9.1800000000000007E-2</v>
+      </c>
+      <c r="J806">
+        <v>0</v>
+      </c>
+      <c r="K806">
+        <v>1.2856000000000001</v>
+      </c>
+      <c r="L806">
+        <v>4.6600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="807" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A807" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B807" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C807" t="s">
+        <v>74</v>
+      </c>
+      <c r="D807" t="s">
+        <v>54</v>
+      </c>
+      <c r="E807" t="s">
+        <v>14</v>
+      </c>
+      <c r="F807">
+        <v>1</v>
+      </c>
+      <c r="G807">
+        <v>1</v>
+      </c>
+      <c r="H807">
+        <v>4260.2435999999998</v>
+      </c>
+      <c r="I807">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="J807">
+        <v>0.64480000000000004</v>
+      </c>
+      <c r="K807">
+        <v>1.2431000000000001</v>
+      </c>
+      <c r="L807">
+        <v>4.87E-2</v>
+      </c>
+    </row>
+    <row r="808" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A808" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B808" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C808" t="s">
+        <v>74</v>
+      </c>
+      <c r="D808" t="s">
+        <v>54</v>
+      </c>
+      <c r="E808" t="s">
+        <v>14</v>
+      </c>
+      <c r="F808">
+        <v>1</v>
+      </c>
+      <c r="G808">
+        <v>2</v>
+      </c>
+      <c r="H808">
+        <v>9843.5630999999994</v>
+      </c>
+      <c r="I808">
+        <v>0.22739999999999999</v>
+      </c>
+      <c r="J808">
+        <v>0.41010000000000002</v>
+      </c>
+      <c r="K808">
+        <v>1.2859</v>
+      </c>
+      <c r="L808">
+        <v>5.1299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="809" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A809" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B809" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C809" t="s">
+        <v>74</v>
+      </c>
+      <c r="D809" t="s">
+        <v>54</v>
+      </c>
+      <c r="E809" t="s">
+        <v>14</v>
+      </c>
+      <c r="F809">
+        <v>2</v>
+      </c>
+      <c r="G809">
+        <v>0</v>
+      </c>
+      <c r="H809">
+        <v>7995.4573</v>
+      </c>
+      <c r="I809">
+        <v>0.1696</v>
+      </c>
+      <c r="J809">
+        <v>0.21870000000000001</v>
+      </c>
+      <c r="K809">
+        <v>1.3178000000000001</v>
+      </c>
+      <c r="L809">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="810" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A810" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B810" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C810" t="s">
+        <v>74</v>
+      </c>
+      <c r="D810" t="s">
+        <v>54</v>
+      </c>
+      <c r="E810" t="s">
+        <v>14</v>
+      </c>
+      <c r="F810">
+        <v>2</v>
+      </c>
+      <c r="G810">
+        <v>1</v>
+      </c>
+      <c r="H810">
+        <v>5944.34</v>
+      </c>
+      <c r="I810">
+        <v>0.1628</v>
+      </c>
+      <c r="J810">
+        <v>0.1923</v>
+      </c>
+      <c r="K810">
+        <v>1.2635000000000001</v>
+      </c>
+      <c r="L810">
+        <v>4.8099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="811" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A811" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B811" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C811" t="s">
+        <v>74</v>
+      </c>
+      <c r="D811" t="s">
+        <v>54</v>
+      </c>
+      <c r="E811" t="s">
+        <v>14</v>
+      </c>
+      <c r="F811">
+        <v>2</v>
+      </c>
+      <c r="G811">
+        <v>2</v>
+      </c>
+      <c r="H811">
+        <v>10131.5795</v>
+      </c>
+      <c r="I811">
+        <v>0.17549999999999999</v>
+      </c>
+      <c r="J811">
+        <v>0.19289999999999999</v>
+      </c>
+      <c r="K811">
+        <v>1.2848999999999999</v>
+      </c>
+      <c r="L811">
+        <v>4.9099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="812" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A812" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B812" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C812" t="s">
+        <v>13</v>
+      </c>
+      <c r="D812" t="s">
+        <v>54</v>
+      </c>
+      <c r="E812" t="s">
+        <v>14</v>
+      </c>
+      <c r="F812">
+        <v>0</v>
+      </c>
+      <c r="G812">
+        <v>0</v>
+      </c>
+      <c r="H812">
+        <v>38128.180800000002</v>
+      </c>
+      <c r="I812">
+        <v>0.15939999999999999</v>
+      </c>
+      <c r="J812">
+        <v>1.6523000000000001</v>
+      </c>
+      <c r="K812">
+        <v>1.5566</v>
+      </c>
+      <c r="L812">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="813" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A813" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B813" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C813" t="s">
+        <v>13</v>
+      </c>
+      <c r="D813" t="s">
+        <v>54</v>
+      </c>
+      <c r="E813" t="s">
+        <v>14</v>
+      </c>
+      <c r="F813">
+        <v>0</v>
+      </c>
+      <c r="G813">
+        <v>1</v>
+      </c>
+      <c r="H813">
+        <v>7351.4205000000002</v>
+      </c>
+      <c r="I813">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="J813">
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="K813">
+        <v>1.3087</v>
+      </c>
+      <c r="L813">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A814" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B814" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C814" t="s">
+        <v>13</v>
+      </c>
+      <c r="D814" t="s">
+        <v>54</v>
+      </c>
+      <c r="E814" t="s">
+        <v>14</v>
+      </c>
+      <c r="F814">
+        <v>0</v>
+      </c>
+      <c r="G814">
+        <v>2</v>
+      </c>
+      <c r="H814">
+        <v>18820.076400000002</v>
+      </c>
+      <c r="I814">
+        <v>0.2072</v>
+      </c>
+      <c r="J814">
+        <v>2.5392000000000001</v>
+      </c>
+      <c r="K814">
+        <v>1.5397000000000001</v>
+      </c>
+      <c r="L814">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="815" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A815" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B815" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C815" t="s">
+        <v>13</v>
+      </c>
+      <c r="D815" t="s">
+        <v>54</v>
+      </c>
+      <c r="E815" t="s">
+        <v>14</v>
+      </c>
+      <c r="F815">
+        <v>1</v>
+      </c>
+      <c r="G815">
+        <v>0</v>
+      </c>
+      <c r="H815">
+        <v>15230.8711</v>
+      </c>
+      <c r="I815">
+        <v>0.13980000000000001</v>
+      </c>
+      <c r="J815">
+        <v>4.1075999999999997</v>
+      </c>
+      <c r="K815">
+        <v>2.0196999999999998</v>
+      </c>
+      <c r="L815">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="816" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A816" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B816" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C816" t="s">
+        <v>13</v>
+      </c>
+      <c r="D816" t="s">
+        <v>54</v>
+      </c>
+      <c r="E816" t="s">
+        <v>14</v>
+      </c>
+      <c r="F816">
+        <v>1</v>
+      </c>
+      <c r="G816">
+        <v>1</v>
+      </c>
+      <c r="H816">
+        <v>13264.7587</v>
+      </c>
+      <c r="I816">
+        <v>6.8699999999999997E-2</v>
+      </c>
+      <c r="J816">
+        <v>4.4463999999999997</v>
+      </c>
+      <c r="K816">
+        <v>1.5441</v>
+      </c>
+      <c r="L816">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="817" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A817" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B817" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C817" t="s">
+        <v>13</v>
+      </c>
+      <c r="D817" t="s">
+        <v>54</v>
+      </c>
+      <c r="E817" t="s">
+        <v>14</v>
+      </c>
+      <c r="F817">
+        <v>1</v>
+      </c>
+      <c r="G817">
+        <v>2</v>
+      </c>
+      <c r="H817">
+        <v>20347.163799999998</v>
+      </c>
+      <c r="I817">
+        <v>0.16009999999999999</v>
+      </c>
+      <c r="J817">
+        <v>1.6549</v>
+      </c>
+      <c r="K817">
+        <v>1.6860999999999999</v>
+      </c>
+      <c r="L817">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="818" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A818" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B818" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C818" t="s">
+        <v>13</v>
+      </c>
+      <c r="D818" t="s">
+        <v>54</v>
+      </c>
+      <c r="E818" t="s">
+        <v>14</v>
+      </c>
+      <c r="F818">
+        <v>2</v>
+      </c>
+      <c r="G818">
+        <v>0</v>
+      </c>
+      <c r="H818">
+        <v>12191.6973</v>
+      </c>
+      <c r="I818">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="J818">
+        <v>4.5696000000000003</v>
+      </c>
+      <c r="K818">
+        <v>1.7293000000000001</v>
+      </c>
+      <c r="L818">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="819" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A819" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B819" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C819" t="s">
+        <v>13</v>
+      </c>
+      <c r="D819" t="s">
+        <v>54</v>
+      </c>
+      <c r="E819" t="s">
+        <v>14</v>
+      </c>
+      <c r="F819">
+        <v>2</v>
+      </c>
+      <c r="G819">
+        <v>1</v>
+      </c>
+      <c r="H819">
+        <v>8607.4923999999992</v>
+      </c>
+      <c r="I819">
+        <v>0.15620000000000001</v>
+      </c>
+      <c r="J819">
+        <v>0.81810000000000005</v>
+      </c>
+      <c r="K819">
+        <v>1.5983000000000001</v>
+      </c>
+      <c r="L819">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A820" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B820" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C820" t="s">
+        <v>13</v>
+      </c>
+      <c r="D820" t="s">
+        <v>54</v>
+      </c>
+      <c r="E820" t="s">
+        <v>14</v>
+      </c>
+      <c r="F820">
+        <v>2</v>
+      </c>
+      <c r="G820">
+        <v>2</v>
+      </c>
+      <c r="H820">
+        <v>16055.9184</v>
+      </c>
+      <c r="I820">
+        <v>0</v>
+      </c>
+      <c r="J820">
+        <v>0.95020000000000004</v>
+      </c>
+      <c r="K820">
+        <v>1.8337000000000001</v>
+      </c>
+      <c r="L820">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A821" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B821" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C821" t="s">
+        <v>74</v>
+      </c>
+      <c r="D821" t="s">
+        <v>54</v>
+      </c>
+      <c r="E821" t="s">
+        <v>35</v>
+      </c>
+      <c r="F821">
+        <v>0</v>
+      </c>
+      <c r="G821">
+        <v>0</v>
+      </c>
+      <c r="H821">
+        <v>7838.4483</v>
+      </c>
+      <c r="I821">
+        <v>6.13E-2</v>
+      </c>
+      <c r="J821">
+        <v>0.26779999999999998</v>
+      </c>
+      <c r="K821">
+        <v>1.3164</v>
+      </c>
+      <c r="L821">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A822" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B822" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C822" t="s">
+        <v>74</v>
+      </c>
+      <c r="D822" t="s">
+        <v>54</v>
+      </c>
+      <c r="E822" t="s">
+        <v>35</v>
+      </c>
+      <c r="F822">
+        <v>0</v>
+      </c>
+      <c r="G822">
+        <v>1</v>
+      </c>
+      <c r="H822">
+        <v>10075.576300000001</v>
+      </c>
+      <c r="I822">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="J822">
+        <v>1.2231000000000001</v>
+      </c>
+      <c r="K822">
+        <v>1.4755</v>
+      </c>
+      <c r="L822">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A823" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B823" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C823" t="s">
+        <v>74</v>
+      </c>
+      <c r="D823" t="s">
+        <v>54</v>
+      </c>
+      <c r="E823" t="s">
+        <v>35</v>
+      </c>
+      <c r="F823">
+        <v>0</v>
+      </c>
+      <c r="G823">
+        <v>2</v>
+      </c>
+      <c r="H823">
+        <v>6883.3936999999996</v>
+      </c>
+      <c r="I823">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="J823">
+        <v>3.7528000000000001</v>
+      </c>
+      <c r="K823">
+        <v>1.4965999999999999</v>
+      </c>
+      <c r="L823">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="824" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A824" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B824" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C824" t="s">
+        <v>74</v>
+      </c>
+      <c r="D824" t="s">
+        <v>54</v>
+      </c>
+      <c r="E824" t="s">
+        <v>35</v>
+      </c>
+      <c r="F824">
+        <v>1</v>
+      </c>
+      <c r="G824">
+        <v>0</v>
+      </c>
+      <c r="H824">
+        <v>6875.3932000000004</v>
+      </c>
+      <c r="I824">
+        <v>6.83E-2</v>
+      </c>
+      <c r="J824">
+        <v>0.23230000000000001</v>
+      </c>
+      <c r="K824">
+        <v>1.5505</v>
+      </c>
+      <c r="L824">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="825" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A825" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B825" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C825" t="s">
+        <v>74</v>
+      </c>
+      <c r="D825" t="s">
+        <v>54</v>
+      </c>
+      <c r="E825" t="s">
+        <v>35</v>
+      </c>
+      <c r="F825">
+        <v>1</v>
+      </c>
+      <c r="G825">
+        <v>1</v>
+      </c>
+      <c r="H825">
+        <v>3244.1855999999998</v>
+      </c>
+      <c r="I825">
+        <v>0.1159</v>
+      </c>
+      <c r="J825">
+        <v>0.12590000000000001</v>
+      </c>
+      <c r="K825">
+        <v>1.4986999999999999</v>
+      </c>
+      <c r="L825">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="826" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A826" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B826" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C826" t="s">
+        <v>74</v>
+      </c>
+      <c r="D826" t="s">
+        <v>54</v>
+      </c>
+      <c r="E826" t="s">
+        <v>35</v>
+      </c>
+      <c r="F826">
+        <v>1</v>
+      </c>
+      <c r="G826">
+        <v>2</v>
+      </c>
+      <c r="H826">
+        <v>7387.4225999999999</v>
+      </c>
+      <c r="I826">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="J826">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="K826">
+        <v>1.5061</v>
+      </c>
+      <c r="L826">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A827" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B827" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C827" t="s">
+        <v>74</v>
+      </c>
+      <c r="D827" t="s">
+        <v>54</v>
+      </c>
+      <c r="E827" t="s">
+        <v>35</v>
+      </c>
+      <c r="F827">
+        <v>2</v>
+      </c>
+      <c r="G827">
+        <v>0</v>
+      </c>
+      <c r="H827">
+        <v>9411.5383999999995</v>
+      </c>
+      <c r="I827">
+        <v>8.09E-2</v>
+      </c>
+      <c r="J827">
+        <v>0.18390000000000001</v>
+      </c>
+      <c r="K827">
+        <v>1.7345999999999999</v>
+      </c>
+      <c r="L827">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="828" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A828" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B828" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C828" t="s">
+        <v>74</v>
+      </c>
+      <c r="D828" t="s">
+        <v>54</v>
+      </c>
+      <c r="E828" t="s">
+        <v>35</v>
+      </c>
+      <c r="F828">
+        <v>2</v>
+      </c>
+      <c r="G828">
+        <v>1</v>
+      </c>
+      <c r="H828">
+        <v>6536.3738999999996</v>
+      </c>
+      <c r="I828">
+        <v>5.7799999999999997E-2</v>
+      </c>
+      <c r="J828">
+        <v>0.52270000000000005</v>
+      </c>
+      <c r="K828">
+        <v>1.5898000000000001</v>
+      </c>
+      <c r="L828">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A829" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B829" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C829" t="s">
+        <v>74</v>
+      </c>
+      <c r="D829" t="s">
+        <v>54</v>
+      </c>
+      <c r="E829" t="s">
+        <v>35</v>
+      </c>
+      <c r="F829">
+        <v>2</v>
+      </c>
+      <c r="G829">
+        <v>2</v>
+      </c>
+      <c r="H829">
+        <v>6823.3903</v>
+      </c>
+      <c r="I829">
+        <v>0.1016</v>
+      </c>
+      <c r="J829">
+        <v>0.13569999999999999</v>
+      </c>
+      <c r="K829">
+        <v>1.5033000000000001</v>
+      </c>
+      <c r="L829">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="830" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A830" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B830" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C830" t="s">
+        <v>13</v>
+      </c>
+      <c r="D830" t="s">
+        <v>54</v>
+      </c>
+      <c r="E830" t="s">
+        <v>55</v>
+      </c>
+      <c r="F830">
+        <v>0</v>
+      </c>
+      <c r="G830">
+        <v>0</v>
+      </c>
+      <c r="H830">
+        <v>54299.1057</v>
+      </c>
+      <c r="I830">
+        <v>0.433</v>
+      </c>
+      <c r="J830">
+        <v>2.9315000000000002</v>
+      </c>
+      <c r="K830">
+        <v>3.1274000000000002</v>
+      </c>
+      <c r="L830">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A831" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B831" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C831" t="s">
+        <v>13</v>
+      </c>
+      <c r="D831" t="s">
+        <v>54</v>
+      </c>
+      <c r="E831" t="s">
+        <v>55</v>
+      </c>
+      <c r="F831">
+        <v>0</v>
+      </c>
+      <c r="G831">
+        <v>1</v>
+      </c>
+      <c r="H831">
+        <v>9639.5512999999992</v>
+      </c>
+      <c r="I831">
+        <v>6.4199999999999993E-2</v>
+      </c>
+      <c r="J831">
+        <v>1.4277</v>
+      </c>
+      <c r="K831">
+        <v>2.2856999999999998</v>
+      </c>
+      <c r="L831">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="832" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A832" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B832" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C832" t="s">
+        <v>13</v>
+      </c>
+      <c r="D832" t="s">
+        <v>54</v>
+      </c>
+      <c r="E832" t="s">
+        <v>55</v>
+      </c>
+      <c r="F832">
+        <v>0</v>
+      </c>
+      <c r="G832">
+        <v>2</v>
+      </c>
+      <c r="H832">
+        <v>5640.3226000000004</v>
+      </c>
+      <c r="I832">
+        <v>0.1144</v>
+      </c>
+      <c r="J832">
+        <v>1.3</v>
+      </c>
+      <c r="K832">
+        <v>2.2538</v>
+      </c>
+      <c r="L832">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A833" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B833" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C833" t="s">
+        <v>13</v>
+      </c>
+      <c r="D833" t="s">
+        <v>54</v>
+      </c>
+      <c r="E833" t="s">
+        <v>55</v>
+      </c>
+      <c r="F833">
+        <v>1</v>
+      </c>
+      <c r="G833">
+        <v>0</v>
+      </c>
+      <c r="H833">
+        <v>9915.5671999999995</v>
+      </c>
+      <c r="I833">
+        <v>0</v>
+      </c>
+      <c r="J833">
+        <v>4.6727999999999996</v>
+      </c>
+      <c r="K833">
+        <v>1.8251999999999999</v>
+      </c>
+      <c r="L833">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="834" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A834" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B834" s="1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C834" t="s">
+        <v>13</v>
+      </c>
+      <c r="D834" t="s">
+        <v>54</v>
+      </c>
+      <c r="E834" t="s">
+        <v>55</v>
+      </c>
+      <c r="F834">
+        <v>1</v>
+      </c>
+      <c r="G834">
+        <v>1</v>
+      </c>
+      <c r="H834">
+        <v>15043.860500000001</v>
+      </c>
+      <c r="I834">
+        <v>0.30730000000000002</v>
+      </c>
+      <c r="J834">
+        <v>1.6135999999999999</v>
+      </c>
+      <c r="K834">
+        <v>2.4047999999999998</v>
+      </c>
+      <c r="L834">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A835" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B835" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C835" t="s">
+        <v>13</v>
+      </c>
+      <c r="D835" t="s">
+        <v>54</v>
+      </c>
+      <c r="E835" t="s">
+        <v>55</v>
+      </c>
+      <c r="F835">
+        <v>1</v>
+      </c>
+      <c r="G835">
+        <v>2</v>
+      </c>
+      <c r="H835">
+        <v>15459.8843</v>
+      </c>
+      <c r="I835">
+        <v>0.26950000000000002</v>
+      </c>
+      <c r="J835">
+        <v>9.2103000000000002</v>
+      </c>
+      <c r="K835">
+        <v>2.5213000000000001</v>
+      </c>
+      <c r="L835">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A836" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B836" s="1" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C836" t="s">
+        <v>13</v>
+      </c>
+      <c r="D836" t="s">
+        <v>54</v>
+      </c>
+      <c r="E836" t="s">
+        <v>55</v>
+      </c>
+      <c r="F836">
+        <v>2</v>
+      </c>
+      <c r="G836">
+        <v>0</v>
+      </c>
+      <c r="H836">
+        <v>8439.4827000000005</v>
+      </c>
+      <c r="I836">
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="J836">
+        <v>1.2107000000000001</v>
+      </c>
+      <c r="K836">
+        <v>1.772</v>
+      </c>
+      <c r="L836">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A837" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B837" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C837" t="s">
+        <v>13</v>
+      </c>
+      <c r="D837" t="s">
+        <v>54</v>
+      </c>
+      <c r="E837" t="s">
+        <v>55</v>
+      </c>
+      <c r="F837">
+        <v>2</v>
+      </c>
+      <c r="G837">
+        <v>1</v>
+      </c>
+      <c r="H837">
+        <v>16654.952600000001</v>
+      </c>
+      <c r="I837">
+        <v>6.4600000000000005E-2</v>
+      </c>
+      <c r="J837">
+        <v>2.9775</v>
+      </c>
+      <c r="K837">
+        <v>1.5184</v>
+      </c>
+      <c r="L837">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="838" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A838" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B838" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C838" t="s">
+        <v>13</v>
+      </c>
+      <c r="D838" t="s">
+        <v>54</v>
+      </c>
+      <c r="E838" t="s">
+        <v>55</v>
+      </c>
+      <c r="F838">
+        <v>2</v>
+      </c>
+      <c r="G838">
+        <v>2</v>
+      </c>
+      <c r="H838">
+        <v>11470.6561</v>
+      </c>
+      <c r="I838">
+        <v>9.9599999999999994E-2</v>
+      </c>
+      <c r="J838">
+        <v>1.6609</v>
+      </c>
+      <c r="K838">
+        <v>2.0874000000000001</v>
+      </c>
+      <c r="L838">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="839" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A839" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B839" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C839" t="s">
+        <v>13</v>
+      </c>
+      <c r="D839" t="s">
+        <v>13</v>
+      </c>
+      <c r="E839" t="s">
+        <v>55</v>
+      </c>
+      <c r="F839">
+        <v>0</v>
+      </c>
+      <c r="G839">
+        <v>0</v>
+      </c>
+      <c r="H839">
+        <v>4953.2833000000001</v>
+      </c>
+      <c r="I839">
+        <v>5.11E-2</v>
+      </c>
+      <c r="J839">
+        <v>0.70730000000000004</v>
+      </c>
+      <c r="K839">
+        <v>0</v>
+      </c>
+      <c r="L839">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="840" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A840" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B840" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C840" t="s">
+        <v>13</v>
+      </c>
+      <c r="D840" t="s">
+        <v>13</v>
+      </c>
+      <c r="E840" t="s">
+        <v>55</v>
+      </c>
+      <c r="F840">
+        <v>0</v>
+      </c>
+      <c r="G840">
+        <v>1</v>
+      </c>
+      <c r="H840">
+        <v>1764.1010000000001</v>
+      </c>
+      <c r="I840">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J840">
+        <v>0.7117</v>
+      </c>
+      <c r="K840">
+        <v>0</v>
+      </c>
+      <c r="L840">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="841" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A841" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B841" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C841" t="s">
+        <v>13</v>
+      </c>
+      <c r="D841" t="s">
+        <v>13</v>
+      </c>
+      <c r="E841" t="s">
+        <v>55</v>
+      </c>
+      <c r="F841">
+        <v>0</v>
+      </c>
+      <c r="G841">
+        <v>2</v>
+      </c>
+      <c r="H841">
+        <v>7391.4228000000003</v>
+      </c>
+      <c r="I841">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="J841">
+        <v>1.9614</v>
+      </c>
+      <c r="K841">
+        <v>0</v>
+      </c>
+      <c r="L841">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="842" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A842" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B842" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C842" t="s">
+        <v>13</v>
+      </c>
+      <c r="D842" t="s">
+        <v>13</v>
+      </c>
+      <c r="E842" t="s">
+        <v>55</v>
+      </c>
+      <c r="F842">
+        <v>1</v>
+      </c>
+      <c r="G842">
+        <v>0</v>
+      </c>
+      <c r="H842">
+        <v>10075.576300000001</v>
+      </c>
+      <c r="I842">
+        <v>0.2152</v>
+      </c>
+      <c r="J842">
+        <v>0.3745</v>
+      </c>
+      <c r="K842">
+        <v>0</v>
+      </c>
+      <c r="L842">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A843" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B843" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C843" t="s">
+        <v>13</v>
+      </c>
+      <c r="D843" t="s">
+        <v>13</v>
+      </c>
+      <c r="E843" t="s">
+        <v>55</v>
+      </c>
+      <c r="F843">
+        <v>1</v>
+      </c>
+      <c r="G843">
+        <v>1</v>
+      </c>
+      <c r="H843">
+        <v>3039.1738</v>
+      </c>
+      <c r="I843">
+        <v>4.36E-2</v>
+      </c>
+      <c r="J843">
+        <v>0.75380000000000003</v>
+      </c>
+      <c r="K843">
+        <v>0</v>
+      </c>
+      <c r="L843">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A844" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B844" s="1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C844" t="s">
+        <v>13</v>
+      </c>
+      <c r="D844" t="s">
+        <v>13</v>
+      </c>
+      <c r="E844" t="s">
+        <v>55</v>
+      </c>
+      <c r="F844">
+        <v>1</v>
+      </c>
+      <c r="G844">
+        <v>2</v>
+      </c>
+      <c r="H844">
+        <v>8792.5028999999995</v>
+      </c>
+      <c r="I844">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="J844">
+        <v>5.8773999999999997</v>
+      </c>
+      <c r="K844">
+        <v>0</v>
+      </c>
+      <c r="L844">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A845" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B845" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C845" t="s">
+        <v>13</v>
+      </c>
+      <c r="D845" t="s">
+        <v>13</v>
+      </c>
+      <c r="E845" t="s">
+        <v>55</v>
+      </c>
+      <c r="F845">
+        <v>2</v>
+      </c>
+      <c r="G845">
+        <v>0</v>
+      </c>
+      <c r="H845">
+        <v>2968.1696999999999</v>
+      </c>
+      <c r="I845">
+        <v>0.1018</v>
+      </c>
+      <c r="J845">
+        <v>5.2374999999999998</v>
+      </c>
+      <c r="K845">
+        <v>0</v>
+      </c>
+      <c r="L845">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A846" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B846" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C846" t="s">
+        <v>13</v>
+      </c>
+      <c r="D846" t="s">
+        <v>13</v>
+      </c>
+      <c r="E846" t="s">
+        <v>55</v>
+      </c>
+      <c r="F846">
+        <v>2</v>
+      </c>
+      <c r="G846">
+        <v>1</v>
+      </c>
+      <c r="H846">
+        <v>10023.573399999999</v>
+      </c>
+      <c r="I846">
+        <v>0.17760000000000001</v>
+      </c>
+      <c r="J846">
+        <v>7.8532999999999999</v>
+      </c>
+      <c r="K846">
+        <v>0</v>
+      </c>
+      <c r="L846">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A847" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B847" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C847" t="s">
+        <v>13</v>
+      </c>
+      <c r="D847" t="s">
+        <v>13</v>
+      </c>
+      <c r="E847" t="s">
+        <v>55</v>
+      </c>
+      <c r="F847">
+        <v>2</v>
+      </c>
+      <c r="G847">
+        <v>2</v>
+      </c>
+      <c r="H847">
+        <v>2485.1421</v>
+      </c>
+      <c r="I847">
+        <v>8.9700000000000002E-2</v>
+      </c>
+      <c r="J847">
+        <v>6.2290000000000001</v>
+      </c>
+      <c r="K847">
+        <v>0</v>
+      </c>
+      <c r="L847">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A848" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B848" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C848" t="s">
+        <v>13</v>
+      </c>
+      <c r="D848" t="s">
+        <v>13</v>
+      </c>
+      <c r="E848" t="s">
+        <v>35</v>
+      </c>
+      <c r="F848">
+        <v>0</v>
+      </c>
+      <c r="G848">
+        <v>0</v>
+      </c>
+      <c r="H848">
+        <v>18067.033299999999</v>
+      </c>
+      <c r="I848">
+        <v>0.28770000000000001</v>
+      </c>
+      <c r="J848">
+        <v>1.5967</v>
+      </c>
+      <c r="K848">
+        <v>0</v>
+      </c>
+      <c r="L848">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="849" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A849" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B849" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C849" t="s">
+        <v>13</v>
+      </c>
+      <c r="D849" t="s">
+        <v>13</v>
+      </c>
+      <c r="E849" t="s">
+        <v>35</v>
+      </c>
+      <c r="F849">
+        <v>0</v>
+      </c>
+      <c r="G849">
+        <v>1</v>
+      </c>
+      <c r="H849">
+        <v>3944.2256000000002</v>
+      </c>
+      <c r="I849">
+        <v>9.01E-2</v>
+      </c>
+      <c r="J849">
+        <v>1.7837000000000001</v>
+      </c>
+      <c r="K849">
+        <v>0</v>
+      </c>
+      <c r="L849">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="850" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A850" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B850" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C850" t="s">
+        <v>13</v>
+      </c>
+      <c r="D850" t="s">
+        <v>13</v>
+      </c>
+      <c r="E850" t="s">
+        <v>35</v>
+      </c>
+      <c r="F850">
+        <v>0</v>
+      </c>
+      <c r="G850">
+        <v>2</v>
+      </c>
+      <c r="H850">
+        <v>2412.1379999999999</v>
+      </c>
+      <c r="I850">
+        <v>0.54349999999999998</v>
+      </c>
+      <c r="J850">
+        <v>2.4895999999999998</v>
+      </c>
+      <c r="K850">
+        <v>0</v>
+      </c>
+      <c r="L850">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="851" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A851" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B851" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C851" t="s">
+        <v>13</v>
+      </c>
+      <c r="D851" t="s">
+        <v>13</v>
+      </c>
+      <c r="E851" t="s">
+        <v>35</v>
+      </c>
+      <c r="F851">
+        <v>1</v>
+      </c>
+      <c r="G851">
+        <v>0</v>
+      </c>
+      <c r="H851">
+        <v>2305.1318999999999</v>
+      </c>
+      <c r="I851">
+        <v>0.13650000000000001</v>
+      </c>
+      <c r="J851">
+        <v>0.3049</v>
+      </c>
+      <c r="K851">
+        <v>0</v>
+      </c>
+      <c r="L851">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="852" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A852" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B852" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C852" t="s">
+        <v>13</v>
+      </c>
+      <c r="D852" t="s">
+        <v>13</v>
+      </c>
+      <c r="E852" t="s">
+        <v>35</v>
+      </c>
+      <c r="F852">
+        <v>1</v>
+      </c>
+      <c r="G852">
+        <v>1</v>
+      </c>
+      <c r="H852">
+        <v>7149.4089000000004</v>
+      </c>
+      <c r="I852">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="J852">
+        <v>0</v>
+      </c>
+      <c r="K852">
+        <v>0</v>
+      </c>
+      <c r="L852">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A853" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B853" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C853" t="s">
+        <v>13</v>
+      </c>
+      <c r="D853" t="s">
+        <v>13</v>
+      </c>
+      <c r="E853" t="s">
+        <v>35</v>
+      </c>
+      <c r="F853">
+        <v>1</v>
+      </c>
+      <c r="G853">
+        <v>2</v>
+      </c>
+      <c r="H853">
+        <v>9359.5352999999996</v>
+      </c>
+      <c r="I853">
+        <v>0.1628</v>
+      </c>
+      <c r="J853">
+        <v>5.0114999999999998</v>
+      </c>
+      <c r="K853">
+        <v>0</v>
+      </c>
+      <c r="L853">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="854" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A854" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B854" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C854" t="s">
+        <v>13</v>
+      </c>
+      <c r="D854" t="s">
+        <v>13</v>
+      </c>
+      <c r="E854" t="s">
+        <v>35</v>
+      </c>
+      <c r="F854">
+        <v>2</v>
+      </c>
+      <c r="G854">
+        <v>0</v>
+      </c>
+      <c r="H854">
+        <v>2119.1212</v>
+      </c>
+      <c r="I854">
+        <v>0.33069999999999999</v>
+      </c>
+      <c r="J854">
+        <v>4.1181999999999999</v>
+      </c>
+      <c r="K854">
+        <v>0</v>
+      </c>
+      <c r="L854">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="855" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A855" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B855" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C855" t="s">
+        <v>13</v>
+      </c>
+      <c r="D855" t="s">
+        <v>13</v>
+      </c>
+      <c r="E855" t="s">
+        <v>35</v>
+      </c>
+      <c r="F855">
+        <v>2</v>
+      </c>
+      <c r="G855">
+        <v>1</v>
+      </c>
+      <c r="H855">
+        <v>7775.4448000000002</v>
+      </c>
+      <c r="I855">
+        <v>0.18140000000000001</v>
+      </c>
+      <c r="J855">
+        <v>3.4197000000000002</v>
+      </c>
+      <c r="K855">
+        <v>0</v>
+      </c>
+      <c r="L855">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A856" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B856" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C856" t="s">
+        <v>13</v>
+      </c>
+      <c r="D856" t="s">
+        <v>13</v>
+      </c>
+      <c r="E856" t="s">
+        <v>35</v>
+      </c>
+      <c r="F856">
+        <v>2</v>
+      </c>
+      <c r="G856">
+        <v>2</v>
+      </c>
+      <c r="H856">
+        <v>1640.0938000000001</v>
+      </c>
+      <c r="I856">
+        <v>0.2044</v>
+      </c>
+      <c r="J856">
+        <v>2.6063000000000001</v>
+      </c>
+      <c r="K856">
+        <v>0</v>
+      </c>
+      <c r="L856">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A857" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B857" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C857" t="s">
+        <v>13</v>
+      </c>
+      <c r="D857" t="s">
+        <v>13</v>
+      </c>
+      <c r="E857" t="s">
+        <v>14</v>
+      </c>
+      <c r="F857">
+        <v>0</v>
+      </c>
+      <c r="G857">
+        <v>0</v>
+      </c>
+      <c r="H857">
+        <v>14642.8375</v>
+      </c>
+      <c r="I857">
+        <v>0.2117</v>
+      </c>
+      <c r="J857">
+        <v>0.7994</v>
+      </c>
+      <c r="K857">
+        <v>0</v>
+      </c>
+      <c r="L857">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="858" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A858" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B858" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C858" t="s">
+        <v>13</v>
+      </c>
+      <c r="D858" t="s">
+        <v>13</v>
+      </c>
+      <c r="E858" t="s">
+        <v>14</v>
+      </c>
+      <c r="F858">
+        <v>0</v>
+      </c>
+      <c r="G858">
+        <v>1</v>
+      </c>
+      <c r="H858">
+        <v>10433.596799999999</v>
+      </c>
+      <c r="I858">
+        <v>0.2336</v>
+      </c>
+      <c r="J858">
+        <v>0.3165</v>
+      </c>
+      <c r="K858">
+        <v>0</v>
+      </c>
+      <c r="L858">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="859" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A859" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B859" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C859" t="s">
+        <v>13</v>
+      </c>
+      <c r="D859" t="s">
+        <v>13</v>
+      </c>
+      <c r="E859" t="s">
+        <v>14</v>
+      </c>
+      <c r="F859">
+        <v>0</v>
+      </c>
+      <c r="G859">
+        <v>2</v>
+      </c>
+      <c r="H859">
+        <v>9759.5581999999995</v>
+      </c>
+      <c r="I859">
+        <v>0.1222</v>
+      </c>
+      <c r="J859">
+        <v>2.2395</v>
+      </c>
+      <c r="K859">
+        <v>0</v>
+      </c>
+      <c r="L859">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="860" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A860" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B860" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C860" t="s">
+        <v>13</v>
+      </c>
+      <c r="D860" t="s">
+        <v>13</v>
+      </c>
+      <c r="E860" t="s">
+        <v>14</v>
+      </c>
+      <c r="F860">
+        <v>1</v>
+      </c>
+      <c r="G860">
+        <v>0</v>
+      </c>
+      <c r="H860">
+        <v>4627.2646999999997</v>
+      </c>
+      <c r="I860">
+        <v>0.40129999999999999</v>
+      </c>
+      <c r="J860">
+        <v>1.5008999999999999</v>
+      </c>
+      <c r="K860">
+        <v>0</v>
+      </c>
+      <c r="L860">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A861" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B861" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C861" t="s">
+        <v>13</v>
+      </c>
+      <c r="D861" t="s">
+        <v>13</v>
+      </c>
+      <c r="E861" t="s">
+        <v>14</v>
+      </c>
+      <c r="F861">
+        <v>1</v>
+      </c>
+      <c r="G861">
+        <v>1</v>
+      </c>
+      <c r="H861">
+        <v>1304.0745999999999</v>
+      </c>
+      <c r="I861">
+        <v>0.30130000000000001</v>
+      </c>
+      <c r="J861">
+        <v>2.1299000000000001</v>
+      </c>
+      <c r="K861">
+        <v>0</v>
+      </c>
+      <c r="L861">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="862" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A862" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B862" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C862" t="s">
+        <v>13</v>
+      </c>
+      <c r="D862" t="s">
+        <v>13</v>
+      </c>
+      <c r="E862" t="s">
+        <v>14</v>
+      </c>
+      <c r="F862">
+        <v>1</v>
+      </c>
+      <c r="G862">
+        <v>2</v>
+      </c>
+      <c r="H862">
+        <v>6103.3491000000004</v>
+      </c>
+      <c r="I862">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="J862">
+        <v>4.3432000000000004</v>
+      </c>
+      <c r="K862">
+        <v>0</v>
+      </c>
+      <c r="L862">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A863" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B863" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C863" t="s">
+        <v>13</v>
+      </c>
+      <c r="D863" t="s">
+        <v>13</v>
+      </c>
+      <c r="E863" t="s">
+        <v>14</v>
+      </c>
+      <c r="F863">
+        <v>2</v>
+      </c>
+      <c r="G863">
+        <v>0</v>
+      </c>
+      <c r="H863">
+        <v>4239.2424000000001</v>
+      </c>
+      <c r="I863">
+        <v>0.36409999999999998</v>
+      </c>
+      <c r="J863">
+        <v>1.9902</v>
+      </c>
+      <c r="K863">
+        <v>0</v>
+      </c>
+      <c r="L863">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A864" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B864" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C864" t="s">
+        <v>13</v>
+      </c>
+      <c r="D864" t="s">
+        <v>13</v>
+      </c>
+      <c r="E864" t="s">
+        <v>14</v>
+      </c>
+      <c r="F864">
+        <v>2</v>
+      </c>
+      <c r="G864">
+        <v>1</v>
+      </c>
+      <c r="H864">
+        <v>1446.0826999999999</v>
+      </c>
+      <c r="I864">
+        <v>0.42309999999999998</v>
+      </c>
+      <c r="J864">
+        <v>1.4625999999999999</v>
+      </c>
+      <c r="K864">
+        <v>0</v>
+      </c>
+      <c r="L864">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="865" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A865" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B865" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C865" t="s">
+        <v>13</v>
+      </c>
+      <c r="D865" t="s">
+        <v>13</v>
+      </c>
+      <c r="E865" t="s">
+        <v>14</v>
+      </c>
+      <c r="F865">
+        <v>2</v>
+      </c>
+      <c r="G865">
+        <v>2</v>
+      </c>
+      <c r="H865">
+        <v>5146.2942999999996</v>
+      </c>
+      <c r="I865">
+        <v>0.21360000000000001</v>
+      </c>
+      <c r="J865">
+        <v>3.4283999999999999</v>
+      </c>
+      <c r="K865">
+        <v>0</v>
+      </c>
+      <c r="L865">
         <v>0</v>
       </c>
     </row>

--- a/Data/exp2-consolidated.xlsx
+++ b/Data/exp2-consolidated.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6059" uniqueCount="1573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7139" uniqueCount="1791">
   <si>
     <t>Ticks</t>
   </si>
@@ -4735,6 +4735,660 @@
   </si>
   <si>
     <t>P8</t>
+  </si>
+  <si>
+    <t>635139902723631386</t>
+  </si>
+  <si>
+    <t>635139903049350016</t>
+  </si>
+  <si>
+    <t>635139903128624551</t>
+  </si>
+  <si>
+    <t>635139903199988632</t>
+  </si>
+  <si>
+    <t>635139903277463064</t>
+  </si>
+  <si>
+    <t>635139903371028415</t>
+  </si>
+  <si>
+    <t>635139903434052020</t>
+  </si>
+  <si>
+    <t>635139903478064538</t>
+  </si>
+  <si>
+    <t>635139903525297239</t>
+  </si>
+  <si>
+    <t>635139903674475772</t>
+  </si>
+  <si>
+    <t>635139903721218445</t>
+  </si>
+  <si>
+    <t>635139903760380685</t>
+  </si>
+  <si>
+    <t>635139903814503781</t>
+  </si>
+  <si>
+    <t>635139903914659509</t>
+  </si>
+  <si>
+    <t>635139903954861809</t>
+  </si>
+  <si>
+    <t>635139904052817411</t>
+  </si>
+  <si>
+    <t>635139904114420935</t>
+  </si>
+  <si>
+    <t>635139904204816105</t>
+  </si>
+  <si>
+    <t>635139904275180130</t>
+  </si>
+  <si>
+    <t>635139904434709254</t>
+  </si>
+  <si>
+    <t>635139904490892468</t>
+  </si>
+  <si>
+    <t>635139904519694115</t>
+  </si>
+  <si>
+    <t>635139904569496964</t>
+  </si>
+  <si>
+    <t>635139904590858186</t>
+  </si>
+  <si>
+    <t>635139904603698920</t>
+  </si>
+  <si>
+    <t>635139904625850187</t>
+  </si>
+  <si>
+    <t>635139904708494914</t>
+  </si>
+  <si>
+    <t>635139904775128725</t>
+  </si>
+  <si>
+    <t>635139904849332970</t>
+  </si>
+  <si>
+    <t>635139904998971528</t>
+  </si>
+  <si>
+    <t>635139905063975246</t>
+  </si>
+  <si>
+    <t>635139905149650147</t>
+  </si>
+  <si>
+    <t>635139905222454311</t>
+  </si>
+  <si>
+    <t>635139905360492206</t>
+  </si>
+  <si>
+    <t>635139905451247397</t>
+  </si>
+  <si>
+    <t>635139905496569989</t>
+  </si>
+  <si>
+    <t>635139905635487935</t>
+  </si>
+  <si>
+    <t>635139905667489765</t>
+  </si>
+  <si>
+    <t>635139905704861903</t>
+  </si>
+  <si>
+    <t>635139905766685439</t>
+  </si>
+  <si>
+    <t>635139905835039349</t>
+  </si>
+  <si>
+    <t>635139905860890827</t>
+  </si>
+  <si>
+    <t>635139905915163932</t>
+  </si>
+  <si>
+    <t>635139905966606874</t>
+  </si>
+  <si>
+    <t>635139906020529958</t>
+  </si>
+  <si>
+    <t>635139906161128000</t>
+  </si>
+  <si>
+    <t>635139906202080342</t>
+  </si>
+  <si>
+    <t>635139906240802557</t>
+  </si>
+  <si>
+    <t>635139906333757874</t>
+  </si>
+  <si>
+    <t>635139906370239960</t>
+  </si>
+  <si>
+    <t>635139906458885031</t>
+  </si>
+  <si>
+    <t>635139906561040874</t>
+  </si>
+  <si>
+    <t>635139906606773489</t>
+  </si>
+  <si>
+    <t>635139906677997563</t>
+  </si>
+  <si>
+    <t>635139907162075251</t>
+  </si>
+  <si>
+    <t>635139907349155951</t>
+  </si>
+  <si>
+    <t>635139907511295225</t>
+  </si>
+  <si>
+    <t>635139907683955101</t>
+  </si>
+  <si>
+    <t>635139907841954138</t>
+  </si>
+  <si>
+    <t>635139908018534238</t>
+  </si>
+  <si>
+    <t>635139908203304806</t>
+  </si>
+  <si>
+    <t>635139908326591857</t>
+  </si>
+  <si>
+    <t>635139908472270190</t>
+  </si>
+  <si>
+    <t>635139908701743315</t>
+  </si>
+  <si>
+    <t>635139908752586223</t>
+  </si>
+  <si>
+    <t>635139908813059682</t>
+  </si>
+  <si>
+    <t>635139908903344846</t>
+  </si>
+  <si>
+    <t>635139908944547202</t>
+  </si>
+  <si>
+    <t>635139909045102954</t>
+  </si>
+  <si>
+    <t>635139909095515837</t>
+  </si>
+  <si>
+    <t>635139909138098273</t>
+  </si>
+  <si>
+    <t>635139909219582934</t>
+  </si>
+  <si>
+    <t>635139909429984968</t>
+  </si>
+  <si>
+    <t>635139909609745250</t>
+  </si>
+  <si>
+    <t>635139909755173568</t>
+  </si>
+  <si>
+    <t>635139909965575602</t>
+  </si>
+  <si>
+    <t>635139910126614813</t>
+  </si>
+  <si>
+    <t>635139910611612553</t>
+  </si>
+  <si>
+    <t>635139911255169362</t>
+  </si>
+  <si>
+    <t>635139911338364121</t>
+  </si>
+  <si>
+    <t>635139911480922275</t>
+  </si>
+  <si>
+    <t>635139911610519687</t>
+  </si>
+  <si>
+    <t>635139911721886057</t>
+  </si>
+  <si>
+    <t>635139911767798683</t>
+  </si>
+  <si>
+    <t>635139911852963554</t>
+  </si>
+  <si>
+    <t>635139911887965556</t>
+  </si>
+  <si>
+    <t>635139911920047391</t>
+  </si>
+  <si>
+    <t>635139911985361127</t>
+  </si>
+  <si>
+    <t>635139912079236496</t>
+  </si>
+  <si>
+    <t>635139912167441541</t>
+  </si>
+  <si>
+    <t>635139912362722711</t>
+  </si>
+  <si>
+    <t>635139912523881929</t>
+  </si>
+  <si>
+    <t>635139912684321105</t>
+  </si>
+  <si>
+    <t>635139912973357637</t>
+  </si>
+  <si>
+    <t>635139913181629550</t>
+  </si>
+  <si>
+    <t>635139913338038496</t>
+  </si>
+  <si>
+    <t>635139913432633906</t>
+  </si>
+  <si>
+    <t>635139913567311609</t>
+  </si>
+  <si>
+    <t>635139913651676435</t>
+  </si>
+  <si>
+    <t>635139913809105439</t>
+  </si>
+  <si>
+    <t>635139913918991724</t>
+  </si>
+  <si>
+    <t>635139913960544101</t>
+  </si>
+  <si>
+    <t>635139914076550736</t>
+  </si>
+  <si>
+    <t>635139914163105687</t>
+  </si>
+  <si>
+    <t>635139914234389764</t>
+  </si>
+  <si>
+    <t>635139914371027579</t>
+  </si>
+  <si>
+    <t>635139914469183194</t>
+  </si>
+  <si>
+    <t>635139914534586934</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>635140003701679225</t>
+  </si>
+  <si>
+    <t>635140003878199322</t>
+  </si>
+  <si>
+    <t>635140003996876110</t>
+  </si>
+  <si>
+    <t>635140004072710447</t>
+  </si>
+  <si>
+    <t>635140004208638222</t>
+  </si>
+  <si>
+    <t>635140004326104941</t>
+  </si>
+  <si>
+    <t>635140004429950880</t>
+  </si>
+  <si>
+    <t>635140004541617267</t>
+  </si>
+  <si>
+    <t>635140004617431603</t>
+  </si>
+  <si>
+    <t>635140004789551448</t>
+  </si>
+  <si>
+    <t>635140004907748209</t>
+  </si>
+  <si>
+    <t>635140004998043373</t>
+  </si>
+  <si>
+    <t>635140005066627296</t>
+  </si>
+  <si>
+    <t>635140005133791138</t>
+  </si>
+  <si>
+    <t>635140005231066701</t>
+  </si>
+  <si>
+    <t>635140005354383755</t>
+  </si>
+  <si>
+    <t>635140005459629774</t>
+  </si>
+  <si>
+    <t>635140005576626466</t>
+  </si>
+  <si>
+    <t>635140005748756312</t>
+  </si>
+  <si>
+    <t>635140005850742145</t>
+  </si>
+  <si>
+    <t>635140005938987192</t>
+  </si>
+  <si>
+    <t>635140006011061314</t>
+  </si>
+  <si>
+    <t>635140006044903250</t>
+  </si>
+  <si>
+    <t>635140006135098409</t>
+  </si>
+  <si>
+    <t>635140006215943033</t>
+  </si>
+  <si>
+    <t>635140006236394203</t>
+  </si>
+  <si>
+    <t>635140006359761259</t>
+  </si>
+  <si>
+    <t>635140006410014133</t>
+  </si>
+  <si>
+    <t>635140006456256778</t>
+  </si>
+  <si>
+    <t>635140006508469765</t>
+  </si>
+  <si>
+    <t>635140006613895795</t>
+  </si>
+  <si>
+    <t>635140006714291537</t>
+  </si>
+  <si>
+    <t>635140006802056557</t>
+  </si>
+  <si>
+    <t>635140006903252345</t>
+  </si>
+  <si>
+    <t>635140007013938676</t>
+  </si>
+  <si>
+    <t>635140007060931364</t>
+  </si>
+  <si>
+    <t>635140007237411458</t>
+  </si>
+  <si>
+    <t>635140007265293052</t>
+  </si>
+  <si>
+    <t>635140007356008241</t>
+  </si>
+  <si>
+    <t>635140007448853552</t>
+  </si>
+  <si>
+    <t>635140007513687260</t>
+  </si>
+  <si>
+    <t>635140007532168317</t>
+  </si>
+  <si>
+    <t>635140007601292271</t>
+  </si>
+  <si>
+    <t>635140007668286102</t>
+  </si>
+  <si>
+    <t>635140007743210388</t>
+  </si>
+  <si>
+    <t>635140008366086014</t>
+  </si>
+  <si>
+    <t>635140008586398615</t>
+  </si>
+  <si>
+    <t>635140008710645722</t>
+  </si>
+  <si>
+    <t>635140008836442917</t>
+  </si>
+  <si>
+    <t>635140008956359776</t>
+  </si>
+  <si>
+    <t>635140009070596310</t>
+  </si>
+  <si>
+    <t>635140009198883648</t>
+  </si>
+  <si>
+    <t>635140009281488372</t>
+  </si>
+  <si>
+    <t>635140009350002291</t>
+  </si>
+  <si>
+    <t>635140009724233696</t>
+  </si>
+  <si>
+    <t>635140009789437425</t>
+  </si>
+  <si>
+    <t>635140009834229987</t>
+  </si>
+  <si>
+    <t>635140009859231417</t>
+  </si>
+  <si>
+    <t>635140009928435375</t>
+  </si>
+  <si>
+    <t>635140010000389491</t>
+  </si>
+  <si>
+    <t>635140010068193369</t>
+  </si>
+  <si>
+    <t>635140010147347897</t>
+  </si>
+  <si>
+    <t>635140010396512148</t>
+  </si>
+  <si>
+    <t>635140010870669268</t>
+  </si>
+  <si>
+    <t>635140010976665331</t>
+  </si>
+  <si>
+    <t>635140011117303375</t>
+  </si>
+  <si>
+    <t>635140011217699117</t>
+  </si>
+  <si>
+    <t>635140011363307445</t>
+  </si>
+  <si>
+    <t>635140011484624384</t>
+  </si>
+  <si>
+    <t>635140011607861433</t>
+  </si>
+  <si>
+    <t>635140011663224600</t>
+  </si>
+  <si>
+    <t>635140011792501994</t>
+  </si>
+  <si>
+    <t>635140012273229490</t>
+  </si>
+  <si>
+    <t>635140012509493004</t>
+  </si>
+  <si>
+    <t>635140012705254200</t>
+  </si>
+  <si>
+    <t>635140012906535713</t>
+  </si>
+  <si>
+    <t>635140013119897917</t>
+  </si>
+  <si>
+    <t>635140013316529163</t>
+  </si>
+  <si>
+    <t>635140013423845301</t>
+  </si>
+  <si>
+    <t>635140013545652268</t>
+  </si>
+  <si>
+    <t>635140013703701308</t>
+  </si>
+  <si>
+    <t>635140013814967672</t>
+  </si>
+  <si>
+    <t>635140013915923447</t>
+  </si>
+  <si>
+    <t>635140014013249013</t>
+  </si>
+  <si>
+    <t>635140014134165930</t>
+  </si>
+  <si>
+    <t>635140014215840601</t>
+  </si>
+  <si>
+    <t>635140014340777747</t>
+  </si>
+  <si>
+    <t>635140014471085200</t>
+  </si>
+  <si>
+    <t>635140014562160409</t>
+  </si>
+  <si>
+    <t>635140014678877085</t>
+  </si>
+  <si>
+    <t>635140014890719202</t>
+  </si>
+  <si>
+    <t>635140015041797843</t>
+  </si>
+  <si>
+    <t>635140015204397143</t>
+  </si>
+  <si>
+    <t>635140015358435954</t>
+  </si>
+  <si>
+    <t>635140015503854271</t>
+  </si>
+  <si>
+    <t>635140015698595410</t>
+  </si>
+  <si>
+    <t>635140015845033786</t>
+  </si>
+  <si>
+    <t>635140016012553367</t>
+  </si>
+  <si>
+    <t>635140016176592750</t>
+  </si>
+  <si>
+    <t>635140016399865520</t>
+  </si>
+  <si>
+    <t>635140016578465735</t>
+  </si>
+  <si>
+    <t>635140016894743826</t>
+  </si>
+  <si>
+    <t>635140017058103169</t>
+  </si>
+  <si>
+    <t>635140017210381879</t>
+  </si>
+  <si>
+    <t>635140017343619500</t>
+  </si>
+  <si>
+    <t>635140017424064101</t>
+  </si>
+  <si>
+    <t>635140017533620367</t>
+  </si>
+  <si>
+    <t>635140017687859189</t>
+  </si>
+  <si>
+    <t>P10</t>
   </si>
 </sst>
 </file>
@@ -5082,10 +5736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L865"/>
+  <dimension ref="A1:L1081"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A835" workbookViewId="0">
-      <selection activeCell="B867" sqref="B867"/>
+    <sheetView tabSelected="1" topLeftCell="A1078" workbookViewId="0">
+      <selection activeCell="B1083" sqref="B1083"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37964,6 +38618,8214 @@
         <v>0</v>
       </c>
       <c r="L865">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="866" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A866" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B866" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C866" t="s">
+        <v>74</v>
+      </c>
+      <c r="D866" t="s">
+        <v>13</v>
+      </c>
+      <c r="E866" t="s">
+        <v>35</v>
+      </c>
+      <c r="F866">
+        <v>0</v>
+      </c>
+      <c r="G866">
+        <v>0</v>
+      </c>
+      <c r="H866">
+        <v>3119.1783999999998</v>
+      </c>
+      <c r="I866">
+        <v>0.18379999999999999</v>
+      </c>
+      <c r="J866">
+        <v>0.70069999999999999</v>
+      </c>
+      <c r="K866">
+        <v>0</v>
+      </c>
+      <c r="L866">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A867" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B867" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C867" t="s">
+        <v>74</v>
+      </c>
+      <c r="D867" t="s">
+        <v>13</v>
+      </c>
+      <c r="E867" t="s">
+        <v>35</v>
+      </c>
+      <c r="F867">
+        <v>0</v>
+      </c>
+      <c r="G867">
+        <v>1</v>
+      </c>
+      <c r="H867">
+        <v>4440.2538999999997</v>
+      </c>
+      <c r="I867">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="J867">
+        <v>1.4401999999999999</v>
+      </c>
+      <c r="K867">
+        <v>0</v>
+      </c>
+      <c r="L867">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="868" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A868" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B868" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C868" t="s">
+        <v>74</v>
+      </c>
+      <c r="D868" t="s">
+        <v>13</v>
+      </c>
+      <c r="E868" t="s">
+        <v>35</v>
+      </c>
+      <c r="F868">
+        <v>0</v>
+      </c>
+      <c r="G868">
+        <v>2</v>
+      </c>
+      <c r="H868">
+        <v>4365.2497000000003</v>
+      </c>
+      <c r="I868">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="J868">
+        <v>0.47189999999999999</v>
+      </c>
+      <c r="K868">
+        <v>0</v>
+      </c>
+      <c r="L868">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="869" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A869" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B869" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C869" t="s">
+        <v>74</v>
+      </c>
+      <c r="D869" t="s">
+        <v>13</v>
+      </c>
+      <c r="E869" t="s">
+        <v>35</v>
+      </c>
+      <c r="F869">
+        <v>1</v>
+      </c>
+      <c r="G869">
+        <v>0</v>
+      </c>
+      <c r="H869">
+        <v>888.05070000000001</v>
+      </c>
+      <c r="I869">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="J869">
+        <v>0.72870000000000001</v>
+      </c>
+      <c r="K869">
+        <v>0</v>
+      </c>
+      <c r="L869">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="870" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A870" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B870" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C870" t="s">
+        <v>74</v>
+      </c>
+      <c r="D870" t="s">
+        <v>13</v>
+      </c>
+      <c r="E870" t="s">
+        <v>35</v>
+      </c>
+      <c r="F870">
+        <v>1</v>
+      </c>
+      <c r="G870">
+        <v>1</v>
+      </c>
+      <c r="H870">
+        <v>788.04510000000005</v>
+      </c>
+      <c r="I870">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="J870">
+        <v>0.93610000000000004</v>
+      </c>
+      <c r="K870">
+        <v>0</v>
+      </c>
+      <c r="L870">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="871" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A871" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B871" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C871" t="s">
+        <v>74</v>
+      </c>
+      <c r="D871" t="s">
+        <v>13</v>
+      </c>
+      <c r="E871" t="s">
+        <v>35</v>
+      </c>
+      <c r="F871">
+        <v>1</v>
+      </c>
+      <c r="G871">
+        <v>2</v>
+      </c>
+      <c r="H871">
+        <v>2260.1291999999999</v>
+      </c>
+      <c r="I871">
+        <v>7.5499999999999998E-2</v>
+      </c>
+      <c r="J871">
+        <v>2.4500999999999999</v>
+      </c>
+      <c r="K871">
+        <v>0</v>
+      </c>
+      <c r="L871">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A872" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B872" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C872" t="s">
+        <v>74</v>
+      </c>
+      <c r="D872" t="s">
+        <v>13</v>
+      </c>
+      <c r="E872" t="s">
+        <v>35</v>
+      </c>
+      <c r="F872">
+        <v>2</v>
+      </c>
+      <c r="G872">
+        <v>0</v>
+      </c>
+      <c r="H872">
+        <v>4866.2782999999999</v>
+      </c>
+      <c r="I872">
+        <v>0.1237</v>
+      </c>
+      <c r="J872">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="K872">
+        <v>0</v>
+      </c>
+      <c r="L872">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A873" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B873" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C873" t="s">
+        <v>74</v>
+      </c>
+      <c r="D873" t="s">
+        <v>13</v>
+      </c>
+      <c r="E873" t="s">
+        <v>35</v>
+      </c>
+      <c r="F873">
+        <v>2</v>
+      </c>
+      <c r="G873">
+        <v>1</v>
+      </c>
+      <c r="H873">
+        <v>3208.1835000000001</v>
+      </c>
+      <c r="I873">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="J873">
+        <v>0.97430000000000005</v>
+      </c>
+      <c r="K873">
+        <v>0</v>
+      </c>
+      <c r="L873">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A874" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B874" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C874" t="s">
+        <v>74</v>
+      </c>
+      <c r="D874" t="s">
+        <v>13</v>
+      </c>
+      <c r="E874" t="s">
+        <v>35</v>
+      </c>
+      <c r="F874">
+        <v>2</v>
+      </c>
+      <c r="G874">
+        <v>2</v>
+      </c>
+      <c r="H874">
+        <v>3991.2283000000002</v>
+      </c>
+      <c r="I874">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="J874">
+        <v>3.0009000000000001</v>
+      </c>
+      <c r="K874">
+        <v>0</v>
+      </c>
+      <c r="L874">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="875" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A875" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B875" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C875" t="s">
+        <v>74</v>
+      </c>
+      <c r="D875" t="s">
+        <v>54</v>
+      </c>
+      <c r="E875" t="s">
+        <v>55</v>
+      </c>
+      <c r="F875">
+        <v>0</v>
+      </c>
+      <c r="G875">
+        <v>0</v>
+      </c>
+      <c r="H875">
+        <v>7469.4273000000003</v>
+      </c>
+      <c r="I875">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="J875">
+        <v>3.8584999999999998</v>
+      </c>
+      <c r="K875">
+        <v>1.8698999999999999</v>
+      </c>
+      <c r="L875">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="876" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A876" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B876" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C876" t="s">
+        <v>74</v>
+      </c>
+      <c r="D876" t="s">
+        <v>54</v>
+      </c>
+      <c r="E876" t="s">
+        <v>55</v>
+      </c>
+      <c r="F876">
+        <v>0</v>
+      </c>
+      <c r="G876">
+        <v>1</v>
+      </c>
+      <c r="H876">
+        <v>3403.1945999999998</v>
+      </c>
+      <c r="I876">
+        <v>0.1295</v>
+      </c>
+      <c r="J876">
+        <v>3.2753999999999999</v>
+      </c>
+      <c r="K876">
+        <v>1.6748000000000001</v>
+      </c>
+      <c r="L876">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="877" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A877" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B877" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C877" t="s">
+        <v>74</v>
+      </c>
+      <c r="D877" t="s">
+        <v>54</v>
+      </c>
+      <c r="E877" t="s">
+        <v>55</v>
+      </c>
+      <c r="F877">
+        <v>0</v>
+      </c>
+      <c r="G877">
+        <v>2</v>
+      </c>
+      <c r="H877">
+        <v>2572.1471000000001</v>
+      </c>
+      <c r="I877">
+        <v>0.16689999999999999</v>
+      </c>
+      <c r="J877">
+        <v>0.754</v>
+      </c>
+      <c r="K877">
+        <v>2.1579999999999999</v>
+      </c>
+      <c r="L877">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="878" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A878" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B878" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C878" t="s">
+        <v>74</v>
+      </c>
+      <c r="D878" t="s">
+        <v>54</v>
+      </c>
+      <c r="E878" t="s">
+        <v>55</v>
+      </c>
+      <c r="F878">
+        <v>1</v>
+      </c>
+      <c r="G878">
+        <v>0</v>
+      </c>
+      <c r="H878">
+        <v>4000.2287999999999</v>
+      </c>
+      <c r="I878">
+        <v>0.23180000000000001</v>
+      </c>
+      <c r="J878">
+        <v>4.2126999999999999</v>
+      </c>
+      <c r="K878">
+        <v>1.9197</v>
+      </c>
+      <c r="L878">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A879" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B879" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C879" t="s">
+        <v>74</v>
+      </c>
+      <c r="D879" t="s">
+        <v>54</v>
+      </c>
+      <c r="E879" t="s">
+        <v>55</v>
+      </c>
+      <c r="F879">
+        <v>1</v>
+      </c>
+      <c r="G879">
+        <v>1</v>
+      </c>
+      <c r="H879">
+        <v>5979.3419999999996</v>
+      </c>
+      <c r="I879">
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="J879">
+        <v>0.67020000000000002</v>
+      </c>
+      <c r="K879">
+        <v>1.5941000000000001</v>
+      </c>
+      <c r="L879">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="880" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A880" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B880" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C880" t="s">
+        <v>74</v>
+      </c>
+      <c r="D880" t="s">
+        <v>54</v>
+      </c>
+      <c r="E880" t="s">
+        <v>55</v>
+      </c>
+      <c r="F880">
+        <v>1</v>
+      </c>
+      <c r="G880">
+        <v>2</v>
+      </c>
+      <c r="H880">
+        <v>2724.1558</v>
+      </c>
+      <c r="I880">
+        <v>0.1216</v>
+      </c>
+      <c r="J880">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="K880">
+        <v>1.5208999999999999</v>
+      </c>
+      <c r="L880">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="881" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A881" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B881" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C881" t="s">
+        <v>74</v>
+      </c>
+      <c r="D881" t="s">
+        <v>54</v>
+      </c>
+      <c r="E881" t="s">
+        <v>55</v>
+      </c>
+      <c r="F881">
+        <v>2</v>
+      </c>
+      <c r="G881">
+        <v>0</v>
+      </c>
+      <c r="H881">
+        <v>4751.2717000000002</v>
+      </c>
+      <c r="I881">
+        <v>0.1037</v>
+      </c>
+      <c r="J881">
+        <v>2.0499000000000001</v>
+      </c>
+      <c r="K881">
+        <v>1.7051000000000001</v>
+      </c>
+      <c r="L881">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="882" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A882" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B882" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C882" t="s">
+        <v>74</v>
+      </c>
+      <c r="D882" t="s">
+        <v>54</v>
+      </c>
+      <c r="E882" t="s">
+        <v>55</v>
+      </c>
+      <c r="F882">
+        <v>2</v>
+      </c>
+      <c r="G882">
+        <v>1</v>
+      </c>
+      <c r="H882">
+        <v>4796.2743</v>
+      </c>
+      <c r="I882">
+        <v>8.1100000000000005E-2</v>
+      </c>
+      <c r="J882">
+        <v>3.0831</v>
+      </c>
+      <c r="K882">
+        <v>1.6466000000000001</v>
+      </c>
+      <c r="L882">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="883" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A883" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B883" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C883" t="s">
+        <v>74</v>
+      </c>
+      <c r="D883" t="s">
+        <v>54</v>
+      </c>
+      <c r="E883" t="s">
+        <v>55</v>
+      </c>
+      <c r="F883">
+        <v>2</v>
+      </c>
+      <c r="G883">
+        <v>2</v>
+      </c>
+      <c r="H883">
+        <v>6390.3654999999999</v>
+      </c>
+      <c r="I883">
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="J883">
+        <v>6.6227999999999998</v>
+      </c>
+      <c r="K883">
+        <v>1.9226000000000001</v>
+      </c>
+      <c r="L883">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="884" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A884" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B884" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C884" t="s">
+        <v>74</v>
+      </c>
+      <c r="D884" t="s">
+        <v>13</v>
+      </c>
+      <c r="E884" t="s">
+        <v>14</v>
+      </c>
+      <c r="F884">
+        <v>0</v>
+      </c>
+      <c r="G884">
+        <v>0</v>
+      </c>
+      <c r="H884">
+        <v>4443.2541000000001</v>
+      </c>
+      <c r="I884">
+        <v>0.27250000000000002</v>
+      </c>
+      <c r="J884">
+        <v>2.7071999999999998</v>
+      </c>
+      <c r="K884">
+        <v>0</v>
+      </c>
+      <c r="L884">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="885" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A885" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B885" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C885" t="s">
+        <v>74</v>
+      </c>
+      <c r="D885" t="s">
+        <v>13</v>
+      </c>
+      <c r="E885" t="s">
+        <v>14</v>
+      </c>
+      <c r="F885">
+        <v>0</v>
+      </c>
+      <c r="G885">
+        <v>1</v>
+      </c>
+      <c r="H885">
+        <v>3281.1876000000002</v>
+      </c>
+      <c r="I885">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="J885">
+        <v>3.7427999999999999</v>
+      </c>
+      <c r="K885">
+        <v>0</v>
+      </c>
+      <c r="L885">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="886" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A886" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B886" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C886" t="s">
+        <v>74</v>
+      </c>
+      <c r="D886" t="s">
+        <v>13</v>
+      </c>
+      <c r="E886" t="s">
+        <v>14</v>
+      </c>
+      <c r="F886">
+        <v>0</v>
+      </c>
+      <c r="G886">
+        <v>2</v>
+      </c>
+      <c r="H886">
+        <v>4307.2464</v>
+      </c>
+      <c r="I886">
+        <v>0.14910000000000001</v>
+      </c>
+      <c r="J886">
+        <v>0.74370000000000003</v>
+      </c>
+      <c r="K886">
+        <v>0</v>
+      </c>
+      <c r="L886">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="887" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A887" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B887" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C887" t="s">
+        <v>74</v>
+      </c>
+      <c r="D887" t="s">
+        <v>13</v>
+      </c>
+      <c r="E887" t="s">
+        <v>14</v>
+      </c>
+      <c r="F887">
+        <v>1</v>
+      </c>
+      <c r="G887">
+        <v>0</v>
+      </c>
+      <c r="H887">
+        <v>1643.0939000000001</v>
+      </c>
+      <c r="I887">
+        <v>0.14910000000000001</v>
+      </c>
+      <c r="J887">
+        <v>1.59</v>
+      </c>
+      <c r="K887">
+        <v>0</v>
+      </c>
+      <c r="L887">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="888" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A888" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B888" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C888" t="s">
+        <v>74</v>
+      </c>
+      <c r="D888" t="s">
+        <v>13</v>
+      </c>
+      <c r="E888" t="s">
+        <v>14</v>
+      </c>
+      <c r="F888">
+        <v>1</v>
+      </c>
+      <c r="G888">
+        <v>1</v>
+      </c>
+      <c r="H888">
+        <v>3729.2132999999999</v>
+      </c>
+      <c r="I888">
+        <v>4.9700000000000001E-2</v>
+      </c>
+      <c r="J888">
+        <v>1.9104000000000001</v>
+      </c>
+      <c r="K888">
+        <v>0</v>
+      </c>
+      <c r="L888">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="889" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A889" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B889" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C889" t="s">
+        <v>74</v>
+      </c>
+      <c r="D889" t="s">
+        <v>13</v>
+      </c>
+      <c r="E889" t="s">
+        <v>14</v>
+      </c>
+      <c r="F889">
+        <v>1</v>
+      </c>
+      <c r="G889">
+        <v>2</v>
+      </c>
+      <c r="H889">
+        <v>712.04079999999999</v>
+      </c>
+      <c r="I889">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="J889">
+        <v>0.1158</v>
+      </c>
+      <c r="K889">
+        <v>0</v>
+      </c>
+      <c r="L889">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="890" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A890" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B890" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C890" t="s">
+        <v>74</v>
+      </c>
+      <c r="D890" t="s">
+        <v>13</v>
+      </c>
+      <c r="E890" t="s">
+        <v>14</v>
+      </c>
+      <c r="F890">
+        <v>2</v>
+      </c>
+      <c r="G890">
+        <v>0</v>
+      </c>
+      <c r="H890">
+        <v>712.04070000000002</v>
+      </c>
+      <c r="I890">
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="J890">
+        <v>1.6137999999999999</v>
+      </c>
+      <c r="K890">
+        <v>0</v>
+      </c>
+      <c r="L890">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="891" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A891" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B891" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C891" t="s">
+        <v>74</v>
+      </c>
+      <c r="D891" t="s">
+        <v>13</v>
+      </c>
+      <c r="E891" t="s">
+        <v>14</v>
+      </c>
+      <c r="F891">
+        <v>2</v>
+      </c>
+      <c r="G891">
+        <v>1</v>
+      </c>
+      <c r="H891">
+        <v>1575.0900999999999</v>
+      </c>
+      <c r="I891">
+        <v>0</v>
+      </c>
+      <c r="J891">
+        <v>0.2767</v>
+      </c>
+      <c r="K891">
+        <v>0</v>
+      </c>
+      <c r="L891">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A892" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B892" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C892" t="s">
+        <v>74</v>
+      </c>
+      <c r="D892" t="s">
+        <v>13</v>
+      </c>
+      <c r="E892" t="s">
+        <v>14</v>
+      </c>
+      <c r="F892">
+        <v>2</v>
+      </c>
+      <c r="G892">
+        <v>2</v>
+      </c>
+      <c r="H892">
+        <v>2992.1711</v>
+      </c>
+      <c r="I892">
+        <v>8.6699999999999999E-2</v>
+      </c>
+      <c r="J892">
+        <v>1.6193</v>
+      </c>
+      <c r="K892">
+        <v>0</v>
+      </c>
+      <c r="L892">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A893" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B893" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C893" t="s">
+        <v>74</v>
+      </c>
+      <c r="D893" t="s">
+        <v>54</v>
+      </c>
+      <c r="E893" t="s">
+        <v>14</v>
+      </c>
+      <c r="F893">
+        <v>0</v>
+      </c>
+      <c r="G893">
+        <v>0</v>
+      </c>
+      <c r="H893">
+        <v>5383.3078999999998</v>
+      </c>
+      <c r="I893">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="J893">
+        <v>1.3636999999999999</v>
+      </c>
+      <c r="K893">
+        <v>1.5831999999999999</v>
+      </c>
+      <c r="L893">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="894" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A894" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B894" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C894" t="s">
+        <v>74</v>
+      </c>
+      <c r="D894" t="s">
+        <v>54</v>
+      </c>
+      <c r="E894" t="s">
+        <v>14</v>
+      </c>
+      <c r="F894">
+        <v>0</v>
+      </c>
+      <c r="G894">
+        <v>1</v>
+      </c>
+      <c r="H894">
+        <v>3620.2071000000001</v>
+      </c>
+      <c r="I894">
+        <v>5.4800000000000001E-2</v>
+      </c>
+      <c r="J894">
+        <v>5.7392000000000003</v>
+      </c>
+      <c r="K894">
+        <v>1.5022</v>
+      </c>
+      <c r="L894">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="895" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A895" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B895" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C895" t="s">
+        <v>74</v>
+      </c>
+      <c r="D895" t="s">
+        <v>54</v>
+      </c>
+      <c r="E895" t="s">
+        <v>14</v>
+      </c>
+      <c r="F895">
+        <v>0</v>
+      </c>
+      <c r="G895">
+        <v>2</v>
+      </c>
+      <c r="H895">
+        <v>12035.688399999999</v>
+      </c>
+      <c r="I895">
+        <v>0.1018</v>
+      </c>
+      <c r="J895">
+        <v>2.5510999999999999</v>
+      </c>
+      <c r="K895">
+        <v>1.2947</v>
+      </c>
+      <c r="L895">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="896" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A896" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B896" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C896" t="s">
+        <v>74</v>
+      </c>
+      <c r="D896" t="s">
+        <v>54</v>
+      </c>
+      <c r="E896" t="s">
+        <v>14</v>
+      </c>
+      <c r="F896">
+        <v>1</v>
+      </c>
+      <c r="G896">
+        <v>0</v>
+      </c>
+      <c r="H896">
+        <v>5324.3045000000002</v>
+      </c>
+      <c r="I896">
+        <v>6.3100000000000003E-2</v>
+      </c>
+      <c r="J896">
+        <v>4.0849000000000002</v>
+      </c>
+      <c r="K896">
+        <v>1.3683000000000001</v>
+      </c>
+      <c r="L896">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A897" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B897" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C897" t="s">
+        <v>74</v>
+      </c>
+      <c r="D897" t="s">
+        <v>54</v>
+      </c>
+      <c r="E897" t="s">
+        <v>14</v>
+      </c>
+      <c r="F897">
+        <v>1</v>
+      </c>
+      <c r="G897">
+        <v>1</v>
+      </c>
+      <c r="H897">
+        <v>7315.4183999999996</v>
+      </c>
+      <c r="I897">
+        <v>0.28089999999999998</v>
+      </c>
+      <c r="J897">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="K897">
+        <v>1.6769000000000001</v>
+      </c>
+      <c r="L897">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="898" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A898" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B898" s="1" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C898" t="s">
+        <v>74</v>
+      </c>
+      <c r="D898" t="s">
+        <v>54</v>
+      </c>
+      <c r="E898" t="s">
+        <v>14</v>
+      </c>
+      <c r="F898">
+        <v>1</v>
+      </c>
+      <c r="G898">
+        <v>2</v>
+      </c>
+      <c r="H898">
+        <v>5492.3141999999998</v>
+      </c>
+      <c r="I898">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="J898">
+        <v>0.16020000000000001</v>
+      </c>
+      <c r="K898">
+        <v>1.6415999999999999</v>
+      </c>
+      <c r="L898">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="899" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A899" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B899" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C899" t="s">
+        <v>74</v>
+      </c>
+      <c r="D899" t="s">
+        <v>54</v>
+      </c>
+      <c r="E899" t="s">
+        <v>14</v>
+      </c>
+      <c r="F899">
+        <v>2</v>
+      </c>
+      <c r="G899">
+        <v>0</v>
+      </c>
+      <c r="H899">
+        <v>9615.5499999999993</v>
+      </c>
+      <c r="I899">
+        <v>0.24360000000000001</v>
+      </c>
+      <c r="J899">
+        <v>1.4979</v>
+      </c>
+      <c r="K899">
+        <v>1.6312</v>
+      </c>
+      <c r="L899">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="900" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A900" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B900" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C900" t="s">
+        <v>74</v>
+      </c>
+      <c r="D900" t="s">
+        <v>54</v>
+      </c>
+      <c r="E900" t="s">
+        <v>14</v>
+      </c>
+      <c r="F900">
+        <v>2</v>
+      </c>
+      <c r="G900">
+        <v>1</v>
+      </c>
+      <c r="H900">
+        <v>5899.3374000000003</v>
+      </c>
+      <c r="I900">
+        <v>7.0599999999999996E-2</v>
+      </c>
+      <c r="J900">
+        <v>1.3025</v>
+      </c>
+      <c r="K900">
+        <v>1.6473</v>
+      </c>
+      <c r="L900">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="901" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A901" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B901" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C901" t="s">
+        <v>74</v>
+      </c>
+      <c r="D901" t="s">
+        <v>54</v>
+      </c>
+      <c r="E901" t="s">
+        <v>14</v>
+      </c>
+      <c r="F901">
+        <v>2</v>
+      </c>
+      <c r="G901">
+        <v>2</v>
+      </c>
+      <c r="H901">
+        <v>2936.1678999999999</v>
+      </c>
+      <c r="I901">
+        <v>7.3200000000000001E-2</v>
+      </c>
+      <c r="J901">
+        <v>0.92430000000000001</v>
+      </c>
+      <c r="K901">
+        <v>1.9532</v>
+      </c>
+      <c r="L901">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="902" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A902" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B902" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C902" t="s">
+        <v>74</v>
+      </c>
+      <c r="D902" t="s">
+        <v>13</v>
+      </c>
+      <c r="E902" t="s">
+        <v>55</v>
+      </c>
+      <c r="F902">
+        <v>0</v>
+      </c>
+      <c r="G902">
+        <v>0</v>
+      </c>
+      <c r="H902">
+        <v>2696.1541999999999</v>
+      </c>
+      <c r="I902">
+        <v>0.15279999999999999</v>
+      </c>
+      <c r="J902">
+        <v>0.8992</v>
+      </c>
+      <c r="K902">
+        <v>0</v>
+      </c>
+      <c r="L902">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="903" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A903" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B903" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C903" t="s">
+        <v>74</v>
+      </c>
+      <c r="D903" t="s">
+        <v>13</v>
+      </c>
+      <c r="E903" t="s">
+        <v>55</v>
+      </c>
+      <c r="F903">
+        <v>0</v>
+      </c>
+      <c r="G903">
+        <v>1</v>
+      </c>
+      <c r="H903">
+        <v>2516.1439</v>
+      </c>
+      <c r="I903">
+        <v>0.1222</v>
+      </c>
+      <c r="J903">
+        <v>1.0928</v>
+      </c>
+      <c r="K903">
+        <v>0</v>
+      </c>
+      <c r="L903">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="904" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A904" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B904" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C904" t="s">
+        <v>74</v>
+      </c>
+      <c r="D904" t="s">
+        <v>13</v>
+      </c>
+      <c r="E904" t="s">
+        <v>55</v>
+      </c>
+      <c r="F904">
+        <v>0</v>
+      </c>
+      <c r="G904">
+        <v>2</v>
+      </c>
+      <c r="H904">
+        <v>3169.1813000000002</v>
+      </c>
+      <c r="I904">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="J904">
+        <v>0.14369999999999999</v>
+      </c>
+      <c r="K904">
+        <v>0</v>
+      </c>
+      <c r="L904">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="905" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A905" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B905" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C905" t="s">
+        <v>74</v>
+      </c>
+      <c r="D905" t="s">
+        <v>13</v>
+      </c>
+      <c r="E905" t="s">
+        <v>55</v>
+      </c>
+      <c r="F905">
+        <v>1</v>
+      </c>
+      <c r="G905">
+        <v>0</v>
+      </c>
+      <c r="H905">
+        <v>3882.2220000000002</v>
+      </c>
+      <c r="I905">
+        <v>0.1595</v>
+      </c>
+      <c r="J905">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="K905">
+        <v>0</v>
+      </c>
+      <c r="L905">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="906" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A906" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B906" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C906" t="s">
+        <v>74</v>
+      </c>
+      <c r="D906" t="s">
+        <v>13</v>
+      </c>
+      <c r="E906" t="s">
+        <v>55</v>
+      </c>
+      <c r="F906">
+        <v>1</v>
+      </c>
+      <c r="G906">
+        <v>1</v>
+      </c>
+      <c r="H906">
+        <v>3139.1795999999999</v>
+      </c>
+      <c r="I906">
+        <v>0.14319999999999999</v>
+      </c>
+      <c r="J906">
+        <v>0.1535</v>
+      </c>
+      <c r="K906">
+        <v>0</v>
+      </c>
+      <c r="L906">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="907" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A907" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B907" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C907" t="s">
+        <v>74</v>
+      </c>
+      <c r="D907" t="s">
+        <v>13</v>
+      </c>
+      <c r="E907" t="s">
+        <v>55</v>
+      </c>
+      <c r="F907">
+        <v>1</v>
+      </c>
+      <c r="G907">
+        <v>2</v>
+      </c>
+      <c r="H907">
+        <v>1256.0717999999999</v>
+      </c>
+      <c r="I907">
+        <v>0.1328</v>
+      </c>
+      <c r="J907">
+        <v>0.71350000000000002</v>
+      </c>
+      <c r="K907">
+        <v>0</v>
+      </c>
+      <c r="L907">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="908" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A908" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B908" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C908" t="s">
+        <v>74</v>
+      </c>
+      <c r="D908" t="s">
+        <v>13</v>
+      </c>
+      <c r="E908" t="s">
+        <v>55</v>
+      </c>
+      <c r="F908">
+        <v>2</v>
+      </c>
+      <c r="G908">
+        <v>0</v>
+      </c>
+      <c r="H908">
+        <v>4139.2367999999997</v>
+      </c>
+      <c r="I908">
+        <v>0.1139</v>
+      </c>
+      <c r="J908">
+        <v>1.5091000000000001</v>
+      </c>
+      <c r="K908">
+        <v>0</v>
+      </c>
+      <c r="L908">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="909" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A909" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B909" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C909" t="s">
+        <v>74</v>
+      </c>
+      <c r="D909" t="s">
+        <v>13</v>
+      </c>
+      <c r="E909" t="s">
+        <v>55</v>
+      </c>
+      <c r="F909">
+        <v>2</v>
+      </c>
+      <c r="G909">
+        <v>1</v>
+      </c>
+      <c r="H909">
+        <v>3792.2168999999999</v>
+      </c>
+      <c r="I909">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="J909">
+        <v>0.15040000000000001</v>
+      </c>
+      <c r="K909">
+        <v>0</v>
+      </c>
+      <c r="L909">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="910" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A910" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B910" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C910" t="s">
+        <v>74</v>
+      </c>
+      <c r="D910" t="s">
+        <v>13</v>
+      </c>
+      <c r="E910" t="s">
+        <v>55</v>
+      </c>
+      <c r="F910">
+        <v>2</v>
+      </c>
+      <c r="G910">
+        <v>2</v>
+      </c>
+      <c r="H910">
+        <v>3620.2069999999999</v>
+      </c>
+      <c r="I910">
+        <v>7.8799999999999995E-2</v>
+      </c>
+      <c r="J910">
+        <v>0.48020000000000002</v>
+      </c>
+      <c r="K910">
+        <v>0</v>
+      </c>
+      <c r="L910">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="911" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A911" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B911" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C911" t="s">
+        <v>74</v>
+      </c>
+      <c r="D911" t="s">
+        <v>54</v>
+      </c>
+      <c r="E911" t="s">
+        <v>35</v>
+      </c>
+      <c r="F911">
+        <v>0</v>
+      </c>
+      <c r="G911">
+        <v>0</v>
+      </c>
+      <c r="H911">
+        <v>8284.4737999999998</v>
+      </c>
+      <c r="I911">
+        <v>9.98E-2</v>
+      </c>
+      <c r="J911">
+        <v>1.4693000000000001</v>
+      </c>
+      <c r="K911">
+        <v>1.3589</v>
+      </c>
+      <c r="L911">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="912" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A912" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B912" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C912" t="s">
+        <v>74</v>
+      </c>
+      <c r="D912" t="s">
+        <v>54</v>
+      </c>
+      <c r="E912" t="s">
+        <v>35</v>
+      </c>
+      <c r="F912">
+        <v>0</v>
+      </c>
+      <c r="G912">
+        <v>1</v>
+      </c>
+      <c r="H912">
+        <v>2747.1570999999999</v>
+      </c>
+      <c r="I912">
+        <v>9.4700000000000006E-2</v>
+      </c>
+      <c r="J912">
+        <v>0.3826</v>
+      </c>
+      <c r="K912">
+        <v>1.4301999999999999</v>
+      </c>
+      <c r="L912">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="913" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A913" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B913" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C913" t="s">
+        <v>74</v>
+      </c>
+      <c r="D913" t="s">
+        <v>54</v>
+      </c>
+      <c r="E913" t="s">
+        <v>35</v>
+      </c>
+      <c r="F913">
+        <v>0</v>
+      </c>
+      <c r="G913">
+        <v>2</v>
+      </c>
+      <c r="H913">
+        <v>2411.1379000000002</v>
+      </c>
+      <c r="I913">
+        <v>0.1028</v>
+      </c>
+      <c r="J913">
+        <v>0.32450000000000001</v>
+      </c>
+      <c r="K913">
+        <v>1.3058000000000001</v>
+      </c>
+      <c r="L913">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="914" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A914" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B914" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C914" t="s">
+        <v>74</v>
+      </c>
+      <c r="D914" t="s">
+        <v>54</v>
+      </c>
+      <c r="E914" t="s">
+        <v>35</v>
+      </c>
+      <c r="F914">
+        <v>1</v>
+      </c>
+      <c r="G914">
+        <v>0</v>
+      </c>
+      <c r="H914">
+        <v>6131.3507</v>
+      </c>
+      <c r="I914">
+        <v>0.11260000000000001</v>
+      </c>
+      <c r="J914">
+        <v>1.7896000000000001</v>
+      </c>
+      <c r="K914">
+        <v>1.3864000000000001</v>
+      </c>
+      <c r="L914">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="915" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A915" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B915" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C915" t="s">
+        <v>74</v>
+      </c>
+      <c r="D915" t="s">
+        <v>54</v>
+      </c>
+      <c r="E915" t="s">
+        <v>35</v>
+      </c>
+      <c r="F915">
+        <v>1</v>
+      </c>
+      <c r="G915">
+        <v>1</v>
+      </c>
+      <c r="H915">
+        <v>2803.1603</v>
+      </c>
+      <c r="I915">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="J915">
+        <v>1.9464999999999999</v>
+      </c>
+      <c r="K915">
+        <v>1.3794999999999999</v>
+      </c>
+      <c r="L915">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A916" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B916" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C916" t="s">
+        <v>74</v>
+      </c>
+      <c r="D916" t="s">
+        <v>54</v>
+      </c>
+      <c r="E916" t="s">
+        <v>35</v>
+      </c>
+      <c r="F916">
+        <v>1</v>
+      </c>
+      <c r="G916">
+        <v>2</v>
+      </c>
+      <c r="H916">
+        <v>8300.4748</v>
+      </c>
+      <c r="I916">
+        <v>0.1076</v>
+      </c>
+      <c r="J916">
+        <v>0.77090000000000003</v>
+      </c>
+      <c r="K916">
+        <v>1.4033</v>
+      </c>
+      <c r="L916">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="917" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A917" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B917" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C917" t="s">
+        <v>74</v>
+      </c>
+      <c r="D917" t="s">
+        <v>54</v>
+      </c>
+      <c r="E917" t="s">
+        <v>35</v>
+      </c>
+      <c r="F917">
+        <v>2</v>
+      </c>
+      <c r="G917">
+        <v>0</v>
+      </c>
+      <c r="H917">
+        <v>7003.4005999999999</v>
+      </c>
+      <c r="I917">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="J917">
+        <v>2.1783000000000001</v>
+      </c>
+      <c r="K917">
+        <v>1.2726999999999999</v>
+      </c>
+      <c r="L917">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="918" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A918" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B918" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C918" t="s">
+        <v>74</v>
+      </c>
+      <c r="D918" t="s">
+        <v>54</v>
+      </c>
+      <c r="E918" t="s">
+        <v>35</v>
+      </c>
+      <c r="F918">
+        <v>2</v>
+      </c>
+      <c r="G918">
+        <v>1</v>
+      </c>
+      <c r="H918">
+        <v>2889.1651999999999</v>
+      </c>
+      <c r="I918">
+        <v>4.9700000000000001E-2</v>
+      </c>
+      <c r="J918">
+        <v>9.98E-2</v>
+      </c>
+      <c r="K918">
+        <v>1.3065</v>
+      </c>
+      <c r="L918">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A919" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B919" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C919" t="s">
+        <v>74</v>
+      </c>
+      <c r="D919" t="s">
+        <v>54</v>
+      </c>
+      <c r="E919" t="s">
+        <v>35</v>
+      </c>
+      <c r="F919">
+        <v>2</v>
+      </c>
+      <c r="G919">
+        <v>2</v>
+      </c>
+      <c r="H919">
+        <v>6317.3612999999996</v>
+      </c>
+      <c r="I919">
+        <v>7.46E-2</v>
+      </c>
+      <c r="J919">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="K919">
+        <v>1.2058</v>
+      </c>
+      <c r="L919">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="920" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A920" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B920" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C920" t="s">
+        <v>13</v>
+      </c>
+      <c r="D920" t="s">
+        <v>54</v>
+      </c>
+      <c r="E920" t="s">
+        <v>35</v>
+      </c>
+      <c r="F920">
+        <v>0</v>
+      </c>
+      <c r="G920">
+        <v>0</v>
+      </c>
+      <c r="H920">
+        <v>45843.622100000001</v>
+      </c>
+      <c r="I920">
+        <v>0.31409999999999999</v>
+      </c>
+      <c r="J920">
+        <v>1.2203999999999999</v>
+      </c>
+      <c r="K920">
+        <v>1.6274</v>
+      </c>
+      <c r="L920">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="921" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A921" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B921" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C921" t="s">
+        <v>13</v>
+      </c>
+      <c r="D921" t="s">
+        <v>54</v>
+      </c>
+      <c r="E921" t="s">
+        <v>35</v>
+      </c>
+      <c r="F921">
+        <v>0</v>
+      </c>
+      <c r="G921">
+        <v>1</v>
+      </c>
+      <c r="H921">
+        <v>15047.860699999999</v>
+      </c>
+      <c r="I921">
+        <v>0.35160000000000002</v>
+      </c>
+      <c r="J921">
+        <v>1.1212</v>
+      </c>
+      <c r="K921">
+        <v>1.7181</v>
+      </c>
+      <c r="L921">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="922" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A922" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B922" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C922" t="s">
+        <v>13</v>
+      </c>
+      <c r="D922" t="s">
+        <v>54</v>
+      </c>
+      <c r="E922" t="s">
+        <v>35</v>
+      </c>
+      <c r="F922">
+        <v>0</v>
+      </c>
+      <c r="G922">
+        <v>2</v>
+      </c>
+      <c r="H922">
+        <v>14715.841700000001</v>
+      </c>
+      <c r="I922">
+        <v>7.6100000000000001E-2</v>
+      </c>
+      <c r="J922">
+        <v>1.9288000000000001</v>
+      </c>
+      <c r="K922">
+        <v>1.4244000000000001</v>
+      </c>
+      <c r="L922">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="923" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A923" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B923" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C923" t="s">
+        <v>13</v>
+      </c>
+      <c r="D923" t="s">
+        <v>54</v>
+      </c>
+      <c r="E923" t="s">
+        <v>35</v>
+      </c>
+      <c r="F923">
+        <v>1</v>
+      </c>
+      <c r="G923">
+        <v>0</v>
+      </c>
+      <c r="H923">
+        <v>14923.8536</v>
+      </c>
+      <c r="I923">
+        <v>5.96E-2</v>
+      </c>
+      <c r="J923">
+        <v>1.1652</v>
+      </c>
+      <c r="K923">
+        <v>1.3579000000000001</v>
+      </c>
+      <c r="L923">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="924" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A924" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B924" s="1" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C924" t="s">
+        <v>13</v>
+      </c>
+      <c r="D924" t="s">
+        <v>54</v>
+      </c>
+      <c r="E924" t="s">
+        <v>35</v>
+      </c>
+      <c r="F924">
+        <v>1</v>
+      </c>
+      <c r="G924">
+        <v>1</v>
+      </c>
+      <c r="H924">
+        <v>9135.5226000000002</v>
+      </c>
+      <c r="I924">
+        <v>0.16689999999999999</v>
+      </c>
+      <c r="J924">
+        <v>0.79530000000000001</v>
+      </c>
+      <c r="K924">
+        <v>1.6073999999999999</v>
+      </c>
+      <c r="L924">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="925" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A925" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B925" s="1" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C925" t="s">
+        <v>13</v>
+      </c>
+      <c r="D925" t="s">
+        <v>54</v>
+      </c>
+      <c r="E925" t="s">
+        <v>35</v>
+      </c>
+      <c r="F925">
+        <v>1</v>
+      </c>
+      <c r="G925">
+        <v>2</v>
+      </c>
+      <c r="H925">
+        <v>15073.8622</v>
+      </c>
+      <c r="I925">
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="J925">
+        <v>0.75270000000000004</v>
+      </c>
+      <c r="K925">
+        <v>1.5179</v>
+      </c>
+      <c r="L925">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="926" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A926" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B926" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C926" t="s">
+        <v>13</v>
+      </c>
+      <c r="D926" t="s">
+        <v>54</v>
+      </c>
+      <c r="E926" t="s">
+        <v>35</v>
+      </c>
+      <c r="F926">
+        <v>2</v>
+      </c>
+      <c r="G926">
+        <v>0</v>
+      </c>
+      <c r="H926">
+        <v>12082.6911</v>
+      </c>
+      <c r="I926">
+        <v>3.95E-2</v>
+      </c>
+      <c r="J926">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="K926">
+        <v>1.2769999999999999</v>
+      </c>
+      <c r="L926">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="927" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A927" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B927" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C927" t="s">
+        <v>13</v>
+      </c>
+      <c r="D927" t="s">
+        <v>54</v>
+      </c>
+      <c r="E927" t="s">
+        <v>35</v>
+      </c>
+      <c r="F927">
+        <v>2</v>
+      </c>
+      <c r="G927">
+        <v>1</v>
+      </c>
+      <c r="H927">
+        <v>10567.6044</v>
+      </c>
+      <c r="I927">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="J927">
+        <v>0.7873</v>
+      </c>
+      <c r="K927">
+        <v>1.5248999999999999</v>
+      </c>
+      <c r="L927">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="928" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A928" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B928" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C928" t="s">
+        <v>13</v>
+      </c>
+      <c r="D928" t="s">
+        <v>54</v>
+      </c>
+      <c r="E928" t="s">
+        <v>35</v>
+      </c>
+      <c r="F928">
+        <v>2</v>
+      </c>
+      <c r="G928">
+        <v>2</v>
+      </c>
+      <c r="H928">
+        <v>12735.728499999999</v>
+      </c>
+      <c r="I928">
+        <v>0</v>
+      </c>
+      <c r="J928">
+        <v>2.3368000000000002</v>
+      </c>
+      <c r="K928">
+        <v>1.3976</v>
+      </c>
+      <c r="L928">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="929" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A929" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B929" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C929" t="s">
+        <v>13</v>
+      </c>
+      <c r="D929" t="s">
+        <v>13</v>
+      </c>
+      <c r="E929" t="s">
+        <v>55</v>
+      </c>
+      <c r="F929">
+        <v>0</v>
+      </c>
+      <c r="G929">
+        <v>0</v>
+      </c>
+      <c r="H929">
+        <v>15000.858</v>
+      </c>
+      <c r="I929">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="J929">
+        <v>1.9731000000000001</v>
+      </c>
+      <c r="K929">
+        <v>0</v>
+      </c>
+      <c r="L929">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="930" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A930" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B930" s="1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C930" t="s">
+        <v>13</v>
+      </c>
+      <c r="D930" t="s">
+        <v>13</v>
+      </c>
+      <c r="E930" t="s">
+        <v>55</v>
+      </c>
+      <c r="F930">
+        <v>0</v>
+      </c>
+      <c r="G930">
+        <v>1</v>
+      </c>
+      <c r="H930">
+        <v>3555.2033999999999</v>
+      </c>
+      <c r="I930">
+        <v>0.38740000000000002</v>
+      </c>
+      <c r="J930">
+        <v>2.1208</v>
+      </c>
+      <c r="K930">
+        <v>0</v>
+      </c>
+      <c r="L930">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="931" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A931" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B931" s="1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C931" t="s">
+        <v>13</v>
+      </c>
+      <c r="D931" t="s">
+        <v>13</v>
+      </c>
+      <c r="E931" t="s">
+        <v>55</v>
+      </c>
+      <c r="F931">
+        <v>0</v>
+      </c>
+      <c r="G931">
+        <v>2</v>
+      </c>
+      <c r="H931">
+        <v>4715.2696999999998</v>
+      </c>
+      <c r="I931">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="J931">
+        <v>3.9116</v>
+      </c>
+      <c r="K931">
+        <v>0</v>
+      </c>
+      <c r="L931">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="932" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A932" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B932" s="1" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C932" t="s">
+        <v>13</v>
+      </c>
+      <c r="D932" t="s">
+        <v>13</v>
+      </c>
+      <c r="E932" t="s">
+        <v>55</v>
+      </c>
+      <c r="F932">
+        <v>1</v>
+      </c>
+      <c r="G932">
+        <v>0</v>
+      </c>
+      <c r="H932">
+        <v>8163.4669000000004</v>
+      </c>
+      <c r="I932">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="J932">
+        <v>1.8765000000000001</v>
+      </c>
+      <c r="K932">
+        <v>0</v>
+      </c>
+      <c r="L932">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="933" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A933" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B933" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C933" t="s">
+        <v>13</v>
+      </c>
+      <c r="D933" t="s">
+        <v>13</v>
+      </c>
+      <c r="E933" t="s">
+        <v>55</v>
+      </c>
+      <c r="F933">
+        <v>1</v>
+      </c>
+      <c r="G933">
+        <v>1</v>
+      </c>
+      <c r="H933">
+        <v>63513990894454.703</v>
+      </c>
+      <c r="I933">
+        <v>0.183</v>
+      </c>
+      <c r="J933">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="K933">
+        <v>0</v>
+      </c>
+      <c r="L933">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="934" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A934" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B934" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C934" t="s">
+        <v>13</v>
+      </c>
+      <c r="D934" t="s">
+        <v>13</v>
+      </c>
+      <c r="E934" t="s">
+        <v>55</v>
+      </c>
+      <c r="F934">
+        <v>1</v>
+      </c>
+      <c r="G934">
+        <v>2</v>
+      </c>
+      <c r="H934">
+        <v>8951.5120000000006</v>
+      </c>
+      <c r="I934">
+        <v>0.1799</v>
+      </c>
+      <c r="J934">
+        <v>2.1368999999999998</v>
+      </c>
+      <c r="K934">
+        <v>0</v>
+      </c>
+      <c r="L934">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="935" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A935" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B935" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C935" t="s">
+        <v>13</v>
+      </c>
+      <c r="D935" t="s">
+        <v>13</v>
+      </c>
+      <c r="E935" t="s">
+        <v>55</v>
+      </c>
+      <c r="F935">
+        <v>2</v>
+      </c>
+      <c r="G935">
+        <v>0</v>
+      </c>
+      <c r="H935">
+        <v>4045.2312999999999</v>
+      </c>
+      <c r="I935">
+        <v>0.27260000000000001</v>
+      </c>
+      <c r="J935">
+        <v>0.44409999999999999</v>
+      </c>
+      <c r="K935">
+        <v>0</v>
+      </c>
+      <c r="L935">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="936" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A936" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B936" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C936" t="s">
+        <v>13</v>
+      </c>
+      <c r="D936" t="s">
+        <v>13</v>
+      </c>
+      <c r="E936" t="s">
+        <v>55</v>
+      </c>
+      <c r="F936">
+        <v>2</v>
+      </c>
+      <c r="G936">
+        <v>1</v>
+      </c>
+      <c r="H936">
+        <v>3351.1916999999999</v>
+      </c>
+      <c r="I936">
+        <v>0.217</v>
+      </c>
+      <c r="J936">
+        <v>0</v>
+      </c>
+      <c r="K936">
+        <v>0</v>
+      </c>
+      <c r="L936">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="937" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A937" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B937" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C937" t="s">
+        <v>13</v>
+      </c>
+      <c r="D937" t="s">
+        <v>13</v>
+      </c>
+      <c r="E937" t="s">
+        <v>55</v>
+      </c>
+      <c r="F937">
+        <v>2</v>
+      </c>
+      <c r="G937">
+        <v>2</v>
+      </c>
+      <c r="H937">
+        <v>7411.424</v>
+      </c>
+      <c r="I937">
+        <v>0.1789</v>
+      </c>
+      <c r="J937">
+        <v>0.44069999999999998</v>
+      </c>
+      <c r="K937">
+        <v>0</v>
+      </c>
+      <c r="L937">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="938" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A938" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B938" s="1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C938" t="s">
+        <v>13</v>
+      </c>
+      <c r="D938" t="s">
+        <v>54</v>
+      </c>
+      <c r="E938" t="s">
+        <v>14</v>
+      </c>
+      <c r="F938">
+        <v>0</v>
+      </c>
+      <c r="G938">
+        <v>0</v>
+      </c>
+      <c r="H938">
+        <v>20084.148799999999</v>
+      </c>
+      <c r="I938">
+        <v>9.7100000000000006E-2</v>
+      </c>
+      <c r="J938">
+        <v>8.7879000000000005</v>
+      </c>
+      <c r="K938">
+        <v>1.7978000000000001</v>
+      </c>
+      <c r="L938">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="939" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A939" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B939" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C939" t="s">
+        <v>13</v>
+      </c>
+      <c r="D939" t="s">
+        <v>54</v>
+      </c>
+      <c r="E939" t="s">
+        <v>14</v>
+      </c>
+      <c r="F939">
+        <v>0</v>
+      </c>
+      <c r="G939">
+        <v>1</v>
+      </c>
+      <c r="H939">
+        <v>16135.923000000001</v>
+      </c>
+      <c r="I939">
+        <v>0</v>
+      </c>
+      <c r="J939">
+        <v>0.96630000000000005</v>
+      </c>
+      <c r="K939">
+        <v>2.3677000000000001</v>
+      </c>
+      <c r="L939">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="940" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A940" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B940" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C940" t="s">
+        <v>13</v>
+      </c>
+      <c r="D940" t="s">
+        <v>54</v>
+      </c>
+      <c r="E940" t="s">
+        <v>14</v>
+      </c>
+      <c r="F940">
+        <v>0</v>
+      </c>
+      <c r="G940">
+        <v>2</v>
+      </c>
+      <c r="H940">
+        <v>13694.783299999999</v>
+      </c>
+      <c r="I940">
+        <v>9.9699999999999997E-2</v>
+      </c>
+      <c r="J940">
+        <v>3.2397</v>
+      </c>
+      <c r="K940">
+        <v>1.9528000000000001</v>
+      </c>
+      <c r="L940">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="941" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A941" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B941" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C941" t="s">
+        <v>13</v>
+      </c>
+      <c r="D941" t="s">
+        <v>54</v>
+      </c>
+      <c r="E941" t="s">
+        <v>14</v>
+      </c>
+      <c r="F941">
+        <v>1</v>
+      </c>
+      <c r="G941">
+        <v>0</v>
+      </c>
+      <c r="H941">
+        <v>9699.5547999999999</v>
+      </c>
+      <c r="I941">
+        <v>0.1225</v>
+      </c>
+      <c r="J941">
+        <v>8.1891999999999996</v>
+      </c>
+      <c r="K941">
+        <v>1.8331999999999999</v>
+      </c>
+      <c r="L941">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="942" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A942" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B942" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C942" t="s">
+        <v>13</v>
+      </c>
+      <c r="D942" t="s">
+        <v>54</v>
+      </c>
+      <c r="E942" t="s">
+        <v>14</v>
+      </c>
+      <c r="F942">
+        <v>1</v>
+      </c>
+      <c r="G942">
+        <v>1</v>
+      </c>
+      <c r="H942">
+        <v>9955.5694000000003</v>
+      </c>
+      <c r="I942">
+        <v>0.53680000000000005</v>
+      </c>
+      <c r="J942">
+        <v>2.7052</v>
+      </c>
+      <c r="K942">
+        <v>2.1842999999999999</v>
+      </c>
+      <c r="L942">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="943" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A943" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B943" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C943" t="s">
+        <v>13</v>
+      </c>
+      <c r="D943" t="s">
+        <v>54</v>
+      </c>
+      <c r="E943" t="s">
+        <v>14</v>
+      </c>
+      <c r="F943">
+        <v>1</v>
+      </c>
+      <c r="G943">
+        <v>2</v>
+      </c>
+      <c r="H943">
+        <v>22111.2647</v>
+      </c>
+      <c r="I943">
+        <v>0.1013</v>
+      </c>
+      <c r="J943">
+        <v>0.72870000000000001</v>
+      </c>
+      <c r="K943">
+        <v>1.4776</v>
+      </c>
+      <c r="L943">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="944" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A944" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B944" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C944" t="s">
+        <v>13</v>
+      </c>
+      <c r="D944" t="s">
+        <v>54</v>
+      </c>
+      <c r="E944" t="s">
+        <v>14</v>
+      </c>
+      <c r="F944">
+        <v>2</v>
+      </c>
+      <c r="G944">
+        <v>0</v>
+      </c>
+      <c r="H944">
+        <v>8831.5051000000003</v>
+      </c>
+      <c r="I944">
+        <v>0</v>
+      </c>
+      <c r="J944">
+        <v>1.2729999999999999</v>
+      </c>
+      <c r="K944">
+        <v>1.3972</v>
+      </c>
+      <c r="L944">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="945" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A945" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B945" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C945" t="s">
+        <v>13</v>
+      </c>
+      <c r="D945" t="s">
+        <v>54</v>
+      </c>
+      <c r="E945" t="s">
+        <v>14</v>
+      </c>
+      <c r="F945">
+        <v>2</v>
+      </c>
+      <c r="G945">
+        <v>1</v>
+      </c>
+      <c r="H945">
+        <v>7129.4078</v>
+      </c>
+      <c r="I945">
+        <v>0.1118</v>
+      </c>
+      <c r="J945">
+        <v>0.87670000000000003</v>
+      </c>
+      <c r="K945">
+        <v>1.4898</v>
+      </c>
+      <c r="L945">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="946" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A946" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B946" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C946" t="s">
+        <v>13</v>
+      </c>
+      <c r="D946" t="s">
+        <v>54</v>
+      </c>
+      <c r="E946" t="s">
+        <v>14</v>
+      </c>
+      <c r="F946">
+        <v>2</v>
+      </c>
+      <c r="G946">
+        <v>2</v>
+      </c>
+      <c r="H946">
+        <v>8850.5061999999998</v>
+      </c>
+      <c r="I946">
+        <v>0.1293</v>
+      </c>
+      <c r="J946">
+        <v>0.8206</v>
+      </c>
+      <c r="K946">
+        <v>1.3431999999999999</v>
+      </c>
+      <c r="L946">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="947" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A947" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B947" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C947" t="s">
+        <v>13</v>
+      </c>
+      <c r="D947" t="s">
+        <v>13</v>
+      </c>
+      <c r="E947" t="s">
+        <v>14</v>
+      </c>
+      <c r="F947">
+        <v>0</v>
+      </c>
+      <c r="G947">
+        <v>0</v>
+      </c>
+      <c r="H947">
+        <v>7319.4186</v>
+      </c>
+      <c r="I947">
+        <v>0.31009999999999999</v>
+      </c>
+      <c r="J947">
+        <v>1.1233</v>
+      </c>
+      <c r="K947">
+        <v>0</v>
+      </c>
+      <c r="L947">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="948" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A948" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B948" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C948" t="s">
+        <v>13</v>
+      </c>
+      <c r="D948" t="s">
+        <v>13</v>
+      </c>
+      <c r="E948" t="s">
+        <v>14</v>
+      </c>
+      <c r="F948">
+        <v>0</v>
+      </c>
+      <c r="G948">
+        <v>1</v>
+      </c>
+      <c r="H948">
+        <v>9155.5236999999997</v>
+      </c>
+      <c r="I948">
+        <v>0.2339</v>
+      </c>
+      <c r="J948">
+        <v>0.85189999999999999</v>
+      </c>
+      <c r="K948">
+        <v>0</v>
+      </c>
+      <c r="L948">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="949" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A949" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B949" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C949" t="s">
+        <v>13</v>
+      </c>
+      <c r="D949" t="s">
+        <v>13</v>
+      </c>
+      <c r="E949" t="s">
+        <v>14</v>
+      </c>
+      <c r="F949">
+        <v>0</v>
+      </c>
+      <c r="G949">
+        <v>2</v>
+      </c>
+      <c r="H949">
+        <v>63513991176779.898</v>
+      </c>
+      <c r="I949">
+        <v>0.13489999999999999</v>
+      </c>
+      <c r="J949">
+        <v>3.3246000000000002</v>
+      </c>
+      <c r="K949">
+        <v>0</v>
+      </c>
+      <c r="L949">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="950" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A950" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B950" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C950" t="s">
+        <v>13</v>
+      </c>
+      <c r="D950" t="s">
+        <v>13</v>
+      </c>
+      <c r="E950" t="s">
+        <v>14</v>
+      </c>
+      <c r="F950">
+        <v>1</v>
+      </c>
+      <c r="G950">
+        <v>0</v>
+      </c>
+      <c r="H950">
+        <v>7731.4422000000004</v>
+      </c>
+      <c r="I950">
+        <v>0.1215</v>
+      </c>
+      <c r="J950">
+        <v>0.25929999999999997</v>
+      </c>
+      <c r="K950">
+        <v>0</v>
+      </c>
+      <c r="L950">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="951" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A951" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B951" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C951" t="s">
+        <v>13</v>
+      </c>
+      <c r="D951" t="s">
+        <v>13</v>
+      </c>
+      <c r="E951" t="s">
+        <v>14</v>
+      </c>
+      <c r="F951">
+        <v>1</v>
+      </c>
+      <c r="G951">
+        <v>1</v>
+      </c>
+      <c r="H951">
+        <v>2704.1545999999998</v>
+      </c>
+      <c r="I951">
+        <v>0.22140000000000001</v>
+      </c>
+      <c r="J951">
+        <v>0.83179999999999998</v>
+      </c>
+      <c r="K951">
+        <v>0</v>
+      </c>
+      <c r="L951">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="952" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A952" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B952" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C952" t="s">
+        <v>13</v>
+      </c>
+      <c r="D952" t="s">
+        <v>13</v>
+      </c>
+      <c r="E952" t="s">
+        <v>14</v>
+      </c>
+      <c r="F952">
+        <v>1</v>
+      </c>
+      <c r="G952">
+        <v>2</v>
+      </c>
+      <c r="H952">
+        <v>2444.1397999999999</v>
+      </c>
+      <c r="I952">
+        <v>7.3200000000000001E-2</v>
+      </c>
+      <c r="J952">
+        <v>2.0886999999999998</v>
+      </c>
+      <c r="K952">
+        <v>0</v>
+      </c>
+      <c r="L952">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="953" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A953" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B953" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C953" t="s">
+        <v>13</v>
+      </c>
+      <c r="D953" t="s">
+        <v>13</v>
+      </c>
+      <c r="E953" t="s">
+        <v>14</v>
+      </c>
+      <c r="F953">
+        <v>2</v>
+      </c>
+      <c r="G953">
+        <v>0</v>
+      </c>
+      <c r="H953">
+        <v>5583.3193000000001</v>
+      </c>
+      <c r="I953">
+        <v>0.22009999999999999</v>
+      </c>
+      <c r="J953">
+        <v>0.28360000000000002</v>
+      </c>
+      <c r="K953">
+        <v>0</v>
+      </c>
+      <c r="L953">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="954" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A954" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B954" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C954" t="s">
+        <v>13</v>
+      </c>
+      <c r="D954" t="s">
+        <v>13</v>
+      </c>
+      <c r="E954" t="s">
+        <v>14</v>
+      </c>
+      <c r="F954">
+        <v>2</v>
+      </c>
+      <c r="G954">
+        <v>1</v>
+      </c>
+      <c r="H954">
+        <v>8650.4946999999993</v>
+      </c>
+      <c r="I954">
+        <v>0.2447</v>
+      </c>
+      <c r="J954">
+        <v>2.7210000000000001</v>
+      </c>
+      <c r="K954">
+        <v>0</v>
+      </c>
+      <c r="L954">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="955" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A955" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B955" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C955" t="s">
+        <v>13</v>
+      </c>
+      <c r="D955" t="s">
+        <v>13</v>
+      </c>
+      <c r="E955" t="s">
+        <v>14</v>
+      </c>
+      <c r="F955">
+        <v>2</v>
+      </c>
+      <c r="G955">
+        <v>2</v>
+      </c>
+      <c r="H955">
+        <v>7983.4566000000004</v>
+      </c>
+      <c r="I955">
+        <v>0.1222</v>
+      </c>
+      <c r="J955">
+        <v>1.0051000000000001</v>
+      </c>
+      <c r="K955">
+        <v>0</v>
+      </c>
+      <c r="L955">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="956" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A956" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B956" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C956" t="s">
+        <v>13</v>
+      </c>
+      <c r="D956" t="s">
+        <v>54</v>
+      </c>
+      <c r="E956" t="s">
+        <v>55</v>
+      </c>
+      <c r="F956">
+        <v>0</v>
+      </c>
+      <c r="G956">
+        <v>0</v>
+      </c>
+      <c r="H956">
+        <v>18620.064999999999</v>
+      </c>
+      <c r="I956">
+        <v>0.20660000000000001</v>
+      </c>
+      <c r="J956">
+        <v>8.1058000000000003</v>
+      </c>
+      <c r="K956">
+        <v>2.2368000000000001</v>
+      </c>
+      <c r="L956">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="957" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A957" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B957" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C957" t="s">
+        <v>13</v>
+      </c>
+      <c r="D957" t="s">
+        <v>54</v>
+      </c>
+      <c r="E957" t="s">
+        <v>55</v>
+      </c>
+      <c r="F957">
+        <v>0</v>
+      </c>
+      <c r="G957">
+        <v>1</v>
+      </c>
+      <c r="H957">
+        <v>12371.707700000001</v>
+      </c>
+      <c r="I957">
+        <v>0.1847</v>
+      </c>
+      <c r="J957">
+        <v>1.1108</v>
+      </c>
+      <c r="K957">
+        <v>1.3892</v>
+      </c>
+      <c r="L957">
+        <v>2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="958" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A958" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B958" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C958" t="s">
+        <v>13</v>
+      </c>
+      <c r="D958" t="s">
+        <v>54</v>
+      </c>
+      <c r="E958" t="s">
+        <v>55</v>
+      </c>
+      <c r="F958">
+        <v>0</v>
+      </c>
+      <c r="G958">
+        <v>2</v>
+      </c>
+      <c r="H958">
+        <v>12279.702300000001</v>
+      </c>
+      <c r="I958">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="J958">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="K958">
+        <v>2.1741999999999999</v>
+      </c>
+      <c r="L958">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="959" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A959" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B959" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C959" t="s">
+        <v>13</v>
+      </c>
+      <c r="D959" t="s">
+        <v>54</v>
+      </c>
+      <c r="E959" t="s">
+        <v>55</v>
+      </c>
+      <c r="F959">
+        <v>1</v>
+      </c>
+      <c r="G959">
+        <v>0</v>
+      </c>
+      <c r="H959">
+        <v>27807.590499999998</v>
+      </c>
+      <c r="I959">
+        <v>0.25840000000000002</v>
+      </c>
+      <c r="J959">
+        <v>4.9612999999999996</v>
+      </c>
+      <c r="K959">
+        <v>2.5811000000000002</v>
+      </c>
+      <c r="L959">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="960" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A960" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B960" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C960" t="s">
+        <v>13</v>
+      </c>
+      <c r="D960" t="s">
+        <v>54</v>
+      </c>
+      <c r="E960" t="s">
+        <v>55</v>
+      </c>
+      <c r="F960">
+        <v>1</v>
+      </c>
+      <c r="G960">
+        <v>1</v>
+      </c>
+      <c r="H960">
+        <v>14714.841700000001</v>
+      </c>
+      <c r="I960">
+        <v>0.1789</v>
+      </c>
+      <c r="J960">
+        <v>3.1E-2</v>
+      </c>
+      <c r="K960">
+        <v>2.8405</v>
+      </c>
+      <c r="L960">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="961" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A961" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B961" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C961" t="s">
+        <v>13</v>
+      </c>
+      <c r="D961" t="s">
+        <v>54</v>
+      </c>
+      <c r="E961" t="s">
+        <v>55</v>
+      </c>
+      <c r="F961">
+        <v>1</v>
+      </c>
+      <c r="G961">
+        <v>2</v>
+      </c>
+      <c r="H961">
+        <v>11002.629300000001</v>
+      </c>
+      <c r="I961">
+        <v>0.18909999999999999</v>
+      </c>
+      <c r="J961">
+        <v>0.34520000000000001</v>
+      </c>
+      <c r="K961">
+        <v>2.0929000000000002</v>
+      </c>
+      <c r="L961">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="962" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A962" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B962" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C962" t="s">
+        <v>13</v>
+      </c>
+      <c r="D962" t="s">
+        <v>54</v>
+      </c>
+      <c r="E962" t="s">
+        <v>55</v>
+      </c>
+      <c r="F962">
+        <v>2</v>
+      </c>
+      <c r="G962">
+        <v>0</v>
+      </c>
+      <c r="H962">
+        <v>7948.4546</v>
+      </c>
+      <c r="I962">
+        <v>0.1258</v>
+      </c>
+      <c r="J962">
+        <v>1.0809</v>
+      </c>
+      <c r="K962">
+        <v>1.5889</v>
+      </c>
+      <c r="L962">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="963" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A963" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B963" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C963" t="s">
+        <v>13</v>
+      </c>
+      <c r="D963" t="s">
+        <v>54</v>
+      </c>
+      <c r="E963" t="s">
+        <v>55</v>
+      </c>
+      <c r="F963">
+        <v>2</v>
+      </c>
+      <c r="G963">
+        <v>1</v>
+      </c>
+      <c r="H963">
+        <v>9115.5213000000003</v>
+      </c>
+      <c r="I963">
+        <v>0.17810000000000001</v>
+      </c>
+      <c r="J963">
+        <v>0.83030000000000004</v>
+      </c>
+      <c r="K963">
+        <v>1.7649999999999999</v>
+      </c>
+      <c r="L963">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="964" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A964" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B964" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C964" t="s">
+        <v>13</v>
+      </c>
+      <c r="D964" t="s">
+        <v>54</v>
+      </c>
+      <c r="E964" t="s">
+        <v>55</v>
+      </c>
+      <c r="F964">
+        <v>2</v>
+      </c>
+      <c r="G964">
+        <v>2</v>
+      </c>
+      <c r="H964">
+        <v>6592.3770999999997</v>
+      </c>
+      <c r="I964">
+        <v>0.16950000000000001</v>
+      </c>
+      <c r="J964">
+        <v>2.5670000000000002</v>
+      </c>
+      <c r="K964">
+        <v>1.9986999999999999</v>
+      </c>
+      <c r="L964">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="965" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A965" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B965" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C965" t="s">
+        <v>13</v>
+      </c>
+      <c r="D965" t="s">
+        <v>13</v>
+      </c>
+      <c r="E965" t="s">
+        <v>35</v>
+      </c>
+      <c r="F965">
+        <v>0</v>
+      </c>
+      <c r="G965">
+        <v>0</v>
+      </c>
+      <c r="H965">
+        <v>9323.5332999999991</v>
+      </c>
+      <c r="I965">
+        <v>0.34849999999999998</v>
+      </c>
+      <c r="J965">
+        <v>0.58460000000000001</v>
+      </c>
+      <c r="K965">
+        <v>0</v>
+      </c>
+      <c r="L965">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="966" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A966" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B966" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C966" t="s">
+        <v>13</v>
+      </c>
+      <c r="D966" t="s">
+        <v>13</v>
+      </c>
+      <c r="E966" t="s">
+        <v>35</v>
+      </c>
+      <c r="F966">
+        <v>0</v>
+      </c>
+      <c r="G966">
+        <v>1</v>
+      </c>
+      <c r="H966">
+        <v>9295.5316000000003</v>
+      </c>
+      <c r="I966">
+        <v>0.27139999999999997</v>
+      </c>
+      <c r="J966">
+        <v>2.3858999999999999</v>
+      </c>
+      <c r="K966">
+        <v>0</v>
+      </c>
+      <c r="L966">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="967" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A967" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B967" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C967" t="s">
+        <v>13</v>
+      </c>
+      <c r="D967" t="s">
+        <v>13</v>
+      </c>
+      <c r="E967" t="s">
+        <v>35</v>
+      </c>
+      <c r="F967">
+        <v>0</v>
+      </c>
+      <c r="G967">
+        <v>2</v>
+      </c>
+      <c r="H967">
+        <v>3327.1903000000002</v>
+      </c>
+      <c r="I967">
+        <v>0.24410000000000001</v>
+      </c>
+      <c r="J967">
+        <v>3.5966999999999998</v>
+      </c>
+      <c r="K967">
+        <v>0</v>
+      </c>
+      <c r="L967">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="968" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A968" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B968" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C968" t="s">
+        <v>13</v>
+      </c>
+      <c r="D968" t="s">
+        <v>13</v>
+      </c>
+      <c r="E968" t="s">
+        <v>35</v>
+      </c>
+      <c r="F968">
+        <v>1</v>
+      </c>
+      <c r="G968">
+        <v>0</v>
+      </c>
+      <c r="H968">
+        <v>10831.619500000001</v>
+      </c>
+      <c r="I968">
+        <v>0.39739999999999998</v>
+      </c>
+      <c r="J968">
+        <v>2.9424999999999999</v>
+      </c>
+      <c r="K968">
+        <v>0</v>
+      </c>
+      <c r="L968">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="969" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A969" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B969" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C969" t="s">
+        <v>13</v>
+      </c>
+      <c r="D969" t="s">
+        <v>13</v>
+      </c>
+      <c r="E969" t="s">
+        <v>35</v>
+      </c>
+      <c r="F969">
+        <v>1</v>
+      </c>
+      <c r="G969">
+        <v>1</v>
+      </c>
+      <c r="H969">
+        <v>7586.4339</v>
+      </c>
+      <c r="I969">
+        <v>0.64910000000000001</v>
+      </c>
+      <c r="J969">
+        <v>1.8648</v>
+      </c>
+      <c r="K969">
+        <v>0</v>
+      </c>
+      <c r="L969">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="970" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A970" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B970" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C970" t="s">
+        <v>13</v>
+      </c>
+      <c r="D970" t="s">
+        <v>13</v>
+      </c>
+      <c r="E970" t="s">
+        <v>35</v>
+      </c>
+      <c r="F970">
+        <v>1</v>
+      </c>
+      <c r="G970">
+        <v>2</v>
+      </c>
+      <c r="H970">
+        <v>6304.3606</v>
+      </c>
+      <c r="I970">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="J970">
+        <v>7.8E-2</v>
+      </c>
+      <c r="K970">
+        <v>0</v>
+      </c>
+      <c r="L970">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="971" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A971" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B971" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C971" t="s">
+        <v>13</v>
+      </c>
+      <c r="D971" t="s">
+        <v>13</v>
+      </c>
+      <c r="E971" t="s">
+        <v>35</v>
+      </c>
+      <c r="F971">
+        <v>2</v>
+      </c>
+      <c r="G971">
+        <v>0</v>
+      </c>
+      <c r="H971">
+        <v>12731.7282</v>
+      </c>
+      <c r="I971">
+        <v>0.49640000000000001</v>
+      </c>
+      <c r="J971">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="K971">
+        <v>0</v>
+      </c>
+      <c r="L971">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="972" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A972" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B972" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C972" t="s">
+        <v>13</v>
+      </c>
+      <c r="D972" t="s">
+        <v>13</v>
+      </c>
+      <c r="E972" t="s">
+        <v>35</v>
+      </c>
+      <c r="F972">
+        <v>2</v>
+      </c>
+      <c r="G972">
+        <v>1</v>
+      </c>
+      <c r="H972">
+        <v>6755.3864000000003</v>
+      </c>
+      <c r="I972">
+        <v>0.2656</v>
+      </c>
+      <c r="J972">
+        <v>1.2018</v>
+      </c>
+      <c r="K972">
+        <v>0</v>
+      </c>
+      <c r="L972">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="973" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A973" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B973" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C973" t="s">
+        <v>13</v>
+      </c>
+      <c r="D973" t="s">
+        <v>13</v>
+      </c>
+      <c r="E973" t="s">
+        <v>35</v>
+      </c>
+      <c r="F973">
+        <v>2</v>
+      </c>
+      <c r="G973">
+        <v>2</v>
+      </c>
+      <c r="H973">
+        <v>5256.3005999999996</v>
+      </c>
+      <c r="I973">
+        <v>0.57069999999999999</v>
+      </c>
+      <c r="J973">
+        <v>0.21460000000000001</v>
+      </c>
+      <c r="K973">
+        <v>0</v>
+      </c>
+      <c r="L973">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="974" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A974" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B974" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C974" t="s">
+        <v>74</v>
+      </c>
+      <c r="D974" t="s">
+        <v>54</v>
+      </c>
+      <c r="E974" t="s">
+        <v>55</v>
+      </c>
+      <c r="F974">
+        <v>0</v>
+      </c>
+      <c r="G974">
+        <v>0</v>
+      </c>
+      <c r="H974">
+        <v>12230.699500000001</v>
+      </c>
+      <c r="I974">
+        <v>6.8099999999999994E-2</v>
+      </c>
+      <c r="J974">
+        <v>3.5384000000000002</v>
+      </c>
+      <c r="K974">
+        <v>2.3329</v>
+      </c>
+      <c r="L974">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="975" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A975" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B975" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C975" t="s">
+        <v>74</v>
+      </c>
+      <c r="D975" t="s">
+        <v>54</v>
+      </c>
+      <c r="E975" t="s">
+        <v>55</v>
+      </c>
+      <c r="F975">
+        <v>0</v>
+      </c>
+      <c r="G975">
+        <v>1</v>
+      </c>
+      <c r="H975">
+        <v>14239.8145</v>
+      </c>
+      <c r="I975">
+        <v>0.1368</v>
+      </c>
+      <c r="J975">
+        <v>0.16170000000000001</v>
+      </c>
+      <c r="K975">
+        <v>1.8247</v>
+      </c>
+      <c r="L975">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="976" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A976" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B976" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C976" t="s">
+        <v>74</v>
+      </c>
+      <c r="D976" t="s">
+        <v>54</v>
+      </c>
+      <c r="E976" t="s">
+        <v>55</v>
+      </c>
+      <c r="F976">
+        <v>0</v>
+      </c>
+      <c r="G976">
+        <v>2</v>
+      </c>
+      <c r="H976">
+        <v>10003.572200000001</v>
+      </c>
+      <c r="I976">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="J976">
+        <v>1.7704</v>
+      </c>
+      <c r="K976">
+        <v>2.2745000000000002</v>
+      </c>
+      <c r="L976">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="977" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A977" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B977" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C977" t="s">
+        <v>74</v>
+      </c>
+      <c r="D977" t="s">
+        <v>54</v>
+      </c>
+      <c r="E977" t="s">
+        <v>55</v>
+      </c>
+      <c r="F977">
+        <v>1</v>
+      </c>
+      <c r="G977">
+        <v>0</v>
+      </c>
+      <c r="H977">
+        <v>4435.2537000000002</v>
+      </c>
+      <c r="I977">
+        <v>5.2699999999999997E-2</v>
+      </c>
+      <c r="J977">
+        <v>0.91790000000000005</v>
+      </c>
+      <c r="K977">
+        <v>1.7963</v>
+      </c>
+      <c r="L977">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="978" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A978" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B978" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C978" t="s">
+        <v>74</v>
+      </c>
+      <c r="D978" t="s">
+        <v>54</v>
+      </c>
+      <c r="E978" t="s">
+        <v>55</v>
+      </c>
+      <c r="F978">
+        <v>1</v>
+      </c>
+      <c r="G978">
+        <v>1</v>
+      </c>
+      <c r="H978">
+        <v>10943.626</v>
+      </c>
+      <c r="I978">
+        <v>7.3899999999999993E-2</v>
+      </c>
+      <c r="J978">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="K978">
+        <v>1.8051999999999999</v>
+      </c>
+      <c r="L978">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="979" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A979" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B979" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C979" t="s">
+        <v>74</v>
+      </c>
+      <c r="D979" t="s">
+        <v>54</v>
+      </c>
+      <c r="E979" t="s">
+        <v>55</v>
+      </c>
+      <c r="F979">
+        <v>1</v>
+      </c>
+      <c r="G979">
+        <v>2</v>
+      </c>
+      <c r="H979">
+        <v>9741.5571999999993</v>
+      </c>
+      <c r="I979">
+        <v>0.10539999999999999</v>
+      </c>
+      <c r="J979">
+        <v>2.714</v>
+      </c>
+      <c r="K979">
+        <v>1.8192999999999999</v>
+      </c>
+      <c r="L979">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="980" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A980" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B980" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C980" t="s">
+        <v>74</v>
+      </c>
+      <c r="D980" t="s">
+        <v>54</v>
+      </c>
+      <c r="E980" t="s">
+        <v>55</v>
+      </c>
+      <c r="F980">
+        <v>2</v>
+      </c>
+      <c r="G980">
+        <v>0</v>
+      </c>
+      <c r="H980">
+        <v>8743.5000999999993</v>
+      </c>
+      <c r="I980">
+        <v>7.4499999999999997E-2</v>
+      </c>
+      <c r="J980">
+        <v>1.4961</v>
+      </c>
+      <c r="K980">
+        <v>2.3054000000000001</v>
+      </c>
+      <c r="L980">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="981" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A981" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B981" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C981" t="s">
+        <v>74</v>
+      </c>
+      <c r="D981" t="s">
+        <v>54</v>
+      </c>
+      <c r="E981" t="s">
+        <v>55</v>
+      </c>
+      <c r="F981">
+        <v>2</v>
+      </c>
+      <c r="G981">
+        <v>1</v>
+      </c>
+      <c r="H981">
+        <v>9702.5548999999992</v>
+      </c>
+      <c r="I981">
+        <v>0.1181</v>
+      </c>
+      <c r="J981">
+        <v>0.38</v>
+      </c>
+      <c r="K981">
+        <v>1.8234999999999999</v>
+      </c>
+      <c r="L981">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="982" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A982" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B982" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C982" t="s">
+        <v>74</v>
+      </c>
+      <c r="D982" t="s">
+        <v>54</v>
+      </c>
+      <c r="E982" t="s">
+        <v>55</v>
+      </c>
+      <c r="F982">
+        <v>2</v>
+      </c>
+      <c r="G982">
+        <v>2</v>
+      </c>
+      <c r="H982">
+        <v>5975.3416999999999</v>
+      </c>
+      <c r="I982">
+        <v>8.6499999999999994E-2</v>
+      </c>
+      <c r="J982">
+        <v>0.33989999999999998</v>
+      </c>
+      <c r="K982">
+        <v>2.3624999999999998</v>
+      </c>
+      <c r="L982">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="983" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A983" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B983" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C983" t="s">
+        <v>74</v>
+      </c>
+      <c r="D983" t="s">
+        <v>54</v>
+      </c>
+      <c r="E983" t="s">
+        <v>14</v>
+      </c>
+      <c r="F983">
+        <v>0</v>
+      </c>
+      <c r="G983">
+        <v>0</v>
+      </c>
+      <c r="H983">
+        <v>16257.929899999999</v>
+      </c>
+      <c r="I983">
+        <v>9.6199999999999994E-2</v>
+      </c>
+      <c r="J983">
+        <v>0.93779999999999997</v>
+      </c>
+      <c r="K983">
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="L983">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="984" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A984" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B984" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C984" t="s">
+        <v>74</v>
+      </c>
+      <c r="D984" t="s">
+        <v>54</v>
+      </c>
+      <c r="E984" t="s">
+        <v>14</v>
+      </c>
+      <c r="F984">
+        <v>0</v>
+      </c>
+      <c r="G984">
+        <v>1</v>
+      </c>
+      <c r="H984">
+        <v>10443.597400000001</v>
+      </c>
+      <c r="I984">
+        <v>5.0900000000000001E-2</v>
+      </c>
+      <c r="J984">
+        <v>0.82240000000000002</v>
+      </c>
+      <c r="K984">
+        <v>1.5986</v>
+      </c>
+      <c r="L984">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="985" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A985" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B985" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C985" t="s">
+        <v>74</v>
+      </c>
+      <c r="D985" t="s">
+        <v>54</v>
+      </c>
+      <c r="E985" t="s">
+        <v>14</v>
+      </c>
+      <c r="F985">
+        <v>0</v>
+      </c>
+      <c r="G985">
+        <v>2</v>
+      </c>
+      <c r="H985">
+        <v>7677.4390999999996</v>
+      </c>
+      <c r="I985">
+        <v>0.1193</v>
+      </c>
+      <c r="J985">
+        <v>0.5232</v>
+      </c>
+      <c r="K985">
+        <v>1.5607</v>
+      </c>
+      <c r="L985">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="986" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A986" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B986" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C986" t="s">
+        <v>74</v>
+      </c>
+      <c r="D986" t="s">
+        <v>54</v>
+      </c>
+      <c r="E986" t="s">
+        <v>14</v>
+      </c>
+      <c r="F986">
+        <v>1</v>
+      </c>
+      <c r="G986">
+        <v>0</v>
+      </c>
+      <c r="H986">
+        <v>5687.3253000000004</v>
+      </c>
+      <c r="I986">
+        <v>0.1206</v>
+      </c>
+      <c r="J986">
+        <v>0.43559999999999999</v>
+      </c>
+      <c r="K986">
+        <v>1.4706999999999999</v>
+      </c>
+      <c r="L986">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="987" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A987" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B987" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C987" t="s">
+        <v>74</v>
+      </c>
+      <c r="D987" t="s">
+        <v>54</v>
+      </c>
+      <c r="E987" t="s">
+        <v>14</v>
+      </c>
+      <c r="F987">
+        <v>1</v>
+      </c>
+      <c r="G987">
+        <v>1</v>
+      </c>
+      <c r="H987">
+        <v>5528.3163000000004</v>
+      </c>
+      <c r="I987">
+        <v>0.11020000000000001</v>
+      </c>
+      <c r="J987">
+        <v>0.38679999999999998</v>
+      </c>
+      <c r="K987">
+        <v>1.5831999999999999</v>
+      </c>
+      <c r="L987">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="988" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A988" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B988" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C988" t="s">
+        <v>74</v>
+      </c>
+      <c r="D988" t="s">
+        <v>54</v>
+      </c>
+      <c r="E988" t="s">
+        <v>14</v>
+      </c>
+      <c r="F988">
+        <v>1</v>
+      </c>
+      <c r="G988">
+        <v>2</v>
+      </c>
+      <c r="H988">
+        <v>8491.4856</v>
+      </c>
+      <c r="I988">
+        <v>8.5099999999999995E-2</v>
+      </c>
+      <c r="J988">
+        <v>0.59960000000000002</v>
+      </c>
+      <c r="K988">
+        <v>1.5495000000000001</v>
+      </c>
+      <c r="L988">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="989" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A989" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B989" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C989" t="s">
+        <v>74</v>
+      </c>
+      <c r="D989" t="s">
+        <v>54</v>
+      </c>
+      <c r="E989" t="s">
+        <v>14</v>
+      </c>
+      <c r="F989">
+        <v>2</v>
+      </c>
+      <c r="G989">
+        <v>0</v>
+      </c>
+      <c r="H989">
+        <v>10803.618</v>
+      </c>
+      <c r="I989">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="J989">
+        <v>0.21909999999999999</v>
+      </c>
+      <c r="K989">
+        <v>1.4990000000000001</v>
+      </c>
+      <c r="L989">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="990" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A990" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B990" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C990" t="s">
+        <v>74</v>
+      </c>
+      <c r="D990" t="s">
+        <v>54</v>
+      </c>
+      <c r="E990" t="s">
+        <v>14</v>
+      </c>
+      <c r="F990">
+        <v>2</v>
+      </c>
+      <c r="G990">
+        <v>1</v>
+      </c>
+      <c r="H990">
+        <v>9240.5285000000003</v>
+      </c>
+      <c r="I990">
+        <v>7.5800000000000006E-2</v>
+      </c>
+      <c r="J990">
+        <v>0.28260000000000002</v>
+      </c>
+      <c r="K990">
+        <v>1.4548000000000001</v>
+      </c>
+      <c r="L990">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="991" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A991" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B991" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C991" t="s">
+        <v>74</v>
+      </c>
+      <c r="D991" t="s">
+        <v>54</v>
+      </c>
+      <c r="E991" t="s">
+        <v>14</v>
+      </c>
+      <c r="F991">
+        <v>2</v>
+      </c>
+      <c r="G991">
+        <v>2</v>
+      </c>
+      <c r="H991">
+        <v>10407.595300000001</v>
+      </c>
+      <c r="I991">
+        <v>6.6600000000000006E-2</v>
+      </c>
+      <c r="J991">
+        <v>2.6947000000000001</v>
+      </c>
+      <c r="K991">
+        <v>1.6413</v>
+      </c>
+      <c r="L991">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="992" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A992" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B992" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C992" t="s">
+        <v>74</v>
+      </c>
+      <c r="D992" t="s">
+        <v>13</v>
+      </c>
+      <c r="E992" t="s">
+        <v>35</v>
+      </c>
+      <c r="F992">
+        <v>0</v>
+      </c>
+      <c r="G992">
+        <v>0</v>
+      </c>
+      <c r="H992">
+        <v>15572.890799999999</v>
+      </c>
+      <c r="I992">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="J992">
+        <v>2.0392999999999999</v>
+      </c>
+      <c r="K992">
+        <v>0</v>
+      </c>
+      <c r="L992">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="993" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A993" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B993" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C993" t="s">
+        <v>74</v>
+      </c>
+      <c r="D993" t="s">
+        <v>13</v>
+      </c>
+      <c r="E993" t="s">
+        <v>35</v>
+      </c>
+      <c r="F993">
+        <v>0</v>
+      </c>
+      <c r="G993">
+        <v>1</v>
+      </c>
+      <c r="H993">
+        <v>6427.3675999999996</v>
+      </c>
+      <c r="I993">
+        <v>7.0199999999999999E-2</v>
+      </c>
+      <c r="J993">
+        <v>0.15390000000000001</v>
+      </c>
+      <c r="K993">
+        <v>0</v>
+      </c>
+      <c r="L993">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="994" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A994" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B994" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C994" t="s">
+        <v>74</v>
+      </c>
+      <c r="D994" t="s">
+        <v>13</v>
+      </c>
+      <c r="E994" t="s">
+        <v>35</v>
+      </c>
+      <c r="F994">
+        <v>0</v>
+      </c>
+      <c r="G994">
+        <v>2</v>
+      </c>
+      <c r="H994">
+        <v>4904.2804999999998</v>
+      </c>
+      <c r="I994">
+        <v>7.4499999999999997E-2</v>
+      </c>
+      <c r="J994">
+        <v>1.2007000000000001</v>
+      </c>
+      <c r="K994">
+        <v>0</v>
+      </c>
+      <c r="L994">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="995" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A995" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B995" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C995" t="s">
+        <v>74</v>
+      </c>
+      <c r="D995" t="s">
+        <v>13</v>
+      </c>
+      <c r="E995" t="s">
+        <v>35</v>
+      </c>
+      <c r="F995">
+        <v>1</v>
+      </c>
+      <c r="G995">
+        <v>0</v>
+      </c>
+      <c r="H995">
+        <v>4742.2712000000001</v>
+      </c>
+      <c r="I995">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="J995">
+        <v>0.60060000000000002</v>
+      </c>
+      <c r="K995">
+        <v>0</v>
+      </c>
+      <c r="L995">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="996" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A996" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B996" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C996" t="s">
+        <v>74</v>
+      </c>
+      <c r="D996" t="s">
+        <v>13</v>
+      </c>
+      <c r="E996" t="s">
+        <v>35</v>
+      </c>
+      <c r="F996">
+        <v>1</v>
+      </c>
+      <c r="G996">
+        <v>1</v>
+      </c>
+      <c r="H996">
+        <v>2084.1192000000001</v>
+      </c>
+      <c r="I996">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="J996">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="K996">
+        <v>0</v>
+      </c>
+      <c r="L996">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="997" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A997" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B997" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C997" t="s">
+        <v>74</v>
+      </c>
+      <c r="D997" t="s">
+        <v>13</v>
+      </c>
+      <c r="E997" t="s">
+        <v>35</v>
+      </c>
+      <c r="F997">
+        <v>1</v>
+      </c>
+      <c r="G997">
+        <v>2</v>
+      </c>
+      <c r="H997">
+        <v>6491.3712999999998</v>
+      </c>
+      <c r="I997">
+        <v>0.1293</v>
+      </c>
+      <c r="J997">
+        <v>0.3659</v>
+      </c>
+      <c r="K997">
+        <v>0</v>
+      </c>
+      <c r="L997">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="998" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A998" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B998" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C998" t="s">
+        <v>74</v>
+      </c>
+      <c r="D998" t="s">
+        <v>13</v>
+      </c>
+      <c r="E998" t="s">
+        <v>35</v>
+      </c>
+      <c r="F998">
+        <v>2</v>
+      </c>
+      <c r="G998">
+        <v>0</v>
+      </c>
+      <c r="H998">
+        <v>7028.402</v>
+      </c>
+      <c r="I998">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="J998">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="K998">
+        <v>0</v>
+      </c>
+      <c r="L998">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="999" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A999" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B999" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C999" t="s">
+        <v>74</v>
+      </c>
+      <c r="D999" t="s">
+        <v>13</v>
+      </c>
+      <c r="E999" t="s">
+        <v>35</v>
+      </c>
+      <c r="F999">
+        <v>2</v>
+      </c>
+      <c r="G999">
+        <v>1</v>
+      </c>
+      <c r="H999">
+        <v>957.0548</v>
+      </c>
+      <c r="I999">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="J999">
+        <v>0.83069999999999999</v>
+      </c>
+      <c r="K999">
+        <v>0</v>
+      </c>
+      <c r="L999">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1000" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1000" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1000" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1000">
+        <v>2</v>
+      </c>
+      <c r="G1000">
+        <v>2</v>
+      </c>
+      <c r="H1000">
+        <v>11625.665000000001</v>
+      </c>
+      <c r="I1000">
+        <v>7.5399999999999995E-2</v>
+      </c>
+      <c r="J1000">
+        <v>1.0932999999999999</v>
+      </c>
+      <c r="K1000">
+        <v>0</v>
+      </c>
+      <c r="L1000">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1001" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1001" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1001" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1001" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1001">
+        <v>0</v>
+      </c>
+      <c r="G1001">
+        <v>0</v>
+      </c>
+      <c r="H1001">
+        <v>3989.2280999999998</v>
+      </c>
+      <c r="I1001">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="J1001">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="K1001">
+        <v>1.5608</v>
+      </c>
+      <c r="L1001">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1002" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1002" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1002" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1002">
+        <v>0</v>
+      </c>
+      <c r="G1002">
+        <v>1</v>
+      </c>
+      <c r="H1002">
+        <v>2603.1489000000001</v>
+      </c>
+      <c r="I1002">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="J1002">
+        <v>1.9E-3</v>
+      </c>
+      <c r="K1002">
+        <v>1.5907</v>
+      </c>
+      <c r="L1002">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1003" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1003" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1003" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1003">
+        <v>0</v>
+      </c>
+      <c r="G1003">
+        <v>2</v>
+      </c>
+      <c r="H1003">
+        <v>4305.2462999999998</v>
+      </c>
+      <c r="I1003">
+        <v>9.0200000000000002E-2</v>
+      </c>
+      <c r="J1003">
+        <v>0.53520000000000001</v>
+      </c>
+      <c r="K1003">
+        <v>1.4208000000000001</v>
+      </c>
+      <c r="L1003">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1004" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1004" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1004" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1004">
+        <v>1</v>
+      </c>
+      <c r="G1004">
+        <v>0</v>
+      </c>
+      <c r="H1004">
+        <v>9483.5424999999996</v>
+      </c>
+      <c r="I1004">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="J1004">
+        <v>0.29970000000000002</v>
+      </c>
+      <c r="K1004">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="L1004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1005" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1005" s="1" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1005" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1005">
+        <v>1</v>
+      </c>
+      <c r="G1005">
+        <v>1</v>
+      </c>
+      <c r="H1005">
+        <v>8307.4752000000008</v>
+      </c>
+      <c r="I1005">
+        <v>9.4799999999999995E-2</v>
+      </c>
+      <c r="J1005">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="K1005">
+        <v>1.4233</v>
+      </c>
+      <c r="L1005">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1006" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1006" s="1" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1006" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1006">
+        <v>1</v>
+      </c>
+      <c r="G1006">
+        <v>2</v>
+      </c>
+      <c r="H1006">
+        <v>7566.4327999999996</v>
+      </c>
+      <c r="I1006">
+        <v>7.51E-2</v>
+      </c>
+      <c r="J1006">
+        <v>1.3188</v>
+      </c>
+      <c r="K1006">
+        <v>1.4013</v>
+      </c>
+      <c r="L1006">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1007" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1007" s="1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1007" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1007">
+        <v>2</v>
+      </c>
+      <c r="G1007">
+        <v>0</v>
+      </c>
+      <c r="H1007">
+        <v>8290.4742000000006</v>
+      </c>
+      <c r="I1007">
+        <v>8.4500000000000006E-2</v>
+      </c>
+      <c r="J1007">
+        <v>0.2757</v>
+      </c>
+      <c r="K1007">
+        <v>1.3525</v>
+      </c>
+      <c r="L1007">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1008" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1008" s="1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1008" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1008">
+        <v>2</v>
+      </c>
+      <c r="G1008">
+        <v>1</v>
+      </c>
+      <c r="H1008">
+        <v>9852.5635999999995</v>
+      </c>
+      <c r="I1008">
+        <v>6.9099999999999995E-2</v>
+      </c>
+      <c r="J1008">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="K1008">
+        <v>1.399</v>
+      </c>
+      <c r="L1008">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1009" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1009" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1009" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1009">
+        <v>2</v>
+      </c>
+      <c r="G1009">
+        <v>2</v>
+      </c>
+      <c r="H1009">
+        <v>3299.1887000000002</v>
+      </c>
+      <c r="I1009">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="J1009">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="K1009">
+        <v>1.3322000000000001</v>
+      </c>
+      <c r="L1009">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1010" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1010" s="1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1010" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1010">
+        <v>0</v>
+      </c>
+      <c r="G1010">
+        <v>0</v>
+      </c>
+      <c r="H1010">
+        <v>2695.1541999999999</v>
+      </c>
+      <c r="I1010">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="J1010">
+        <v>0.21640000000000001</v>
+      </c>
+      <c r="K1010">
+        <v>0</v>
+      </c>
+      <c r="L1010">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1011" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1011" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1011" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1011">
+        <v>0</v>
+      </c>
+      <c r="G1011">
+        <v>1</v>
+      </c>
+      <c r="H1011">
+        <v>1715.0980999999999</v>
+      </c>
+      <c r="I1011">
+        <v>6.1100000000000002E-2</v>
+      </c>
+      <c r="J1011">
+        <v>0.79769999999999996</v>
+      </c>
+      <c r="K1011">
+        <v>0</v>
+      </c>
+      <c r="L1011">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1012" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1012" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1012" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1012">
+        <v>0</v>
+      </c>
+      <c r="G1012">
+        <v>2</v>
+      </c>
+      <c r="H1012">
+        <v>5731.3278</v>
+      </c>
+      <c r="I1012">
+        <v>8.6599999999999996E-2</v>
+      </c>
+      <c r="J1012">
+        <v>2.1575000000000002</v>
+      </c>
+      <c r="K1012">
+        <v>0</v>
+      </c>
+      <c r="L1012">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1013" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1013" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1013" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1013">
+        <v>1</v>
+      </c>
+      <c r="G1013">
+        <v>0</v>
+      </c>
+      <c r="H1013">
+        <v>8387.4797999999992</v>
+      </c>
+      <c r="I1013">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="J1013">
+        <v>1.05</v>
+      </c>
+      <c r="K1013">
+        <v>0</v>
+      </c>
+      <c r="L1013">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1014" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1014" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1014" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1014">
+        <v>1</v>
+      </c>
+      <c r="G1014">
+        <v>1</v>
+      </c>
+      <c r="H1014">
+        <v>5403.3091000000004</v>
+      </c>
+      <c r="I1014">
+        <v>7.1599999999999997E-2</v>
+      </c>
+      <c r="J1014">
+        <v>0.25330000000000003</v>
+      </c>
+      <c r="K1014">
+        <v>0</v>
+      </c>
+      <c r="L1014">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1015" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1015" s="1" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1015">
+        <v>1</v>
+      </c>
+      <c r="G1015">
+        <v>2</v>
+      </c>
+      <c r="H1015">
+        <v>782.04470000000003</v>
+      </c>
+      <c r="I1015">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="J1015">
+        <v>0.83289999999999997</v>
+      </c>
+      <c r="K1015">
+        <v>0</v>
+      </c>
+      <c r="L1015">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1016" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1016" s="1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1016">
+        <v>2</v>
+      </c>
+      <c r="G1016">
+        <v>0</v>
+      </c>
+      <c r="H1016">
+        <v>6087.3482000000004</v>
+      </c>
+      <c r="I1016">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="J1016">
+        <v>0.72850000000000004</v>
+      </c>
+      <c r="K1016">
+        <v>0</v>
+      </c>
+      <c r="L1016">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1017" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1017" s="1" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1017" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1017">
+        <v>2</v>
+      </c>
+      <c r="G1017">
+        <v>1</v>
+      </c>
+      <c r="H1017">
+        <v>5767.3298000000004</v>
+      </c>
+      <c r="I1017">
+        <v>0.12909999999999999</v>
+      </c>
+      <c r="J1017">
+        <v>1.8766</v>
+      </c>
+      <c r="K1017">
+        <v>0</v>
+      </c>
+      <c r="L1017">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1018" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1018" s="1" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1018" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1018">
+        <v>2</v>
+      </c>
+      <c r="G1018">
+        <v>2</v>
+      </c>
+      <c r="H1018">
+        <v>6059.3465999999999</v>
+      </c>
+      <c r="I1018">
+        <v>8.72E-2</v>
+      </c>
+      <c r="J1018">
+        <v>0.9254</v>
+      </c>
+      <c r="K1018">
+        <v>0</v>
+      </c>
+      <c r="L1018">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1019" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1019" s="1" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1019" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1019" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1019">
+        <v>0</v>
+      </c>
+      <c r="G1019">
+        <v>0</v>
+      </c>
+      <c r="H1019">
+        <v>18604.0641</v>
+      </c>
+      <c r="I1019">
+        <v>0.1368</v>
+      </c>
+      <c r="J1019">
+        <v>5.5088999999999997</v>
+      </c>
+      <c r="K1019">
+        <v>0</v>
+      </c>
+      <c r="L1019">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1020" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1020" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1020" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1020">
+        <v>0</v>
+      </c>
+      <c r="G1020">
+        <v>1</v>
+      </c>
+      <c r="H1020">
+        <v>15430.882600000001</v>
+      </c>
+      <c r="I1020">
+        <v>0.15429999999999999</v>
+      </c>
+      <c r="J1020">
+        <v>3.5487000000000002</v>
+      </c>
+      <c r="K1020">
+        <v>0</v>
+      </c>
+      <c r="L1020">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1021" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1021" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1021" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1021" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1021">
+        <v>0</v>
+      </c>
+      <c r="G1021">
+        <v>2</v>
+      </c>
+      <c r="H1021">
+        <v>10235.585499999999</v>
+      </c>
+      <c r="I1021">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="J1021">
+        <v>3.2309999999999999</v>
+      </c>
+      <c r="K1021">
+        <v>0</v>
+      </c>
+      <c r="L1021">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1022" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1022" s="1" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1022" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1022" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1022">
+        <v>1</v>
+      </c>
+      <c r="G1022">
+        <v>0</v>
+      </c>
+      <c r="H1022">
+        <v>10467.5987</v>
+      </c>
+      <c r="I1022">
+        <v>0.1197</v>
+      </c>
+      <c r="J1022">
+        <v>2.2545999999999999</v>
+      </c>
+      <c r="K1022">
+        <v>0</v>
+      </c>
+      <c r="L1022">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1023" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1023" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1023" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1023" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1023">
+        <v>1</v>
+      </c>
+      <c r="G1023">
+        <v>1</v>
+      </c>
+      <c r="H1023">
+        <v>9275.5305000000008</v>
+      </c>
+      <c r="I1023">
+        <v>4.53E-2</v>
+      </c>
+      <c r="J1023">
+        <v>2.6629999999999998</v>
+      </c>
+      <c r="K1023">
+        <v>0</v>
+      </c>
+      <c r="L1023">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1024" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1024" s="1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1024" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1024" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1024">
+        <v>1</v>
+      </c>
+      <c r="G1024">
+        <v>2</v>
+      </c>
+      <c r="H1024">
+        <v>8823.5046999999995</v>
+      </c>
+      <c r="I1024">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="J1024">
+        <v>0.84250000000000003</v>
+      </c>
+      <c r="K1024">
+        <v>0</v>
+      </c>
+      <c r="L1024">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1025" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1025" s="1" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1025" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1025" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1025">
+        <v>2</v>
+      </c>
+      <c r="G1025">
+        <v>0</v>
+      </c>
+      <c r="H1025">
+        <v>11235.6427</v>
+      </c>
+      <c r="I1025">
+        <v>8.1100000000000005E-2</v>
+      </c>
+      <c r="J1025">
+        <v>1.8912</v>
+      </c>
+      <c r="K1025">
+        <v>0</v>
+      </c>
+      <c r="L1025">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1026" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1026" s="1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1026" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1026">
+        <v>2</v>
+      </c>
+      <c r="G1026">
+        <v>1</v>
+      </c>
+      <c r="H1026">
+        <v>6656.3806999999997</v>
+      </c>
+      <c r="I1026">
+        <v>0</v>
+      </c>
+      <c r="J1026">
+        <v>1.7715000000000001</v>
+      </c>
+      <c r="K1026">
+        <v>0</v>
+      </c>
+      <c r="L1026">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1027" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1027" s="1" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1027" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1027" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1027">
+        <v>2</v>
+      </c>
+      <c r="G1027">
+        <v>2</v>
+      </c>
+      <c r="H1027">
+        <v>5244.3</v>
+      </c>
+      <c r="I1027">
+        <v>3.4700000000000002E-2</v>
+      </c>
+      <c r="J1027">
+        <v>2.4628000000000001</v>
+      </c>
+      <c r="K1027">
+        <v>0</v>
+      </c>
+      <c r="L1027">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1028" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1028" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1028" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1028" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1028">
+        <v>0</v>
+      </c>
+      <c r="G1028">
+        <v>0</v>
+      </c>
+      <c r="H1028">
+        <v>6231.3563999999997</v>
+      </c>
+      <c r="I1028">
+        <v>5.79E-2</v>
+      </c>
+      <c r="J1028">
+        <v>1.6558999999999999</v>
+      </c>
+      <c r="K1028">
+        <v>0</v>
+      </c>
+      <c r="L1028">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1029" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1029" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1029">
+        <v>0</v>
+      </c>
+      <c r="G1029">
+        <v>1</v>
+      </c>
+      <c r="H1029">
+        <v>4073.2330000000002</v>
+      </c>
+      <c r="I1029">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="J1029">
+        <v>1.093</v>
+      </c>
+      <c r="K1029">
+        <v>0</v>
+      </c>
+      <c r="L1029">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1030" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1030" s="1" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1030">
+        <v>0</v>
+      </c>
+      <c r="G1030">
+        <v>2</v>
+      </c>
+      <c r="H1030">
+        <v>879.05029999999999</v>
+      </c>
+      <c r="I1030">
+        <v>0.10780000000000001</v>
+      </c>
+      <c r="J1030">
+        <v>2.0853000000000002</v>
+      </c>
+      <c r="K1030">
+        <v>0</v>
+      </c>
+      <c r="L1030">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1031" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1031" s="1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1031" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1031" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1031">
+        <v>1</v>
+      </c>
+      <c r="G1031">
+        <v>0</v>
+      </c>
+      <c r="H1031">
+        <v>1083.0618999999999</v>
+      </c>
+      <c r="I1031">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="J1031">
+        <v>0.69059999999999999</v>
+      </c>
+      <c r="K1031">
+        <v>0</v>
+      </c>
+      <c r="L1031">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1032" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1032" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1032" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1032">
+        <v>1</v>
+      </c>
+      <c r="G1032">
+        <v>1</v>
+      </c>
+      <c r="H1032">
+        <v>2356.1347000000001</v>
+      </c>
+      <c r="I1032">
+        <v>5.79E-2</v>
+      </c>
+      <c r="J1032">
+        <v>1.478</v>
+      </c>
+      <c r="K1032">
+        <v>0</v>
+      </c>
+      <c r="L1032">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1033" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1033" s="1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1033" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1033">
+        <v>1</v>
+      </c>
+      <c r="G1033">
+        <v>2</v>
+      </c>
+      <c r="H1033">
+        <v>3399.1943999999999</v>
+      </c>
+      <c r="I1033">
+        <v>6.54E-2</v>
+      </c>
+      <c r="J1033">
+        <v>2.5230999999999999</v>
+      </c>
+      <c r="K1033">
+        <v>0</v>
+      </c>
+      <c r="L1033">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1034" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1034" s="1" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1034" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1034">
+        <v>2</v>
+      </c>
+      <c r="G1034">
+        <v>0</v>
+      </c>
+      <c r="H1034">
+        <v>2681.1532999999999</v>
+      </c>
+      <c r="I1034">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="J1034">
+        <v>1.4263999999999999</v>
+      </c>
+      <c r="K1034">
+        <v>0</v>
+      </c>
+      <c r="L1034">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1035" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1035" s="1" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1035" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1035">
+        <v>2</v>
+      </c>
+      <c r="G1035">
+        <v>1</v>
+      </c>
+      <c r="H1035">
+        <v>3679.2105000000001</v>
+      </c>
+      <c r="I1035">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="J1035">
+        <v>0.22320000000000001</v>
+      </c>
+      <c r="K1035">
+        <v>0</v>
+      </c>
+      <c r="L1035">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1036" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1036" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1036" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1036">
+        <v>2</v>
+      </c>
+      <c r="G1036">
+        <v>2</v>
+      </c>
+      <c r="H1036">
+        <v>8727.4992000000002</v>
+      </c>
+      <c r="I1036">
+        <v>5.6800000000000003E-2</v>
+      </c>
+      <c r="J1036">
+        <v>0.31740000000000002</v>
+      </c>
+      <c r="K1036">
+        <v>0</v>
+      </c>
+      <c r="L1036">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1037" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1037" s="1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1037" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1037">
+        <v>0</v>
+      </c>
+      <c r="G1037">
+        <v>0</v>
+      </c>
+      <c r="H1037">
+        <v>10559.603999999999</v>
+      </c>
+      <c r="I1037">
+        <v>4.6300000000000001E-2</v>
+      </c>
+      <c r="J1037">
+        <v>0.81850000000000001</v>
+      </c>
+      <c r="K1037">
+        <v>0</v>
+      </c>
+      <c r="L1037">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1038" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1038" s="1" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1038" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1038">
+        <v>0</v>
+      </c>
+      <c r="G1038">
+        <v>1</v>
+      </c>
+      <c r="H1038">
+        <v>8295.4745000000003</v>
+      </c>
+      <c r="I1038">
+        <v>0</v>
+      </c>
+      <c r="J1038">
+        <v>0.87329999999999997</v>
+      </c>
+      <c r="K1038">
+        <v>0</v>
+      </c>
+      <c r="L1038">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1039" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1039" s="1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1039" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1039">
+        <v>0</v>
+      </c>
+      <c r="G1039">
+        <v>2</v>
+      </c>
+      <c r="H1039">
+        <v>11755.672399999999</v>
+      </c>
+      <c r="I1039">
+        <v>0.11169999999999999</v>
+      </c>
+      <c r="J1039">
+        <v>2.6505999999999998</v>
+      </c>
+      <c r="K1039">
+        <v>0</v>
+      </c>
+      <c r="L1039">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1040" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1040" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1040">
+        <v>1</v>
+      </c>
+      <c r="G1040">
+        <v>0</v>
+      </c>
+      <c r="H1040">
+        <v>6547.3744999999999</v>
+      </c>
+      <c r="I1040">
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="J1040">
+        <v>0.50109999999999999</v>
+      </c>
+      <c r="K1040">
+        <v>0</v>
+      </c>
+      <c r="L1040">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1041" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1041" s="1" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1041" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1041">
+        <v>1</v>
+      </c>
+      <c r="G1041">
+        <v>1</v>
+      </c>
+      <c r="H1041">
+        <v>12075.6906</v>
+      </c>
+      <c r="I1041">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="J1041">
+        <v>1.4202999999999999</v>
+      </c>
+      <c r="K1041">
+        <v>0</v>
+      </c>
+      <c r="L1041">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1042" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1042" s="1" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1042" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1042">
+        <v>1</v>
+      </c>
+      <c r="G1042">
+        <v>2</v>
+      </c>
+      <c r="H1042">
+        <v>5665.3239999999996</v>
+      </c>
+      <c r="I1042">
+        <v>0.04</v>
+      </c>
+      <c r="J1042">
+        <v>1.1706000000000001</v>
+      </c>
+      <c r="K1042">
+        <v>0</v>
+      </c>
+      <c r="L1042">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1043" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1043" s="1" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1043" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1043">
+        <v>2</v>
+      </c>
+      <c r="G1043">
+        <v>0</v>
+      </c>
+      <c r="H1043">
+        <v>9663.5527000000002</v>
+      </c>
+      <c r="I1043">
+        <v>0.1036</v>
+      </c>
+      <c r="J1043">
+        <v>0.48549999999999999</v>
+      </c>
+      <c r="K1043">
+        <v>0</v>
+      </c>
+      <c r="L1043">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1044" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1044" s="1" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1044" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1044">
+        <v>2</v>
+      </c>
+      <c r="G1044">
+        <v>1</v>
+      </c>
+      <c r="H1044">
+        <v>3932.2249000000002</v>
+      </c>
+      <c r="I1044">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="J1044">
+        <v>1.7075</v>
+      </c>
+      <c r="K1044">
+        <v>0</v>
+      </c>
+      <c r="L1044">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1045" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1045" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1045" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1045">
+        <v>2</v>
+      </c>
+      <c r="G1045">
+        <v>2</v>
+      </c>
+      <c r="H1045">
+        <v>10123.579</v>
+      </c>
+      <c r="I1045">
+        <v>4.8899999999999999E-2</v>
+      </c>
+      <c r="J1045">
+        <v>2.0051000000000001</v>
+      </c>
+      <c r="K1045">
+        <v>0</v>
+      </c>
+      <c r="L1045">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1046" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1046" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1046" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1046">
+        <v>0</v>
+      </c>
+      <c r="G1046">
+        <v>0</v>
+      </c>
+      <c r="H1046">
+        <v>22053.261399999999</v>
+      </c>
+      <c r="I1046">
+        <v>9.2399999999999996E-2</v>
+      </c>
+      <c r="J1046">
+        <v>0.50390000000000001</v>
+      </c>
+      <c r="K1046">
+        <v>1.3563000000000001</v>
+      </c>
+      <c r="L1046">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1047" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1047" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1047" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1047">
+        <v>0</v>
+      </c>
+      <c r="G1047">
+        <v>1</v>
+      </c>
+      <c r="H1047">
+        <v>17779.016899999999</v>
+      </c>
+      <c r="I1047">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="J1047">
+        <v>2.5448</v>
+      </c>
+      <c r="K1047">
+        <v>1.2838000000000001</v>
+      </c>
+      <c r="L1047">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1048" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1048" s="1" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1048" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1048">
+        <v>0</v>
+      </c>
+      <c r="G1048">
+        <v>2</v>
+      </c>
+      <c r="H1048">
+        <v>14311.818499999999</v>
+      </c>
+      <c r="I1048">
+        <v>8.8700000000000001E-2</v>
+      </c>
+      <c r="J1048">
+        <v>1.1597</v>
+      </c>
+      <c r="K1048">
+        <v>1.5861000000000001</v>
+      </c>
+      <c r="L1048">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1049" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1049" s="1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1049" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1049">
+        <v>1</v>
+      </c>
+      <c r="G1049">
+        <v>0</v>
+      </c>
+      <c r="H1049">
+        <v>18284.0458</v>
+      </c>
+      <c r="I1049">
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="J1049">
+        <v>1.7579</v>
+      </c>
+      <c r="K1049">
+        <v>1.3455999999999999</v>
+      </c>
+      <c r="L1049">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1050" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1050" s="1" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1050" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1050">
+        <v>1</v>
+      </c>
+      <c r="G1050">
+        <v>1</v>
+      </c>
+      <c r="H1050">
+        <v>14887.8516</v>
+      </c>
+      <c r="I1050">
+        <v>0.1444</v>
+      </c>
+      <c r="J1050">
+        <v>1.4159999999999999</v>
+      </c>
+      <c r="K1050">
+        <v>1.5956999999999999</v>
+      </c>
+      <c r="L1050">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1051" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1051" s="1" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1051" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1051">
+        <v>1</v>
+      </c>
+      <c r="G1051">
+        <v>2</v>
+      </c>
+      <c r="H1051">
+        <v>14978.8567</v>
+      </c>
+      <c r="I1051">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="J1051">
+        <v>0.75419999999999998</v>
+      </c>
+      <c r="K1051">
+        <v>1.3064</v>
+      </c>
+      <c r="L1051">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1052" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1052" s="1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1052" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1052">
+        <v>2</v>
+      </c>
+      <c r="G1052">
+        <v>0</v>
+      </c>
+      <c r="H1052">
+        <v>6815.3897999999999</v>
+      </c>
+      <c r="I1052">
+        <v>5.5800000000000002E-2</v>
+      </c>
+      <c r="J1052">
+        <v>2.2315</v>
+      </c>
+      <c r="K1052">
+        <v>0.50080000000000002</v>
+      </c>
+      <c r="L1052">
+        <v>0.49919999999999998</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1053" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1053" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1053" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1053">
+        <v>2</v>
+      </c>
+      <c r="G1053">
+        <v>1</v>
+      </c>
+      <c r="H1053">
+        <v>63514001354565.203</v>
+      </c>
+      <c r="I1053">
+        <v>7.0099999999999996E-2</v>
+      </c>
+      <c r="J1053">
+        <v>0.7631</v>
+      </c>
+      <c r="K1053">
+        <v>1.5107999999999999</v>
+      </c>
+      <c r="L1053">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1054" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1054" s="1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1054" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1054">
+        <v>2</v>
+      </c>
+      <c r="G1054">
+        <v>2</v>
+      </c>
+      <c r="H1054">
+        <v>13656.7811</v>
+      </c>
+      <c r="I1054">
+        <v>5.28E-2</v>
+      </c>
+      <c r="J1054">
+        <v>0.75380000000000003</v>
+      </c>
+      <c r="K1054">
+        <v>1.4703999999999999</v>
+      </c>
+      <c r="L1054">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1055" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1055" s="1" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1055">
+        <v>0</v>
+      </c>
+      <c r="G1055">
+        <v>0</v>
+      </c>
+      <c r="H1055">
+        <v>7063.4040000000005</v>
+      </c>
+      <c r="I1055">
+        <v>8.4500000000000006E-2</v>
+      </c>
+      <c r="J1055">
+        <v>2.15</v>
+      </c>
+      <c r="K1055">
+        <v>0</v>
+      </c>
+      <c r="L1055">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1056" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1056" s="1" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1056" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1056">
+        <v>0</v>
+      </c>
+      <c r="G1056">
+        <v>1</v>
+      </c>
+      <c r="H1056">
+        <v>63514001391592.398</v>
+      </c>
+      <c r="I1056">
+        <v>0.1981</v>
+      </c>
+      <c r="J1056">
+        <v>3.3206000000000002</v>
+      </c>
+      <c r="K1056">
+        <v>0</v>
+      </c>
+      <c r="L1056">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1057" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1057" s="1" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1057" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1057">
+        <v>0</v>
+      </c>
+      <c r="G1057">
+        <v>2</v>
+      </c>
+      <c r="H1057">
+        <v>7665.4384</v>
+      </c>
+      <c r="I1057">
+        <v>8.9700000000000002E-2</v>
+      </c>
+      <c r="J1057">
+        <v>3.4165999999999999</v>
+      </c>
+      <c r="K1057">
+        <v>0</v>
+      </c>
+      <c r="L1057">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1058" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1058" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1058" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1058" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1058">
+        <v>1</v>
+      </c>
+      <c r="G1058">
+        <v>0</v>
+      </c>
+      <c r="H1058">
+        <v>10735.614100000001</v>
+      </c>
+      <c r="I1058">
+        <v>0.1205</v>
+      </c>
+      <c r="J1058">
+        <v>0.74650000000000005</v>
+      </c>
+      <c r="K1058">
+        <v>0</v>
+      </c>
+      <c r="L1058">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1059" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1059" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1059" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1059">
+        <v>1</v>
+      </c>
+      <c r="G1059">
+        <v>1</v>
+      </c>
+      <c r="H1059">
+        <v>6783.3879999999999</v>
+      </c>
+      <c r="I1059">
+        <v>0.11070000000000001</v>
+      </c>
+      <c r="J1059">
+        <v>0.80689999999999995</v>
+      </c>
+      <c r="K1059">
+        <v>0</v>
+      </c>
+      <c r="L1059">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1060" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1060" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1060">
+        <v>1</v>
+      </c>
+      <c r="G1060">
+        <v>2</v>
+      </c>
+      <c r="H1060">
+        <v>10341.5915</v>
+      </c>
+      <c r="I1060">
+        <v>6.5100000000000005E-2</v>
+      </c>
+      <c r="J1060">
+        <v>0.191</v>
+      </c>
+      <c r="K1060">
+        <v>0</v>
+      </c>
+      <c r="L1060">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1061" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1061" s="1" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1061" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1061">
+        <v>2</v>
+      </c>
+      <c r="G1061">
+        <v>0</v>
+      </c>
+      <c r="H1061">
+        <v>11363.6499</v>
+      </c>
+      <c r="I1061">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="J1061">
+        <v>1.3804000000000001</v>
+      </c>
+      <c r="K1061">
+        <v>0</v>
+      </c>
+      <c r="L1061">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1062" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1062" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1062" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1062">
+        <v>2</v>
+      </c>
+      <c r="G1062">
+        <v>1</v>
+      </c>
+      <c r="H1062">
+        <v>7419.4242999999997</v>
+      </c>
+      <c r="I1062">
+        <v>6.4100000000000004E-2</v>
+      </c>
+      <c r="J1062">
+        <v>1.4641</v>
+      </c>
+      <c r="K1062">
+        <v>0</v>
+      </c>
+      <c r="L1062">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1063" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1063" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1063" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1063">
+        <v>2</v>
+      </c>
+      <c r="G1063">
+        <v>2</v>
+      </c>
+      <c r="H1063">
+        <v>10355.5923</v>
+      </c>
+      <c r="I1063">
+        <v>7.4499999999999997E-2</v>
+      </c>
+      <c r="J1063">
+        <v>2.7006000000000001</v>
+      </c>
+      <c r="K1063">
+        <v>0</v>
+      </c>
+      <c r="L1063">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1064" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1064" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1064" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1064" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1064">
+        <v>0</v>
+      </c>
+      <c r="G1064">
+        <v>0</v>
+      </c>
+      <c r="H1064">
+        <v>12203.698</v>
+      </c>
+      <c r="I1064">
+        <v>0.16039999999999999</v>
+      </c>
+      <c r="J1064">
+        <v>0.36859999999999998</v>
+      </c>
+      <c r="K1064">
+        <v>1.7806999999999999</v>
+      </c>
+      <c r="L1064">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1065" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1065" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1065" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1065" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1065">
+        <v>0</v>
+      </c>
+      <c r="G1065">
+        <v>1</v>
+      </c>
+      <c r="H1065">
+        <v>12159.6955</v>
+      </c>
+      <c r="I1065">
+        <v>6.3399999999999998E-2</v>
+      </c>
+      <c r="J1065">
+        <v>1.8285</v>
+      </c>
+      <c r="K1065">
+        <v>1.7217</v>
+      </c>
+      <c r="L1065">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1066" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1066" s="1" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1066" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1066" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1066">
+        <v>0</v>
+      </c>
+      <c r="G1066">
+        <v>2</v>
+      </c>
+      <c r="H1066">
+        <v>12455.7124</v>
+      </c>
+      <c r="I1066">
+        <v>0</v>
+      </c>
+      <c r="J1066">
+        <v>0.4078</v>
+      </c>
+      <c r="K1066">
+        <v>1.5993999999999999</v>
+      </c>
+      <c r="L1066">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1067" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1067" s="1" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1067" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1067" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1067">
+        <v>1</v>
+      </c>
+      <c r="G1067">
+        <v>0</v>
+      </c>
+      <c r="H1067">
+        <v>10954.6266</v>
+      </c>
+      <c r="I1067">
+        <v>5.91E-2</v>
+      </c>
+      <c r="J1067">
+        <v>1.0182</v>
+      </c>
+      <c r="K1067">
+        <v>1.4670000000000001</v>
+      </c>
+      <c r="L1067">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1068" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1068" s="1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1068" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1068" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1068">
+        <v>1</v>
+      </c>
+      <c r="G1068">
+        <v>1</v>
+      </c>
+      <c r="H1068">
+        <v>12341.705900000001</v>
+      </c>
+      <c r="I1068">
+        <v>0.158</v>
+      </c>
+      <c r="J1068">
+        <v>0.91590000000000005</v>
+      </c>
+      <c r="K1068">
+        <v>1.6453</v>
+      </c>
+      <c r="L1068">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1069" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1069" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1069" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1069" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1069">
+        <v>1</v>
+      </c>
+      <c r="G1069">
+        <v>2</v>
+      </c>
+      <c r="H1069">
+        <v>16613.9503</v>
+      </c>
+      <c r="I1069">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="J1069">
+        <v>0.25440000000000002</v>
+      </c>
+      <c r="K1069">
+        <v>1.8900999999999999</v>
+      </c>
+      <c r="L1069">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1070" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1070" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1070" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1070">
+        <v>2</v>
+      </c>
+      <c r="G1070">
+        <v>0</v>
+      </c>
+      <c r="H1070">
+        <v>10450.5978</v>
+      </c>
+      <c r="I1070">
+        <v>5.8099999999999999E-2</v>
+      </c>
+      <c r="J1070">
+        <v>0.91420000000000001</v>
+      </c>
+      <c r="K1070">
+        <v>1.8622000000000001</v>
+      </c>
+      <c r="L1070">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1071" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1071" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1071" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1071">
+        <v>2</v>
+      </c>
+      <c r="G1071">
+        <v>1</v>
+      </c>
+      <c r="H1071">
+        <v>14887.851500000001</v>
+      </c>
+      <c r="I1071">
+        <v>6.3E-2</v>
+      </c>
+      <c r="J1071">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="K1071">
+        <v>1.5158</v>
+      </c>
+      <c r="L1071">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1072" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1072" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1072" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1072">
+        <v>2</v>
+      </c>
+      <c r="G1072">
+        <v>2</v>
+      </c>
+      <c r="H1072">
+        <v>14383.822700000001</v>
+      </c>
+      <c r="I1072">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="J1072">
+        <v>0.30590000000000001</v>
+      </c>
+      <c r="K1072">
+        <v>1.5124</v>
+      </c>
+      <c r="L1072">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1073" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1073" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1073" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1073">
+        <v>0</v>
+      </c>
+      <c r="G1073">
+        <v>0</v>
+      </c>
+      <c r="H1073">
+        <v>11287.6456</v>
+      </c>
+      <c r="I1073">
+        <v>9.8299999999999998E-2</v>
+      </c>
+      <c r="J1073">
+        <v>1.9197</v>
+      </c>
+      <c r="K1073">
+        <v>1.8761000000000001</v>
+      </c>
+      <c r="L1073">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1074" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1074" s="1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1074" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1074">
+        <v>0</v>
+      </c>
+      <c r="G1074">
+        <v>1</v>
+      </c>
+      <c r="H1074">
+        <v>13843.791800000001</v>
+      </c>
+      <c r="I1074">
+        <v>5.67E-2</v>
+      </c>
+      <c r="J1074">
+        <v>0.2586</v>
+      </c>
+      <c r="K1074">
+        <v>1.6537999999999999</v>
+      </c>
+      <c r="L1074">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1075" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1075" s="1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1075" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1075" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1075">
+        <v>0</v>
+      </c>
+      <c r="G1075">
+        <v>2</v>
+      </c>
+      <c r="H1075">
+        <v>28439.626700000001</v>
+      </c>
+      <c r="I1075">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="J1075">
+        <v>1.2299</v>
+      </c>
+      <c r="K1075">
+        <v>1.7905</v>
+      </c>
+      <c r="L1075">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1076" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1076" s="1" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1076" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1076" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1076">
+        <v>1</v>
+      </c>
+      <c r="G1076">
+        <v>0</v>
+      </c>
+      <c r="H1076">
+        <v>14803.8467</v>
+      </c>
+      <c r="I1076">
+        <v>0</v>
+      </c>
+      <c r="J1076">
+        <v>0.15179999999999999</v>
+      </c>
+      <c r="K1076">
+        <v>2.5125999999999999</v>
+      </c>
+      <c r="L1076">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1077" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1077" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1077" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1077" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1077">
+        <v>1</v>
+      </c>
+      <c r="G1077">
+        <v>1</v>
+      </c>
+      <c r="H1077">
+        <v>13287.76</v>
+      </c>
+      <c r="I1077">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="J1077">
+        <v>1.5079</v>
+      </c>
+      <c r="K1077">
+        <v>1.9748000000000001</v>
+      </c>
+      <c r="L1077">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1078" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1078" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1078" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1078" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1078">
+        <v>1</v>
+      </c>
+      <c r="G1078">
+        <v>2</v>
+      </c>
+      <c r="H1078">
+        <v>11023.630499999999</v>
+      </c>
+      <c r="I1078">
+        <v>0.1164</v>
+      </c>
+      <c r="J1078">
+        <v>3.2799</v>
+      </c>
+      <c r="K1078">
+        <v>2.2993000000000001</v>
+      </c>
+      <c r="L1078">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1079" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1079" s="1" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1079" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1079" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1079">
+        <v>2</v>
+      </c>
+      <c r="G1079">
+        <v>0</v>
+      </c>
+      <c r="H1079">
+        <v>5904.3377</v>
+      </c>
+      <c r="I1079">
+        <v>0.1331</v>
+      </c>
+      <c r="J1079">
+        <v>5.9588000000000001</v>
+      </c>
+      <c r="K1079">
+        <v>4.1158000000000001</v>
+      </c>
+      <c r="L1079">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1080" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1080" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1080" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1080" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1080">
+        <v>2</v>
+      </c>
+      <c r="G1080">
+        <v>1</v>
+      </c>
+      <c r="H1080">
+        <v>63514001753362</v>
+      </c>
+      <c r="I1080">
+        <v>0.1004</v>
+      </c>
+      <c r="J1080">
+        <v>4.6614000000000004</v>
+      </c>
+      <c r="K1080">
+        <v>2.3271000000000002</v>
+      </c>
+      <c r="L1080">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1081" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1081" s="1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1081" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1081" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1081">
+        <v>2</v>
+      </c>
+      <c r="G1081">
+        <v>2</v>
+      </c>
+      <c r="H1081">
+        <v>12759.729799999999</v>
+      </c>
+      <c r="I1081">
+        <v>9.2299999999999993E-2</v>
+      </c>
+      <c r="J1081">
+        <v>3.3045</v>
+      </c>
+      <c r="K1081">
+        <v>2.3317000000000001</v>
+      </c>
+      <c r="L1081">
         <v>0</v>
       </c>
     </row>

--- a/Data/exp2-consolidated.xlsx
+++ b/Data/exp2-consolidated.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7139" uniqueCount="1791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7679" uniqueCount="1900">
   <si>
     <t>Ticks</t>
   </si>
@@ -5389,6 +5389,333 @@
   </si>
   <si>
     <t>P10</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>635145988741703640</t>
+  </si>
+  <si>
+    <t>635145988867780851</t>
+  </si>
+  <si>
+    <t>635145988957906006</t>
+  </si>
+  <si>
+    <t>635145989096343924</t>
+  </si>
+  <si>
+    <t>635145989280464455</t>
+  </si>
+  <si>
+    <t>635145989351298507</t>
+  </si>
+  <si>
+    <t>635145989460304742</t>
+  </si>
+  <si>
+    <t>635145989562460585</t>
+  </si>
+  <si>
+    <t>635145989665976505</t>
+  </si>
+  <si>
+    <t>635145989805294474</t>
+  </si>
+  <si>
+    <t>635145989850017032</t>
+  </si>
+  <si>
+    <t>635145989942972349</t>
+  </si>
+  <si>
+    <t>635145990047138306</t>
+  </si>
+  <si>
+    <t>635145990136773433</t>
+  </si>
+  <si>
+    <t>635145990209257579</t>
+  </si>
+  <si>
+    <t>635145990283811843</t>
+  </si>
+  <si>
+    <t>635145990387407769</t>
+  </si>
+  <si>
+    <t>635145990438820709</t>
+  </si>
+  <si>
+    <t>635145990556777456</t>
+  </si>
+  <si>
+    <t>635145990639652196</t>
+  </si>
+  <si>
+    <t>635145990759729064</t>
+  </si>
+  <si>
+    <t>635145990887136352</t>
+  </si>
+  <si>
+    <t>635145991017813826</t>
+  </si>
+  <si>
+    <t>635145991096888349</t>
+  </si>
+  <si>
+    <t>635145991181893211</t>
+  </si>
+  <si>
+    <t>635145991267908131</t>
+  </si>
+  <si>
+    <t>635145991326651490</t>
+  </si>
+  <si>
+    <t>635145991877683008</t>
+  </si>
+  <si>
+    <t>635145992133677650</t>
+  </si>
+  <si>
+    <t>635145992339679432</t>
+  </si>
+  <si>
+    <t>635145992504638867</t>
+  </si>
+  <si>
+    <t>635145992668198223</t>
+  </si>
+  <si>
+    <t>635145992775474358</t>
+  </si>
+  <si>
+    <t>635145992902351615</t>
+  </si>
+  <si>
+    <t>635145992992516773</t>
+  </si>
+  <si>
+    <t>635145993030918969</t>
+  </si>
+  <si>
+    <t>635145993672315655</t>
+  </si>
+  <si>
+    <t>635145993768071132</t>
+  </si>
+  <si>
+    <t>635145993839565221</t>
+  </si>
+  <si>
+    <t>635145993894148343</t>
+  </si>
+  <si>
+    <t>635145993938750894</t>
+  </si>
+  <si>
+    <t>635145994010264984</t>
+  </si>
+  <si>
+    <t>635145994085829306</t>
+  </si>
+  <si>
+    <t>635145994167503978</t>
+  </si>
+  <si>
+    <t>635145994251908806</t>
+  </si>
+  <si>
+    <t>635145994663902370</t>
+  </si>
+  <si>
+    <t>635145994844862721</t>
+  </si>
+  <si>
+    <t>635145994983620657</t>
+  </si>
+  <si>
+    <t>635145995019702721</t>
+  </si>
+  <si>
+    <t>635145995052504597</t>
+  </si>
+  <si>
+    <t>635145995144699870</t>
+  </si>
+  <si>
+    <t>635145995189742447</t>
+  </si>
+  <si>
+    <t>635145995302938921</t>
+  </si>
+  <si>
+    <t>635145995338860976</t>
+  </si>
+  <si>
+    <t>635145995739173872</t>
+  </si>
+  <si>
+    <t>635145995827658933</t>
+  </si>
+  <si>
+    <t>635145995919174168</t>
+  </si>
+  <si>
+    <t>635145995999058737</t>
+  </si>
+  <si>
+    <t>635145996084193606</t>
+  </si>
+  <si>
+    <t>635145996164618206</t>
+  </si>
+  <si>
+    <t>635145996201490315</t>
+  </si>
+  <si>
+    <t>635145996227251789</t>
+  </si>
+  <si>
+    <t>635145996353008982</t>
+  </si>
+  <si>
+    <t>635145996866048326</t>
+  </si>
+  <si>
+    <t>635145996929371948</t>
+  </si>
+  <si>
+    <t>635145997155804899</t>
+  </si>
+  <si>
+    <t>635145997203447624</t>
+  </si>
+  <si>
+    <t>635145997290162584</t>
+  </si>
+  <si>
+    <t>635145997350086011</t>
+  </si>
+  <si>
+    <t>635145997429040527</t>
+  </si>
+  <si>
+    <t>635145997454721996</t>
+  </si>
+  <si>
+    <t>635145997537286718</t>
+  </si>
+  <si>
+    <t>635145997943639961</t>
+  </si>
+  <si>
+    <t>635145997971721567</t>
+  </si>
+  <si>
+    <t>635145997992102732</t>
+  </si>
+  <si>
+    <t>635145998018124221</t>
+  </si>
+  <si>
+    <t>635145998083197943</t>
+  </si>
+  <si>
+    <t>635145998147521622</t>
+  </si>
+  <si>
+    <t>635145998206194978</t>
+  </si>
+  <si>
+    <t>635145998279919195</t>
+  </si>
+  <si>
+    <t>635145998301040403</t>
+  </si>
+  <si>
+    <t>635145998802189067</t>
+  </si>
+  <si>
+    <t>635145999028712023</t>
+  </si>
+  <si>
+    <t>635145999132187942</t>
+  </si>
+  <si>
+    <t>635145999297387390</t>
+  </si>
+  <si>
+    <t>635145999485988178</t>
+  </si>
+  <si>
+    <t>635145999663428327</t>
+  </si>
+  <si>
+    <t>635145999876150494</t>
+  </si>
+  <si>
+    <t>635146000046070213</t>
+  </si>
+  <si>
+    <t>635146000201349094</t>
+  </si>
+  <si>
+    <t>635146000528617813</t>
+  </si>
+  <si>
+    <t>635146000783542394</t>
+  </si>
+  <si>
+    <t>635146000906019399</t>
+  </si>
+  <si>
+    <t>635146001102300626</t>
+  </si>
+  <si>
+    <t>635146001183575274</t>
+  </si>
+  <si>
+    <t>635146001248779004</t>
+  </si>
+  <si>
+    <t>635146001323013250</t>
+  </si>
+  <si>
+    <t>635146001389457050</t>
+  </si>
+  <si>
+    <t>635146001541415742</t>
+  </si>
+  <si>
+    <t>635146001738617021</t>
+  </si>
+  <si>
+    <t>635146001831012306</t>
+  </si>
+  <si>
+    <t>635146002084086781</t>
+  </si>
+  <si>
+    <t>635146002239535672</t>
+  </si>
+  <si>
+    <t>635146002407405273</t>
+  </si>
+  <si>
+    <t>635146002515811474</t>
+  </si>
+  <si>
+    <t>635146002660329740</t>
+  </si>
+  <si>
+    <t>635146002799567704</t>
+  </si>
+  <si>
+    <t>635146002888392784</t>
   </si>
 </sst>
 </file>
@@ -5736,10 +6063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1081"/>
+  <dimension ref="A1:L1189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1078" workbookViewId="0">
-      <selection activeCell="B1083" sqref="B1083"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46826,6 +47153,4110 @@
         <v>2.3317000000000001</v>
       </c>
       <c r="L1081">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1082" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1082" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1082" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1082" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1082">
+        <v>0</v>
+      </c>
+      <c r="G1082">
+        <v>0</v>
+      </c>
+      <c r="H1082">
+        <v>24158.381799999999</v>
+      </c>
+      <c r="I1082">
+        <v>0.1249</v>
+      </c>
+      <c r="J1082">
+        <v>0.57310000000000005</v>
+      </c>
+      <c r="K1082">
+        <v>1.6328</v>
+      </c>
+      <c r="L1082">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1083" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1083" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1083" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1083">
+        <v>0</v>
+      </c>
+      <c r="G1083">
+        <v>1</v>
+      </c>
+      <c r="H1083">
+        <v>63514598886778.102</v>
+      </c>
+      <c r="I1083">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J1083">
+        <v>2.0874999999999999</v>
+      </c>
+      <c r="K1083">
+        <v>1.6653</v>
+      </c>
+      <c r="L1083">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1084" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1084" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1084" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1084">
+        <v>0</v>
+      </c>
+      <c r="G1084">
+        <v>2</v>
+      </c>
+      <c r="H1084">
+        <v>7755.4435999999996</v>
+      </c>
+      <c r="I1084">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="J1084">
+        <v>3.7376</v>
+      </c>
+      <c r="K1084">
+        <v>1.7493000000000001</v>
+      </c>
+      <c r="L1084">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1085" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1085" s="1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1085" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1085">
+        <v>1</v>
+      </c>
+      <c r="G1085">
+        <v>0</v>
+      </c>
+      <c r="H1085">
+        <v>12879.736699999999</v>
+      </c>
+      <c r="I1085">
+        <v>0.126</v>
+      </c>
+      <c r="J1085">
+        <v>2.0735999999999999</v>
+      </c>
+      <c r="K1085">
+        <v>1.8643000000000001</v>
+      </c>
+      <c r="L1085">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1086" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1086" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1086" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1086">
+        <v>1</v>
+      </c>
+      <c r="G1086">
+        <v>1</v>
+      </c>
+      <c r="H1086">
+        <v>17508.001400000001</v>
+      </c>
+      <c r="I1086">
+        <v>6.3399999999999998E-2</v>
+      </c>
+      <c r="J1086">
+        <v>2.4780000000000002</v>
+      </c>
+      <c r="K1086">
+        <v>1.6941999999999999</v>
+      </c>
+      <c r="L1086">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1087" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1087" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1087" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1087" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1087">
+        <v>1</v>
+      </c>
+      <c r="G1087">
+        <v>2</v>
+      </c>
+      <c r="H1087">
+        <v>6007.3436000000002</v>
+      </c>
+      <c r="I1087">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="J1087">
+        <v>0.22140000000000001</v>
+      </c>
+      <c r="K1087">
+        <v>1.8576999999999999</v>
+      </c>
+      <c r="L1087">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1088" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1088" s="1" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1088" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1088">
+        <v>2</v>
+      </c>
+      <c r="G1088">
+        <v>0</v>
+      </c>
+      <c r="H1088">
+        <v>9844.5630999999994</v>
+      </c>
+      <c r="I1088">
+        <v>7.6799999999999993E-2</v>
+      </c>
+      <c r="J1088">
+        <v>1.1753</v>
+      </c>
+      <c r="K1088">
+        <v>1.7928999999999999</v>
+      </c>
+      <c r="L1088">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1089" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1089" s="1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1089" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1089" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1089">
+        <v>2</v>
+      </c>
+      <c r="G1089">
+        <v>1</v>
+      </c>
+      <c r="H1089">
+        <v>9343.5344999999998</v>
+      </c>
+      <c r="I1089">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="J1089">
+        <v>0.32340000000000002</v>
+      </c>
+      <c r="K1089">
+        <v>2.1387</v>
+      </c>
+      <c r="L1089">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1090" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1090" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1090" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1090" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1090">
+        <v>2</v>
+      </c>
+      <c r="G1090">
+        <v>2</v>
+      </c>
+      <c r="H1090">
+        <v>9531.5450999999994</v>
+      </c>
+      <c r="I1090">
+        <v>7.3400000000000007E-2</v>
+      </c>
+      <c r="J1090">
+        <v>1.2209000000000001</v>
+      </c>
+      <c r="K1090">
+        <v>1.6251</v>
+      </c>
+      <c r="L1090">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1091" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1091" s="1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1091" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1091">
+        <v>0</v>
+      </c>
+      <c r="G1091">
+        <v>0</v>
+      </c>
+      <c r="H1091">
+        <v>13062.7472</v>
+      </c>
+      <c r="I1091">
+        <v>0.13</v>
+      </c>
+      <c r="J1091">
+        <v>0.57020000000000004</v>
+      </c>
+      <c r="K1091">
+        <v>1.5951</v>
+      </c>
+      <c r="L1091">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1092" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1092" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1092" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1092" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1092">
+        <v>0</v>
+      </c>
+      <c r="G1092">
+        <v>1</v>
+      </c>
+      <c r="H1092">
+        <v>3387.1938</v>
+      </c>
+      <c r="I1092">
+        <v>7.6300000000000007E-2</v>
+      </c>
+      <c r="J1092">
+        <v>1.278</v>
+      </c>
+      <c r="K1092">
+        <v>1.4791000000000001</v>
+      </c>
+      <c r="L1092">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1093" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1093" s="1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1093" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1093">
+        <v>0</v>
+      </c>
+      <c r="G1093">
+        <v>2</v>
+      </c>
+      <c r="H1093">
+        <v>8455.4837000000007</v>
+      </c>
+      <c r="I1093">
+        <v>0.1229</v>
+      </c>
+      <c r="J1093">
+        <v>1.8988</v>
+      </c>
+      <c r="K1093">
+        <v>1.8622000000000001</v>
+      </c>
+      <c r="L1093">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1094" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1094" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1094" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1094" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1094">
+        <v>1</v>
+      </c>
+      <c r="G1094">
+        <v>0</v>
+      </c>
+      <c r="H1094">
+        <v>9359.5352999999996</v>
+      </c>
+      <c r="I1094">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="J1094">
+        <v>0.36449999999999999</v>
+      </c>
+      <c r="K1094">
+        <v>1.5949</v>
+      </c>
+      <c r="L1094">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1095" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1095" s="1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1095" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1095">
+        <v>1</v>
+      </c>
+      <c r="G1095">
+        <v>1</v>
+      </c>
+      <c r="H1095">
+        <v>8231.4707999999991</v>
+      </c>
+      <c r="I1095">
+        <v>2.5899999999999999E-2</v>
+      </c>
+      <c r="J1095">
+        <v>1.4032</v>
+      </c>
+      <c r="K1095">
+        <v>1.4892000000000001</v>
+      </c>
+      <c r="L1095">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1096" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1096" s="1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1096" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1096">
+        <v>1</v>
+      </c>
+      <c r="G1096">
+        <v>2</v>
+      </c>
+      <c r="H1096">
+        <v>6260.3581000000004</v>
+      </c>
+      <c r="I1096">
+        <v>5.6800000000000003E-2</v>
+      </c>
+      <c r="J1096">
+        <v>1.2042999999999999</v>
+      </c>
+      <c r="K1096">
+        <v>1.5818000000000001</v>
+      </c>
+      <c r="L1096">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1097" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1097" s="1" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1097" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1097">
+        <v>2</v>
+      </c>
+      <c r="G1097">
+        <v>0</v>
+      </c>
+      <c r="H1097">
+        <v>6539.3739999999998</v>
+      </c>
+      <c r="I1097">
+        <v>0</v>
+      </c>
+      <c r="J1097">
+        <v>2.1676000000000002</v>
+      </c>
+      <c r="K1097">
+        <v>1.5601</v>
+      </c>
+      <c r="L1097">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1098" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1098" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1098" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1098" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1098">
+        <v>2</v>
+      </c>
+      <c r="G1098">
+        <v>1</v>
+      </c>
+      <c r="H1098">
+        <v>9338.5342000000001</v>
+      </c>
+      <c r="I1098">
+        <v>0.1118</v>
+      </c>
+      <c r="J1098">
+        <v>1.9366000000000001</v>
+      </c>
+      <c r="K1098">
+        <v>1.6928000000000001</v>
+      </c>
+      <c r="L1098">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1099" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1099" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1099" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1099">
+        <v>2</v>
+      </c>
+      <c r="G1099">
+        <v>2</v>
+      </c>
+      <c r="H1099">
+        <v>4552.2602999999999</v>
+      </c>
+      <c r="I1099">
+        <v>0.10920000000000001</v>
+      </c>
+      <c r="J1099">
+        <v>2.2509999999999999</v>
+      </c>
+      <c r="K1099">
+        <v>1.8429</v>
+      </c>
+      <c r="L1099">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1100" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1100" s="1" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1100" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1100">
+        <v>0</v>
+      </c>
+      <c r="G1100">
+        <v>0</v>
+      </c>
+      <c r="H1100">
+        <v>10683.611000000001</v>
+      </c>
+      <c r="I1100">
+        <v>5.74E-2</v>
+      </c>
+      <c r="J1100">
+        <v>0.2079</v>
+      </c>
+      <c r="K1100">
+        <v>2.7902999999999998</v>
+      </c>
+      <c r="L1100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1101" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1101" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1101" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1101">
+        <v>0</v>
+      </c>
+      <c r="G1101">
+        <v>1</v>
+      </c>
+      <c r="H1101">
+        <v>7463.4268000000002</v>
+      </c>
+      <c r="I1101">
+        <v>7.3300000000000004E-2</v>
+      </c>
+      <c r="J1101">
+        <v>3.5552999999999999</v>
+      </c>
+      <c r="K1101">
+        <v>3.1644999999999999</v>
+      </c>
+      <c r="L1101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1102" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1102" s="1" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1102" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1102">
+        <v>0</v>
+      </c>
+      <c r="G1102">
+        <v>2</v>
+      </c>
+      <c r="H1102">
+        <v>9855.5637000000006</v>
+      </c>
+      <c r="I1102">
+        <v>0.18540000000000001</v>
+      </c>
+      <c r="J1102">
+        <v>3.9125000000000001</v>
+      </c>
+      <c r="K1102">
+        <v>2.7431000000000001</v>
+      </c>
+      <c r="L1102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1103" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1103" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1103" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1103">
+        <v>1</v>
+      </c>
+      <c r="G1103">
+        <v>0</v>
+      </c>
+      <c r="H1103">
+        <v>11828.676600000001</v>
+      </c>
+      <c r="I1103">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="J1103">
+        <v>2.5750000000000002</v>
+      </c>
+      <c r="K1103">
+        <v>2.0222000000000002</v>
+      </c>
+      <c r="L1103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1104" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1104" s="1" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1104" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1104">
+        <v>1</v>
+      </c>
+      <c r="G1104">
+        <v>1</v>
+      </c>
+      <c r="H1104">
+        <v>12375.707899999999</v>
+      </c>
+      <c r="I1104">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="J1104">
+        <v>4.3327999999999998</v>
+      </c>
+      <c r="K1104">
+        <v>2.1034999999999999</v>
+      </c>
+      <c r="L1104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1105" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1105" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1105" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1105" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1105">
+        <v>1</v>
+      </c>
+      <c r="G1105">
+        <v>2</v>
+      </c>
+      <c r="H1105">
+        <v>5847.3344999999999</v>
+      </c>
+      <c r="I1105">
+        <v>0.1028</v>
+      </c>
+      <c r="J1105">
+        <v>2.0539999999999998</v>
+      </c>
+      <c r="K1105">
+        <v>2.3003</v>
+      </c>
+      <c r="L1105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1106" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1106" s="1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1106" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1106" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1106">
+        <v>2</v>
+      </c>
+      <c r="G1106">
+        <v>0</v>
+      </c>
+      <c r="H1106">
+        <v>7320.4187000000002</v>
+      </c>
+      <c r="I1106">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="J1106">
+        <v>2.2557999999999998</v>
+      </c>
+      <c r="K1106">
+        <v>2.2652000000000001</v>
+      </c>
+      <c r="L1106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1107" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1107" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1107" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1107">
+        <v>2</v>
+      </c>
+      <c r="G1107">
+        <v>1</v>
+      </c>
+      <c r="H1107">
+        <v>7921.4530999999997</v>
+      </c>
+      <c r="I1107">
+        <v>0.11070000000000001</v>
+      </c>
+      <c r="J1107">
+        <v>2.7749999999999999</v>
+      </c>
+      <c r="K1107">
+        <v>2.1004</v>
+      </c>
+      <c r="L1107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1108" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1108" s="1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1108" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1108">
+        <v>2</v>
+      </c>
+      <c r="G1108">
+        <v>2</v>
+      </c>
+      <c r="H1108">
+        <v>5176.2960000000003</v>
+      </c>
+      <c r="I1108">
+        <v>0.21179999999999999</v>
+      </c>
+      <c r="J1108">
+        <v>3.6798999999999999</v>
+      </c>
+      <c r="K1108">
+        <v>2.3081</v>
+      </c>
+      <c r="L1108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1109" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1109" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1109" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1109">
+        <v>0</v>
+      </c>
+      <c r="G1109">
+        <v>0</v>
+      </c>
+      <c r="H1109">
+        <v>54251.103000000003</v>
+      </c>
+      <c r="I1109">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="J1109">
+        <v>1.4879</v>
+      </c>
+      <c r="K1109">
+        <v>0</v>
+      </c>
+      <c r="L1109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1110" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1110" s="1" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1110" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1110">
+        <v>0</v>
+      </c>
+      <c r="G1110">
+        <v>1</v>
+      </c>
+      <c r="H1110">
+        <v>23843.363799999999</v>
+      </c>
+      <c r="I1110">
+        <v>7.3300000000000004E-2</v>
+      </c>
+      <c r="J1110">
+        <v>1.9581</v>
+      </c>
+      <c r="K1110">
+        <v>0</v>
+      </c>
+      <c r="L1110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1111" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1111" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1111" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1111" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1111">
+        <v>0</v>
+      </c>
+      <c r="G1111">
+        <v>2</v>
+      </c>
+      <c r="H1111">
+        <v>19039.088899999999</v>
+      </c>
+      <c r="I1111">
+        <v>9.2700000000000005E-2</v>
+      </c>
+      <c r="J1111">
+        <v>0</v>
+      </c>
+      <c r="K1111">
+        <v>0</v>
+      </c>
+      <c r="L1111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1112" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1112" s="1" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1112" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1112" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1112">
+        <v>1</v>
+      </c>
+      <c r="G1112">
+        <v>0</v>
+      </c>
+      <c r="H1112">
+        <v>15503.886699999999</v>
+      </c>
+      <c r="I1112">
+        <v>0.43380000000000002</v>
+      </c>
+      <c r="J1112">
+        <v>1.1935</v>
+      </c>
+      <c r="K1112">
+        <v>0</v>
+      </c>
+      <c r="L1112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1113" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1113" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1113" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1113" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1113">
+        <v>1</v>
+      </c>
+      <c r="G1113">
+        <v>1</v>
+      </c>
+      <c r="H1113">
+        <v>15135.8658</v>
+      </c>
+      <c r="I1113">
+        <v>0.2712</v>
+      </c>
+      <c r="J1113">
+        <v>0.63660000000000005</v>
+      </c>
+      <c r="K1113">
+        <v>0</v>
+      </c>
+      <c r="L1113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1114" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1114" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1114" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1114">
+        <v>1</v>
+      </c>
+      <c r="G1114">
+        <v>2</v>
+      </c>
+      <c r="H1114">
+        <v>9419.5386999999992</v>
+      </c>
+      <c r="I1114">
+        <v>0.42309999999999998</v>
+      </c>
+      <c r="J1114">
+        <v>0.68210000000000004</v>
+      </c>
+      <c r="K1114">
+        <v>0</v>
+      </c>
+      <c r="L1114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1115" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1115" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1115" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1115">
+        <v>2</v>
+      </c>
+      <c r="G1115">
+        <v>0</v>
+      </c>
+      <c r="H1115">
+        <v>11391.6515</v>
+      </c>
+      <c r="I1115">
+        <v>9.6199999999999994E-2</v>
+      </c>
+      <c r="J1115">
+        <v>1.3322000000000001</v>
+      </c>
+      <c r="K1115">
+        <v>0</v>
+      </c>
+      <c r="L1115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1116" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1116" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1116" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1116" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1116">
+        <v>2</v>
+      </c>
+      <c r="G1116">
+        <v>1</v>
+      </c>
+      <c r="H1116">
+        <v>8191.4686000000002</v>
+      </c>
+      <c r="I1116">
+        <v>0.1648</v>
+      </c>
+      <c r="J1116">
+        <v>4.3986999999999998</v>
+      </c>
+      <c r="K1116">
+        <v>0</v>
+      </c>
+      <c r="L1116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1117" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1117" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1117" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1117" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1117">
+        <v>2</v>
+      </c>
+      <c r="G1117">
+        <v>2</v>
+      </c>
+      <c r="H1117">
+        <v>3052.1745999999998</v>
+      </c>
+      <c r="I1117">
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="J1117">
+        <v>3.0448</v>
+      </c>
+      <c r="K1117">
+        <v>0</v>
+      </c>
+      <c r="L1117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1118" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1118" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1118" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1118">
+        <v>0</v>
+      </c>
+      <c r="G1118">
+        <v>0</v>
+      </c>
+      <c r="H1118">
+        <v>63355.623800000001</v>
+      </c>
+      <c r="I1118">
+        <v>7.3599999999999999E-2</v>
+      </c>
+      <c r="J1118">
+        <v>2.92E-2</v>
+      </c>
+      <c r="K1118">
+        <v>0</v>
+      </c>
+      <c r="L1118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1119" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1119" s="1" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1119" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1119">
+        <v>0</v>
+      </c>
+      <c r="G1119">
+        <v>1</v>
+      </c>
+      <c r="H1119">
+        <v>8571.4902999999995</v>
+      </c>
+      <c r="I1119">
+        <v>0.14630000000000001</v>
+      </c>
+      <c r="J1119">
+        <v>0.44390000000000002</v>
+      </c>
+      <c r="K1119">
+        <v>0</v>
+      </c>
+      <c r="L1119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1120" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1120" s="1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1120" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1120" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1120">
+        <v>0</v>
+      </c>
+      <c r="G1120">
+        <v>2</v>
+      </c>
+      <c r="H1120">
+        <v>6165.3526000000002</v>
+      </c>
+      <c r="I1120">
+        <v>0.18149999999999999</v>
+      </c>
+      <c r="J1120">
+        <v>0.58460000000000001</v>
+      </c>
+      <c r="K1120">
+        <v>0</v>
+      </c>
+      <c r="L1120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1121" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1121" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1121" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1121">
+        <v>1</v>
+      </c>
+      <c r="G1121">
+        <v>0</v>
+      </c>
+      <c r="H1121">
+        <v>4719.2699000000002</v>
+      </c>
+      <c r="I1121">
+        <v>0.11070000000000001</v>
+      </c>
+      <c r="J1121">
+        <v>1.2777000000000001</v>
+      </c>
+      <c r="K1121">
+        <v>0</v>
+      </c>
+      <c r="L1121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1122" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1122" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1122" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1122" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1122">
+        <v>1</v>
+      </c>
+      <c r="G1122">
+        <v>1</v>
+      </c>
+      <c r="H1122">
+        <v>3552.2031999999999</v>
+      </c>
+      <c r="I1122">
+        <v>0.1148</v>
+      </c>
+      <c r="J1122">
+        <v>1.4715</v>
+      </c>
+      <c r="K1122">
+        <v>0</v>
+      </c>
+      <c r="L1122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1123" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1123" s="1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1123" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1123" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1123">
+        <v>1</v>
+      </c>
+      <c r="G1123">
+        <v>2</v>
+      </c>
+      <c r="H1123">
+        <v>6183.3536000000004</v>
+      </c>
+      <c r="I1123">
+        <v>0.1283</v>
+      </c>
+      <c r="J1123">
+        <v>1.0416000000000001</v>
+      </c>
+      <c r="K1123">
+        <v>0</v>
+      </c>
+      <c r="L1123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1124" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1124" s="1" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1124" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1124" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1124">
+        <v>2</v>
+      </c>
+      <c r="G1124">
+        <v>0</v>
+      </c>
+      <c r="H1124">
+        <v>6859.3923000000004</v>
+      </c>
+      <c r="I1124">
+        <v>7.46E-2</v>
+      </c>
+      <c r="J1124">
+        <v>0.65649999999999997</v>
+      </c>
+      <c r="K1124">
+        <v>0</v>
+      </c>
+      <c r="L1124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1125" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1125" s="1" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1125" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1125" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1125">
+        <v>2</v>
+      </c>
+      <c r="G1125">
+        <v>1</v>
+      </c>
+      <c r="H1125">
+        <v>7315.4183999999996</v>
+      </c>
+      <c r="I1125">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="J1125">
+        <v>0.58919999999999995</v>
+      </c>
+      <c r="K1125">
+        <v>0</v>
+      </c>
+      <c r="L1125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1126" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1126" s="1" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1126" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1126" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1126">
+        <v>2</v>
+      </c>
+      <c r="G1126">
+        <v>2</v>
+      </c>
+      <c r="H1126">
+        <v>7647.4373999999998</v>
+      </c>
+      <c r="I1126">
+        <v>7.6200000000000004E-2</v>
+      </c>
+      <c r="J1126">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="K1126">
+        <v>0</v>
+      </c>
+      <c r="L1126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1127" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1127" s="1" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1127" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1127" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1127">
+        <v>0</v>
+      </c>
+      <c r="G1127">
+        <v>0</v>
+      </c>
+      <c r="H1127">
+        <v>40450.313600000001</v>
+      </c>
+      <c r="I1127">
+        <v>0.2334</v>
+      </c>
+      <c r="J1127">
+        <v>1.7594000000000001</v>
+      </c>
+      <c r="K1127">
+        <v>0</v>
+      </c>
+      <c r="L1127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1128" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1128" s="1" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1128" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1128" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1128">
+        <v>0</v>
+      </c>
+      <c r="G1128">
+        <v>1</v>
+      </c>
+      <c r="H1128">
+        <v>16775.959599999998</v>
+      </c>
+      <c r="I1128">
+        <v>9.0200000000000002E-2</v>
+      </c>
+      <c r="J1128">
+        <v>0.89480000000000004</v>
+      </c>
+      <c r="K1128">
+        <v>0</v>
+      </c>
+      <c r="L1128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1129" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1129" s="1" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1129" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1129" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1129">
+        <v>0</v>
+      </c>
+      <c r="G1129">
+        <v>2</v>
+      </c>
+      <c r="H1129">
+        <v>13071.747600000001</v>
+      </c>
+      <c r="I1129">
+        <v>0.1696</v>
+      </c>
+      <c r="J1129">
+        <v>1.4528000000000001</v>
+      </c>
+      <c r="K1129">
+        <v>0</v>
+      </c>
+      <c r="L1129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1130" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1130" s="1" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1130" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1130" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1130">
+        <v>1</v>
+      </c>
+      <c r="G1130">
+        <v>0</v>
+      </c>
+      <c r="H1130">
+        <v>2572.1471000000001</v>
+      </c>
+      <c r="I1130">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="J1130">
+        <v>2.3243999999999998</v>
+      </c>
+      <c r="K1130">
+        <v>0</v>
+      </c>
+      <c r="L1130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1131" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1131" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1131" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1131" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1131">
+        <v>1</v>
+      </c>
+      <c r="G1131">
+        <v>1</v>
+      </c>
+      <c r="H1131">
+        <v>2588.1480000000001</v>
+      </c>
+      <c r="I1131">
+        <v>0.20250000000000001</v>
+      </c>
+      <c r="J1131">
+        <v>0.72829999999999995</v>
+      </c>
+      <c r="K1131">
+        <v>0</v>
+      </c>
+      <c r="L1131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1132" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1132" s="1" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1132" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1132" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1132">
+        <v>1</v>
+      </c>
+      <c r="G1132">
+        <v>2</v>
+      </c>
+      <c r="H1132">
+        <v>8459.4838</v>
+      </c>
+      <c r="I1132">
+        <v>0.24560000000000001</v>
+      </c>
+      <c r="J1132">
+        <v>3.4681999999999999</v>
+      </c>
+      <c r="K1132">
+        <v>0</v>
+      </c>
+      <c r="L1132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1133" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1133" s="1" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1133" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1133" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1133">
+        <v>2</v>
+      </c>
+      <c r="G1133">
+        <v>0</v>
+      </c>
+      <c r="H1133">
+        <v>3776.2159999999999</v>
+      </c>
+      <c r="I1133">
+        <v>0.16950000000000001</v>
+      </c>
+      <c r="J1133">
+        <v>4.0856000000000003</v>
+      </c>
+      <c r="K1133">
+        <v>0</v>
+      </c>
+      <c r="L1133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1134" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1134" s="1" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1134" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1134" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1134">
+        <v>2</v>
+      </c>
+      <c r="G1134">
+        <v>1</v>
+      </c>
+      <c r="H1134">
+        <v>10555.6037</v>
+      </c>
+      <c r="I1134">
+        <v>4.7300000000000002E-2</v>
+      </c>
+      <c r="J1134">
+        <v>0.74409999999999998</v>
+      </c>
+      <c r="K1134">
+        <v>0</v>
+      </c>
+      <c r="L1134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1135" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1135" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1135" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1135" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1135">
+        <v>2</v>
+      </c>
+      <c r="G1135">
+        <v>2</v>
+      </c>
+      <c r="H1135">
+        <v>2696.1541999999999</v>
+      </c>
+      <c r="I1135">
+        <v>0.1376</v>
+      </c>
+      <c r="J1135">
+        <v>1.7508999999999999</v>
+      </c>
+      <c r="K1135">
+        <v>0</v>
+      </c>
+      <c r="L1135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1136" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1136" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1136" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1136" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1136">
+        <v>0</v>
+      </c>
+      <c r="G1136">
+        <v>0</v>
+      </c>
+      <c r="H1136">
+        <v>39370.251799999998</v>
+      </c>
+      <c r="I1136">
+        <v>0.1116</v>
+      </c>
+      <c r="J1136">
+        <v>0.69850000000000001</v>
+      </c>
+      <c r="K1136">
+        <v>0</v>
+      </c>
+      <c r="L1136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1137" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1137" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1137" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1137" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1137">
+        <v>0</v>
+      </c>
+      <c r="G1137">
+        <v>1</v>
+      </c>
+      <c r="H1137">
+        <v>8160.4666999999999</v>
+      </c>
+      <c r="I1137">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="J1137">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="K1137">
+        <v>0</v>
+      </c>
+      <c r="L1137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1138" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1138" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1138" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1138" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1138">
+        <v>0</v>
+      </c>
+      <c r="G1138">
+        <v>2</v>
+      </c>
+      <c r="H1138">
+        <v>8383.4794999999995</v>
+      </c>
+      <c r="I1138">
+        <v>5.16E-2</v>
+      </c>
+      <c r="J1138">
+        <v>0.1237</v>
+      </c>
+      <c r="K1138">
+        <v>0</v>
+      </c>
+      <c r="L1138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1139" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1139" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1139" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1139" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1139">
+        <v>1</v>
+      </c>
+      <c r="G1139">
+        <v>0</v>
+      </c>
+      <c r="H1139">
+        <v>7280.4164000000001</v>
+      </c>
+      <c r="I1139">
+        <v>7.46E-2</v>
+      </c>
+      <c r="J1139">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="K1139">
+        <v>0</v>
+      </c>
+      <c r="L1139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1140" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1140" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1140" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1140" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1140">
+        <v>1</v>
+      </c>
+      <c r="G1140">
+        <v>1</v>
+      </c>
+      <c r="H1140">
+        <v>7649.4375</v>
+      </c>
+      <c r="I1140">
+        <v>2.7713000000000001</v>
+      </c>
+      <c r="J1140">
+        <v>0.72840000000000005</v>
+      </c>
+      <c r="K1140">
+        <v>0</v>
+      </c>
+      <c r="L1140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1141" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1141" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1141" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1141" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1141">
+        <v>1</v>
+      </c>
+      <c r="G1141">
+        <v>2</v>
+      </c>
+      <c r="H1141">
+        <v>6960.3981000000003</v>
+      </c>
+      <c r="I1141">
+        <v>0.1651</v>
+      </c>
+      <c r="J1141">
+        <v>9.2100000000000001E-2</v>
+      </c>
+      <c r="K1141">
+        <v>0</v>
+      </c>
+      <c r="L1141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1142" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1142" s="1" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1142" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1142" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1142">
+        <v>2</v>
+      </c>
+      <c r="G1142">
+        <v>0</v>
+      </c>
+      <c r="H1142">
+        <v>2749.1572000000001</v>
+      </c>
+      <c r="I1142">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="J1142">
+        <v>0.95089999999999997</v>
+      </c>
+      <c r="K1142">
+        <v>0</v>
+      </c>
+      <c r="L1142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1143" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1143" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1143" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1143" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1143">
+        <v>2</v>
+      </c>
+      <c r="G1143">
+        <v>1</v>
+      </c>
+      <c r="H1143">
+        <v>1868.1069</v>
+      </c>
+      <c r="I1143">
+        <v>0.15529999999999999</v>
+      </c>
+      <c r="J1143">
+        <v>2.4504999999999999</v>
+      </c>
+      <c r="K1143">
+        <v>0</v>
+      </c>
+      <c r="L1143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1144" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1144" s="1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1144" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1144" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1144">
+        <v>2</v>
+      </c>
+      <c r="G1144">
+        <v>2</v>
+      </c>
+      <c r="H1144">
+        <v>63514599635300.898</v>
+      </c>
+      <c r="I1144">
+        <v>0.1045</v>
+      </c>
+      <c r="J1144">
+        <v>1.0350999999999999</v>
+      </c>
+      <c r="K1144">
+        <v>0</v>
+      </c>
+      <c r="L1144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1145" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1145" s="1" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1145" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1145" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1145">
+        <v>0</v>
+      </c>
+      <c r="G1145">
+        <v>0</v>
+      </c>
+      <c r="H1145">
+        <v>63514599686604.797</v>
+      </c>
+      <c r="I1145">
+        <v>0.12039999999999999</v>
+      </c>
+      <c r="J1145">
+        <v>1.3849</v>
+      </c>
+      <c r="K1145">
+        <v>0</v>
+      </c>
+      <c r="L1145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1146" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1146" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1146" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1146" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1146">
+        <v>0</v>
+      </c>
+      <c r="G1146">
+        <v>1</v>
+      </c>
+      <c r="H1146">
+        <v>5168.2956000000004</v>
+      </c>
+      <c r="I1146">
+        <v>0.1048</v>
+      </c>
+      <c r="J1146">
+        <v>1.0407999999999999</v>
+      </c>
+      <c r="K1146">
+        <v>0</v>
+      </c>
+      <c r="L1146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1147" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1147" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1147" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1147" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1147">
+        <v>0</v>
+      </c>
+      <c r="G1147">
+        <v>2</v>
+      </c>
+      <c r="H1147">
+        <v>11667.6674</v>
+      </c>
+      <c r="I1147">
+        <v>0.52969999999999995</v>
+      </c>
+      <c r="J1147">
+        <v>0.38979999999999998</v>
+      </c>
+      <c r="K1147">
+        <v>0</v>
+      </c>
+      <c r="L1147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1148" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1148" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1148" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1148" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1148">
+        <v>1</v>
+      </c>
+      <c r="G1148">
+        <v>0</v>
+      </c>
+      <c r="H1148">
+        <v>3972.2271999999998</v>
+      </c>
+      <c r="I1148">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="J1148">
+        <v>0.1842</v>
+      </c>
+      <c r="K1148">
+        <v>0</v>
+      </c>
+      <c r="L1148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1149" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1149" s="1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1149" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1149" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1149">
+        <v>1</v>
+      </c>
+      <c r="G1149">
+        <v>1</v>
+      </c>
+      <c r="H1149">
+        <v>7899.4517999999998</v>
+      </c>
+      <c r="I1149">
+        <v>0.24790000000000001</v>
+      </c>
+      <c r="J1149">
+        <v>1.0769</v>
+      </c>
+      <c r="K1149">
+        <v>0</v>
+      </c>
+      <c r="L1149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1150" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1150" s="1" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1150" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1150" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1150">
+        <v>1</v>
+      </c>
+      <c r="G1150">
+        <v>2</v>
+      </c>
+      <c r="H1150">
+        <v>5220.2986000000001</v>
+      </c>
+      <c r="I1150">
+        <v>0.21640000000000001</v>
+      </c>
+      <c r="J1150">
+        <v>0.20250000000000001</v>
+      </c>
+      <c r="K1150">
+        <v>0</v>
+      </c>
+      <c r="L1150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1151" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1151" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1151" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1151" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1151">
+        <v>2</v>
+      </c>
+      <c r="G1151">
+        <v>0</v>
+      </c>
+      <c r="H1151">
+        <v>6947.3973999999998</v>
+      </c>
+      <c r="I1151">
+        <v>0.36459999999999998</v>
+      </c>
+      <c r="J1151">
+        <v>0.97540000000000004</v>
+      </c>
+      <c r="K1151">
+        <v>0</v>
+      </c>
+      <c r="L1151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1152" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1152" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1152" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1152" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1152">
+        <v>2</v>
+      </c>
+      <c r="G1152">
+        <v>1</v>
+      </c>
+      <c r="H1152">
+        <v>1688.0965000000001</v>
+      </c>
+      <c r="I1152">
+        <v>0.2656</v>
+      </c>
+      <c r="J1152">
+        <v>1.5812999999999999</v>
+      </c>
+      <c r="K1152">
+        <v>0</v>
+      </c>
+      <c r="L1152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1153" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1153" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1153" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1153" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1153">
+        <v>2</v>
+      </c>
+      <c r="G1153">
+        <v>2</v>
+      </c>
+      <c r="H1153">
+        <v>7476.4276</v>
+      </c>
+      <c r="I1153">
+        <v>0.4829</v>
+      </c>
+      <c r="J1153">
+        <v>0.57869999999999999</v>
+      </c>
+      <c r="K1153">
+        <v>0</v>
+      </c>
+      <c r="L1153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1154" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1154" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1154" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1154" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1154">
+        <v>0</v>
+      </c>
+      <c r="G1154">
+        <v>0</v>
+      </c>
+      <c r="H1154">
+        <v>39699.270700000001</v>
+      </c>
+      <c r="I1154">
+        <v>0.14480000000000001</v>
+      </c>
+      <c r="J1154">
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="K1154">
+        <v>0</v>
+      </c>
+      <c r="L1154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1155" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1155" s="1" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1155" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1155" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1155">
+        <v>0</v>
+      </c>
+      <c r="G1155">
+        <v>1</v>
+      </c>
+      <c r="H1155">
+        <v>2016.1152999999999</v>
+      </c>
+      <c r="I1155">
+        <v>0.16109999999999999</v>
+      </c>
+      <c r="J1155">
+        <v>1.6273</v>
+      </c>
+      <c r="K1155">
+        <v>0</v>
+      </c>
+      <c r="L1155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1156" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1156" s="1" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1156" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1156" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1156">
+        <v>0</v>
+      </c>
+      <c r="G1156">
+        <v>2</v>
+      </c>
+      <c r="H1156">
+        <v>1394.0797</v>
+      </c>
+      <c r="I1156">
+        <v>0.16259999999999999</v>
+      </c>
+      <c r="J1156">
+        <v>0.78480000000000005</v>
+      </c>
+      <c r="K1156">
+        <v>0</v>
+      </c>
+      <c r="L1156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1157" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1157" s="1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1157" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1157" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1157">
+        <v>1</v>
+      </c>
+      <c r="G1157">
+        <v>0</v>
+      </c>
+      <c r="H1157">
+        <v>2028.116</v>
+      </c>
+      <c r="I1157">
+        <v>0.1638</v>
+      </c>
+      <c r="J1157">
+        <v>0.94389999999999996</v>
+      </c>
+      <c r="K1157">
+        <v>0</v>
+      </c>
+      <c r="L1157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1158" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1158" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1158" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1158" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1158">
+        <v>1</v>
+      </c>
+      <c r="G1158">
+        <v>1</v>
+      </c>
+      <c r="H1158">
+        <v>5943.34</v>
+      </c>
+      <c r="I1158">
+        <v>0.19839999999999999</v>
+      </c>
+      <c r="J1158">
+        <v>0.3982</v>
+      </c>
+      <c r="K1158">
+        <v>0</v>
+      </c>
+      <c r="L1158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1159" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1159" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1159" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1159" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1159">
+        <v>1</v>
+      </c>
+      <c r="G1159">
+        <v>2</v>
+      </c>
+      <c r="H1159">
+        <v>5856.335</v>
+      </c>
+      <c r="I1159">
+        <v>0.17549999999999999</v>
+      </c>
+      <c r="J1159">
+        <v>0.15890000000000001</v>
+      </c>
+      <c r="K1159">
+        <v>0</v>
+      </c>
+      <c r="L1159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1160" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1160" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1160" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1160" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1160">
+        <v>2</v>
+      </c>
+      <c r="G1160">
+        <v>0</v>
+      </c>
+      <c r="H1160">
+        <v>5163.2952999999998</v>
+      </c>
+      <c r="I1160">
+        <v>0.1648</v>
+      </c>
+      <c r="J1160">
+        <v>1.6686000000000001</v>
+      </c>
+      <c r="K1160">
+        <v>0</v>
+      </c>
+      <c r="L1160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1161" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1161" s="1" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1161" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1161" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1161">
+        <v>2</v>
+      </c>
+      <c r="G1161">
+        <v>1</v>
+      </c>
+      <c r="H1161">
+        <v>6731.3851000000004</v>
+      </c>
+      <c r="I1161">
+        <v>0.1217</v>
+      </c>
+      <c r="J1161">
+        <v>1.4767999999999999</v>
+      </c>
+      <c r="K1161">
+        <v>0</v>
+      </c>
+      <c r="L1161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1162" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1162" s="1" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1162" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1162" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1162">
+        <v>2</v>
+      </c>
+      <c r="G1162">
+        <v>2</v>
+      </c>
+      <c r="H1162">
+        <v>1484.0849000000001</v>
+      </c>
+      <c r="I1162">
+        <v>8.9800000000000005E-2</v>
+      </c>
+      <c r="J1162">
+        <v>0.39269999999999999</v>
+      </c>
+      <c r="K1162">
+        <v>0</v>
+      </c>
+      <c r="L1162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1163" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1163" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1163" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1163" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1163">
+        <v>0</v>
+      </c>
+      <c r="G1163">
+        <v>0</v>
+      </c>
+      <c r="H1163">
+        <v>49058.805999999997</v>
+      </c>
+      <c r="I1163">
+        <v>6.54E-2</v>
+      </c>
+      <c r="J1163">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="K1163">
+        <v>2.0533000000000001</v>
+      </c>
+      <c r="L1163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1164" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1164" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1164" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1164" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1164">
+        <v>0</v>
+      </c>
+      <c r="G1164">
+        <v>1</v>
+      </c>
+      <c r="H1164">
+        <v>21431.2258</v>
+      </c>
+      <c r="I1164">
+        <v>0.04</v>
+      </c>
+      <c r="J1164">
+        <v>0.13009999999999999</v>
+      </c>
+      <c r="K1164">
+        <v>2.387</v>
+      </c>
+      <c r="L1164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1165" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1165" s="1" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1165" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1165" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1165">
+        <v>0</v>
+      </c>
+      <c r="G1165">
+        <v>2</v>
+      </c>
+      <c r="H1165">
+        <v>9371.5360999999994</v>
+      </c>
+      <c r="I1165">
+        <v>9.3399999999999997E-2</v>
+      </c>
+      <c r="J1165">
+        <v>1.0324</v>
+      </c>
+      <c r="K1165">
+        <v>2.4087999999999998</v>
+      </c>
+      <c r="L1165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1166" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1166" s="1" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1166" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1166" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1166">
+        <v>1</v>
+      </c>
+      <c r="G1166">
+        <v>0</v>
+      </c>
+      <c r="H1166">
+        <v>15294.8748</v>
+      </c>
+      <c r="I1166">
+        <v>0.19589999999999999</v>
+      </c>
+      <c r="J1166">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="K1166">
+        <v>1.9801</v>
+      </c>
+      <c r="L1166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1167" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1167" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1167" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1167" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1167">
+        <v>1</v>
+      </c>
+      <c r="G1167">
+        <v>1</v>
+      </c>
+      <c r="H1167">
+        <v>17975.0281</v>
+      </c>
+      <c r="I1167">
+        <v>0.113</v>
+      </c>
+      <c r="J1167">
+        <v>4.2672999999999996</v>
+      </c>
+      <c r="K1167">
+        <v>2.1246</v>
+      </c>
+      <c r="L1167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1168" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1168" s="1" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1168" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1168" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1168">
+        <v>1</v>
+      </c>
+      <c r="G1168">
+        <v>2</v>
+      </c>
+      <c r="H1168">
+        <v>16651.952499999999</v>
+      </c>
+      <c r="I1168">
+        <v>0</v>
+      </c>
+      <c r="J1168">
+        <v>0.54830000000000001</v>
+      </c>
+      <c r="K1168">
+        <v>1.8923000000000001</v>
+      </c>
+      <c r="L1168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1169" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1169" s="1" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1169" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1169" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1169">
+        <v>2</v>
+      </c>
+      <c r="G1169">
+        <v>0</v>
+      </c>
+      <c r="H1169">
+        <v>19932.140100000001</v>
+      </c>
+      <c r="I1169">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="J1169">
+        <v>0.19489999999999999</v>
+      </c>
+      <c r="K1169">
+        <v>1.8755999999999999</v>
+      </c>
+      <c r="L1169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1170" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1170" s="1" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1170" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1170" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1170">
+        <v>2</v>
+      </c>
+      <c r="G1170">
+        <v>1</v>
+      </c>
+      <c r="H1170">
+        <v>15591.891799999999</v>
+      </c>
+      <c r="I1170">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="J1170">
+        <v>0.69820000000000004</v>
+      </c>
+      <c r="K1170">
+        <v>1.7923</v>
+      </c>
+      <c r="L1170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1171" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1171" s="1" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1171" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1171" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1171">
+        <v>2</v>
+      </c>
+      <c r="G1171">
+        <v>2</v>
+      </c>
+      <c r="H1171">
+        <v>13331.762500000001</v>
+      </c>
+      <c r="I1171">
+        <v>7.5499999999999998E-2</v>
+      </c>
+      <c r="J1171">
+        <v>1.5657000000000001</v>
+      </c>
+      <c r="K1171">
+        <v>2.2284000000000002</v>
+      </c>
+      <c r="L1171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1172" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1172" s="1" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1172" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1172" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1172">
+        <v>0</v>
+      </c>
+      <c r="G1172">
+        <v>0</v>
+      </c>
+      <c r="H1172">
+        <v>30850.764599999999</v>
+      </c>
+      <c r="I1172">
+        <v>0.31359999999999999</v>
+      </c>
+      <c r="J1172">
+        <v>1.0989</v>
+      </c>
+      <c r="K1172">
+        <v>1.8066</v>
+      </c>
+      <c r="L1172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1173" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1173" s="1" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1173" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1173" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1173">
+        <v>0</v>
+      </c>
+      <c r="G1173">
+        <v>1</v>
+      </c>
+      <c r="H1173">
+        <v>24427.397199999999</v>
+      </c>
+      <c r="I1173">
+        <v>9.35E-2</v>
+      </c>
+      <c r="J1173">
+        <v>2.5817000000000001</v>
+      </c>
+      <c r="K1173">
+        <v>1.4041999999999999</v>
+      </c>
+      <c r="L1173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1174" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1174" s="1" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1174" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1174" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1174">
+        <v>0</v>
+      </c>
+      <c r="G1174">
+        <v>2</v>
+      </c>
+      <c r="H1174">
+        <v>10935.6255</v>
+      </c>
+      <c r="I1174">
+        <v>0.55959999999999999</v>
+      </c>
+      <c r="J1174">
+        <v>2.1598000000000002</v>
+      </c>
+      <c r="K1174">
+        <v>1.9094</v>
+      </c>
+      <c r="L1174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1175" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1175" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1175" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1175" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1175">
+        <v>1</v>
+      </c>
+      <c r="G1175">
+        <v>0</v>
+      </c>
+      <c r="H1175">
+        <v>18437.054599999999</v>
+      </c>
+      <c r="I1175">
+        <v>0.32819999999999999</v>
+      </c>
+      <c r="J1175">
+        <v>1.4955000000000001</v>
+      </c>
+      <c r="K1175">
+        <v>1.8138000000000001</v>
+      </c>
+      <c r="L1175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1176" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1176" s="1" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1176" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1176" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1176">
+        <v>1</v>
+      </c>
+      <c r="G1176">
+        <v>1</v>
+      </c>
+      <c r="H1176">
+        <v>7179.4106000000002</v>
+      </c>
+      <c r="I1176">
+        <v>0.221</v>
+      </c>
+      <c r="J1176">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="K1176">
+        <v>1.5224</v>
+      </c>
+      <c r="L1176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1177" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1177" s="1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1177" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1177" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1177">
+        <v>1</v>
+      </c>
+      <c r="G1177">
+        <v>2</v>
+      </c>
+      <c r="H1177">
+        <v>5643.3227999999999</v>
+      </c>
+      <c r="I1177">
+        <v>0.33160000000000001</v>
+      </c>
+      <c r="J1177">
+        <v>1.4698</v>
+      </c>
+      <c r="K1177">
+        <v>1.5650999999999999</v>
+      </c>
+      <c r="L1177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1178" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1178" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1178" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1178" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1178">
+        <v>2</v>
+      </c>
+      <c r="G1178">
+        <v>0</v>
+      </c>
+      <c r="H1178">
+        <v>6563.3753999999999</v>
+      </c>
+      <c r="I1178">
+        <v>0.26529999999999998</v>
+      </c>
+      <c r="J1178">
+        <v>1.5189999999999999</v>
+      </c>
+      <c r="K1178">
+        <v>1.6500999999999999</v>
+      </c>
+      <c r="L1178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1179" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1179" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1179" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1179" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1179">
+        <v>2</v>
+      </c>
+      <c r="G1179">
+        <v>1</v>
+      </c>
+      <c r="H1179">
+        <v>5851.3347000000003</v>
+      </c>
+      <c r="I1179">
+        <v>0.26050000000000001</v>
+      </c>
+      <c r="J1179">
+        <v>2.6818</v>
+      </c>
+      <c r="K1179">
+        <v>1.7289000000000001</v>
+      </c>
+      <c r="L1179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1180" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1180" s="1" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1180" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1180" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1180">
+        <v>2</v>
+      </c>
+      <c r="G1180">
+        <v>2</v>
+      </c>
+      <c r="H1180">
+        <v>14287.817300000001</v>
+      </c>
+      <c r="I1180">
+        <v>0.1953</v>
+      </c>
+      <c r="J1180">
+        <v>1.1308</v>
+      </c>
+      <c r="K1180">
+        <v>1.4472</v>
+      </c>
+      <c r="L1180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1181" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1181" s="1" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1181" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1181" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1181">
+        <v>0</v>
+      </c>
+      <c r="G1181">
+        <v>0</v>
+      </c>
+      <c r="H1181">
+        <v>17976.028200000001</v>
+      </c>
+      <c r="I1181">
+        <v>0.18840000000000001</v>
+      </c>
+      <c r="J1181">
+        <v>2.1355</v>
+      </c>
+      <c r="K1181">
+        <v>2.0266999999999999</v>
+      </c>
+      <c r="L1181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1182" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1182" s="1" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1182" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1182" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1182">
+        <v>0</v>
+      </c>
+      <c r="G1182">
+        <v>1</v>
+      </c>
+      <c r="H1182">
+        <v>8011.4583000000002</v>
+      </c>
+      <c r="I1182">
+        <v>0.6774</v>
+      </c>
+      <c r="J1182">
+        <v>1.3396999999999999</v>
+      </c>
+      <c r="K1182">
+        <v>2.3287</v>
+      </c>
+      <c r="L1182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1183" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1183" s="1" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1183" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1183" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1183">
+        <v>0</v>
+      </c>
+      <c r="G1183">
+        <v>2</v>
+      </c>
+      <c r="H1183">
+        <v>24447.398399999998</v>
+      </c>
+      <c r="I1183">
+        <v>0.31690000000000002</v>
+      </c>
+      <c r="J1183">
+        <v>0.79569999999999996</v>
+      </c>
+      <c r="K1183">
+        <v>1.4804999999999999</v>
+      </c>
+      <c r="L1183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1184" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1184" s="1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1184" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1184" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1184">
+        <v>1</v>
+      </c>
+      <c r="G1184">
+        <v>0</v>
+      </c>
+      <c r="H1184">
+        <v>14356.8212</v>
+      </c>
+      <c r="I1184">
+        <v>9.2100000000000001E-2</v>
+      </c>
+      <c r="J1184">
+        <v>2.4127000000000001</v>
+      </c>
+      <c r="K1184">
+        <v>1.9744999999999999</v>
+      </c>
+      <c r="L1184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1185" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1185" s="1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1185" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1185" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1185">
+        <v>1</v>
+      </c>
+      <c r="G1185">
+        <v>1</v>
+      </c>
+      <c r="H1185">
+        <v>15446.8835</v>
+      </c>
+      <c r="I1185">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="J1185">
+        <v>4.3510999999999997</v>
+      </c>
+      <c r="K1185">
+        <v>1.7978000000000001</v>
+      </c>
+      <c r="L1185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1186" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1186" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1186" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1186" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1186">
+        <v>1</v>
+      </c>
+      <c r="G1186">
+        <v>2</v>
+      </c>
+      <c r="H1186">
+        <v>5620.3215</v>
+      </c>
+      <c r="I1186">
+        <v>4.7300000000000002E-2</v>
+      </c>
+      <c r="J1186">
+        <v>1.0818000000000001</v>
+      </c>
+      <c r="K1186">
+        <v>1.8125</v>
+      </c>
+      <c r="L1186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1187" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1187" s="1" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1187" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1187" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1187">
+        <v>2</v>
+      </c>
+      <c r="G1187">
+        <v>0</v>
+      </c>
+      <c r="H1187">
+        <v>13407.766900000001</v>
+      </c>
+      <c r="I1187">
+        <v>9.6600000000000005E-2</v>
+      </c>
+      <c r="J1187">
+        <v>0.1055</v>
+      </c>
+      <c r="K1187">
+        <v>1.6762999999999999</v>
+      </c>
+      <c r="L1187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1188" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1188" s="1" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1188" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1188" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1188">
+        <v>2</v>
+      </c>
+      <c r="G1188">
+        <v>1</v>
+      </c>
+      <c r="H1188">
+        <v>12635.7227</v>
+      </c>
+      <c r="I1188">
+        <v>9.1300000000000006E-2</v>
+      </c>
+      <c r="J1188">
+        <v>3.1884999999999999</v>
+      </c>
+      <c r="K1188">
+        <v>1.5885</v>
+      </c>
+      <c r="L1188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1189" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1189" s="1" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1189" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1189" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1189">
+        <v>2</v>
+      </c>
+      <c r="G1189">
+        <v>2</v>
+      </c>
+      <c r="H1189">
+        <v>7776.4448000000002</v>
+      </c>
+      <c r="I1189">
+        <v>0.1595</v>
+      </c>
+      <c r="J1189">
+        <v>1.7444</v>
+      </c>
+      <c r="K1189">
+        <v>1.8008999999999999</v>
+      </c>
+      <c r="L1189">
         <v>0</v>
       </c>
     </row>
